--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>bettyphotosessionone01.jpg</t>
   </si>
@@ -81,10 +81,49 @@
     <t>bettyphotosessiontwo12.png</t>
   </si>
   <si>
+    <t>"&gt;</t>
+  </si>
+  <si>
     <t>" /&gt;&lt;br /&gt;</t>
   </si>
   <si>
     <t>&lt;img class="model" src="http://jaemzware.org/media/betty/</t>
+  </si>
+  <si>
+    <t>01goingagainstyourmind.mp4</t>
+  </si>
+  <si>
+    <t>babysessionstruevalue.mp4</t>
+  </si>
+  <si>
+    <t>pridegeorge.mp4</t>
+  </si>
+  <si>
+    <t>pride.mp4</t>
+  </si>
+  <si>
+    <t>sk8cretewall.mp4</t>
+  </si>
+  <si>
+    <t>&lt;option value="http://jaemzware.org/media/randommp4/</t>
+  </si>
+  <si>
+    <t>&lt;/option&gt;</t>
+  </si>
+  <si>
+    <t>Built to Spill - Going against your mind</t>
+  </si>
+  <si>
+    <t>True Value Baby Sessions</t>
+  </si>
+  <si>
+    <t>George in the Pride Parade 2014</t>
+  </si>
+  <si>
+    <t>Pride Parade 2014</t>
+  </si>
+  <si>
+    <t>Sk8 or Die</t>
   </si>
 </sst>
 </file>
@@ -133,7 +172,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -151,11 +190,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -164,6 +214,11 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -172,6 +227,11 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D20"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -514,13 +574,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="str">
         <f>$A$1&amp;B1&amp;$C$1</f>
@@ -662,7 +722,7 @@
         <v>&lt;img class="model" src="http://jaemzware.org/media/betty/bettyphotosessiontwo08.png" /&gt;&lt;br /&gt;</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -671,7 +731,7 @@
         <v>&lt;img class="model" src="http://jaemzware.org/media/betty/bettyphotosessiontwo09.png" /&gt;&lt;br /&gt;</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -680,7 +740,7 @@
         <v>&lt;img class="model" src="http://jaemzware.org/media/betty/bettyphotosessiontwo10.png" /&gt;&lt;br /&gt;</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -689,7 +749,7 @@
         <v>&lt;img class="model" src="http://jaemzware.org/media/betty/bettyphotosessiontwo11.png" /&gt;&lt;br /&gt;</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -697,6 +757,80 @@
         <f t="shared" si="0"/>
         <v>&lt;img class="model" src="http://jaemzware.org/media/betty/bettyphotosessiontwo12.png" /&gt;&lt;br /&gt;</v>
       </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="str">
+        <f>$A$22&amp;B22&amp;$C$22&amp;D22&amp;$E$22</f>
+        <v>&lt;option value="http://jaemzware.org/media/randommp4/01goingagainstyourmind.mp4"&gt;Built to Spill - Going against your mind&lt;/option&gt;</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" ref="F23:F26" si="1">$A$22&amp;B23&amp;$C$22&amp;D23&amp;$E$22</f>
+        <v>&lt;option value="http://jaemzware.org/media/randommp4/babysessionstruevalue.mp4"&gt;True Value Baby Sessions&lt;/option&gt;</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="http://jaemzware.org/media/randommp4/pridegeorge.mp4"&gt;George in the Pride Parade 2014&lt;/option&gt;</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="http://jaemzware.org/media/randommp4/pride.mp4"&gt;Pride Parade 2014&lt;/option&gt;</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value="http://jaemzware.org/media/randommp4/sk8cretewall.mp4"&gt;Sk8 or Die&lt;/option&gt;</v>
+      </c>
+      <c r="I26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="42020" windowHeight="24520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="122">
   <si>
     <t>bettyphotosessionone01.jpg</t>
   </si>
@@ -124,6 +125,267 @@
   </si>
   <si>
     <t>Sk8 or Die</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-01.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-02.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-03.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-04.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-05.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-06.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-07.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-08.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-09.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-10.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-11.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-12.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-13.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-14.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-15.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-16.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-17.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-18.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-19.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-20.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-21.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-22.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-23.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-24.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-25.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0001-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0002-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0007-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0016-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0017-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0018-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0018-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0019-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0020-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0020-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0021-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0024-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0025-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0026-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live</t>
+  </si>
+  <si>
+    <t>&lt;option value="</t>
+  </si>
+  <si>
+    <t>crack sabbath</t>
+  </si>
+  <si>
+    <t>skerik trio</t>
+  </si>
+  <si>
+    <t>suffering fuckheads</t>
+  </si>
+  <si>
+    <t>May 9th, 2015</t>
+  </si>
+  <si>
+    <t>February 27th, 2013</t>
+  </si>
+  <si>
+    <t>February 12th, 2013</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -172,7 +434,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -200,12 +462,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="36">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -219,6 +492,12 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -232,6 +511,9 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -563,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -841,4 +1123,809 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H54">
+    <sortCondition ref="E2:E54"/>
+    <sortCondition ref="F2:F54"/>
+    <sortCondition ref="C2:C54"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -434,7 +434,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -471,6 +471,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -478,7 +480,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="38">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -498,6 +500,8 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1127,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I1" sqref="I1:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1141,9 +1145,10 @@
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1168,8 +1173,12 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="str">
+        <f>$A$1&amp;$B$1&amp;C1&amp;$D$1&amp;E1&amp;"-"&amp;F1&amp;"-"&amp;G1&amp;$H$1</f>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-01.mp3"&gt;crack sabbath-May 9th, 2015-01&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>36</v>
       </c>
@@ -1182,8 +1191,12 @@
       <c r="G2" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I54" si="0">$A$1&amp;$B$1&amp;C2&amp;$D$1&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;$H$1</f>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-02.mp3"&gt;crack sabbath-May 9th, 2015-02&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="C3" t="s">
         <v>37</v>
       </c>
@@ -1196,8 +1209,12 @@
       <c r="G3" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-03.mp3"&gt;crack sabbath-May 9th, 2015-03&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -1210,8 +1227,12 @@
       <c r="G4" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-04.mp3"&gt;crack sabbath-May 9th, 2015-04&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="C5" t="s">
         <v>39</v>
       </c>
@@ -1224,8 +1245,12 @@
       <c r="G5" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-05.mp3"&gt;crack sabbath-May 9th, 2015-05&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -1238,8 +1263,12 @@
       <c r="G6" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-06.mp3"&gt;crack sabbath-May 9th, 2015-06&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="C7" t="s">
         <v>41</v>
       </c>
@@ -1252,8 +1281,12 @@
       <c r="G7" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-07.mp3"&gt;crack sabbath-May 9th, 2015-07&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -1266,8 +1299,12 @@
       <c r="G8" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-08.mp3"&gt;crack sabbath-May 9th, 2015-08&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="C9" t="s">
         <v>43</v>
       </c>
@@ -1280,8 +1317,12 @@
       <c r="G9" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-09.mp3"&gt;crack sabbath-May 9th, 2015-09&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -1294,8 +1335,12 @@
       <c r="G10" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-10.mp3"&gt;crack sabbath-May 9th, 2015-10&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="C11" t="s">
         <v>45</v>
       </c>
@@ -1308,8 +1353,12 @@
       <c r="G11" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-11.mp3"&gt;crack sabbath-May 9th, 2015-11&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="C12" t="s">
         <v>46</v>
       </c>
@@ -1322,8 +1371,12 @@
       <c r="G12" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-12.mp3"&gt;crack sabbath-May 9th, 2015-12&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="C13" t="s">
         <v>47</v>
       </c>
@@ -1336,8 +1389,12 @@
       <c r="G13" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-13.mp3"&gt;crack sabbath-May 9th, 2015-13&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="C14" t="s">
         <v>48</v>
       </c>
@@ -1350,8 +1407,12 @@
       <c r="G14" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-14.mp3"&gt;crack sabbath-May 9th, 2015-14&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="C15" t="s">
         <v>49</v>
       </c>
@@ -1364,8 +1425,12 @@
       <c r="G15" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-15.mp3"&gt;crack sabbath-May 9th, 2015-15&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="C16" t="s">
         <v>50</v>
       </c>
@@ -1378,8 +1443,12 @@
       <c r="G16" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-16.mp3"&gt;crack sabbath-May 9th, 2015-16&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
       <c r="C17" t="s">
         <v>51</v>
       </c>
@@ -1392,8 +1461,12 @@
       <c r="G17" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-17.mp3"&gt;crack sabbath-May 9th, 2015-17&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
       <c r="C18" t="s">
         <v>52</v>
       </c>
@@ -1406,8 +1479,12 @@
       <c r="G18" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-18.mp3"&gt;crack sabbath-May 9th, 2015-18&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
       <c r="C19" t="s">
         <v>53</v>
       </c>
@@ -1420,8 +1497,12 @@
       <c r="G19" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-19.mp3"&gt;crack sabbath-May 9th, 2015-19&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
       <c r="C20" t="s">
         <v>54</v>
       </c>
@@ -1434,8 +1515,12 @@
       <c r="G20" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-20.mp3"&gt;crack sabbath-May 9th, 2015-20&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
       <c r="C21" t="s">
         <v>55</v>
       </c>
@@ -1448,8 +1533,12 @@
       <c r="G21" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="3:7">
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-21.mp3"&gt;crack sabbath-May 9th, 2015-21&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
       <c r="C22" t="s">
         <v>56</v>
       </c>
@@ -1462,8 +1551,12 @@
       <c r="G22" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="3:7">
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-22.mp3"&gt;crack sabbath-May 9th, 2015-22&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
       <c r="C23" t="s">
         <v>57</v>
       </c>
@@ -1476,8 +1569,12 @@
       <c r="G23" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="3:7">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-23.mp3"&gt;crack sabbath-May 9th, 2015-23&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -1490,8 +1587,12 @@
       <c r="G24" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="3:7">
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-24.mp3"&gt;crack sabbath-May 9th, 2015-24&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
       <c r="C25" t="s">
         <v>59</v>
       </c>
@@ -1504,8 +1605,12 @@
       <c r="G25" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="3:7">
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/livecracksabbath20140509-25.mp3"&gt;crack sabbath-May 9th, 2015-25&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
       <c r="C26" t="s">
         <v>60</v>
       </c>
@@ -1518,8 +1623,12 @@
       <c r="G26" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="3:7">
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0001-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-01&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
       <c r="C27" t="s">
         <v>61</v>
       </c>
@@ -1532,8 +1641,12 @@
       <c r="G27" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="3:7">
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0002-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-02&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
       <c r="C28" t="s">
         <v>62</v>
       </c>
@@ -1546,8 +1659,12 @@
       <c r="G28" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="3:7">
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0003-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-03&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
       <c r="C29" t="s">
         <v>63</v>
       </c>
@@ -1560,8 +1677,12 @@
       <c r="G29" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="3:7">
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0004-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-04&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
       <c r="C30" t="s">
         <v>65</v>
       </c>
@@ -1574,8 +1695,12 @@
       <c r="G30" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="3:7">
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0005-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-05&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
       <c r="C31" t="s">
         <v>67</v>
       </c>
@@ -1588,8 +1713,12 @@
       <c r="G31" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="3:7">
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0006-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-06&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
       <c r="C32" t="s">
         <v>69</v>
       </c>
@@ -1602,8 +1731,12 @@
       <c r="G32" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="3:7">
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0007-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-07&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
       <c r="C33" t="s">
         <v>70</v>
       </c>
@@ -1616,8 +1749,12 @@
       <c r="G33" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="3:7">
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0008-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-08&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
       <c r="C34" t="s">
         <v>71</v>
       </c>
@@ -1630,8 +1767,12 @@
       <c r="G34" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="3:7">
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0009-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-09&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
       <c r="C35" t="s">
         <v>72</v>
       </c>
@@ -1644,8 +1785,12 @@
       <c r="G35" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="3:7">
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0012-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-10&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
       <c r="C36" t="s">
         <v>74</v>
       </c>
@@ -1658,8 +1803,12 @@
       <c r="G36" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="3:7">
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0014-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-11&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
       <c r="C37" t="s">
         <v>76</v>
       </c>
@@ -1672,8 +1821,12 @@
       <c r="G37" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="3:7">
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0015-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-12&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
       <c r="C38" t="s">
         <v>78</v>
       </c>
@@ -1686,8 +1839,12 @@
       <c r="G38" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="3:7">
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0016-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-13&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
       <c r="C39" t="s">
         <v>79</v>
       </c>
@@ -1700,8 +1857,12 @@
       <c r="G39" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="3:7">
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0017-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-14&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
       <c r="C40" t="s">
         <v>80</v>
       </c>
@@ -1714,8 +1875,12 @@
       <c r="G40" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="3:7">
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0018-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-15&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
       <c r="C41" t="s">
         <v>82</v>
       </c>
@@ -1728,8 +1893,12 @@
       <c r="G41" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="3:7">
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0019-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-16&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
       <c r="C42" t="s">
         <v>83</v>
       </c>
@@ -1742,8 +1911,12 @@
       <c r="G42" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="43" spans="3:7">
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0020-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-17&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
       <c r="C43" t="s">
         <v>85</v>
       </c>
@@ -1756,8 +1929,12 @@
       <c r="G43" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="3:7">
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0021-SkerikTrio-OwlnThistle-20130227.mp3"&gt;skerik trio-February 27th, 2013-18&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
       <c r="C44" t="s">
         <v>64</v>
       </c>
@@ -1770,8 +1947,12 @@
       <c r="G44" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="3:7">
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0004-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-01&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
       <c r="C45" t="s">
         <v>66</v>
       </c>
@@ -1784,8 +1965,12 @@
       <c r="G45" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="46" spans="3:7">
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0005-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-02&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
       <c r="C46" t="s">
         <v>68</v>
       </c>
@@ -1798,8 +1983,12 @@
       <c r="G46" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="3:7">
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0006-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-03&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9">
       <c r="C47" t="s">
         <v>73</v>
       </c>
@@ -1812,8 +2001,12 @@
       <c r="G47" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="3:7">
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0012-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-04&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
       <c r="C48" t="s">
         <v>75</v>
       </c>
@@ -1826,8 +2019,12 @@
       <c r="G48" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="3:7">
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0014-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-05&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9">
       <c r="C49" t="s">
         <v>77</v>
       </c>
@@ -1840,8 +2037,12 @@
       <c r="G49" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50" spans="3:7">
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0015-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-06&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9">
       <c r="C50" t="s">
         <v>81</v>
       </c>
@@ -1854,8 +2055,12 @@
       <c r="G50" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="3:7">
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0018-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-07&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9">
       <c r="C51" t="s">
         <v>84</v>
       </c>
@@ -1868,8 +2073,12 @@
       <c r="G51" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="3:7">
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0020-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-08&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9">
       <c r="C52" t="s">
         <v>86</v>
       </c>
@@ -1882,8 +2091,12 @@
       <c r="G52" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" spans="3:7">
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0024-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-09&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9">
       <c r="C53" t="s">
         <v>87</v>
       </c>
@@ -1896,8 +2109,12 @@
       <c r="G53" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="3:7">
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0025-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-10&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9">
       <c r="C54" t="s">
         <v>88</v>
       </c>
@@ -1909,6 +2126,10 @@
       </c>
       <c r="G54" s="3" t="s">
         <v>107</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value="http://analogarchive.com/analogarchive/liveZOOM0026-sufferingfuckheads-coppergate-20130212.mp3"&gt;suffering fuckheads-February 12th, 2013-11&lt;/option&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -434,6 +434,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -474,7 +476,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31"/>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="68">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -524,6 +526,8 @@
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1155,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I40"/>
+    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1202,8 +1206,8 @@
         <v>106</v>
       </c>
       <c r="I2" t="str">
-        <f>$A$1&amp;$B$1&amp;C2&amp;$D$1&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beathappening-angelgone-7inch.mp3\"&gt;Beat Happening-Angel Gone bw Zombie Limbo Time-&lt;/option&gt;");</v>
+        <f t="shared" ref="I2:I40" si="0">$A$1&amp;$B$1&amp;C2&amp;$D$1&amp;E2&amp;"-"&amp;F2&amp;"-"&amp;G2&amp;$H$1</f>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beathappening-angelgone-7inch.mp3\"&gt;Beat Happening-Angel Gone bw Zombie Limbo Time-Side Only&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1220,8 +1224,8 @@
         <v>48</v>
       </c>
       <c r="I3" t="str">
-        <f>$A$1&amp;$B$1&amp;C3&amp;$D$1&amp;E3&amp;"-"&amp;F3&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beathappening-blackcandy-sidea.mp3\"&gt;Beat Happening-Black Candy-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beathappening-blackcandy-sidea.mp3\"&gt;Beat Happening-Black Candy-Side A&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1238,8 +1242,8 @@
         <v>49</v>
       </c>
       <c r="I4" t="str">
-        <f>$A$1&amp;$B$1&amp;C4&amp;$D$1&amp;E4&amp;"-"&amp;F4&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beathappening-blackcandy-sideb.mp3\"&gt;Beat Happening-Black Candy-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beathappening-blackcandy-sideb.mp3\"&gt;Beat Happening-Black Candy-Side B&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1256,8 +1260,8 @@
         <v>48</v>
       </c>
       <c r="I5" t="str">
-        <f>$A$1&amp;$B$1&amp;C5&amp;$D$1&amp;E5&amp;"-"&amp;F5&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beck-onefootinthegrave-sidea.mp3\"&gt;Beck-One Foot In The Grave-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beck-onefootinthegrave-sidea.mp3\"&gt;Beck-One Foot In The Grave-Side A&lt;/option&gt;");</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -1275,8 +1279,8 @@
         <v>49</v>
       </c>
       <c r="I6" t="str">
-        <f>$A$1&amp;$B$1&amp;C6&amp;$D$1&amp;E6&amp;"-"&amp;F6&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beck-onefootinthegrave-sideb.mp3\"&gt;Beck-One Foot In The Grave-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beck-onefootinthegrave-sideb.mp3\"&gt;Beck-One Foot In The Grave-Side B&lt;/option&gt;");</v>
       </c>
       <c r="J6" s="1"/>
       <c r="M6" s="1"/>
@@ -1295,8 +1299,8 @@
         <v>51</v>
       </c>
       <c r="I7" t="str">
-        <f>$A$1&amp;$B$1&amp;C7&amp;$D$1&amp;E7&amp;"-"&amp;F7&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beck-onefootinthegrave-sidec.mp3\"&gt;Beck-One Foot In The Grave-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beck-onefootinthegrave-sidec.mp3\"&gt;Beck-One Foot In The Grave-Side C&lt;/option&gt;");</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -1314,8 +1318,8 @@
         <v>50</v>
       </c>
       <c r="I8" t="str">
-        <f>$A$1&amp;$B$1&amp;C8&amp;$D$1&amp;E8&amp;"-"&amp;F8&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beck-onefootinthegrave-sided.mp3\"&gt;Beck-One Foot In The Grave-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/beck-onefootinthegrave-sided.mp3\"&gt;Beck-One Foot In The Grave-Side D&lt;/option&gt;");</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1333,8 +1337,8 @@
         <v>48</v>
       </c>
       <c r="I9" t="str">
-        <f>$A$1&amp;$B$1&amp;C9&amp;$D$1&amp;E9&amp;"-"&amp;F9&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/gits-frenchingthebully-sidea.mp3\"&gt;Gits-Frenching the Bully-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/gits-frenchingthebully-sidea.mp3\"&gt;Gits-Frenching the Bully-Side A&lt;/option&gt;");</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1352,8 +1356,8 @@
         <v>49</v>
       </c>
       <c r="I10" t="str">
-        <f>$A$1&amp;$B$1&amp;C10&amp;$D$1&amp;E10&amp;"-"&amp;F10&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/gits-frenchingthebully-sideb.mp3\"&gt;Gits-Frenching the Bully-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/gits-frenchingthebully-sideb.mp3\"&gt;Gits-Frenching the Bully-Side B&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1370,8 +1374,8 @@
         <v>48</v>
       </c>
       <c r="I11" t="str">
-        <f>$A$1&amp;$B$1&amp;C11&amp;$D$1&amp;E11&amp;"-"&amp;F11&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/greenriver-rehabdoll-sidea.mp3\"&gt;Greenriver-Rehab Doll-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/greenriver-rehabdoll-sidea.mp3\"&gt;Greenriver-Rehab Doll-Side A&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1388,8 +1392,8 @@
         <v>49</v>
       </c>
       <c r="I12" t="str">
-        <f>$A$1&amp;$B$1&amp;C12&amp;$D$1&amp;E12&amp;"-"&amp;F12&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/greenriver-rehabdoll-sideb.mp3\"&gt;Greenriver-Rehab Doll-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/greenriver-rehabdoll-sideb.mp3\"&gt;Greenriver-Rehab Doll-Side B&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1406,8 +1410,8 @@
         <v>48</v>
       </c>
       <c r="I13" t="str">
-        <f>$A$1&amp;$B$1&amp;C13&amp;$D$1&amp;E13&amp;"-"&amp;F13&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/halobenders-goddontmakenojunk-sidea.mp3\"&gt;Halo Benders-God Dont Make No Junk-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/halobenders-goddontmakenojunk-sidea.mp3\"&gt;Halo Benders-God Dont Make No Junk-Side A&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1424,8 +1428,8 @@
         <v>49</v>
       </c>
       <c r="I14" t="str">
-        <f>$A$1&amp;$B$1&amp;C14&amp;$D$1&amp;E14&amp;"-"&amp;F14&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/halobenders-goddontmakenojunk-sideb.mp3\"&gt;Halo Benders-God Dont Make No Junk-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/halobenders-goddontmakenojunk-sideb.mp3\"&gt;Halo Benders-God Dont Make No Junk-Side B&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1442,8 +1446,8 @@
         <v>48</v>
       </c>
       <c r="I15" t="str">
-        <f>$A$1&amp;$B$1&amp;C15&amp;$D$1&amp;E15&amp;"-"&amp;F15&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/icu-chottomatteamoment-sidea.mp3\"&gt;ICU-Chotto Matte A Moment-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/icu-chottomatteamoment-sidea.mp3\"&gt;ICU-Chotto Matte A Moment-Side A&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1460,8 +1464,8 @@
         <v>49</v>
       </c>
       <c r="I16" t="str">
-        <f>$A$1&amp;$B$1&amp;C16&amp;$D$1&amp;E16&amp;"-"&amp;F16&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/icu-chottomatteamoment-sideb.mp3\"&gt;ICU-Chotto Matte A Moment-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/icu-chottomatteamoment-sideb.mp3\"&gt;ICU-Chotto Matte A Moment-Side B&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -1478,8 +1482,8 @@
         <v>51</v>
       </c>
       <c r="I17" t="str">
-        <f>$A$1&amp;$B$1&amp;C17&amp;$D$1&amp;E17&amp;"-"&amp;F17&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/icu-chottomatteamoment-sidec.mp3\"&gt;ICU-Chotto Matte A Moment-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/icu-chottomatteamoment-sidec.mp3\"&gt;ICU-Chotto Matte A Moment-Side C&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="18" spans="3:10">
@@ -1496,8 +1500,8 @@
         <v>50</v>
       </c>
       <c r="I18" t="str">
-        <f>$A$1&amp;$B$1&amp;C18&amp;$D$1&amp;E18&amp;"-"&amp;F18&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/icu-chottomatteamoment-sided.mp3\"&gt;ICU-Chotto Matte A Moment-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/icu-chottomatteamoment-sided.mp3\"&gt;ICU-Chotto Matte A Moment-Side D&lt;/option&gt;");</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -1515,8 +1519,8 @@
         <v>106</v>
       </c>
       <c r="I19" t="str">
-        <f>$A$1&amp;$B$1&amp;C19&amp;$D$1&amp;E19&amp;"-"&amp;F19&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/icu-dothetwistBWrussianrhapsody.mp3\"&gt;ICU-Do the Twist bw Russian Rhapsody-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/icu-dothetwistBWrussianrhapsody.mp3\"&gt;ICU-Do the Twist bw Russian Rhapsody-Side Only&lt;/option&gt;");</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -1534,8 +1538,8 @@
         <v>48</v>
       </c>
       <c r="I20" t="str">
-        <f>$A$1&amp;$B$1&amp;C20&amp;$D$1&amp;E20&amp;"-"&amp;F20&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/kingbuzzo-thismachinekillsartists-sidea.mp3\"&gt;King Buzzo-This Machine Kills Artists-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/kingbuzzo-thismachinekillsartists-sidea.mp3\"&gt;King Buzzo-This Machine Kills Artists-Side A&lt;/option&gt;");</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -1553,8 +1557,8 @@
         <v>49</v>
       </c>
       <c r="I21" t="str">
-        <f>$A$1&amp;$B$1&amp;C21&amp;$D$1&amp;E21&amp;"-"&amp;F21&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/kingbuzzo-thismachinekillsartists-sideb.mp3\"&gt;King Buzzo-This Machine Kills Artists-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/kingbuzzo-thismachinekillsartists-sideb.mp3\"&gt;King Buzzo-This Machine Kills Artists-Side B&lt;/option&gt;");</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -1572,8 +1576,8 @@
         <v>48</v>
       </c>
       <c r="I22" t="str">
-        <f>$A$1&amp;$B$1&amp;C22&amp;$D$1&amp;E22&amp;"-"&amp;F22&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/madseason-above-sidea.mp3\"&gt;Mad Season-Above-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/madseason-above-sidea.mp3\"&gt;Mad Season-Above-Side A&lt;/option&gt;");</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -1591,8 +1595,8 @@
         <v>49</v>
       </c>
       <c r="I23" t="str">
-        <f>$A$1&amp;$B$1&amp;C23&amp;$D$1&amp;E23&amp;"-"&amp;F23&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/madseason-above-sideb.mp3\"&gt;Mad Season-Above-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/madseason-above-sideb.mp3\"&gt;Mad Season-Above-Side B&lt;/option&gt;");</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -1610,8 +1614,8 @@
         <v>51</v>
       </c>
       <c r="I24" t="str">
-        <f>$A$1&amp;$B$1&amp;C24&amp;$D$1&amp;E24&amp;"-"&amp;F24&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/madseason-above-sidec.mp3\"&gt;Mad Season-Above-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/madseason-above-sidec.mp3\"&gt;Mad Season-Above-Side C&lt;/option&gt;");</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -1629,8 +1633,8 @@
         <v>50</v>
       </c>
       <c r="I25" t="str">
-        <f>$A$1&amp;$B$1&amp;C25&amp;$D$1&amp;E25&amp;"-"&amp;F25&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/madseason-above-sided.mp3\"&gt;Mad Season-Above-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/madseason-above-sided.mp3\"&gt;Mad Season-Above-Side D&lt;/option&gt;");</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -1651,8 +1655,8 @@
         <v>48</v>
       </c>
       <c r="I26" t="str">
-        <f>$A$1&amp;$B$1&amp;C26&amp;$D$1&amp;E26&amp;"-"&amp;F26&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-tenremix-sidea.mp3\"&gt;Pearl Jam-Ten-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-tenremix-sidea.mp3\"&gt;Pearl Jam-Ten-Side A&lt;/option&gt;");</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -1670,8 +1674,8 @@
         <v>49</v>
       </c>
       <c r="I27" t="str">
-        <f>$A$1&amp;$B$1&amp;C27&amp;$D$1&amp;E27&amp;"-"&amp;F27&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-tenremix-sideb.mp3\"&gt;Pearl Jam-Ten-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-tenremix-sideb.mp3\"&gt;Pearl Jam-Ten-Side B&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="28" spans="3:10">
@@ -1688,8 +1692,8 @@
         <v>51</v>
       </c>
       <c r="I28" t="str">
-        <f>$A$1&amp;$B$1&amp;C28&amp;$D$1&amp;E28&amp;"-"&amp;F28&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-tenremix-sidec.mp3\"&gt;Pearl Jam-Ten-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-tenremix-sidec.mp3\"&gt;Pearl Jam-Ten-Side C&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="29" spans="3:10">
@@ -1706,8 +1710,8 @@
         <v>50</v>
       </c>
       <c r="I29" t="str">
-        <f>$A$1&amp;$B$1&amp;C29&amp;$D$1&amp;E29&amp;"-"&amp;F29&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-tenremix-sided.mp3\"&gt;Pearl Jam-Ten-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-tenremix-sided.mp3\"&gt;Pearl Jam-Ten-Side D&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -1724,8 +1728,8 @@
         <v>48</v>
       </c>
       <c r="I30" t="str">
-        <f>$A$1&amp;$B$1&amp;C30&amp;$D$1&amp;E30&amp;"-"&amp;F30&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-vs-sidea.mp3\"&gt;Pearl Jam-VS-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-vs-sidea.mp3\"&gt;Pearl Jam-VS-Side A&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="31" spans="3:10">
@@ -1742,8 +1746,8 @@
         <v>49</v>
       </c>
       <c r="I31" t="str">
-        <f>$A$1&amp;$B$1&amp;C31&amp;$D$1&amp;E31&amp;"-"&amp;F31&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-vs-sideb.mp3\"&gt;Pearl Jam-VS-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/pearljam-vs-sideb.mp3\"&gt;Pearl Jam-VS-Side B&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="32" spans="3:10">
@@ -1760,8 +1764,8 @@
         <v>48</v>
       </c>
       <c r="I32" t="str">
-        <f>$A$1&amp;$B$1&amp;C32&amp;$D$1&amp;E32&amp;"-"&amp;F32&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/resolution-tape-sidea.mp3\"&gt;Resolution-Tape-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/resolution-tape-sidea.mp3\"&gt;Resolution-Tape-Side A&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="33" spans="3:11">
@@ -1778,8 +1782,8 @@
         <v>49</v>
       </c>
       <c r="I33" t="str">
-        <f>$A$1&amp;$B$1&amp;C33&amp;$D$1&amp;E33&amp;"-"&amp;F33&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/resolution-tape-sideb.mp3\"&gt;Resolution-Tape-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/resolution-tape-sideb.mp3\"&gt;Resolution-Tape-Side B&lt;/option&gt;");</v>
       </c>
       <c r="K33" s="1"/>
     </row>
@@ -1797,8 +1801,8 @@
         <v>106</v>
       </c>
       <c r="I34" t="str">
-        <f>$A$1&amp;$B$1&amp;C34&amp;$D$1&amp;E34&amp;"-"&amp;F34&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-dilaudid-7inch.mp3\"&gt;Zeke-Dilaudid-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-dilaudid-7inch.mp3\"&gt;Zeke-Dilaudid-Side Only&lt;/option&gt;");</v>
       </c>
     </row>
     <row r="35" spans="3:11">
@@ -1815,8 +1819,8 @@
         <v>48</v>
       </c>
       <c r="I35" t="str">
-        <f>$A$1&amp;$B$1&amp;C35&amp;$D$1&amp;E35&amp;"-"&amp;F35&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-flattracker-sidea.mp3\"&gt;Zeke-Flat Tracker-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-flattracker-sidea.mp3\"&gt;Zeke-Flat Tracker-Side A&lt;/option&gt;");</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -1834,8 +1838,8 @@
         <v>49</v>
       </c>
       <c r="I36" t="str">
-        <f>$A$1&amp;$B$1&amp;C36&amp;$D$1&amp;E36&amp;"-"&amp;F36&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-flattracker-sideb.mp3\"&gt;Zeke-Flat Tracker-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-flattracker-sideb.mp3\"&gt;Zeke-Flat Tracker-Side B&lt;/option&gt;");</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -1853,8 +1857,8 @@
         <v>48</v>
       </c>
       <c r="I37" t="str">
-        <f>$A$1&amp;$B$1&amp;C37&amp;$D$1&amp;E37&amp;"-"&amp;F37&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-kickedintheteeth-sidea.mp3\"&gt;Zeke-Kicked in the Teeth-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-kickedintheteeth-sidea.mp3\"&gt;Zeke-Kicked in the Teeth-Side A&lt;/option&gt;");</v>
       </c>
       <c r="J37" s="1"/>
     </row>
@@ -1872,8 +1876,8 @@
         <v>49</v>
       </c>
       <c r="I38" t="str">
-        <f>$A$1&amp;$B$1&amp;C38&amp;$D$1&amp;E38&amp;"-"&amp;F38&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-kickedintheteeth-sideb.mp3\"&gt;Zeke-Kicked in the Teeth-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-kickedintheteeth-sideb.mp3\"&gt;Zeke-Kicked in the Teeth-Side B&lt;/option&gt;");</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -1891,8 +1895,8 @@
         <v>48</v>
       </c>
       <c r="I39" t="str">
-        <f>$A$1&amp;$B$1&amp;C39&amp;$D$1&amp;E39&amp;"-"&amp;F39&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-supersoundracing-sidea.mp3\"&gt;Zeke-Super Sound Racing-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-supersoundracing-sidea.mp3\"&gt;Zeke-Super Sound Racing-Side A&lt;/option&gt;");</v>
       </c>
       <c r="J39" s="1"/>
     </row>
@@ -1910,8 +1914,8 @@
         <v>49</v>
       </c>
       <c r="I40" t="str">
-        <f>$A$1&amp;$B$1&amp;C40&amp;$D$1&amp;E40&amp;"-"&amp;F40&amp;"-"&amp;$H$1</f>
-        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-supersoundracing-sideb.mp3\"&gt;Zeke-Super Sound Racing-&lt;/option&gt;");</v>
+        <f t="shared" si="0"/>
+        <v>document.write("&lt;option value=\"http://analogarchive.com/analogarchive/analog/zeke-supersoundracing-sideb.mp3\"&gt;Zeke-Super Sound Racing-Side B&lt;/option&gt;");</v>
       </c>
       <c r="J40" s="1"/>
     </row>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="133">
   <si>
     <t>bettyphotosessionone01.jpg</t>
   </si>
@@ -353,6 +354,72 @@
   </si>
   <si>
     <t>&lt;/option&gt;");</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0004-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0005-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0006-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0012-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0014-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0015-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0018-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0020-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0024-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0025-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/analogarchive/live/ZOOM0026-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0018-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0020-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0024-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0025-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0026-sufferingfuckheads-coppergate-20130212.mp3</t>
   </si>
 </sst>
 </file>
@@ -401,7 +468,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -434,6 +501,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -476,7 +550,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31"/>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -528,6 +602,13 @@
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1159,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1954,4 +2035,161 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"{'httpmp3filepath':'"&amp;A1&amp;"','tracktitle':'"&amp;B1&amp;"'}"</f>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0004-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0004-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C11" si="0">"{'httpmp3filepath':'"&amp;A2&amp;"','tracktitle':'"&amp;B2&amp;"'}"</f>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0005-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0005-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0006-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0006-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0012-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0012-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0014-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0014-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0015-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0015-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0018-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0018-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0020-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0020-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0024-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0024-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0025-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0025-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>{'httpmp3filepath':'http://analogarchive.com/analogarchive/live/ZOOM0026-sufferingfuckheads-coppergate-20130212.mp3','tracktitle':'ZOOM0026-sufferingfuckheads-coppergate-20130212.mp3'}</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="41620" windowHeight="24500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -243,28 +245,127 @@
     <t>35roxhillsessions20150827.mp3</t>
   </si>
   <si>
-    <t>&lt;option</t>
-  </si>
-  <si>
-    <t>value=\"http://analogarchive.com/analogarchive/live/cracksabbath20140509-02.mp3\"&gt;crack</t>
-  </si>
-  <si>
-    <t>sabbath-May</t>
-  </si>
-  <si>
-    <t>9th,</t>
-  </si>
-  <si>
-    <t>2015-02&lt;/option&gt;</t>
-  </si>
-  <si>
     <t>37roxhillsessions20150827.mp3</t>
   </si>
   <si>
     <t>36roxhillsessions20150827.mp3</t>
   </si>
   <si>
-    <t>&lt;option value=\"http://analogarchive.com/analogarchive/live/</t>
+    <t>&lt;option value=\"http://analogarchive.com/live/</t>
+  </si>
+  <si>
+    <t>ZOOM0001-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0002-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0007-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0010-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0011-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0013-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0016-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0017-SkerikTrio-OwlnThistle-20130213.mp3</t>
+  </si>
+  <si>
+    <t>skerik10-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik11-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik12-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik13-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik14-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik15-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik1.JPG</t>
+  </si>
+  <si>
+    <t>skerik1-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik2.JPG</t>
+  </si>
+  <si>
+    <t>skerik2-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik3.JPG</t>
+  </si>
+  <si>
+    <t>skerik3-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik4.JPG</t>
+  </si>
+  <si>
+    <t>skerik4-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik5.JPG</t>
+  </si>
+  <si>
+    <t>skerik5-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik6.JPG</t>
+  </si>
+  <si>
+    <t>skerik6-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik7-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik8-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>skerik9-SkerikTrio-OwlnThistle-20130206.mp3</t>
   </si>
 </sst>
 </file>
@@ -320,8 +421,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -343,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -352,6 +471,15 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -360,6 +488,15 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -704,7 +841,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -720,7 +857,7 @@
       </c>
       <c r="F1" t="str">
         <f>$A$1&amp;B1&amp;$C$1&amp;D1&amp;$E$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0001roxhillsessions20150827.mp3\"&gt;01roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001roxhillsessions20150827.mp3\"&gt;01roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -731,8 +868,8 @@
         <v>40</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F37" si="0">$A$1&amp;B2&amp;$C$1&amp;D2&amp;$E$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0002roxhillsessions20150827.mp3\"&gt;02roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <f t="shared" ref="F2:F65" si="0">$A$1&amp;B2&amp;$C$1&amp;D2&amp;$E$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002roxhillsessions20150827.mp3\"&gt;02roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -744,7 +881,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0003roxhillsessions20150827.mp3\"&gt;03roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003roxhillsessions20150827.mp3\"&gt;03roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -756,7 +893,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0004roxhillsessions20150827.mp3\"&gt;04roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004roxhillsessions20150827.mp3\"&gt;04roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -768,7 +905,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0005roxhillsessions20150827.mp3\"&gt;05roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005roxhillsessions20150827.mp3\"&gt;05roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -780,7 +917,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0006roxhillsessions20150827.mp3\"&gt;06roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006roxhillsessions20150827.mp3\"&gt;06roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -792,7 +929,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0007roxhillsessions20150827.mp3\"&gt;07roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007roxhillsessions20150827.mp3\"&gt;07roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -804,7 +941,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0008roxhillsessions20150827.mp3\"&gt;08roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008roxhillsessions20150827.mp3\"&gt;08roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -816,7 +953,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0009roxhillsessions20150827.mp3\"&gt;09roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009roxhillsessions20150827.mp3\"&gt;09roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -828,7 +965,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0010roxhillsessions20150827.mp3\"&gt;10roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010roxhillsessions20150827.mp3\"&gt;10roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -840,7 +977,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0011roxhillsessions20150827.mp3\"&gt;11roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011roxhillsessions20150827.mp3\"&gt;11roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -852,7 +989,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0012roxhillsessions20150827.mp3\"&gt;12roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012roxhillsessions20150827.mp3\"&gt;12roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -864,7 +1001,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0013roxhillsessions20150827.mp3\"&gt;13roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013roxhillsessions20150827.mp3\"&gt;13roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -876,7 +1013,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0014roxhillsessions20150827.mp3\"&gt;14roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014roxhillsessions20150827.mp3\"&gt;14roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -888,7 +1025,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0015roxhillsessions20150827.mp3\"&gt;15roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015roxhillsessions20150827.mp3\"&gt;15roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -900,7 +1037,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0016roxhillsessions20150827.mp3\"&gt;16roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016roxhillsessions20150827.mp3\"&gt;16roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -912,7 +1049,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0017roxhillsessions20150827.mp3\"&gt;17roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017roxhillsessions20150827.mp3\"&gt;17roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -924,7 +1061,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0018roxhillsessions20150827.mp3\"&gt;18roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018roxhillsessions20150827.mp3\"&gt;18roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -936,7 +1073,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0019roxhillsessions20150827.mp3\"&gt;19roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019roxhillsessions20150827.mp3\"&gt;19roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -948,7 +1085,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0020roxhillsessions20150827.mp3\"&gt;20roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0020roxhillsessions20150827.mp3\"&gt;20roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -960,7 +1097,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0021roxhillsessions20150827.mp3\"&gt;21roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0021roxhillsessions20150827.mp3\"&gt;21roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -972,7 +1109,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0022roxhillsessions20150827.mp3\"&gt;22roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0022roxhillsessions20150827.mp3\"&gt;22roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -984,7 +1121,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0023roxhillsessions20150827.mp3\"&gt;23roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0023roxhillsessions20150827.mp3\"&gt;23roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -996,7 +1133,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0024roxhillsessions20150827.mp3\"&gt;24roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0024roxhillsessions20150827.mp3\"&gt;24roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -1008,7 +1145,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0025roxhillsessions20150827.mp3\"&gt;25roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0025roxhillsessions20150827.mp3\"&gt;25roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -1020,7 +1157,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0026roxhillsessions20150827.mp3\"&gt;26roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0026roxhillsessions20150827.mp3\"&gt;26roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -1032,7 +1169,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0027roxhillsessions20150827.mp3\"&gt;27roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0027roxhillsessions20150827.mp3\"&gt;27roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -1044,7 +1181,7 @@
       </c>
       <c r="F28" t="str">
         <f>$A$1&amp;B28&amp;$C$1&amp;D28&amp;$E$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0028roxhillsessions20150827.mp3\"&gt;28roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0028roxhillsessions20150827.mp3\"&gt;28roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -1056,7 +1193,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0029roxhillsessions20150827.mp3\"&gt;29roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0029roxhillsessions20150827.mp3\"&gt;29roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -1068,7 +1205,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0030roxhillsessions20150827.mp3\"&gt;30roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0030roxhillsessions20150827.mp3\"&gt;30roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -1080,7 +1217,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0031roxhillsessions20150827.mp3\"&gt;31roxhillsessions20150827.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0031roxhillsessions20150827.mp3\"&gt;31roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -1092,10 +1229,10 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0032roxhillsessions20150827.mp3\"&gt;32roxhillsessions20150827.mp3&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0032roxhillsessions20150827.mp3\"&gt;32roxhillsessions20150827.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
         <v>22</v>
       </c>
@@ -1104,10 +1241,10 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0033roxhillsessions20150827.mp3\"&gt;33roxhillsessions20150827.mp3&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0033roxhillsessions20150827.mp3\"&gt;33roxhillsessions20150827.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
         <v>29</v>
       </c>
@@ -1116,10 +1253,10 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0034roxhillsessions20150827.mp3\"&gt;34roxhillsessions20150827.mp3&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0034roxhillsessions20150827.mp3\"&gt;34roxhillsessions20150827.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
         <v>36</v>
       </c>
@@ -1128,48 +1265,415 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0035roxhillsessions20150827.mp3\"&gt;35roxhillsessions20150827.mp3&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0035roxhillsessions20150827.mp3\"&gt;35roxhillsessions20150827.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0036roxhillsessions20150827.mp3\"&gt;36roxhillsessions20150827.mp3&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0036roxhillsessions20150827.mp3\"&gt;36roxhillsessions20150827.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0037roxhillsessions20150827.mp3\"&gt;37roxhillsessions20150827.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik1-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik1-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik10-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik10-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik11-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik11-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik12-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik12-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik13-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik13-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik14-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik14-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik15-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik15-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik2-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik2-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik3-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik3-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik4-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik4-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik5-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik5-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik6-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik6-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik7-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik7-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik8-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik8-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik9-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik9-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0001-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0002-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" t="s">
         <v>79</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/analogarchive/live/ZOOM0037roxhillsessions20150827.mp3\"&gt;37roxhillsessions20150827.mp3&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" t="s">
-        <v>78</v>
+      <c r="D55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0003-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0004-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0005-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0006-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0007-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0008-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0009-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0010-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0011-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0012-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0013-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" ref="F66:F69" si="1">$A$1&amp;B66&amp;$C$1&amp;D66&amp;$E$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0014-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0015-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0016-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0017-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -1181,4 +1685,239 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A21">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41620" windowHeight="24500" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="OPTION" sheetId="1" r:id="rId1"/>
+    <sheet name="JSON" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="140">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -323,39 +323,21 @@
     <t>skerik15-SkerikTrio-OwlnThistle-20130206.mp3</t>
   </si>
   <si>
-    <t>skerik1.JPG</t>
-  </si>
-  <si>
     <t>skerik1-SkerikTrio-OwlnThistle-20130206.mp3</t>
   </si>
   <si>
-    <t>skerik2.JPG</t>
-  </si>
-  <si>
     <t>skerik2-SkerikTrio-OwlnThistle-20130206.mp3</t>
   </si>
   <si>
-    <t>skerik3.JPG</t>
-  </si>
-  <si>
     <t>skerik3-SkerikTrio-OwlnThistle-20130206.mp3</t>
   </si>
   <si>
-    <t>skerik4.JPG</t>
-  </si>
-  <si>
     <t>skerik4-SkerikTrio-OwlnThistle-20130206.mp3</t>
   </si>
   <si>
-    <t>skerik5.JPG</t>
-  </si>
-  <si>
     <t>skerik5-SkerikTrio-OwlnThistle-20130206.mp3</t>
   </si>
   <si>
-    <t>skerik6.JPG</t>
-  </si>
-  <si>
     <t>skerik6-SkerikTrio-OwlnThistle-20130206.mp3</t>
   </si>
   <si>
@@ -366,6 +348,99 @@
   </si>
   <si>
     <t>skerik9-SkerikTrio-OwlnThistle-20130206.mp3</t>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>http://analogarchive.com/live/</t>
+  </si>
+  <si>
+    <t>roxhill locals</t>
+  </si>
+  <si>
+    <t>roxhill sessions 20150827</t>
+  </si>
+  <si>
+    <t>http://seattlerules.com/vinyl.jpeg</t>
+  </si>
+  <si>
+    <t>skerik trio</t>
+  </si>
+  <si>
+    <t>owl n thistle 20130206</t>
+  </si>
+  <si>
+    <t>owl n thistle 20130213</t>
+  </si>
+  <si>
+    <t>ZOOM0001-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0002-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0007-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0016-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0017-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0018-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0019-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0020-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0021-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -421,8 +496,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -462,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -480,6 +563,10 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -497,6 +584,10 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -828,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F69"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1294,10 +1385,10 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -1378,10 +1469,10 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -1390,10 +1481,10 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -1402,10 +1493,10 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -1414,10 +1505,10 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -1426,10 +1517,10 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -1438,10 +1529,10 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -1450,10 +1541,10 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -1462,10 +1553,10 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -1689,97 +1780,1382 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="D54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="G55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="G56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="G57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="G58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="G59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="G60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="G61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="G62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="G63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="G64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="G65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="G66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="G67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="G68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="G69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
         <v>93</v>
+      </c>
+      <c r="G70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" t="s">
+        <v>120</v>
+      </c>
+      <c r="G71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="G73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>129</v>
+      </c>
+      <c r="G80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="G81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" t="s">
+        <v>134</v>
+      </c>
+      <c r="G85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" t="s">
+        <v>135</v>
+      </c>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G88" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1795,123 +3171,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
+      <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A21">
-    <sortCondition ref="A1"/>
-  </sortState>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="42840" windowHeight="22900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OPTION" sheetId="1" r:id="rId1"/>
     <sheet name="JSON" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="IMG" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="222">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -441,6 +441,252 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>ZOOM0001-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0002-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-sufferingfuckheads-coppergate-20130205.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0007-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-sufferingfuckheads-coppergate-20130205.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-sufferingfuckheads-coppergate-20130604.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-sufferingfuckheads-coppergate-20130604.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0010-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0010-sufferingfuckheads-coppergate-20130604.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0011-sufferingfuckheads-coppergate-20130205.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0011-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0011-sufferingfuckheads-coppergate-20130604.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-sufferingfuckheads-coppergate-20130604.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0013-sufferingfuckheads-coppergate-20130205.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0013-sufferingfuckheads-coppergate-20130326.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0013-sufferingfuckheads-coppergate-20130604.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-sufferingfuckheads-coppergate-20130423.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-sufferingfuckheads-coppergate-20130604.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-sufferingfuckheads-coppergate-20130205.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-sufferingfuckheads-coppergate-20130604.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0016-sufferingfuckheads-coppergate-20130423.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0016-sufferingfuckheads-coppergate-20130604.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0017-sufferingfuckheads-coppergate-20130604.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0018-sufferingfuckheads-coppergate-20130205.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0018-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0019-sufferingfuckheads-coppergate-20130205.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0019-sufferingfuckheads-coppergate-20130423.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0020-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0020-sufferingfuckheads-coppergate-20130423.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0021-sufferingfuckheads-coppergate-20130205.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0022-sufferingfuckheads-coppergate-20130423.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0023-sufferingfuckheads-coppergate-20130423.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0024-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0025-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0025-sufferingfuckheads-coppergate-20130423.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0026-sufferingfuckheads-coppergate-20130212.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0026-sufferingfuckheads-coppergate-20130423.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0028-sufferingfuckheads-coppergate-20130423.mp3</t>
+  </si>
+  <si>
+    <t>Suffering Fuckheads - Coppergate - March 26th, 2013</t>
+  </si>
+  <si>
+    <t>Suffering Fuckheads - Coppergate - February 12th, 2013</t>
+  </si>
+  <si>
+    <t>Suffering Fuckheads - Coppergate - February 5th, 2013</t>
+  </si>
+  <si>
+    <t>Suffering Fuckheads - Coppergate - June 4th, 2013</t>
+  </si>
+  <si>
+    <t>Suffering Fuckheads - Coppergate - April 23rd, 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 </t>
+  </si>
+  <si>
+    <t>suffering201306071854a.JPG</t>
+  </si>
+  <si>
+    <t>suffering201306071854.JPG</t>
+  </si>
+  <si>
+    <t>suffering201304252109.JPG</t>
+  </si>
+  <si>
+    <t>suffering201303272002b.JPG</t>
+  </si>
+  <si>
+    <t>suffering201303272002a.JPG</t>
+  </si>
+  <si>
+    <t>suffering201303272001a.JPG</t>
+  </si>
+  <si>
+    <t>suffering201303272001.JPG</t>
+  </si>
+  <si>
+    <t>suffering201302131850.JPG</t>
+  </si>
+  <si>
+    <t>suffering201302060154c.JPG</t>
+  </si>
+  <si>
+    <t>suffering201302060154b.JPG</t>
+  </si>
+  <si>
+    <t>suffering201302060154a.JPG</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='</t>
+  </si>
+  <si>
+    <t>'&gt;&lt;/a&gt;&lt;br /&gt;</t>
   </si>
 </sst>
 </file>
@@ -496,7 +742,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -540,12 +786,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="80">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -567,6 +852,25 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -588,6 +892,24 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -917,20 +1239,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B69"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.1640625" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.1640625" customWidth="1"/>
+    <col min="7" max="7" width="142.6640625" customWidth="1"/>
+    <col min="8" max="8" width="78.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -940,836 +1262,1608 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="str">
-        <f>$A$1&amp;B1&amp;$C$1&amp;D1&amp;$E$1</f>
+      <c r="G1" t="str">
+        <f>$A$1&amp;B1&amp;$C$1&amp;D1&amp;E1&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001roxhillsessions20150827.mp3\"&gt;01roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F65" si="0">$A$1&amp;B2&amp;$C$1&amp;D2&amp;$E$1</f>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="0">$A$1&amp;B2&amp;$C$1&amp;D2&amp;E2&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002roxhillsessions20150827.mp3\"&gt;02roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003roxhillsessions20150827.mp3\"&gt;03roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004roxhillsessions20150827.mp3\"&gt;04roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005roxhillsessions20150827.mp3\"&gt;05roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006roxhillsessions20150827.mp3\"&gt;06roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007roxhillsessions20150827.mp3\"&gt;07roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008roxhillsessions20150827.mp3\"&gt;08roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009roxhillsessions20150827.mp3\"&gt;09roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010roxhillsessions20150827.mp3\"&gt;10roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011roxhillsessions20150827.mp3\"&gt;11roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012roxhillsessions20150827.mp3\"&gt;12roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013roxhillsessions20150827.mp3\"&gt;13roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014roxhillsessions20150827.mp3\"&gt;14roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015roxhillsessions20150827.mp3\"&gt;15roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016roxhillsessions20150827.mp3\"&gt;16roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017roxhillsessions20150827.mp3\"&gt;17roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018roxhillsessions20150827.mp3\"&gt;18roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019roxhillsessions20150827.mp3\"&gt;19roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0020roxhillsessions20150827.mp3\"&gt;20roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0021roxhillsessions20150827.mp3\"&gt;21roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0022roxhillsessions20150827.mp3\"&gt;22roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:7">
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="F23" t="str">
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0023roxhillsessions20150827.mp3\"&gt;23roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7">
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="str">
+      <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0024roxhillsessions20150827.mp3\"&gt;24roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:7">
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>63</v>
       </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0025roxhillsessions20150827.mp3\"&gt;25roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:7">
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>64</v>
       </c>
-      <c r="F26" t="str">
+      <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0026roxhillsessions20150827.mp3\"&gt;26roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:7">
       <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>65</v>
       </c>
-      <c r="F27" t="str">
+      <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0027roxhillsessions20150827.mp3\"&gt;27roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:7">
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>66</v>
       </c>
-      <c r="F28" t="str">
-        <f>$A$1&amp;B28&amp;$C$1&amp;D28&amp;$E$1</f>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0028roxhillsessions20150827.mp3\"&gt;28roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>67</v>
       </c>
-      <c r="F29" t="str">
+      <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0029roxhillsessions20150827.mp3\"&gt;29roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:7">
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>68</v>
       </c>
-      <c r="F30" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0030roxhillsessions20150827.mp3\"&gt;30roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:7">
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>69</v>
       </c>
-      <c r="F31" t="str">
+      <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0031roxhillsessions20150827.mp3\"&gt;31roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:7">
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>70</v>
       </c>
-      <c r="F32" t="str">
+      <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0032roxhillsessions20150827.mp3\"&gt;32roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:7">
       <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>71</v>
       </c>
-      <c r="F33" t="str">
+      <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0033roxhillsessions20150827.mp3\"&gt;33roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:7">
       <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>72</v>
       </c>
-      <c r="F34" t="str">
+      <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0034roxhillsessions20150827.mp3\"&gt;34roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:7">
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>73</v>
       </c>
-      <c r="F35" t="str">
+      <c r="G35" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0035roxhillsessions20150827.mp3\"&gt;35roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:7">
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F36" t="str">
+      <c r="G36" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0036roxhillsessions20150827.mp3\"&gt;36roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:7">
       <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F37" t="str">
+      <c r="G37" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0037roxhillsessions20150827.mp3\"&gt;37roxhillsessions20150827.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:7">
       <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>100</v>
       </c>
-      <c r="F38" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik1-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik1-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:7">
       <c r="B39" t="s">
         <v>94</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>94</v>
       </c>
-      <c r="F39" t="str">
+      <c r="G39" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik10-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik10-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:7">
       <c r="B40" t="s">
         <v>95</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>95</v>
       </c>
-      <c r="F40" t="str">
+      <c r="G40" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik11-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik11-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:7">
       <c r="B41" t="s">
         <v>96</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>96</v>
       </c>
-      <c r="F41" t="str">
+      <c r="G41" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik12-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik12-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:7">
       <c r="B42" t="s">
         <v>97</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>97</v>
       </c>
-      <c r="F42" t="str">
+      <c r="G42" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik13-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik13-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:7">
       <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>98</v>
       </c>
-      <c r="F43" t="str">
+      <c r="G43" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik14-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik14-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:7">
       <c r="B44" t="s">
         <v>99</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>99</v>
       </c>
-      <c r="F44" t="str">
+      <c r="G44" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik15-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik15-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:7">
       <c r="B45" t="s">
         <v>101</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>101</v>
       </c>
-      <c r="F45" t="str">
+      <c r="G45" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik2-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik2-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:7">
       <c r="B46" t="s">
         <v>102</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>102</v>
       </c>
-      <c r="F46" t="str">
+      <c r="G46" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik3-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik3-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:7">
       <c r="B47" t="s">
         <v>103</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>103</v>
       </c>
-      <c r="F47" t="str">
+      <c r="G47" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik4-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik4-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:7">
       <c r="B48" t="s">
         <v>104</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" t="str">
+      <c r="G48" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik5-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik5-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:7">
       <c r="B49" t="s">
         <v>105</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>105</v>
       </c>
-      <c r="F49" t="str">
+      <c r="G49" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik6-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik6-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:7">
       <c r="B50" t="s">
         <v>106</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>106</v>
       </c>
-      <c r="F50" t="str">
+      <c r="G50" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik7-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik7-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:7">
       <c r="B51" t="s">
         <v>107</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>107</v>
       </c>
-      <c r="F51" t="str">
+      <c r="G51" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik8-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik8-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:7">
       <c r="B52" t="s">
         <v>108</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>108</v>
       </c>
-      <c r="F52" t="str">
+      <c r="G52" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik9-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik9-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:7">
       <c r="B53" t="s">
         <v>77</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>77</v>
       </c>
-      <c r="F53" t="str">
+      <c r="G53" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0001-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:7">
       <c r="B54" t="s">
         <v>78</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>78</v>
       </c>
-      <c r="F54" t="str">
+      <c r="G54" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0002-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:7">
       <c r="B55" t="s">
         <v>79</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>79</v>
       </c>
-      <c r="F55" t="str">
+      <c r="G55" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0003-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:7">
       <c r="B56" t="s">
         <v>80</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>80</v>
       </c>
-      <c r="F56" t="str">
+      <c r="G56" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0004-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:7">
       <c r="B57" t="s">
         <v>81</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>81</v>
       </c>
-      <c r="F57" t="str">
+      <c r="G57" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0005-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:7">
       <c r="B58" t="s">
         <v>82</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>82</v>
       </c>
-      <c r="F58" t="str">
+      <c r="G58" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0006-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:7">
       <c r="B59" t="s">
         <v>83</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>83</v>
       </c>
-      <c r="F59" t="str">
+      <c r="G59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0007-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:7">
       <c r="B60" t="s">
         <v>84</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>84</v>
       </c>
-      <c r="F60" t="str">
+      <c r="G60" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0008-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:7">
       <c r="B61" t="s">
         <v>85</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>85</v>
       </c>
-      <c r="F61" t="str">
+      <c r="G61" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0009-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:7">
       <c r="B62" t="s">
         <v>86</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>86</v>
       </c>
-      <c r="F62" t="str">
+      <c r="G62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0010-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:7">
       <c r="B63" t="s">
         <v>87</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>87</v>
       </c>
-      <c r="F63" t="str">
+      <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0011-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:7">
       <c r="B64" t="s">
         <v>88</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>88</v>
       </c>
-      <c r="F64" t="str">
+      <c r="G64" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0012-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:7">
       <c r="B65" t="s">
         <v>89</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>89</v>
       </c>
-      <c r="F65" t="str">
+      <c r="G65" t="str">
         <f t="shared" si="0"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0013-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:7">
       <c r="B66" t="s">
         <v>90</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>90</v>
       </c>
-      <c r="F66" t="str">
-        <f t="shared" ref="F66:F69" si="1">$A$1&amp;B66&amp;$C$1&amp;D66&amp;$E$1</f>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G101" si="1">$A$1&amp;B66&amp;$C$1&amp;D66&amp;E66&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0014-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:7">
       <c r="B67" t="s">
         <v>91</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>91</v>
       </c>
-      <c r="F67" t="str">
+      <c r="G67" t="str">
         <f t="shared" si="1"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0015-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:7">
       <c r="B68" t="s">
         <v>92</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>92</v>
       </c>
-      <c r="F68" t="str">
+      <c r="G68" t="str">
         <f t="shared" si="1"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0016-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:7">
       <c r="B69" t="s">
         <v>93</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>93</v>
       </c>
-      <c r="F69" t="str">
+      <c r="G69" t="str">
         <f t="shared" si="1"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0017-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" ref="G70:G77" si="2">$A$1&amp;B70&amp;$C$1&amp;D70&amp;E70&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-sufferingfuckheads-coppergate-20130205.mp3\"&gt;01 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-sufferingfuckheads-coppergate-20130205.mp3\"&gt;02 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-sufferingfuckheads-coppergate-20130205.mp3\"&gt;03 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-sufferingfuckheads-coppergate-20130205.mp3\"&gt;04 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-sufferingfuckheads-coppergate-20130205.mp3\"&gt;05 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-sufferingfuckheads-coppergate-20130205.mp3\"&gt;06 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-sufferingfuckheads-coppergate-20130205.mp3\"&gt;07 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0021-sufferingfuckheads-coppergate-20130205.mp3\"&gt;08 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-sufferingfuckheads-coppergate-20130212.mp3\"&gt;01 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-sufferingfuckheads-coppergate-20130212.mp3\"&gt;02 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-sufferingfuckheads-coppergate-20130212.mp3\"&gt;03 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-sufferingfuckheads-coppergate-20130212.mp3\"&gt;04 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-sufferingfuckheads-coppergate-20130212.mp3\"&gt;05 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-sufferingfuckheads-coppergate-20130212.mp3\"&gt;06 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-sufferingfuckheads-coppergate-20130212.mp3\"&gt;07 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0020-sufferingfuckheads-coppergate-20130212.mp3\"&gt;08 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0024-sufferingfuckheads-coppergate-20130212.mp3\"&gt;09 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0025-sufferingfuckheads-coppergate-20130212.mp3\"&gt;10 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0026-sufferingfuckheads-coppergate-20130212.mp3\"&gt;11 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" t="s">
+        <v>191</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-sufferingfuckheads-coppergate-20130326.mp3\"&gt;01 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" t="s">
+        <v>141</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" t="s">
+        <v>191</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-sufferingfuckheads-coppergate-20130326.mp3\"&gt;02 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" t="s">
+        <v>191</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-sufferingfuckheads-coppergate-20130326.mp3\"&gt;03 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-sufferingfuckheads-coppergate-20130326.mp3\"&gt;04 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" t="s">
+        <v>191</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-sufferingfuckheads-coppergate-20130326.mp3\"&gt;05 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E94" t="s">
+        <v>191</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-sufferingfuckheads-coppergate-20130326.mp3\"&gt;06 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E95" t="s">
+        <v>191</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-sufferingfuckheads-coppergate-20130326.mp3\"&gt;07 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" t="s">
+        <v>191</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-sufferingfuckheads-coppergate-20130326.mp3\"&gt;08 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" t="s">
+        <v>191</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-sufferingfuckheads-coppergate-20130326.mp3\"&gt;09 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E98" t="s">
+        <v>191</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-sufferingfuckheads-coppergate-20130326.mp3\"&gt;10 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" t="s">
+        <v>159</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E99" t="s">
+        <v>191</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-sufferingfuckheads-coppergate-20130326.mp3\"&gt;11 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" t="s">
+        <v>191</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-sufferingfuckheads-coppergate-20130326.mp3\"&gt;12 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E101" t="s">
+        <v>191</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-sufferingfuckheads-coppergate-20130326.mp3\"&gt;13 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" ref="G102:G120" si="3">$A$1&amp;B102&amp;$C$1&amp;D102&amp;E102&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-sufferingfuckheads-coppergate-20130423.mp3\"&gt;01 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" t="s">
+        <v>173</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-sufferingfuckheads-coppergate-20130423.mp3\"&gt;02 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-sufferingfuckheads-coppergate-20130423.mp3\"&gt;03 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0020-sufferingfuckheads-coppergate-20130423.mp3\"&gt;04 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" t="s">
+        <v>183</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0022-sufferingfuckheads-coppergate-20130423.mp3\"&gt;05 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" t="s">
+        <v>184</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0023-sufferingfuckheads-coppergate-20130423.mp3\"&gt;06 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" t="s">
+        <v>187</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0025-sufferingfuckheads-coppergate-20130423.mp3\"&gt;07 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" t="s">
+        <v>189</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0026-sufferingfuckheads-coppergate-20130423.mp3\"&gt;08 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" t="s">
+        <v>190</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0028-sufferingfuckheads-coppergate-20130423.mp3\"&gt;09 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E111" t="s">
+        <v>194</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-sufferingfuckheads-coppergate-20130604.mp3\"&gt;01 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-sufferingfuckheads-coppergate-20130604.mp3\"&gt;02 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E113" t="s">
+        <v>194</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-sufferingfuckheads-coppergate-20130604.mp3\"&gt;03 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" t="s">
+        <v>160</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E114" t="s">
+        <v>194</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-sufferingfuckheads-coppergate-20130604.mp3\"&gt;04 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E115" t="s">
+        <v>194</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-sufferingfuckheads-coppergate-20130604.mp3\"&gt;05 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E116" t="s">
+        <v>194</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-sufferingfuckheads-coppergate-20130604.mp3\"&gt;06 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E117" t="s">
+        <v>194</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-sufferingfuckheads-coppergate-20130604.mp3\"&gt;07 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" t="s">
+        <v>172</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E118" t="s">
+        <v>194</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-sufferingfuckheads-coppergate-20130604.mp3\"&gt;08 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E119" t="s">
+        <v>194</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-sufferingfuckheads-coppergate-20130604.mp3\"&gt;09 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E120" t="s">
+        <v>194</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-sufferingfuckheads-coppergate-20130604.mp3\"&gt;10 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A70:G120">
+    <sortCondition ref="E70:E120"/>
+    <sortCondition ref="B70:B120"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="D71:D120" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1782,7 +2876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3171,14 +4265,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="9" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="str">
+        <f>$A$1&amp;$B$1&amp;C1&amp;$D$1</f>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302060154a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E11" si="0">$A$1&amp;$B$1&amp;C2&amp;$D$1</f>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302060154b.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302060154c.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302131850.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272001.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272001a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272002a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272002b.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201304252109.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201306071854.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201306071854a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="42840" windowHeight="22900" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="OPTION" sheetId="1" r:id="rId1"/>
-    <sheet name="JSON" sheetId="2" r:id="rId2"/>
-    <sheet name="IMG" sheetId="3" r:id="rId3"/>
+    <sheet name="IMG" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="217">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -350,99 +350,9 @@
     <t>skerik9-SkerikTrio-OwlnThistle-20130206.mp3</t>
   </si>
   <si>
-    <t>filepath</t>
-  </si>
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>album</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>http://analogarchive.com/live/</t>
   </si>
   <si>
-    <t>roxhill locals</t>
-  </si>
-  <si>
-    <t>roxhill sessions 20150827</t>
-  </si>
-  <si>
-    <t>http://seattlerules.com/vinyl.jpeg</t>
-  </si>
-  <si>
-    <t>skerik trio</t>
-  </si>
-  <si>
-    <t>owl n thistle 20130206</t>
-  </si>
-  <si>
-    <t>owl n thistle 20130213</t>
-  </si>
-  <si>
-    <t>ZOOM0001-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0002-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0003-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0004-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0005-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0006-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0007-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0008-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0009-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0012-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0014-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0015-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0016-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0017-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0018-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0019-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0020-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0021-SkerikTrio-OwlnThistle-20130227.mp3</t>
-  </si>
-  <si>
-    <t>track</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>ZOOM0001-sufferingfuckheads-coppergate-20130326.mp3</t>
   </si>
   <si>
@@ -687,6 +597,81 @@
   </si>
   <si>
     <t>'&gt;&lt;/a&gt;&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>ZOOM0008melvinsportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009melvinsportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0010melvinsportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0011melvinsportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012melvinsportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006melvinsportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0013melvinsportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0007melvinsportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014melvinsportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>Melvins - Wonder Ballroom - Portland - September 7th, 2015</t>
+  </si>
+  <si>
+    <t>ZOOM0001-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0013-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0002-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0010-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0007-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0011-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-melvins-showboxmarket-20141018.mp3</t>
+  </si>
+  <si>
+    <t>Melvins - Showbox Market - October 18th, 2014</t>
   </si>
 </sst>
 </file>
@@ -742,7 +727,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -821,6 +806,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -830,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="100">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -871,6 +876,26 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1239,16 +1264,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD125"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="60.1640625" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="3" max="3" width="2.5" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.1640625" customWidth="1"/>
-    <col min="7" max="7" width="142.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="78.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2091,13 +2120,13 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" ref="G70:G77" si="2">$A$1&amp;B70&amp;$C$1&amp;D70&amp;E70&amp;$F$1</f>
@@ -2106,13 +2135,13 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
@@ -2121,13 +2150,13 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
@@ -2136,13 +2165,13 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
@@ -2151,13 +2180,13 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
@@ -2166,13 +2195,13 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
@@ -2181,13 +2210,13 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
@@ -2196,13 +2225,13 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
@@ -2211,13 +2240,13 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
@@ -2226,13 +2255,13 @@
     </row>
     <row r="79" spans="2:7">
       <c r="B79" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
@@ -2241,13 +2270,13 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
@@ -2256,13 +2285,13 @@
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
@@ -2271,13 +2300,13 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
@@ -2286,13 +2315,13 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
@@ -2301,13 +2330,13 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
@@ -2316,13 +2345,13 @@
     </row>
     <row r="85" spans="2:7">
       <c r="B85" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
@@ -2331,13 +2360,13 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
@@ -2346,13 +2375,13 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
@@ -2361,13 +2390,13 @@
     </row>
     <row r="88" spans="2:7">
       <c r="B88" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
@@ -2376,13 +2405,13 @@
     </row>
     <row r="89" spans="2:7">
       <c r="B89" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E89" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
@@ -2391,13 +2420,13 @@
     </row>
     <row r="90" spans="2:7">
       <c r="B90" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E90" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
@@ -2406,13 +2435,13 @@
     </row>
     <row r="91" spans="2:7">
       <c r="B91" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
@@ -2421,13 +2450,13 @@
     </row>
     <row r="92" spans="2:7">
       <c r="B92" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
@@ -2436,13 +2465,13 @@
     </row>
     <row r="93" spans="2:7">
       <c r="B93" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
@@ -2451,13 +2480,13 @@
     </row>
     <row r="94" spans="2:7">
       <c r="B94" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E94" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
@@ -2466,13 +2495,13 @@
     </row>
     <row r="95" spans="2:7">
       <c r="B95" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E95" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
@@ -2481,13 +2510,13 @@
     </row>
     <row r="96" spans="2:7">
       <c r="B96" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
@@ -2496,13 +2525,13 @@
     </row>
     <row r="97" spans="2:7">
       <c r="B97" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
@@ -2511,13 +2540,13 @@
     </row>
     <row r="98" spans="2:7">
       <c r="B98" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
@@ -2526,13 +2555,13 @@
     </row>
     <row r="99" spans="2:7">
       <c r="B99" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
@@ -2541,13 +2570,13 @@
     </row>
     <row r="100" spans="2:7">
       <c r="B100" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
@@ -2556,13 +2585,13 @@
     </row>
     <row r="101" spans="2:7">
       <c r="B101" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
@@ -2571,28 +2600,28 @@
     </row>
     <row r="102" spans="2:7">
       <c r="B102" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" ref="G102:G120" si="3">$A$1&amp;B102&amp;$C$1&amp;D102&amp;E102&amp;$F$1</f>
+        <f t="shared" ref="G102:G143" si="3">$A$1&amp;B102&amp;$C$1&amp;D102&amp;E102&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-sufferingfuckheads-coppergate-20130423.mp3\"&gt;01 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="3"/>
@@ -2601,13 +2630,13 @@
     </row>
     <row r="104" spans="2:7">
       <c r="B104" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="3"/>
@@ -2616,13 +2645,13 @@
     </row>
     <row r="105" spans="2:7">
       <c r="B105" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="3"/>
@@ -2631,13 +2660,13 @@
     </row>
     <row r="106" spans="2:7">
       <c r="B106" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="3"/>
@@ -2646,13 +2675,13 @@
     </row>
     <row r="107" spans="2:7">
       <c r="B107" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="3"/>
@@ -2661,13 +2690,13 @@
     </row>
     <row r="108" spans="2:7">
       <c r="B108" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="3"/>
@@ -2676,13 +2705,13 @@
     </row>
     <row r="109" spans="2:7">
       <c r="B109" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="3"/>
@@ -2691,13 +2720,13 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="3"/>
@@ -2706,13 +2735,13 @@
     </row>
     <row r="111" spans="2:7">
       <c r="B111" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E111" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="3"/>
@@ -2721,13 +2750,13 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E112" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="3"/>
@@ -2736,13 +2765,13 @@
     </row>
     <row r="113" spans="2:7">
       <c r="B113" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E113" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="3"/>
@@ -2751,13 +2780,13 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E114" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="3"/>
@@ -2766,13 +2795,13 @@
     </row>
     <row r="115" spans="2:7">
       <c r="B115" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E115" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="3"/>
@@ -2781,13 +2810,13 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E116" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="3"/>
@@ -2796,13 +2825,13 @@
     </row>
     <row r="117" spans="2:7">
       <c r="B117" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E117" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="3"/>
@@ -2811,13 +2840,13 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E118" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="3"/>
@@ -2826,13 +2855,13 @@
     </row>
     <row r="119" spans="2:7">
       <c r="B119" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E119" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="3"/>
@@ -2841,17 +2870,362 @@
     </row>
     <row r="120" spans="2:7">
       <c r="B120" t="s">
+        <v>145</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" t="s">
+        <v>164</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-sufferingfuckheads-coppergate-20130604.mp3\"&gt;10 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" t="s">
+        <v>197</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E121" t="s">
+        <v>201</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006melvinsportlandwonderballroom20150907.mp3\"&gt;01 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" t="s">
+        <v>199</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E122" t="s">
+        <v>201</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007melvinsportlandwonderballroom20150907.mp3\"&gt;02 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" t="s">
+        <v>192</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" t="s">
+        <v>201</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008melvinsportlandwonderballroom20150907.mp3\"&gt;03 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" t="s">
+        <v>193</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E124" t="s">
+        <v>201</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009melvinsportlandwonderballroom20150907.mp3\"&gt;04 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" t="s">
+        <v>194</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E125" t="s">
+        <v>201</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010melvinsportlandwonderballroom20150907.mp3\"&gt;05 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E126" t="s">
+        <v>201</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011melvinsportlandwonderballroom20150907.mp3\"&gt;06 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" t="s">
+        <v>196</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E127" t="s">
+        <v>201</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012melvinsportlandwonderballroom20150907.mp3\"&gt;07 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" t="s">
+        <v>198</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E128" t="s">
+        <v>201</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013melvinsportlandwonderballroom20150907.mp3\"&gt;08 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" t="s">
+        <v>200</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129" t="s">
+        <v>201</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014melvinsportlandwonderballroom20150907.mp3\"&gt;09 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" t="s">
+        <v>202</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E130" t="s">
+        <v>216</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-melvins-showboxmarket-20141018.mp3\"&gt;01 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E131" t="s">
+        <v>216</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-melvins-showboxmarket-20141018.mp3\"&gt;02 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E132" t="s">
+        <v>216</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-melvins-showboxmarket-20141018.mp3\"&gt;03 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" t="s">
+        <v>213</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E133" t="s">
+        <v>216</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-melvins-showboxmarket-20141018.mp3\"&gt;04 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" t="s">
+        <v>203</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E134" t="s">
+        <v>216</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-melvins-showboxmarket-20141018.mp3\"&gt;05 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" t="s">
+        <v>207</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E135" t="s">
+        <v>216</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-melvins-showboxmarket-20141018.mp3\"&gt;01 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E136" t="s">
+        <v>216</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-melvins-showboxmarket-20141018.mp3\"&gt;02 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" t="s">
+        <v>214</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E137" t="s">
+        <v>216</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-melvins-showboxmarket-20141018.mp3\"&gt;03 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" t="s">
+        <v>204</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E138" t="s">
+        <v>216</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-melvins-showboxmarket-20141018.mp3\"&gt;04 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" t="s">
+        <v>208</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E139" t="s">
+        <v>216</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-melvins-showboxmarket-20141018.mp3\"&gt;05 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" t="s">
+        <v>212</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E140" t="s">
+        <v>216</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-melvins-showboxmarket-20141018.mp3\"&gt;06 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" t="s">
+        <v>215</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E141" t="s">
+        <v>216</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-melvins-showboxmarket-20141018.mp3\"&gt;07 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" t="s">
         <v>205</v>
       </c>
-      <c r="E120" t="s">
-        <v>194</v>
-      </c>
-      <c r="G120" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-sufferingfuckheads-coppergate-20130604.mp3\"&gt;10 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
+      <c r="D142" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E142" t="s">
+        <v>216</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-melvins-showboxmarket-20141018.mp3\"&gt;08 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" t="s">
+        <v>209</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E143" t="s">
+        <v>216</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-melvins-showboxmarket-20141018.mp3\"&gt;09 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -2874,1385 +3248,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="2" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="str">
+        <f>$A$1&amp;$B$1&amp;C1&amp;$D$1</f>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302060154a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E11" si="0">$A$1&amp;$B$1&amp;C2&amp;$D$1</f>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302060154b.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302060154c.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="C4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302131850.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272001.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272001a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272002a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272002b.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201304252109.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201306071854.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38">
-        <v>37</v>
-      </c>
-      <c r="G38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="G46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="G48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="G50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51">
-        <v>7</v>
-      </c>
-      <c r="G51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52">
-        <v>8</v>
-      </c>
-      <c r="G52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53">
-        <v>9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="G61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" t="s">
-        <v>87</v>
-      </c>
-      <c r="G64" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" t="s">
-        <v>91</v>
-      </c>
-      <c r="G68" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>113</v>
-      </c>
-      <c r="B69" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="G70" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" t="s">
-        <v>120</v>
-      </c>
-      <c r="G71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72" t="s">
-        <v>121</v>
-      </c>
-      <c r="G72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" t="s">
-        <v>122</v>
-      </c>
-      <c r="G73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>113</v>
-      </c>
-      <c r="B74" t="s">
-        <v>123</v>
-      </c>
-      <c r="G74" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" t="s">
-        <v>124</v>
-      </c>
-      <c r="G75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>113</v>
-      </c>
-      <c r="B76" t="s">
-        <v>125</v>
-      </c>
-      <c r="G76" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" t="s">
-        <v>126</v>
-      </c>
-      <c r="G77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>113</v>
-      </c>
-      <c r="B78" t="s">
-        <v>127</v>
-      </c>
-      <c r="G78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>113</v>
-      </c>
-      <c r="B79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B80" t="s">
-        <v>129</v>
-      </c>
-      <c r="G80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>113</v>
-      </c>
-      <c r="B81" t="s">
-        <v>130</v>
-      </c>
-      <c r="G81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>113</v>
-      </c>
-      <c r="B82" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" t="s">
-        <v>133</v>
-      </c>
-      <c r="G84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" t="s">
-        <v>134</v>
-      </c>
-      <c r="G85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" t="s">
-        <v>135</v>
-      </c>
-      <c r="G86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" t="s">
-        <v>136</v>
-      </c>
-      <c r="G87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>113</v>
-      </c>
-      <c r="B88" t="s">
-        <v>137</v>
-      </c>
-      <c r="G88" t="s">
-        <v>116</v>
+        <v>179</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201306071854a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4265,129 +3383,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="9" width="58" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" t="str">
-        <f>$A$1&amp;$B$1&amp;C1&amp;$D$1</f>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302060154a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E11" si="0">$A$1&amp;$B$1&amp;C2&amp;$D$1</f>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302060154b.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302060154c.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201302131850.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272001.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272001a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272002a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201303272002b.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201304252109.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201306071854.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='https://seattleruiles.com'&gt;&lt;img src='http://analogarchive.com/live/suffering201306071854a.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="OPTION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="320">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -672,6 +672,315 @@
   </si>
   <si>
     <t>Melvins - Showbox Market - October 18th, 2014</t>
+  </si>
+  <si>
+    <t>ZOOM0002-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0007-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-01.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-02.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-03.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-04.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-05.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-06.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-07.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-08.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-09.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-10.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-11.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-12.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-13.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-14.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-15.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-16.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-17.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-18.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-19.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-20.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-21.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-22.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-23.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-24.mp3</t>
+  </si>
+  <si>
+    <t>cracksabbath20140509-25.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0001-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0002-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0007-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0010-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0010-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0011-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0011-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0013-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0013-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0016-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0016-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0017-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0017-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0018-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0018-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0019-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0019-cracksabbath-themix-20130920.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0020-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0021-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0022-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0023-cracksabbath-owlandthistle-20140917.mp3</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ZOOM0001-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0002-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0010-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0011-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0013-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-CrackSabbath-RoyalRoom-20130622.mp3</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2013</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2014</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2015</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2016</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2017</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2018</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2019</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2020</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2021</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2022</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2023</t>
+  </si>
+  <si>
+    <t>Crack Sabbath - Royal Room - June 22nd, 2024</t>
   </si>
 </sst>
 </file>
@@ -727,7 +1036,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="100">
+  <cellStyleXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -828,14 +1137,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="100">
+  <cellStyles count="136">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -896,6 +1242,42 @@
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1264,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD125"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="G209" sqref="G209:G220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1748,170 +2130,170 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik10-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik10-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <f>$A$1&amp;B39&amp;$C$1&amp;D39&amp;E39&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik2-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik2-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik11-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik11-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <f>$A$1&amp;B40&amp;$C$1&amp;D40&amp;E40&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik3-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik3-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik12-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik12-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <f>$A$1&amp;B41&amp;$C$1&amp;D41&amp;E41&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik4-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik4-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik13-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik13-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <f>$A$1&amp;B42&amp;$C$1&amp;D42&amp;E42&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik5-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik5-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik14-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik14-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <f>$A$1&amp;B43&amp;$C$1&amp;D43&amp;E43&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik6-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik6-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik15-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik15-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <f>$A$1&amp;B44&amp;$C$1&amp;D44&amp;E44&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik7-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik7-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik2-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik2-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <f>$A$1&amp;B45&amp;$C$1&amp;D45&amp;E45&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik8-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik8-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik3-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik3-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <f>$A$1&amp;B46&amp;$C$1&amp;D46&amp;E46&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik9-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik9-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik4-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik4-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik10-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik10-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik5-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik5-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik11-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik11-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik6-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik6-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik12-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik12-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik7-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik7-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik13-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik13-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik8-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik8-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik14-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik14-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/skerik9-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik9-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/skerik15-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik15-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -2609,7 +2991,7 @@
         <v>165</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" ref="G102:G143" si="3">$A$1&amp;B102&amp;$C$1&amp;D102&amp;E102&amp;$F$1</f>
+        <f t="shared" ref="G102:G165" si="3">$A$1&amp;B102&amp;$C$1&amp;D102&amp;E102&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-sufferingfuckheads-coppergate-20130423.mp3\"&gt;01 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3227,6 +3609,1173 @@
         <f t="shared" si="3"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-melvins-showboxmarket-20141018.mp3\"&gt;09 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" t="s">
+        <v>223</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-01.mp3\"&gt;01 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" t="s">
+        <v>224</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-02.mp3\"&gt;02 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-03.mp3\"&gt;03 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" t="s">
+        <v>226</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-04.mp3\"&gt;04 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" t="s">
+        <v>227</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-05.mp3\"&gt;05 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" t="s">
+        <v>228</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E149" t="s">
+        <v>282</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-06.mp3\"&gt;01 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" t="s">
+        <v>229</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E150" t="s">
+        <v>282</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-07.mp3\"&gt;02 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" t="s">
+        <v>230</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E151" t="s">
+        <v>282</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-08.mp3\"&gt;03 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" t="s">
+        <v>231</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E152" t="s">
+        <v>282</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-09.mp3\"&gt;04 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" t="s">
+        <v>232</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E153" t="s">
+        <v>282</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-10.mp3\"&gt;05 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" t="s">
+        <v>233</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E154" t="s">
+        <v>282</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-11.mp3\"&gt;06 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" t="s">
+        <v>234</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E155" t="s">
+        <v>282</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-12.mp3\"&gt;07 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" t="s">
+        <v>235</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E156" t="s">
+        <v>282</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-13.mp3\"&gt;08 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" t="s">
+        <v>236</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E157" t="s">
+        <v>282</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-14.mp3\"&gt;09 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" t="s">
+        <v>237</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E158" t="s">
+        <v>282</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-15.mp3\"&gt;10Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" t="s">
+        <v>238</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E159" t="s">
+        <v>282</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-16.mp3\"&gt;11Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" t="s">
+        <v>239</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E160" t="s">
+        <v>282</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-17.mp3\"&gt;12Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" t="s">
+        <v>240</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E161" t="s">
+        <v>282</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-18.mp3\"&gt;13Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" t="s">
+        <v>241</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E162" t="s">
+        <v>282</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-19.mp3\"&gt;14Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" t="s">
+        <v>242</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E163" t="s">
+        <v>282</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-20.mp3\"&gt;15Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" t="s">
+        <v>243</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E164" t="s">
+        <v>282</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-21.mp3\"&gt;16Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" t="s">
+        <v>244</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E165" t="s">
+        <v>282</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-22.mp3\"&gt;17Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" t="s">
+        <v>245</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E166" t="s">
+        <v>282</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" ref="G166:G220" si="4">$A$1&amp;B166&amp;$C$1&amp;D166&amp;E166&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-23.mp3\"&gt;18Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" t="s">
+        <v>246</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E167" t="s">
+        <v>282</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-24.mp3\"&gt;19Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" t="s">
+        <v>247</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E168" t="s">
+        <v>282</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-25.mp3\"&gt;20Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" t="s">
+        <v>248</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E169" t="s">
+        <v>283</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-cracksabbath-themix-20130920.mp3\"&gt;01 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" t="s">
+        <v>217</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E170" t="s">
+        <v>283</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-cracksabbath-themix-20130920.mp3\"&gt;02 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" t="s">
+        <v>218</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E171" t="s">
+        <v>283</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-cracksabbath-themix-20130920.mp3\"&gt;03 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" t="s">
+        <v>219</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E172" t="s">
+        <v>283</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-cracksabbath-themix-20130920.mp3\"&gt;04 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" t="s">
+        <v>220</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E173" t="s">
+        <v>283</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-cracksabbath-themix-20130920.mp3\"&gt;05 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" t="s">
+        <v>221</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E174" t="s">
+        <v>283</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-cracksabbath-themix-20130920.mp3\"&gt;01 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" t="s">
+        <v>222</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175" t="s">
+        <v>283</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-cracksabbath-themix-20130920.mp3\"&gt;02 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" t="s">
+        <v>257</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E176" t="s">
+        <v>283</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-cracksabbath-themix-20130920.mp3\"&gt;03 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" t="s">
+        <v>259</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E177" t="s">
+        <v>283</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-cracksabbath-themix-20130920.mp3\"&gt;04 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" t="s">
+        <v>261</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E178" t="s">
+        <v>283</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-cracksabbath-themix-20130920.mp3\"&gt;05 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" t="s">
+        <v>263</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E179" t="s">
+        <v>283</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-cracksabbath-themix-20130920.mp3\"&gt;06 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" t="s">
+        <v>265</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E180" t="s">
+        <v>283</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-cracksabbath-themix-20130920.mp3\"&gt;07 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" t="s">
+        <v>267</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E181" t="s">
+        <v>283</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-cracksabbath-themix-20130920.mp3\"&gt;08 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" t="s">
+        <v>269</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E182" t="s">
+        <v>283</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-cracksabbath-themix-20130920.mp3\"&gt;09 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" t="s">
+        <v>271</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E183" t="s">
+        <v>283</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-cracksabbath-themix-20130920.mp3\"&gt;10Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" t="s">
+        <v>273</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E184" t="s">
+        <v>283</v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-cracksabbath-themix-20130920.mp3\"&gt;11Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" t="s">
+        <v>275</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E185" t="s">
+        <v>283</v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-cracksabbath-themix-20130920.mp3\"&gt;12Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" t="s">
+        <v>277</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E186" t="s">
+        <v>283</v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-cracksabbath-themix-20130920.mp3\"&gt;13Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" t="s">
+        <v>249</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E187" t="s">
+        <v>284</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-cracksabbath-owlandthistle-20140917.mp3\"&gt;01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" t="s">
+        <v>250</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E188" t="s">
+        <v>284</v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-cracksabbath-owlandthistle-20140917.mp3\"&gt;02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" t="s">
+        <v>251</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E189" t="s">
+        <v>284</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-cracksabbath-owlandthistle-20140917.mp3\"&gt;03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" t="s">
+        <v>252</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E190" t="s">
+        <v>284</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-cracksabbath-owlandthistle-20140917.mp3\"&gt;04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" t="s">
+        <v>253</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E191" t="s">
+        <v>284</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-cracksabbath-owlandthistle-20140917.mp3\"&gt;05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" t="s">
+        <v>254</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E192" t="s">
+        <v>284</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-cracksabbath-owlandthistle-20140917.mp3\"&gt;01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" t="s">
+        <v>255</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E193" t="s">
+        <v>284</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-cracksabbath-owlandthistle-20140917.mp3\"&gt;02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" t="s">
+        <v>256</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E194" t="s">
+        <v>284</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-cracksabbath-owlandthistle-20140917.mp3\"&gt;03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" t="s">
+        <v>258</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E195" t="s">
+        <v>284</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-cracksabbath-owlandthistle-20140917.mp3\"&gt;04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" t="s">
+        <v>260</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E196" t="s">
+        <v>284</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-cracksabbath-owlandthistle-20140917.mp3\"&gt;05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" t="s">
+        <v>262</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E197" t="s">
+        <v>284</v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-cracksabbath-owlandthistle-20140917.mp3\"&gt;06 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" t="s">
+        <v>264</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E198" t="s">
+        <v>284</v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-cracksabbath-owlandthistle-20140917.mp3\"&gt;07 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" t="s">
+        <v>266</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E199" t="s">
+        <v>284</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-cracksabbath-owlandthistle-20140917.mp3\"&gt;08 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" t="s">
+        <v>268</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E200" t="s">
+        <v>284</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-cracksabbath-owlandthistle-20140917.mp3\"&gt;09 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" t="s">
+        <v>270</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E201" t="s">
+        <v>284</v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-cracksabbath-owlandthistle-20140917.mp3\"&gt;10Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" t="s">
+        <v>272</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E202" t="s">
+        <v>284</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-cracksabbath-owlandthistle-20140917.mp3\"&gt;11Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" t="s">
+        <v>274</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E203" t="s">
+        <v>284</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-cracksabbath-owlandthistle-20140917.mp3\"&gt;12Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" t="s">
+        <v>276</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E204" t="s">
+        <v>284</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-cracksabbath-owlandthistle-20140917.mp3\"&gt;13Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" t="s">
+        <v>278</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E205" t="s">
+        <v>284</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0020-cracksabbath-owlandthistle-20140917.mp3\"&gt;14Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" t="s">
+        <v>279</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E206" t="s">
+        <v>284</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0021-cracksabbath-owlandthistle-20140917.mp3\"&gt;15Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" t="s">
+        <v>280</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E207" t="s">
+        <v>284</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0022-cracksabbath-owlandthistle-20140917.mp3\"&gt;16Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" t="s">
+        <v>281</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E208" t="s">
+        <v>284</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0023-cracksabbath-owlandthistle-20140917.mp3\"&gt;17Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9">
+      <c r="B209" t="s">
+        <v>296</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E209" t="s">
+        <v>308</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;01 Crack Sabbath - Royal Room - June 22nd, 2013&lt;/option&gt;</v>
+      </c>
+      <c r="I209" s="4"/>
+    </row>
+    <row r="210" spans="2:9">
+      <c r="B210" t="s">
+        <v>297</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E210" t="s">
+        <v>309</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;02 Crack Sabbath - Royal Room - June 22nd, 2014&lt;/option&gt;</v>
+      </c>
+      <c r="I210" s="4"/>
+    </row>
+    <row r="211" spans="2:9">
+      <c r="B211" t="s">
+        <v>298</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E211" t="s">
+        <v>310</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;03 Crack Sabbath - Royal Room - June 22nd, 2015&lt;/option&gt;</v>
+      </c>
+      <c r="I211" s="4"/>
+    </row>
+    <row r="212" spans="2:9">
+      <c r="B212" t="s">
+        <v>299</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E212" t="s">
+        <v>311</v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;04 Crack Sabbath - Royal Room - June 22nd, 2016&lt;/option&gt;</v>
+      </c>
+      <c r="I212" s="4"/>
+    </row>
+    <row r="213" spans="2:9">
+      <c r="B213" t="s">
+        <v>300</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E213" t="s">
+        <v>312</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;05 Crack Sabbath - Royal Room - June 22nd, 2017&lt;/option&gt;</v>
+      </c>
+      <c r="I213" s="4"/>
+    </row>
+    <row r="214" spans="2:9">
+      <c r="B214" t="s">
+        <v>301</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E214" t="s">
+        <v>313</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;01 Crack Sabbath - Royal Room - June 22nd, 2018&lt;/option&gt;</v>
+      </c>
+      <c r="I214" s="4"/>
+    </row>
+    <row r="215" spans="2:9">
+      <c r="B215" t="s">
+        <v>302</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E215" t="s">
+        <v>314</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;02 Crack Sabbath - Royal Room - June 22nd, 2019&lt;/option&gt;</v>
+      </c>
+      <c r="I215" s="4"/>
+    </row>
+    <row r="216" spans="2:9">
+      <c r="B216" t="s">
+        <v>303</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E216" t="s">
+        <v>315</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;03 Crack Sabbath - Royal Room - June 22nd, 2020&lt;/option&gt;</v>
+      </c>
+      <c r="I216" s="4"/>
+    </row>
+    <row r="217" spans="2:9">
+      <c r="B217" t="s">
+        <v>304</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E217" t="s">
+        <v>316</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;04 Crack Sabbath - Royal Room - June 22nd, 2021&lt;/option&gt;</v>
+      </c>
+      <c r="I217" s="4"/>
+    </row>
+    <row r="218" spans="2:9">
+      <c r="B218" t="s">
+        <v>305</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E218" t="s">
+        <v>317</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;05 Crack Sabbath - Royal Room - June 22nd, 2022&lt;/option&gt;</v>
+      </c>
+      <c r="I218" s="4"/>
+    </row>
+    <row r="219" spans="2:9">
+      <c r="B219" t="s">
+        <v>306</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E219" t="s">
+        <v>318</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;06 Crack Sabbath - Royal Room - June 22nd, 2023&lt;/option&gt;</v>
+      </c>
+      <c r="I219" s="4"/>
+    </row>
+    <row r="220" spans="2:9">
+      <c r="B220" t="s">
+        <v>307</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E220" t="s">
+        <v>319</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;07 Crack Sabbath - Royal Room - June 22nd, 2024&lt;/option&gt;</v>
+      </c>
+      <c r="I220" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A70:G120">
@@ -3386,11 +4935,18 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
+      <selection activeCell="D1" sqref="D1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+  </cols>
   <sheetData/>
+  <sortState ref="A1:A65">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="46440" windowHeight="24660" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OPTION" sheetId="1" r:id="rId1"/>
     <sheet name="IMG" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="SONGS WITH SPACES" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="540">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -981,6 +983,666 @@
   </si>
   <si>
     <t>Crack Sabbath - Royal Room - June 22nd, 2024</t>
+  </si>
+  <si>
+    <t>01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>02inthemorning-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>03theplan-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>04strange-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>05untrustable-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>06else-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>07messwithtime-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>09getalife-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>10joyride-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>11stab-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>12carrythezero-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>13youwereright-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>14bigdipper-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3</t>
+  </si>
+  <si>
+    <t>bts-center-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>bts-fly-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>bts-theplan-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>bts-untitled-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_10-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_11-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_12-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_13-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_14-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_15-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_16-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_17-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_18-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_19-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_1-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_2-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_3-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_4-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_5-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_6-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_7-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_8-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl_9-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>Vinyl-zeke-elcorazon-2013.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0001bigbusinessportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0001-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0001-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0002bigbusinessportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0002-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0002-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003bigbusinessportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0003-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004bigbusinessportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>Going</t>
+  </si>
+  <si>
+    <t>Against</t>
+  </si>
+  <si>
+    <t>Your</t>
+  </si>
+  <si>
+    <t>Mind-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>Morning-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>Universe-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>Plan-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Planting</t>
+  </si>
+  <si>
+    <t>Seeds-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>Kicked</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Sun-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>Life-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Made</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Dont</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>Here</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Pavement-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Goin</t>
+  </si>
+  <si>
+    <t>Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>right-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Conventional</t>
+  </si>
+  <si>
+    <t>Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>Of</t>
+  </si>
+  <si>
+    <t>Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>Martsch-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>Zero-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>Instrumental</t>
+  </si>
+  <si>
+    <t>dont</t>
+  </si>
+  <si>
+    <t>know-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
+    <t>Soon</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>fly-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Order-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>Smiths-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Car-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0004-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005bigbusinessportlandwonderballroom20150907.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0005-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0006-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0007-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0007-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0008-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0009-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0010-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0011-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0012-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0013-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0014-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0015-zeke-highline-20140822.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0038-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0039-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0040-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0041-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0042-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0043-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0044-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0045-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0046-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0047-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0048-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0049-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0050-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0051-lastgasp-highline-2014.mp3</t>
+  </si>
+  <si>
+    <t>01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>1%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</t>
+  </si>
+  <si>
+    <t>1%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>02inthemorning-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>2%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</t>
+  </si>
+  <si>
+    <t>2%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>3%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</t>
+  </si>
+  <si>
+    <t>3%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>03theplan-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>04strange-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>4%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>5%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>5%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>05untrustable-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>06else-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>6%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3%20%20</t>
+  </si>
+  <si>
+    <t>6%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>7%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20</t>
+  </si>
+  <si>
+    <t>7%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</t>
+  </si>
+  <si>
+    <t>07messwithtime-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>8%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20</t>
+  </si>
+  <si>
+    <t>8%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>9%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3%20%20%20</t>
+  </si>
+  <si>
+    <t>09getalife-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>9%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</t>
+  </si>
+  <si>
+    <t>10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3%20%20%20</t>
+  </si>
+  <si>
+    <t>10joyride-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</t>
+  </si>
+  <si>
+    <t>11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3%20%20</t>
+  </si>
+  <si>
+    <t>11stab-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>12carrythezero-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3%20%20%20</t>
+  </si>
+  <si>
+    <t>12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</t>
+  </si>
+  <si>
+    <t>13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</t>
+  </si>
+  <si>
+    <t>13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>13youwereright-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>14bigdipper-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</t>
+  </si>
+  <si>
+    <t>14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3%20</t>
+  </si>
+  <si>
+    <t>15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3%20%20</t>
+  </si>
+  <si>
+    <t>16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3%20</t>
+  </si>
+  <si>
+    <t>16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>bts-center-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>bts-fly-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>bts-theplan-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>bts-untitled-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
+  </si>
+  <si>
+    <t>bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1698,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="136">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1115,6 +1777,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1181,7 +1854,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="136">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1278,6 +1951,17 @@
     <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1648,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209:G220"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221:B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2136,7 +2820,7 @@
         <v>101</v>
       </c>
       <c r="G39" t="str">
-        <f>$A$1&amp;B39&amp;$C$1&amp;D39&amp;E39&amp;$F$1</f>
+        <f t="shared" ref="G39:G46" si="1">$A$1&amp;B39&amp;$C$1&amp;D39&amp;E39&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik2-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik2-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2148,7 +2832,7 @@
         <v>102</v>
       </c>
       <c r="G40" t="str">
-        <f>$A$1&amp;B40&amp;$C$1&amp;D40&amp;E40&amp;$F$1</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik3-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik3-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2160,7 +2844,7 @@
         <v>103</v>
       </c>
       <c r="G41" t="str">
-        <f>$A$1&amp;B41&amp;$C$1&amp;D41&amp;E41&amp;$F$1</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik4-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik4-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2172,7 +2856,7 @@
         <v>104</v>
       </c>
       <c r="G42" t="str">
-        <f>$A$1&amp;B42&amp;$C$1&amp;D42&amp;E42&amp;$F$1</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik5-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik5-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2184,7 +2868,7 @@
         <v>105</v>
       </c>
       <c r="G43" t="str">
-        <f>$A$1&amp;B43&amp;$C$1&amp;D43&amp;E43&amp;$F$1</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik6-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik6-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2196,7 +2880,7 @@
         <v>106</v>
       </c>
       <c r="G44" t="str">
-        <f>$A$1&amp;B44&amp;$C$1&amp;D44&amp;E44&amp;$F$1</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik7-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik7-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2208,7 +2892,7 @@
         <v>107</v>
       </c>
       <c r="G45" t="str">
-        <f>$A$1&amp;B45&amp;$C$1&amp;D45&amp;E45&amp;$F$1</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik8-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik8-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2220,7 +2904,7 @@
         <v>108</v>
       </c>
       <c r="G46" t="str">
-        <f>$A$1&amp;B46&amp;$C$1&amp;D46&amp;E46&amp;$F$1</f>
+        <f t="shared" si="1"/>
         <v>&lt;option value=\"http://analogarchive.com/live/skerik9-SkerikTrio-OwlnThistle-20130206.mp3\"&gt;skerik9-SkerikTrio-OwlnThistle-20130206.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2460,7 +3144,7 @@
         <v>90</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G101" si="1">$A$1&amp;B66&amp;$C$1&amp;D66&amp;E66&amp;$F$1</f>
+        <f t="shared" ref="G66:G101" si="2">$A$1&amp;B66&amp;$C$1&amp;D66&amp;E66&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0014-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2472,7 +3156,7 @@
         <v>91</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0015-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2484,7 +3168,7 @@
         <v>92</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0016-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2496,7 +3180,7 @@
         <v>93</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-SkerikTrio-OwlnThistle-20130213.mp3\"&gt;ZOOM0017-SkerikTrio-OwlnThistle-20130213.mp3&lt;/option&gt;</v>
       </c>
     </row>
@@ -2511,7 +3195,7 @@
         <v>163</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" ref="G70:G77" si="2">$A$1&amp;B70&amp;$C$1&amp;D70&amp;E70&amp;$F$1</f>
+        <f t="shared" ref="G70:G77" si="3">$A$1&amp;B70&amp;$C$1&amp;D70&amp;E70&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-sufferingfuckheads-coppergate-20130205.mp3\"&gt;01 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2526,7 +3210,7 @@
         <v>163</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-sufferingfuckheads-coppergate-20130205.mp3\"&gt;02 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2541,7 +3225,7 @@
         <v>163</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-sufferingfuckheads-coppergate-20130205.mp3\"&gt;03 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2556,7 +3240,7 @@
         <v>163</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-sufferingfuckheads-coppergate-20130205.mp3\"&gt;04 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2571,7 +3255,7 @@
         <v>163</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-sufferingfuckheads-coppergate-20130205.mp3\"&gt;05 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2586,7 +3270,7 @@
         <v>163</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-sufferingfuckheads-coppergate-20130205.mp3\"&gt;06 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2601,7 +3285,7 @@
         <v>163</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-sufferingfuckheads-coppergate-20130205.mp3\"&gt;07 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2616,7 +3300,7 @@
         <v>163</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0021-sufferingfuckheads-coppergate-20130205.mp3\"&gt;08 Suffering Fuckheads - Coppergate - February 5th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2631,7 +3315,7 @@
         <v>162</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-sufferingfuckheads-coppergate-20130212.mp3\"&gt;01 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2646,7 +3330,7 @@
         <v>162</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-sufferingfuckheads-coppergate-20130212.mp3\"&gt;02 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2661,7 +3345,7 @@
         <v>162</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-sufferingfuckheads-coppergate-20130212.mp3\"&gt;03 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2676,7 +3360,7 @@
         <v>162</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-sufferingfuckheads-coppergate-20130212.mp3\"&gt;04 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2691,7 +3375,7 @@
         <v>162</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-sufferingfuckheads-coppergate-20130212.mp3\"&gt;05 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2706,7 +3390,7 @@
         <v>162</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-sufferingfuckheads-coppergate-20130212.mp3\"&gt;06 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2721,7 +3405,7 @@
         <v>162</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-sufferingfuckheads-coppergate-20130212.mp3\"&gt;07 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2736,7 +3420,7 @@
         <v>162</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0020-sufferingfuckheads-coppergate-20130212.mp3\"&gt;08 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2751,7 +3435,7 @@
         <v>162</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0024-sufferingfuckheads-coppergate-20130212.mp3\"&gt;09 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2766,7 +3450,7 @@
         <v>162</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0025-sufferingfuckheads-coppergate-20130212.mp3\"&gt;10 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2781,7 +3465,7 @@
         <v>162</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0026-sufferingfuckheads-coppergate-20130212.mp3\"&gt;11 Suffering Fuckheads - Coppergate - February 12th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2796,7 +3480,7 @@
         <v>161</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-sufferingfuckheads-coppergate-20130326.mp3\"&gt;01 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2811,7 +3495,7 @@
         <v>161</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-sufferingfuckheads-coppergate-20130326.mp3\"&gt;02 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2826,7 +3510,7 @@
         <v>161</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-sufferingfuckheads-coppergate-20130326.mp3\"&gt;03 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2841,7 +3525,7 @@
         <v>161</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-sufferingfuckheads-coppergate-20130326.mp3\"&gt;04 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2856,7 +3540,7 @@
         <v>161</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-sufferingfuckheads-coppergate-20130326.mp3\"&gt;05 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2871,7 +3555,7 @@
         <v>161</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-sufferingfuckheads-coppergate-20130326.mp3\"&gt;06 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2886,7 +3570,7 @@
         <v>161</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-sufferingfuckheads-coppergate-20130326.mp3\"&gt;07 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2901,7 +3585,7 @@
         <v>161</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-sufferingfuckheads-coppergate-20130326.mp3\"&gt;08 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2916,7 +3600,7 @@
         <v>161</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-sufferingfuckheads-coppergate-20130326.mp3\"&gt;09 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2931,7 +3615,7 @@
         <v>161</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-sufferingfuckheads-coppergate-20130326.mp3\"&gt;10 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2946,7 +3630,7 @@
         <v>161</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-sufferingfuckheads-coppergate-20130326.mp3\"&gt;11 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2961,7 +3645,7 @@
         <v>161</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-sufferingfuckheads-coppergate-20130326.mp3\"&gt;12 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2976,7 +3660,7 @@
         <v>161</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-sufferingfuckheads-coppergate-20130326.mp3\"&gt;13 Suffering Fuckheads - Coppergate - March 26th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -2991,7 +3675,7 @@
         <v>165</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" ref="G102:G165" si="3">$A$1&amp;B102&amp;$C$1&amp;D102&amp;E102&amp;$F$1</f>
+        <f t="shared" ref="G102:G165" si="4">$A$1&amp;B102&amp;$C$1&amp;D102&amp;E102&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-sufferingfuckheads-coppergate-20130423.mp3\"&gt;01 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3006,7 +3690,7 @@
         <v>165</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-sufferingfuckheads-coppergate-20130423.mp3\"&gt;02 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3021,7 +3705,7 @@
         <v>165</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-sufferingfuckheads-coppergate-20130423.mp3\"&gt;03 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3036,7 +3720,7 @@
         <v>165</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0020-sufferingfuckheads-coppergate-20130423.mp3\"&gt;04 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3051,7 +3735,7 @@
         <v>165</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0022-sufferingfuckheads-coppergate-20130423.mp3\"&gt;05 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3066,7 +3750,7 @@
         <v>165</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0023-sufferingfuckheads-coppergate-20130423.mp3\"&gt;06 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3081,7 +3765,7 @@
         <v>165</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0025-sufferingfuckheads-coppergate-20130423.mp3\"&gt;07 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3096,7 +3780,7 @@
         <v>165</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0026-sufferingfuckheads-coppergate-20130423.mp3\"&gt;08 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3111,7 +3795,7 @@
         <v>165</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0028-sufferingfuckheads-coppergate-20130423.mp3\"&gt;09 Suffering Fuckheads - Coppergate - April 23rd, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3126,7 +3810,7 @@
         <v>164</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-sufferingfuckheads-coppergate-20130604.mp3\"&gt;01 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3141,7 +3825,7 @@
         <v>164</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-sufferingfuckheads-coppergate-20130604.mp3\"&gt;02 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3156,7 +3840,7 @@
         <v>164</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-sufferingfuckheads-coppergate-20130604.mp3\"&gt;03 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3171,7 +3855,7 @@
         <v>164</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-sufferingfuckheads-coppergate-20130604.mp3\"&gt;04 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3186,7 +3870,7 @@
         <v>164</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-sufferingfuckheads-coppergate-20130604.mp3\"&gt;05 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3201,7 +3885,7 @@
         <v>164</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-sufferingfuckheads-coppergate-20130604.mp3\"&gt;06 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3216,7 +3900,7 @@
         <v>164</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-sufferingfuckheads-coppergate-20130604.mp3\"&gt;07 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3231,7 +3915,7 @@
         <v>164</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-sufferingfuckheads-coppergate-20130604.mp3\"&gt;08 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3246,7 +3930,7 @@
         <v>164</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-sufferingfuckheads-coppergate-20130604.mp3\"&gt;09 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3261,7 +3945,7 @@
         <v>164</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-sufferingfuckheads-coppergate-20130604.mp3\"&gt;10 Suffering Fuckheads - Coppergate - June 4th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -3276,7 +3960,7 @@
         <v>201</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006melvinsportlandwonderballroom20150907.mp3\"&gt;01 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
       </c>
     </row>
@@ -3291,7 +3975,7 @@
         <v>201</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007melvinsportlandwonderballroom20150907.mp3\"&gt;02 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
       </c>
     </row>
@@ -3306,7 +3990,7 @@
         <v>201</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008melvinsportlandwonderballroom20150907.mp3\"&gt;03 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
       </c>
     </row>
@@ -3321,7 +4005,7 @@
         <v>201</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009melvinsportlandwonderballroom20150907.mp3\"&gt;04 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
       </c>
     </row>
@@ -3336,7 +4020,7 @@
         <v>201</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010melvinsportlandwonderballroom20150907.mp3\"&gt;05 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
       </c>
     </row>
@@ -3351,7 +4035,7 @@
         <v>201</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011melvinsportlandwonderballroom20150907.mp3\"&gt;06 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
       </c>
     </row>
@@ -3366,7 +4050,7 @@
         <v>201</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012melvinsportlandwonderballroom20150907.mp3\"&gt;07 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
       </c>
     </row>
@@ -3381,7 +4065,7 @@
         <v>201</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013melvinsportlandwonderballroom20150907.mp3\"&gt;08 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
       </c>
     </row>
@@ -3396,7 +4080,7 @@
         <v>201</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014melvinsportlandwonderballroom20150907.mp3\"&gt;09 Melvins - Wonder Ballroom - Portland - September 7th, 2015&lt;/option&gt;</v>
       </c>
     </row>
@@ -3411,7 +4095,7 @@
         <v>216</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-melvins-showboxmarket-20141018.mp3\"&gt;01 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3426,7 +4110,7 @@
         <v>216</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-melvins-showboxmarket-20141018.mp3\"&gt;02 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3441,7 +4125,7 @@
         <v>216</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-melvins-showboxmarket-20141018.mp3\"&gt;03 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3456,7 +4140,7 @@
         <v>216</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-melvins-showboxmarket-20141018.mp3\"&gt;04 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3471,7 +4155,7 @@
         <v>216</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-melvins-showboxmarket-20141018.mp3\"&gt;05 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3486,7 +4170,7 @@
         <v>216</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-melvins-showboxmarket-20141018.mp3\"&gt;01 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3501,7 +4185,7 @@
         <v>216</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-melvins-showboxmarket-20141018.mp3\"&gt;02 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3516,7 +4200,7 @@
         <v>216</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-melvins-showboxmarket-20141018.mp3\"&gt;03 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3531,7 +4215,7 @@
         <v>216</v>
       </c>
       <c r="G138" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-melvins-showboxmarket-20141018.mp3\"&gt;04 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3546,7 +4230,7 @@
         <v>216</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-melvins-showboxmarket-20141018.mp3\"&gt;05 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3561,7 +4245,7 @@
         <v>216</v>
       </c>
       <c r="G140" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-melvins-showboxmarket-20141018.mp3\"&gt;06 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3576,7 +4260,7 @@
         <v>216</v>
       </c>
       <c r="G141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-melvins-showboxmarket-20141018.mp3\"&gt;07 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3591,7 +4275,7 @@
         <v>216</v>
       </c>
       <c r="G142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-melvins-showboxmarket-20141018.mp3\"&gt;08 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3606,7 +4290,7 @@
         <v>216</v>
       </c>
       <c r="G143" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-melvins-showboxmarket-20141018.mp3\"&gt;09 Melvins - Showbox Market - October 18th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3621,7 +4305,7 @@
         <v>282</v>
       </c>
       <c r="G144" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-01.mp3\"&gt;01 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3636,7 +4320,7 @@
         <v>282</v>
       </c>
       <c r="G145" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-02.mp3\"&gt;02 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3651,7 +4335,7 @@
         <v>282</v>
       </c>
       <c r="G146" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-03.mp3\"&gt;03 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3666,7 +4350,7 @@
         <v>282</v>
       </c>
       <c r="G147" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-04.mp3\"&gt;04 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3681,7 +4365,7 @@
         <v>282</v>
       </c>
       <c r="G148" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-05.mp3\"&gt;05 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3696,7 +4380,7 @@
         <v>282</v>
       </c>
       <c r="G149" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-06.mp3\"&gt;01 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3711,7 +4395,7 @@
         <v>282</v>
       </c>
       <c r="G150" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-07.mp3\"&gt;02 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3726,7 +4410,7 @@
         <v>282</v>
       </c>
       <c r="G151" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-08.mp3\"&gt;03 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3741,7 +4425,7 @@
         <v>282</v>
       </c>
       <c r="G152" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-09.mp3\"&gt;04 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3756,7 +4440,7 @@
         <v>282</v>
       </c>
       <c r="G153" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-10.mp3\"&gt;05 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3771,7 +4455,7 @@
         <v>282</v>
       </c>
       <c r="G154" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-11.mp3\"&gt;06 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3786,7 +4470,7 @@
         <v>282</v>
       </c>
       <c r="G155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-12.mp3\"&gt;07 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3801,7 +4485,7 @@
         <v>282</v>
       </c>
       <c r="G156" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-13.mp3\"&gt;08 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3816,7 +4500,7 @@
         <v>282</v>
       </c>
       <c r="G157" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-14.mp3\"&gt;09 Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3831,7 +4515,7 @@
         <v>282</v>
       </c>
       <c r="G158" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-15.mp3\"&gt;10Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3846,7 +4530,7 @@
         <v>282</v>
       </c>
       <c r="G159" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-16.mp3\"&gt;11Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3861,7 +4545,7 @@
         <v>282</v>
       </c>
       <c r="G160" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-17.mp3\"&gt;12Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3876,7 +4560,7 @@
         <v>282</v>
       </c>
       <c r="G161" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-18.mp3\"&gt;13Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3891,7 +4575,7 @@
         <v>282</v>
       </c>
       <c r="G162" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-19.mp3\"&gt;14Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3906,7 +4590,7 @@
         <v>282</v>
       </c>
       <c r="G163" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-20.mp3\"&gt;15Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3921,7 +4605,7 @@
         <v>282</v>
       </c>
       <c r="G164" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-21.mp3\"&gt;16Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3936,7 +4620,7 @@
         <v>282</v>
       </c>
       <c r="G165" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-22.mp3\"&gt;17Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3951,7 +4635,7 @@
         <v>282</v>
       </c>
       <c r="G166" t="str">
-        <f t="shared" ref="G166:G220" si="4">$A$1&amp;B166&amp;$C$1&amp;D166&amp;E166&amp;$F$1</f>
+        <f t="shared" ref="G166:G220" si="5">$A$1&amp;B166&amp;$C$1&amp;D166&amp;E166&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-23.mp3\"&gt;18Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3966,7 +4650,7 @@
         <v>282</v>
       </c>
       <c r="G167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-24.mp3\"&gt;19Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3981,7 +4665,7 @@
         <v>282</v>
       </c>
       <c r="G168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-25.mp3\"&gt;20Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -3996,7 +4680,7 @@
         <v>283</v>
       </c>
       <c r="G169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-cracksabbath-themix-20130920.mp3\"&gt;01 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4011,7 +4695,7 @@
         <v>283</v>
       </c>
       <c r="G170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-cracksabbath-themix-20130920.mp3\"&gt;02 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4026,7 +4710,7 @@
         <v>283</v>
       </c>
       <c r="G171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-cracksabbath-themix-20130920.mp3\"&gt;03 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4041,7 +4725,7 @@
         <v>283</v>
       </c>
       <c r="G172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-cracksabbath-themix-20130920.mp3\"&gt;04 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4056,7 +4740,7 @@
         <v>283</v>
       </c>
       <c r="G173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-cracksabbath-themix-20130920.mp3\"&gt;05 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4071,7 +4755,7 @@
         <v>283</v>
       </c>
       <c r="G174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-cracksabbath-themix-20130920.mp3\"&gt;01 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4086,7 +4770,7 @@
         <v>283</v>
       </c>
       <c r="G175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-cracksabbath-themix-20130920.mp3\"&gt;02 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4101,7 +4785,7 @@
         <v>283</v>
       </c>
       <c r="G176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-cracksabbath-themix-20130920.mp3\"&gt;03 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4116,7 +4800,7 @@
         <v>283</v>
       </c>
       <c r="G177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-cracksabbath-themix-20130920.mp3\"&gt;04 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4131,7 +4815,7 @@
         <v>283</v>
       </c>
       <c r="G178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-cracksabbath-themix-20130920.mp3\"&gt;05 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4146,7 +4830,7 @@
         <v>283</v>
       </c>
       <c r="G179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-cracksabbath-themix-20130920.mp3\"&gt;06 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4161,7 +4845,7 @@
         <v>283</v>
       </c>
       <c r="G180" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-cracksabbath-themix-20130920.mp3\"&gt;07 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4176,7 +4860,7 @@
         <v>283</v>
       </c>
       <c r="G181" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-cracksabbath-themix-20130920.mp3\"&gt;08 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4191,7 +4875,7 @@
         <v>283</v>
       </c>
       <c r="G182" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-cracksabbath-themix-20130920.mp3\"&gt;09 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4206,7 +4890,7 @@
         <v>283</v>
       </c>
       <c r="G183" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-cracksabbath-themix-20130920.mp3\"&gt;10Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4221,7 +4905,7 @@
         <v>283</v>
       </c>
       <c r="G184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-cracksabbath-themix-20130920.mp3\"&gt;11Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4236,7 +4920,7 @@
         <v>283</v>
       </c>
       <c r="G185" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-cracksabbath-themix-20130920.mp3\"&gt;12Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4251,7 +4935,7 @@
         <v>283</v>
       </c>
       <c r="G186" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-cracksabbath-themix-20130920.mp3\"&gt;13Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4266,7 +4950,7 @@
         <v>284</v>
       </c>
       <c r="G187" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-cracksabbath-owlandthistle-20140917.mp3\"&gt;01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4281,7 +4965,7 @@
         <v>284</v>
       </c>
       <c r="G188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-cracksabbath-owlandthistle-20140917.mp3\"&gt;02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4296,7 +4980,7 @@
         <v>284</v>
       </c>
       <c r="G189" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-cracksabbath-owlandthistle-20140917.mp3\"&gt;03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4311,7 +4995,7 @@
         <v>284</v>
       </c>
       <c r="G190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-cracksabbath-owlandthistle-20140917.mp3\"&gt;04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4326,7 +5010,7 @@
         <v>284</v>
       </c>
       <c r="G191" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-cracksabbath-owlandthistle-20140917.mp3\"&gt;05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4341,7 +5025,7 @@
         <v>284</v>
       </c>
       <c r="G192" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-cracksabbath-owlandthistle-20140917.mp3\"&gt;01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4356,7 +5040,7 @@
         <v>284</v>
       </c>
       <c r="G193" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-cracksabbath-owlandthistle-20140917.mp3\"&gt;02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4371,7 +5055,7 @@
         <v>284</v>
       </c>
       <c r="G194" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-cracksabbath-owlandthistle-20140917.mp3\"&gt;03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4386,7 +5070,7 @@
         <v>284</v>
       </c>
       <c r="G195" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-cracksabbath-owlandthistle-20140917.mp3\"&gt;04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4401,7 +5085,7 @@
         <v>284</v>
       </c>
       <c r="G196" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-cracksabbath-owlandthistle-20140917.mp3\"&gt;05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4416,7 +5100,7 @@
         <v>284</v>
       </c>
       <c r="G197" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-cracksabbath-owlandthistle-20140917.mp3\"&gt;06 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4431,7 +5115,7 @@
         <v>284</v>
       </c>
       <c r="G198" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-cracksabbath-owlandthistle-20140917.mp3\"&gt;07 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4446,7 +5130,7 @@
         <v>284</v>
       </c>
       <c r="G199" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-cracksabbath-owlandthistle-20140917.mp3\"&gt;08 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4461,7 +5145,7 @@
         <v>284</v>
       </c>
       <c r="G200" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-cracksabbath-owlandthistle-20140917.mp3\"&gt;09 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4476,7 +5160,7 @@
         <v>284</v>
       </c>
       <c r="G201" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-cracksabbath-owlandthistle-20140917.mp3\"&gt;10Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4491,7 +5175,7 @@
         <v>284</v>
       </c>
       <c r="G202" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-cracksabbath-owlandthistle-20140917.mp3\"&gt;11Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4506,7 +5190,7 @@
         <v>284</v>
       </c>
       <c r="G203" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-cracksabbath-owlandthistle-20140917.mp3\"&gt;12Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4521,7 +5205,7 @@
         <v>284</v>
       </c>
       <c r="G204" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-cracksabbath-owlandthistle-20140917.mp3\"&gt;13Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4536,7 +5220,7 @@
         <v>284</v>
       </c>
       <c r="G205" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0020-cracksabbath-owlandthistle-20140917.mp3\"&gt;14Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4551,7 +5235,7 @@
         <v>284</v>
       </c>
       <c r="G206" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0021-cracksabbath-owlandthistle-20140917.mp3\"&gt;15Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4566,7 +5250,7 @@
         <v>284</v>
       </c>
       <c r="G207" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0022-cracksabbath-owlandthistle-20140917.mp3\"&gt;16Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4581,7 +5265,7 @@
         <v>284</v>
       </c>
       <c r="G208" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0023-cracksabbath-owlandthistle-20140917.mp3\"&gt;17Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4596,7 +5280,7 @@
         <v>308</v>
       </c>
       <c r="G209" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;01 Crack Sabbath - Royal Room - June 22nd, 2013&lt;/option&gt;</v>
       </c>
       <c r="I209" s="4"/>
@@ -4612,7 +5296,7 @@
         <v>309</v>
       </c>
       <c r="G210" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;02 Crack Sabbath - Royal Room - June 22nd, 2014&lt;/option&gt;</v>
       </c>
       <c r="I210" s="4"/>
@@ -4628,7 +5312,7 @@
         <v>310</v>
       </c>
       <c r="G211" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;03 Crack Sabbath - Royal Room - June 22nd, 2015&lt;/option&gt;</v>
       </c>
       <c r="I211" s="4"/>
@@ -4644,7 +5328,7 @@
         <v>311</v>
       </c>
       <c r="G212" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;04 Crack Sabbath - Royal Room - June 22nd, 2016&lt;/option&gt;</v>
       </c>
       <c r="I212" s="4"/>
@@ -4660,7 +5344,7 @@
         <v>312</v>
       </c>
       <c r="G213" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;05 Crack Sabbath - Royal Room - June 22nd, 2017&lt;/option&gt;</v>
       </c>
       <c r="I213" s="4"/>
@@ -4676,7 +5360,7 @@
         <v>313</v>
       </c>
       <c r="G214" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;01 Crack Sabbath - Royal Room - June 22nd, 2018&lt;/option&gt;</v>
       </c>
       <c r="I214" s="4"/>
@@ -4692,7 +5376,7 @@
         <v>314</v>
       </c>
       <c r="G215" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;02 Crack Sabbath - Royal Room - June 22nd, 2019&lt;/option&gt;</v>
       </c>
       <c r="I215" s="4"/>
@@ -4708,7 +5392,7 @@
         <v>315</v>
       </c>
       <c r="G216" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;03 Crack Sabbath - Royal Room - June 22nd, 2020&lt;/option&gt;</v>
       </c>
       <c r="I216" s="4"/>
@@ -4724,7 +5408,7 @@
         <v>316</v>
       </c>
       <c r="G217" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;04 Crack Sabbath - Royal Room - June 22nd, 2021&lt;/option&gt;</v>
       </c>
       <c r="I217" s="4"/>
@@ -4740,7 +5424,7 @@
         <v>317</v>
       </c>
       <c r="G218" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;05 Crack Sabbath - Royal Room - June 22nd, 2022&lt;/option&gt;</v>
       </c>
       <c r="I218" s="4"/>
@@ -4756,7 +5440,7 @@
         <v>318</v>
       </c>
       <c r="G219" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;06 Crack Sabbath - Royal Room - June 22nd, 2023&lt;/option&gt;</v>
       </c>
       <c r="I219" s="4"/>
@@ -4772,7 +5456,7 @@
         <v>319</v>
       </c>
       <c r="G220" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;07 Crack Sabbath - Royal Room - June 22nd, 2024&lt;/option&gt;</v>
       </c>
       <c r="I220" s="4"/>
@@ -4932,20 +5616,1002 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A52:A248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D22"/>
+      <selection activeCell="A51" sqref="A1:M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <sortState ref="A1:A65">
-    <sortCondition ref="A1"/>
+  <sheetData>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:P396">
+    <sortCondition ref="A79"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4955,4 +6621,1174 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" t="str">
+        <f>A1&amp;"%20"&amp;B1&amp;"%20"&amp;C1&amp;"%20"&amp;D1&amp;"%20"&amp;E1&amp;"%20"&amp;F1&amp;"%20"&amp;G1&amp;"%20"&amp;H1</f>
+        <v>01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I58" si="0">A2&amp;"%20"&amp;B2&amp;"%20"&amp;C2&amp;"%20"&amp;D2&amp;"%20"&amp;E2&amp;"%20"&amp;F2&amp;"%20"&amp;G2&amp;"%20"&amp;H2</f>
+        <v>1%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>1%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>02inthemorning-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>2%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>384</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>2%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>3%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>3%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>322</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>03theplan-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>323</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>04strange-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" t="s">
+        <v>390</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>4%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>5%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>393</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>5%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>05untrustable-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>06else-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" t="s">
+        <v>396</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>6%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3%20%20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>6%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" t="s">
+        <v>399</v>
+      </c>
+      <c r="D18" t="s">
+        <v>400</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>7%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>398</v>
+      </c>
+      <c r="C19" t="s">
+        <v>399</v>
+      </c>
+      <c r="D19" t="s">
+        <v>401</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>7%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>326</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>07messwithtime-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>327</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" t="s">
+        <v>403</v>
+      </c>
+      <c r="D22" t="s">
+        <v>404</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>8%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>405</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>8%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C24" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24" t="s">
+        <v>408</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>9%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3%20%20%20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>09getalife-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D26" t="s">
+        <v>411</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>9%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" t="s">
+        <v>413</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3%20%20%20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>329</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>10joyride-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" t="s">
+        <v>415</v>
+      </c>
+      <c r="D29" t="s">
+        <v>416</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>417</v>
+      </c>
+      <c r="C30" t="s">
+        <v>418</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E31" t="s">
+        <v>382</v>
+      </c>
+      <c r="F31" t="s">
+        <v>419</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3%20%20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>330</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>11stab-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>331</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>12carrythezero-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>385</v>
+      </c>
+      <c r="C34" t="s">
+        <v>420</v>
+      </c>
+      <c r="D34" t="s">
+        <v>382</v>
+      </c>
+      <c r="E34" t="s">
+        <v>421</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3%20%20%20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>422</v>
+      </c>
+      <c r="C35" t="s">
+        <v>410</v>
+      </c>
+      <c r="D35" t="s">
+        <v>423</v>
+      </c>
+      <c r="E35" t="s">
+        <v>424</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" t="s">
+        <v>387</v>
+      </c>
+      <c r="D36" t="s">
+        <v>426</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>427</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>332</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>13youwereright-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>333</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>14bigdipper-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C40" t="s">
+        <v>410</v>
+      </c>
+      <c r="D40" t="s">
+        <v>429</v>
+      </c>
+      <c r="E40" t="s">
+        <v>430</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>431</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>334</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>432</v>
+      </c>
+      <c r="C43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E43" t="s">
+        <v>435</v>
+      </c>
+      <c r="F43" t="s">
+        <v>410</v>
+      </c>
+      <c r="G43" t="s">
+        <v>436</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3%20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>437</v>
+      </c>
+      <c r="C44" t="s">
+        <v>438</v>
+      </c>
+      <c r="D44" t="s">
+        <v>439</v>
+      </c>
+      <c r="E44" t="s">
+        <v>399</v>
+      </c>
+      <c r="F44" t="s">
+        <v>440</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3%20%20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>441</v>
+      </c>
+      <c r="C45" t="s">
+        <v>386</v>
+      </c>
+      <c r="D45" t="s">
+        <v>442</v>
+      </c>
+      <c r="E45" t="s">
+        <v>410</v>
+      </c>
+      <c r="F45" t="s">
+        <v>443</v>
+      </c>
+      <c r="G45" t="s">
+        <v>444</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3%20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>335</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C47" t="s">
+        <v>433</v>
+      </c>
+      <c r="D47" t="s">
+        <v>445</v>
+      </c>
+      <c r="E47" t="s">
+        <v>435</v>
+      </c>
+      <c r="F47" t="s">
+        <v>410</v>
+      </c>
+      <c r="G47" t="s">
+        <v>382</v>
+      </c>
+      <c r="H47" t="s">
+        <v>446</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>447</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>336</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>bts-center-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>337</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>bts-fly-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>338</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>339</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>340</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>341</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>342</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>343</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>bts-theplan-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>344</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>bts-untitled-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>345</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="I59" t="str">
+        <f t="shared" ref="I2:I59" si="1">A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" "&amp;D59&amp;" "&amp;E59&amp;" "&amp;F59&amp;" "&amp;G59&amp;" "&amp;H59</f>
+        <v xml:space="preserve">       </v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="106" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="46440" windowHeight="24660" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OPTION" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="514">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -1471,178 +1471,100 @@
     <t>ZOOM0051-lastgasp-highline-2014.mp3</t>
   </si>
   <si>
-    <t>01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>1%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</t>
-  </si>
-  <si>
-    <t>1%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>02inthemorning-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>2%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</t>
-  </si>
-  <si>
-    <t>2%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>3%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</t>
-  </si>
-  <si>
-    <t>3%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>03theplan-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>04strange-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>4%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>5%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>5%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>05untrustable-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>06else-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>6%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3%20%20</t>
-  </si>
-  <si>
-    <t>6%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>7%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20</t>
-  </si>
-  <si>
-    <t>7%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</t>
-  </si>
-  <si>
-    <t>07messwithtime-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>8%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20</t>
-  </si>
-  <si>
-    <t>8%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>9%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3%20%20%20</t>
-  </si>
-  <si>
-    <t>09getalife-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>9%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</t>
-  </si>
-  <si>
-    <t>10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3%20%20%20</t>
-  </si>
-  <si>
-    <t>10joyride-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</t>
-  </si>
-  <si>
-    <t>11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3%20%20</t>
-  </si>
-  <si>
-    <t>11stab-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>12carrythezero-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3%20%20%20</t>
-  </si>
-  <si>
-    <t>12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</t>
-  </si>
-  <si>
-    <t>13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20</t>
-  </si>
-  <si>
-    <t>13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>13youwereright-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>14bigdipper-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20</t>
-  </si>
-  <si>
-    <t>14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3%20</t>
-  </si>
-  <si>
-    <t>15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3%20%20</t>
-  </si>
-  <si>
-    <t>16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3%20</t>
-  </si>
-  <si>
-    <t>16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
     <t>17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3</t>
   </si>
   <si>
-    <t>18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>bts-center-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>bts-fly-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>bts-theplan-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>bts-untitled-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
-  </si>
-  <si>
-    <t>bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3%20%20%20%20%20%20%20</t>
+    <t>1%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>2%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>3%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>5%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>6%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>6%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>7%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>7%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>8%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>8%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>9%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>1%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>2%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>3%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>4%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>5%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>9%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3</t>
   </si>
 </sst>
 </file>
@@ -7464,7 +7386,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="I59" t="str">
-        <f t="shared" ref="I2:I59" si="1">A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" "&amp;D59&amp;" "&amp;E59&amp;" "&amp;F59&amp;" "&amp;G59&amp;" "&amp;H59</f>
+        <f t="shared" ref="I59" si="1">A59&amp;" "&amp;B59&amp;" "&amp;C59&amp;" "&amp;D59&amp;" "&amp;E59&amp;" "&amp;F59&amp;" "&amp;G59&amp;" "&amp;H59</f>
         <v xml:space="preserve">       </v>
       </c>
     </row>
@@ -7485,7 +7407,7 @@
   <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7495,292 +7417,292 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>482</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>509</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>513</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>514</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>519</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>520</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>523</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>527</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>530</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>531</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>532</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>533</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>534</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>535</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>536</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>537</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>538</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>539</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="OPTION" sheetId="1" r:id="rId1"/>
-    <sheet name="IMG" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="SONGS WITH SPACES" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="OPTIONaudio" sheetId="1" r:id="rId1"/>
+    <sheet name="OPTIONvideo" sheetId="7" r:id="rId2"/>
+    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId3"/>
+    <sheet name="IMG" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="SONGS WITH SPACES" sheetId="5" r:id="rId6"/>
+    <sheet name="built to spill" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="550">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -1565,6 +1567,114 @@
   </si>
   <si>
     <t>16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>Sk8creteordie over the light at Marginal</t>
+  </si>
+  <si>
+    <t>WXPFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02</t>
+  </si>
+  <si>
+    <t>Kayla Cheering</t>
+  </si>
+  <si>
+    <t>&lt;option value=\"http://seattlerules.com/media/</t>
+  </si>
+  <si>
+    <t>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/</t>
+  </si>
+  <si>
+    <t>sk8crete201408131923451.mp4</t>
+  </si>
+  <si>
+    <t>sk8crete201408131950341.mp4</t>
+  </si>
+  <si>
+    <t>sk8crete201408131952541.mp4</t>
+  </si>
+  <si>
+    <t>sk8crete201408131956261.mp4</t>
+  </si>
+  <si>
+    <t>sk8crete201408132002401.mp4</t>
+  </si>
+  <si>
+    <t>sk8crete201408132012071.mp4</t>
+  </si>
+  <si>
+    <t>sk8crete201408142156021.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0098.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0101.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0103.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0106.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0109.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0113.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0116.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0117.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0119.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0120.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/IMG_0127.mp4</t>
+  </si>
+  <si>
+    <t>wxpfl/wxpfl-greenwood-201411.mp4</t>
+  </si>
+  <si>
+    <t>kaylacheering/kayla_cheerleading_20150215.mp4</t>
+  </si>
+  <si>
+    <t>kaylacheering/kayla_cheerleading_20150215b.mp4</t>
+  </si>
+  <si>
+    <t>marginal/jim-marginal-overthelight-march2015.mp4</t>
+  </si>
+  <si>
+    <t>Sk8creteordie cellphoto</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1730,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1699,6 +1809,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1776,7 +1899,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="160">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1884,6 +2007,19 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2252,14 +2388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221:B278"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221:F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
     <col min="2" max="2" width="53.1640625" customWidth="1"/>
     <col min="3" max="3" width="2.5" customWidth="1"/>
     <col min="4" max="4" width="3.1640625" customWidth="1"/>
@@ -4557,7 +4694,7 @@
         <v>282</v>
       </c>
       <c r="G166" t="str">
-        <f t="shared" ref="G166:G220" si="5">$A$1&amp;B166&amp;$C$1&amp;D166&amp;E166&amp;$F$1</f>
+        <f>$A$1&amp;B166&amp;$C$1&amp;D166&amp;E166&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-23.mp3\"&gt;18Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4572,7 +4709,7 @@
         <v>282</v>
       </c>
       <c r="G167" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B167&amp;$C$1&amp;D167&amp;E167&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-24.mp3\"&gt;19Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4587,7 +4724,7 @@
         <v>282</v>
       </c>
       <c r="G168" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B168&amp;$C$1&amp;D168&amp;E168&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-25.mp3\"&gt;20Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4602,7 +4739,7 @@
         <v>283</v>
       </c>
       <c r="G169" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B169&amp;$C$1&amp;D169&amp;E169&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-cracksabbath-themix-20130920.mp3\"&gt;01 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4617,7 +4754,7 @@
         <v>283</v>
       </c>
       <c r="G170" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B170&amp;$C$1&amp;D170&amp;E170&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-cracksabbath-themix-20130920.mp3\"&gt;02 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4632,7 +4769,7 @@
         <v>283</v>
       </c>
       <c r="G171" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B171&amp;$C$1&amp;D171&amp;E171&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-cracksabbath-themix-20130920.mp3\"&gt;03 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4647,7 +4784,7 @@
         <v>283</v>
       </c>
       <c r="G172" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B172&amp;$C$1&amp;D172&amp;E172&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-cracksabbath-themix-20130920.mp3\"&gt;04 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4662,7 +4799,7 @@
         <v>283</v>
       </c>
       <c r="G173" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B173&amp;$C$1&amp;D173&amp;E173&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-cracksabbath-themix-20130920.mp3\"&gt;05 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4677,7 +4814,7 @@
         <v>283</v>
       </c>
       <c r="G174" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B174&amp;$C$1&amp;D174&amp;E174&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-cracksabbath-themix-20130920.mp3\"&gt;01 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4692,7 +4829,7 @@
         <v>283</v>
       </c>
       <c r="G175" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B175&amp;$C$1&amp;D175&amp;E175&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-cracksabbath-themix-20130920.mp3\"&gt;02 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4707,7 +4844,7 @@
         <v>283</v>
       </c>
       <c r="G176" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B176&amp;$C$1&amp;D176&amp;E176&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-cracksabbath-themix-20130920.mp3\"&gt;03 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4722,7 +4859,7 @@
         <v>283</v>
       </c>
       <c r="G177" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B177&amp;$C$1&amp;D177&amp;E177&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-cracksabbath-themix-20130920.mp3\"&gt;04 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4737,7 +4874,7 @@
         <v>283</v>
       </c>
       <c r="G178" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B178&amp;$C$1&amp;D178&amp;E178&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-cracksabbath-themix-20130920.mp3\"&gt;05 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4752,7 +4889,7 @@
         <v>283</v>
       </c>
       <c r="G179" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B179&amp;$C$1&amp;D179&amp;E179&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-cracksabbath-themix-20130920.mp3\"&gt;06 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4767,7 +4904,7 @@
         <v>283</v>
       </c>
       <c r="G180" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B180&amp;$C$1&amp;D180&amp;E180&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-cracksabbath-themix-20130920.mp3\"&gt;07 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4782,7 +4919,7 @@
         <v>283</v>
       </c>
       <c r="G181" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B181&amp;$C$1&amp;D181&amp;E181&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-cracksabbath-themix-20130920.mp3\"&gt;08 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4797,7 +4934,7 @@
         <v>283</v>
       </c>
       <c r="G182" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B182&amp;$C$1&amp;D182&amp;E182&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-cracksabbath-themix-20130920.mp3\"&gt;09 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4812,7 +4949,7 @@
         <v>283</v>
       </c>
       <c r="G183" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B183&amp;$C$1&amp;D183&amp;E183&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-cracksabbath-themix-20130920.mp3\"&gt;10Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4827,7 +4964,7 @@
         <v>283</v>
       </c>
       <c r="G184" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B184&amp;$C$1&amp;D184&amp;E184&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-cracksabbath-themix-20130920.mp3\"&gt;11Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4842,7 +4979,7 @@
         <v>283</v>
       </c>
       <c r="G185" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B185&amp;$C$1&amp;D185&amp;E185&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-cracksabbath-themix-20130920.mp3\"&gt;12Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4857,7 +4994,7 @@
         <v>283</v>
       </c>
       <c r="G186" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B186&amp;$C$1&amp;D186&amp;E186&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-cracksabbath-themix-20130920.mp3\"&gt;13Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4872,7 +5009,7 @@
         <v>284</v>
       </c>
       <c r="G187" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B187&amp;$C$1&amp;D187&amp;E187&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-cracksabbath-owlandthistle-20140917.mp3\"&gt;01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4887,7 +5024,7 @@
         <v>284</v>
       </c>
       <c r="G188" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B188&amp;$C$1&amp;D188&amp;E188&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-cracksabbath-owlandthistle-20140917.mp3\"&gt;02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4902,7 +5039,7 @@
         <v>284</v>
       </c>
       <c r="G189" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B189&amp;$C$1&amp;D189&amp;E189&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-cracksabbath-owlandthistle-20140917.mp3\"&gt;03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4917,7 +5054,7 @@
         <v>284</v>
       </c>
       <c r="G190" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B190&amp;$C$1&amp;D190&amp;E190&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-cracksabbath-owlandthistle-20140917.mp3\"&gt;04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4932,7 +5069,7 @@
         <v>284</v>
       </c>
       <c r="G191" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B191&amp;$C$1&amp;D191&amp;E191&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-cracksabbath-owlandthistle-20140917.mp3\"&gt;05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4947,7 +5084,7 @@
         <v>284</v>
       </c>
       <c r="G192" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B192&amp;$C$1&amp;D192&amp;E192&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-cracksabbath-owlandthistle-20140917.mp3\"&gt;01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4962,7 +5099,7 @@
         <v>284</v>
       </c>
       <c r="G193" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B193&amp;$C$1&amp;D193&amp;E193&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-cracksabbath-owlandthistle-20140917.mp3\"&gt;02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4977,7 +5114,7 @@
         <v>284</v>
       </c>
       <c r="G194" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B194&amp;$C$1&amp;D194&amp;E194&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-cracksabbath-owlandthistle-20140917.mp3\"&gt;03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4992,7 +5129,7 @@
         <v>284</v>
       </c>
       <c r="G195" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B195&amp;$C$1&amp;D195&amp;E195&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-cracksabbath-owlandthistle-20140917.mp3\"&gt;04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5007,7 +5144,7 @@
         <v>284</v>
       </c>
       <c r="G196" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B196&amp;$C$1&amp;D196&amp;E196&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-cracksabbath-owlandthistle-20140917.mp3\"&gt;05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5022,7 +5159,7 @@
         <v>284</v>
       </c>
       <c r="G197" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B197&amp;$C$1&amp;D197&amp;E197&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-cracksabbath-owlandthistle-20140917.mp3\"&gt;06 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5037,7 +5174,7 @@
         <v>284</v>
       </c>
       <c r="G198" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B198&amp;$C$1&amp;D198&amp;E198&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-cracksabbath-owlandthistle-20140917.mp3\"&gt;07 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5052,7 +5189,7 @@
         <v>284</v>
       </c>
       <c r="G199" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B199&amp;$C$1&amp;D199&amp;E199&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-cracksabbath-owlandthistle-20140917.mp3\"&gt;08 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5067,7 +5204,7 @@
         <v>284</v>
       </c>
       <c r="G200" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B200&amp;$C$1&amp;D200&amp;E200&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-cracksabbath-owlandthistle-20140917.mp3\"&gt;09 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5082,7 +5219,7 @@
         <v>284</v>
       </c>
       <c r="G201" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B201&amp;$C$1&amp;D201&amp;E201&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-cracksabbath-owlandthistle-20140917.mp3\"&gt;10Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5097,7 +5234,7 @@
         <v>284</v>
       </c>
       <c r="G202" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B202&amp;$C$1&amp;D202&amp;E202&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-cracksabbath-owlandthistle-20140917.mp3\"&gt;11Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5112,7 +5249,7 @@
         <v>284</v>
       </c>
       <c r="G203" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B203&amp;$C$1&amp;D203&amp;E203&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-cracksabbath-owlandthistle-20140917.mp3\"&gt;12Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5127,7 +5264,7 @@
         <v>284</v>
       </c>
       <c r="G204" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B204&amp;$C$1&amp;D204&amp;E204&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-cracksabbath-owlandthistle-20140917.mp3\"&gt;13Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5142,7 +5279,7 @@
         <v>284</v>
       </c>
       <c r="G205" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B205&amp;$C$1&amp;D205&amp;E205&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0020-cracksabbath-owlandthistle-20140917.mp3\"&gt;14Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5157,7 +5294,7 @@
         <v>284</v>
       </c>
       <c r="G206" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B206&amp;$C$1&amp;D206&amp;E206&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0021-cracksabbath-owlandthistle-20140917.mp3\"&gt;15Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5172,7 +5309,7 @@
         <v>284</v>
       </c>
       <c r="G207" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B207&amp;$C$1&amp;D207&amp;E207&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0022-cracksabbath-owlandthistle-20140917.mp3\"&gt;16Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5187,7 +5324,7 @@
         <v>284</v>
       </c>
       <c r="G208" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B208&amp;$C$1&amp;D208&amp;E208&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0023-cracksabbath-owlandthistle-20140917.mp3\"&gt;17Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5202,7 +5339,7 @@
         <v>308</v>
       </c>
       <c r="G209" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B209&amp;$C$1&amp;D209&amp;E209&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;01 Crack Sabbath - Royal Room - June 22nd, 2013&lt;/option&gt;</v>
       </c>
       <c r="I209" s="4"/>
@@ -5218,7 +5355,7 @@
         <v>309</v>
       </c>
       <c r="G210" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B210&amp;$C$1&amp;D210&amp;E210&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;02 Crack Sabbath - Royal Room - June 22nd, 2014&lt;/option&gt;</v>
       </c>
       <c r="I210" s="4"/>
@@ -5234,7 +5371,7 @@
         <v>310</v>
       </c>
       <c r="G211" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B211&amp;$C$1&amp;D211&amp;E211&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;03 Crack Sabbath - Royal Room - June 22nd, 2015&lt;/option&gt;</v>
       </c>
       <c r="I211" s="4"/>
@@ -5250,7 +5387,7 @@
         <v>311</v>
       </c>
       <c r="G212" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B212&amp;$C$1&amp;D212&amp;E212&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;04 Crack Sabbath - Royal Room - June 22nd, 2016&lt;/option&gt;</v>
       </c>
       <c r="I212" s="4"/>
@@ -5266,7 +5403,7 @@
         <v>312</v>
       </c>
       <c r="G213" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B213&amp;$C$1&amp;D213&amp;E213&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;05 Crack Sabbath - Royal Room - June 22nd, 2017&lt;/option&gt;</v>
       </c>
       <c r="I213" s="4"/>
@@ -5282,7 +5419,7 @@
         <v>313</v>
       </c>
       <c r="G214" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B214&amp;$C$1&amp;D214&amp;E214&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;01 Crack Sabbath - Royal Room - June 22nd, 2018&lt;/option&gt;</v>
       </c>
       <c r="I214" s="4"/>
@@ -5298,7 +5435,7 @@
         <v>314</v>
       </c>
       <c r="G215" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B215&amp;$C$1&amp;D215&amp;E215&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;02 Crack Sabbath - Royal Room - June 22nd, 2019&lt;/option&gt;</v>
       </c>
       <c r="I215" s="4"/>
@@ -5314,7 +5451,7 @@
         <v>315</v>
       </c>
       <c r="G216" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B216&amp;$C$1&amp;D216&amp;E216&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;03 Crack Sabbath - Royal Room - June 22nd, 2020&lt;/option&gt;</v>
       </c>
       <c r="I216" s="4"/>
@@ -5330,7 +5467,7 @@
         <v>316</v>
       </c>
       <c r="G217" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B217&amp;$C$1&amp;D217&amp;E217&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;04 Crack Sabbath - Royal Room - June 22nd, 2021&lt;/option&gt;</v>
       </c>
       <c r="I217" s="4"/>
@@ -5346,7 +5483,7 @@
         <v>317</v>
       </c>
       <c r="G218" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B218&amp;$C$1&amp;D218&amp;E218&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;05 Crack Sabbath - Royal Room - June 22nd, 2022&lt;/option&gt;</v>
       </c>
       <c r="I218" s="4"/>
@@ -5362,7 +5499,7 @@
         <v>318</v>
       </c>
       <c r="G219" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B219&amp;$C$1&amp;D219&amp;E219&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;06 Crack Sabbath - Royal Room - June 22nd, 2023&lt;/option&gt;</v>
       </c>
       <c r="I219" s="4"/>
@@ -5378,10 +5515,100 @@
         <v>319</v>
       </c>
       <c r="G220" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;B220&amp;$C$1&amp;D220&amp;E220&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;07 Crack Sabbath - Royal Room - June 22nd, 2024&lt;/option&gt;</v>
       </c>
       <c r="I220" s="4"/>
+    </row>
+    <row r="221" spans="2:9">
+      <c r="G221" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B2&amp;$C$1&amp;'OPTIONvideo (2)'!D2&amp;'OPTIONvideo (2)'!E2&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/marginal/jim-marginal-overthelight-march2015.mp4\"&gt;Sk8creteordie over the light at Marginal&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9">
+      <c r="G222" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B3&amp;$C$1&amp;'OPTIONvideo (2)'!D3&amp;'OPTIONvideo (2)'!E3&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0098.mp4\"&gt;01 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9">
+      <c r="G223" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B4&amp;$C$1&amp;'OPTIONvideo (2)'!D4&amp;'OPTIONvideo (2)'!E4&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0101.mp4\"&gt;02 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9">
+      <c r="G224" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B5&amp;$C$1&amp;'OPTIONvideo (2)'!D5&amp;'OPTIONvideo (2)'!E5&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0103.mp4\"&gt;03 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="225" spans="7:7">
+      <c r="G225" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B6&amp;$C$1&amp;'OPTIONvideo (2)'!D6&amp;'OPTIONvideo (2)'!E6&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0106.mp4\"&gt;04 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="226" spans="7:7">
+      <c r="G226" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B7&amp;$C$1&amp;'OPTIONvideo (2)'!D7&amp;'OPTIONvideo (2)'!E7&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0109.mp4\"&gt;05 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="227" spans="7:7">
+      <c r="G227" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B8&amp;$C$1&amp;'OPTIONvideo (2)'!D8&amp;'OPTIONvideo (2)'!E8&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0113.mp4\"&gt;01 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="228" spans="7:7">
+      <c r="G228" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B9&amp;$C$1&amp;'OPTIONvideo (2)'!D9&amp;'OPTIONvideo (2)'!E9&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0116.mp4\"&gt;02 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="229" spans="7:7">
+      <c r="G229" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B10&amp;$C$1&amp;'OPTIONvideo (2)'!D10&amp;'OPTIONvideo (2)'!E10&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0117.mp4\"&gt;03 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="230" spans="7:7">
+      <c r="G230" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B11&amp;$C$1&amp;'OPTIONvideo (2)'!D11&amp;'OPTIONvideo (2)'!E11&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0119.mp4\"&gt;04 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="231" spans="7:7">
+      <c r="G231" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B12&amp;$C$1&amp;'OPTIONvideo (2)'!D12&amp;'OPTIONvideo (2)'!E12&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0120.mp4\"&gt;05 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="232" spans="7:7">
+      <c r="G232" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B13&amp;$C$1&amp;'OPTIONvideo (2)'!D13&amp;'OPTIONvideo (2)'!E13&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0127.mp4\"&gt;06 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="233" spans="7:7">
+      <c r="G233" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B14&amp;$C$1&amp;'OPTIONvideo (2)'!D14&amp;'OPTIONvideo (2)'!E14&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/wxpfl-greenwood-201411.mp4\"&gt;07 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="234" spans="7:7">
+      <c r="G234" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B15&amp;$C$1&amp;'OPTIONvideo (2)'!D15&amp;'OPTIONvideo (2)'!E15&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/kaylacheering/kayla_cheerleading_20150215.mp4\"&gt;01 Kayla Cheering&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="235" spans="7:7">
+      <c r="G235" t="str">
+        <f>$A$1&amp;'OPTIONvideo (2)'!B16&amp;$C$1&amp;'OPTIONvideo (2)'!D16&amp;'OPTIONvideo (2)'!E16&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/kaylacheering/kayla_cheerleading_20150215b.mp4\"&gt; 02Kayla Cheering&lt;/option&gt;</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A70:G120">
@@ -5392,6 +5619,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="D71:D120" numberStoredAsText="1"/>
+    <ignoredError sqref="G221" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5402,6 +5630,417 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="str">
+        <f>$A$1&amp;B1&amp;$C$1&amp;D1&amp;E1&amp;$F$1</f>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/ZOOM0001roxhillsessions20150827.mp3\"&gt;&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">$A$1&amp;B2&amp;$C$1&amp;D2&amp;E2&amp;$F$1</f>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131923451.mp4\"&gt;01Sk8creteordie cellphoto&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131950341.mp4\"&gt;02Sk8creteordie cellphoto&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131952541.mp4\"&gt;03Sk8creteordie cellphoto&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" t="s">
+        <v>542</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131956261.mp4\"&gt;04Sk8creteordie cellphoto&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408132002401.mp4\"&gt;05Sk8creteordie cellphoto&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408132012071.mp4\"&gt;06Sk8creteordie cellphoto&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E8" t="s">
+        <v>542</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408142156021.mp4\"&gt;07Sk8creteordie cellphoto&lt;/option&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="str">
+        <f>$A$1&amp;B1&amp;$C$1&amp;D1&amp;E1&amp;$F$1</f>
+        <v>&lt;option value=\"http://seattlerules.com/media/\"&gt;&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G16" si="0">$A$1&amp;B2&amp;$C$1&amp;D2&amp;E2&amp;$F$1</f>
+        <v>&lt;option value=\"http://seattlerules.com/media/marginal/jim-marginal-overthelight-march2015.mp4\"&gt;Sk8creteordie over the light at Marginal&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0098.mp4\"&gt;01 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0101.mp4\"&gt;02 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0103.mp4\"&gt;03 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
+        <v>515</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0106.mp4\"&gt;04 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0109.mp4\"&gt;05 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>515</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0113.mp4\"&gt;01 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>533</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>515</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0116.mp4\"&gt;02 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>534</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0117.mp4\"&gt;03 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>535</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0119.mp4\"&gt;04 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0120.mp4\"&gt;05 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/IMG_0127.mp4\"&gt;06 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>538</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/wxpfl/wxpfl-greenwood-201411.mp4\"&gt;07 WXPFL&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/kaylacheering/kayla_cheerleading_20150215.mp4\"&gt;01 Kayla Cheering&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>540</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value=\"http://seattlerules.com/media/kaylacheering/kayla_cheerleading_20150215b.mp4\"&gt; 02Kayla Cheering&lt;/option&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -5536,7 +6175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A52:A248"/>
   <sheetViews>
@@ -6545,7 +7184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
@@ -7402,11 +8041,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="544">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -1656,25 +1656,7 @@
     <t>Sk8creteordie cellphoto</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
+    <t xml:space="preserve">06  </t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1712,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="160">
+  <cellStyleXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1809,6 +1791,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1899,7 +1883,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="160">
+  <cellStyles count="162">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2020,6 +2004,8 @@
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5634,7 +5620,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5666,14 +5652,14 @@
         <v>520</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>543</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
         <v>542</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G8" si="0">$A$1&amp;B2&amp;$C$1&amp;D2&amp;E2&amp;$F$1</f>
-        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131923451.mp4\"&gt;01Sk8creteordie cellphoto&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131923451.mp4\"&gt;01 Sk8creteordie cellphoto&lt;/option&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5681,14 +5667,14 @@
         <v>521</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>544</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
         <v>542</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131950341.mp4\"&gt;02Sk8creteordie cellphoto&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131950341.mp4\"&gt;02 Sk8creteordie cellphoto&lt;/option&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5696,14 +5682,14 @@
         <v>522</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>545</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
         <v>542</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131952541.mp4\"&gt;03Sk8creteordie cellphoto&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131952541.mp4\"&gt;03 Sk8creteordie cellphoto&lt;/option&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5711,14 +5697,14 @@
         <v>523</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>546</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
         <v>542</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131956261.mp4\"&gt;04Sk8creteordie cellphoto&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408131956261.mp4\"&gt;04 Sk8creteordie cellphoto&lt;/option&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5726,14 +5712,14 @@
         <v>524</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>547</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
         <v>542</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408132002401.mp4\"&gt;05Sk8creteordie cellphoto&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408132002401.mp4\"&gt;05 Sk8creteordie cellphoto&lt;/option&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5741,14 +5727,14 @@
         <v>525</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E7" t="s">
         <v>542</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408132012071.mp4\"&gt;06Sk8creteordie cellphoto&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408132012071.mp4\"&gt;06  Sk8creteordie cellphoto&lt;/option&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5756,14 +5742,14 @@
         <v>526</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>549</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
         <v>542</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408142156021.mp4\"&gt;07Sk8creteordie cellphoto&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://seattlerules.com/cellphoto/cellphoto/sk8crete201408142156021.mp4\"&gt;07 Sk8creteordie cellphoto&lt;/option&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="760"/>
   </bookViews>
   <sheets>
     <sheet name="OPTIONaudio" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="561">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -1657,6 +1657,57 @@
   </si>
   <si>
     <t xml:space="preserve">06  </t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1763,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="162">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1791,6 +1842,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1883,7 +1939,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="162">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2006,6 +2062,11 @@
     <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2374,20 +2435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221:F235"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="G227" sqref="G227:G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="91.5" customWidth="1"/>
     <col min="3" max="3" width="2.5" customWidth="1"/>
     <col min="4" max="4" width="3.1640625" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="78.1640625" customWidth="1"/>
   </cols>
@@ -4680,7 +4741,7 @@
         <v>282</v>
       </c>
       <c r="G166" t="str">
-        <f>$A$1&amp;B166&amp;$C$1&amp;D166&amp;E166&amp;$F$1</f>
+        <f t="shared" ref="G166:G197" si="5">$A$1&amp;B166&amp;$C$1&amp;D166&amp;E166&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-23.mp3\"&gt;18Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4695,7 +4756,7 @@
         <v>282</v>
       </c>
       <c r="G167" t="str">
-        <f>$A$1&amp;B167&amp;$C$1&amp;D167&amp;E167&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-24.mp3\"&gt;19Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4710,7 +4771,7 @@
         <v>282</v>
       </c>
       <c r="G168" t="str">
-        <f>$A$1&amp;B168&amp;$C$1&amp;D168&amp;E168&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/cracksabbath20140509-25.mp3\"&gt;20Crack Sabbath - Darrell's - May 8th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -4725,7 +4786,7 @@
         <v>283</v>
       </c>
       <c r="G169" t="str">
-        <f>$A$1&amp;B169&amp;$C$1&amp;D169&amp;E169&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-cracksabbath-themix-20130920.mp3\"&gt;01 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4740,7 +4801,7 @@
         <v>283</v>
       </c>
       <c r="G170" t="str">
-        <f>$A$1&amp;B170&amp;$C$1&amp;D170&amp;E170&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-cracksabbath-themix-20130920.mp3\"&gt;02 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4755,7 +4816,7 @@
         <v>283</v>
       </c>
       <c r="G171" t="str">
-        <f>$A$1&amp;B171&amp;$C$1&amp;D171&amp;E171&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-cracksabbath-themix-20130920.mp3\"&gt;03 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4770,7 +4831,7 @@
         <v>283</v>
       </c>
       <c r="G172" t="str">
-        <f>$A$1&amp;B172&amp;$C$1&amp;D172&amp;E172&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-cracksabbath-themix-20130920.mp3\"&gt;04 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4785,7 +4846,7 @@
         <v>283</v>
       </c>
       <c r="G173" t="str">
-        <f>$A$1&amp;B173&amp;$C$1&amp;D173&amp;E173&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-cracksabbath-themix-20130920.mp3\"&gt;05 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4800,7 +4861,7 @@
         <v>283</v>
       </c>
       <c r="G174" t="str">
-        <f>$A$1&amp;B174&amp;$C$1&amp;D174&amp;E174&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-cracksabbath-themix-20130920.mp3\"&gt;01 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4815,7 +4876,7 @@
         <v>283</v>
       </c>
       <c r="G175" t="str">
-        <f>$A$1&amp;B175&amp;$C$1&amp;D175&amp;E175&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-cracksabbath-themix-20130920.mp3\"&gt;02 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4830,7 +4891,7 @@
         <v>283</v>
       </c>
       <c r="G176" t="str">
-        <f>$A$1&amp;B176&amp;$C$1&amp;D176&amp;E176&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-cracksabbath-themix-20130920.mp3\"&gt;03 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4845,7 +4906,7 @@
         <v>283</v>
       </c>
       <c r="G177" t="str">
-        <f>$A$1&amp;B177&amp;$C$1&amp;D177&amp;E177&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-cracksabbath-themix-20130920.mp3\"&gt;04 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4860,7 +4921,7 @@
         <v>283</v>
       </c>
       <c r="G178" t="str">
-        <f>$A$1&amp;B178&amp;$C$1&amp;D178&amp;E178&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-cracksabbath-themix-20130920.mp3\"&gt;05 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4875,7 +4936,7 @@
         <v>283</v>
       </c>
       <c r="G179" t="str">
-        <f>$A$1&amp;B179&amp;$C$1&amp;D179&amp;E179&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-cracksabbath-themix-20130920.mp3\"&gt;06 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4890,7 +4951,7 @@
         <v>283</v>
       </c>
       <c r="G180" t="str">
-        <f>$A$1&amp;B180&amp;$C$1&amp;D180&amp;E180&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-cracksabbath-themix-20130920.mp3\"&gt;07 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4905,7 +4966,7 @@
         <v>283</v>
       </c>
       <c r="G181" t="str">
-        <f>$A$1&amp;B181&amp;$C$1&amp;D181&amp;E181&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-cracksabbath-themix-20130920.mp3\"&gt;08 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4920,7 +4981,7 @@
         <v>283</v>
       </c>
       <c r="G182" t="str">
-        <f>$A$1&amp;B182&amp;$C$1&amp;D182&amp;E182&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-cracksabbath-themix-20130920.mp3\"&gt;09 Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4935,7 +4996,7 @@
         <v>283</v>
       </c>
       <c r="G183" t="str">
-        <f>$A$1&amp;B183&amp;$C$1&amp;D183&amp;E183&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-cracksabbath-themix-20130920.mp3\"&gt;10Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4950,7 +5011,7 @@
         <v>283</v>
       </c>
       <c r="G184" t="str">
-        <f>$A$1&amp;B184&amp;$C$1&amp;D184&amp;E184&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-cracksabbath-themix-20130920.mp3\"&gt;11Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4965,7 +5026,7 @@
         <v>283</v>
       </c>
       <c r="G185" t="str">
-        <f>$A$1&amp;B185&amp;$C$1&amp;D185&amp;E185&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-cracksabbath-themix-20130920.mp3\"&gt;12Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4980,7 +5041,7 @@
         <v>283</v>
       </c>
       <c r="G186" t="str">
-        <f>$A$1&amp;B186&amp;$C$1&amp;D186&amp;E186&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-cracksabbath-themix-20130920.mp3\"&gt;13Crack Sabbath - The Mix - September 20th, 2013&lt;/option&gt;</v>
       </c>
     </row>
@@ -4995,7 +5056,7 @@
         <v>284</v>
       </c>
       <c r="G187" t="str">
-        <f>$A$1&amp;B187&amp;$C$1&amp;D187&amp;E187&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-cracksabbath-owlandthistle-20140917.mp3\"&gt;01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5010,7 +5071,7 @@
         <v>284</v>
       </c>
       <c r="G188" t="str">
-        <f>$A$1&amp;B188&amp;$C$1&amp;D188&amp;E188&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-cracksabbath-owlandthistle-20140917.mp3\"&gt;02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5025,7 +5086,7 @@
         <v>284</v>
       </c>
       <c r="G189" t="str">
-        <f>$A$1&amp;B189&amp;$C$1&amp;D189&amp;E189&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-cracksabbath-owlandthistle-20140917.mp3\"&gt;03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5040,7 +5101,7 @@
         <v>284</v>
       </c>
       <c r="G190" t="str">
-        <f>$A$1&amp;B190&amp;$C$1&amp;D190&amp;E190&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-cracksabbath-owlandthistle-20140917.mp3\"&gt;04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5055,7 +5116,7 @@
         <v>284</v>
       </c>
       <c r="G191" t="str">
-        <f>$A$1&amp;B191&amp;$C$1&amp;D191&amp;E191&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0006-cracksabbath-owlandthistle-20140917.mp3\"&gt;05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5070,7 +5131,7 @@
         <v>284</v>
       </c>
       <c r="G192" t="str">
-        <f>$A$1&amp;B192&amp;$C$1&amp;D192&amp;E192&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0007-cracksabbath-owlandthistle-20140917.mp3\"&gt;01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5085,7 +5146,7 @@
         <v>284</v>
       </c>
       <c r="G193" t="str">
-        <f>$A$1&amp;B193&amp;$C$1&amp;D193&amp;E193&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-cracksabbath-owlandthistle-20140917.mp3\"&gt;02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5100,7 +5161,7 @@
         <v>284</v>
       </c>
       <c r="G194" t="str">
-        <f>$A$1&amp;B194&amp;$C$1&amp;D194&amp;E194&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-cracksabbath-owlandthistle-20140917.mp3\"&gt;03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5115,7 +5176,7 @@
         <v>284</v>
       </c>
       <c r="G195" t="str">
-        <f>$A$1&amp;B195&amp;$C$1&amp;D195&amp;E195&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-cracksabbath-owlandthistle-20140917.mp3\"&gt;04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5130,7 +5191,7 @@
         <v>284</v>
       </c>
       <c r="G196" t="str">
-        <f>$A$1&amp;B196&amp;$C$1&amp;D196&amp;E196&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-cracksabbath-owlandthistle-20140917.mp3\"&gt;05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5145,7 +5206,7 @@
         <v>284</v>
       </c>
       <c r="G197" t="str">
-        <f>$A$1&amp;B197&amp;$C$1&amp;D197&amp;E197&amp;$F$1</f>
+        <f t="shared" si="5"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-cracksabbath-owlandthistle-20140917.mp3\"&gt;06 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5160,7 +5221,7 @@
         <v>284</v>
       </c>
       <c r="G198" t="str">
-        <f>$A$1&amp;B198&amp;$C$1&amp;D198&amp;E198&amp;$F$1</f>
+        <f t="shared" ref="G198:G261" si="6">$A$1&amp;B198&amp;$C$1&amp;D198&amp;E198&amp;$F$1</f>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-cracksabbath-owlandthistle-20140917.mp3\"&gt;07 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5175,7 +5236,7 @@
         <v>284</v>
       </c>
       <c r="G199" t="str">
-        <f>$A$1&amp;B199&amp;$C$1&amp;D199&amp;E199&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-cracksabbath-owlandthistle-20140917.mp3\"&gt;08 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5190,7 +5251,7 @@
         <v>284</v>
       </c>
       <c r="G200" t="str">
-        <f>$A$1&amp;B200&amp;$C$1&amp;D200&amp;E200&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0015-cracksabbath-owlandthistle-20140917.mp3\"&gt;09 Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5205,7 +5266,7 @@
         <v>284</v>
       </c>
       <c r="G201" t="str">
-        <f>$A$1&amp;B201&amp;$C$1&amp;D201&amp;E201&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0016-cracksabbath-owlandthistle-20140917.mp3\"&gt;10Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5220,7 +5281,7 @@
         <v>284</v>
       </c>
       <c r="G202" t="str">
-        <f>$A$1&amp;B202&amp;$C$1&amp;D202&amp;E202&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0017-cracksabbath-owlandthistle-20140917.mp3\"&gt;11Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5235,7 +5296,7 @@
         <v>284</v>
       </c>
       <c r="G203" t="str">
-        <f>$A$1&amp;B203&amp;$C$1&amp;D203&amp;E203&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0018-cracksabbath-owlandthistle-20140917.mp3\"&gt;12Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5250,7 +5311,7 @@
         <v>284</v>
       </c>
       <c r="G204" t="str">
-        <f>$A$1&amp;B204&amp;$C$1&amp;D204&amp;E204&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0019-cracksabbath-owlandthistle-20140917.mp3\"&gt;13Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5265,7 +5326,7 @@
         <v>284</v>
       </c>
       <c r="G205" t="str">
-        <f>$A$1&amp;B205&amp;$C$1&amp;D205&amp;E205&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0020-cracksabbath-owlandthistle-20140917.mp3\"&gt;14Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5280,7 +5341,7 @@
         <v>284</v>
       </c>
       <c r="G206" t="str">
-        <f>$A$1&amp;B206&amp;$C$1&amp;D206&amp;E206&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0021-cracksabbath-owlandthistle-20140917.mp3\"&gt;15Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5295,7 +5356,7 @@
         <v>284</v>
       </c>
       <c r="G207" t="str">
-        <f>$A$1&amp;B207&amp;$C$1&amp;D207&amp;E207&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0022-cracksabbath-owlandthistle-20140917.mp3\"&gt;16Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5310,7 +5371,7 @@
         <v>284</v>
       </c>
       <c r="G208" t="str">
-        <f>$A$1&amp;B208&amp;$C$1&amp;D208&amp;E208&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0023-cracksabbath-owlandthistle-20140917.mp3\"&gt;17Crack Sabbath - Owl 'n Thistle - September 17th, 2014&lt;/option&gt;</v>
       </c>
     </row>
@@ -5325,7 +5386,7 @@
         <v>308</v>
       </c>
       <c r="G209" t="str">
-        <f>$A$1&amp;B209&amp;$C$1&amp;D209&amp;E209&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0001-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;01 Crack Sabbath - Royal Room - June 22nd, 2013&lt;/option&gt;</v>
       </c>
       <c r="I209" s="4"/>
@@ -5341,7 +5402,7 @@
         <v>309</v>
       </c>
       <c r="G210" t="str">
-        <f>$A$1&amp;B210&amp;$C$1&amp;D210&amp;E210&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0002-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;02 Crack Sabbath - Royal Room - June 22nd, 2014&lt;/option&gt;</v>
       </c>
       <c r="I210" s="4"/>
@@ -5357,7 +5418,7 @@
         <v>310</v>
       </c>
       <c r="G211" t="str">
-        <f>$A$1&amp;B211&amp;$C$1&amp;D211&amp;E211&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0003-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;03 Crack Sabbath - Royal Room - June 22nd, 2015&lt;/option&gt;</v>
       </c>
       <c r="I211" s="4"/>
@@ -5373,7 +5434,7 @@
         <v>311</v>
       </c>
       <c r="G212" t="str">
-        <f>$A$1&amp;B212&amp;$C$1&amp;D212&amp;E212&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0004-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;04 Crack Sabbath - Royal Room - June 22nd, 2016&lt;/option&gt;</v>
       </c>
       <c r="I212" s="4"/>
@@ -5389,7 +5450,7 @@
         <v>312</v>
       </c>
       <c r="G213" t="str">
-        <f>$A$1&amp;B213&amp;$C$1&amp;D213&amp;E213&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0005-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;05 Crack Sabbath - Royal Room - June 22nd, 2017&lt;/option&gt;</v>
       </c>
       <c r="I213" s="4"/>
@@ -5405,7 +5466,7 @@
         <v>313</v>
       </c>
       <c r="G214" t="str">
-        <f>$A$1&amp;B214&amp;$C$1&amp;D214&amp;E214&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0008-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;01 Crack Sabbath - Royal Room - June 22nd, 2018&lt;/option&gt;</v>
       </c>
       <c r="I214" s="4"/>
@@ -5421,7 +5482,7 @@
         <v>314</v>
       </c>
       <c r="G215" t="str">
-        <f>$A$1&amp;B215&amp;$C$1&amp;D215&amp;E215&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0009-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;02 Crack Sabbath - Royal Room - June 22nd, 2019&lt;/option&gt;</v>
       </c>
       <c r="I215" s="4"/>
@@ -5437,7 +5498,7 @@
         <v>315</v>
       </c>
       <c r="G216" t="str">
-        <f>$A$1&amp;B216&amp;$C$1&amp;D216&amp;E216&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0010-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;03 Crack Sabbath - Royal Room - June 22nd, 2020&lt;/option&gt;</v>
       </c>
       <c r="I216" s="4"/>
@@ -5453,7 +5514,7 @@
         <v>316</v>
       </c>
       <c r="G217" t="str">
-        <f>$A$1&amp;B217&amp;$C$1&amp;D217&amp;E217&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0011-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;04 Crack Sabbath - Royal Room - June 22nd, 2021&lt;/option&gt;</v>
       </c>
       <c r="I217" s="4"/>
@@ -5469,7 +5530,7 @@
         <v>317</v>
       </c>
       <c r="G218" t="str">
-        <f>$A$1&amp;B218&amp;$C$1&amp;D218&amp;E218&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0012-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;05 Crack Sabbath - Royal Room - June 22nd, 2022&lt;/option&gt;</v>
       </c>
       <c r="I218" s="4"/>
@@ -5485,7 +5546,7 @@
         <v>318</v>
       </c>
       <c r="G219" t="str">
-        <f>$A$1&amp;B219&amp;$C$1&amp;D219&amp;E219&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0013-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;06 Crack Sabbath - Royal Room - June 22nd, 2023&lt;/option&gt;</v>
       </c>
       <c r="I219" s="4"/>
@@ -5501,99 +5562,879 @@
         <v>319</v>
       </c>
       <c r="G220" t="str">
-        <f>$A$1&amp;B220&amp;$C$1&amp;D220&amp;E220&amp;$F$1</f>
+        <f t="shared" si="6"/>
         <v>&lt;option value=\"http://analogarchive.com/live/ZOOM0014-CrackSabbath-RoyalRoom-20130622.mp3\"&gt;07 Crack Sabbath - Royal Room - June 22nd, 2024&lt;/option&gt;</v>
       </c>
       <c r="I220" s="4"/>
     </row>
     <row r="221" spans="2:9">
+      <c r="B221" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E221" t="s">
+        <v>548</v>
+      </c>
       <c r="G221" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B2&amp;$C$1&amp;'OPTIONvideo (2)'!D2&amp;'OPTIONvideo (2)'!E2&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/marginal/jim-marginal-overthelight-march2015.mp4\"&gt;Sk8creteordie over the light at Marginal&lt;/option&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/1%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3\"&gt;01Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="222" spans="2:9">
+      <c r="B222" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E222" t="s">
+        <v>548</v>
+      </c>
       <c r="G222" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B3&amp;$C$1&amp;'OPTIONvideo (2)'!D3&amp;'OPTIONvideo (2)'!E3&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0098.mp4\"&gt;01 WXPFL&lt;/option&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3\"&gt;10Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="223" spans="2:9">
+      <c r="B223" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E223" t="s">
+        <v>548</v>
+      </c>
       <c r="G223" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B4&amp;$C$1&amp;'OPTIONvideo (2)'!D4&amp;'OPTIONvideo (2)'!E4&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0101.mp4\"&gt;02 WXPFL&lt;/option&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3\"&gt;11Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="224" spans="2:9">
+      <c r="B224" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E224" t="s">
+        <v>548</v>
+      </c>
       <c r="G224" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B5&amp;$C$1&amp;'OPTIONvideo (2)'!D5&amp;'OPTIONvideo (2)'!E5&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0103.mp4\"&gt;03 WXPFL&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="225" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3\"&gt;12Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E225" t="s">
+        <v>548</v>
+      </c>
       <c r="G225" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B6&amp;$C$1&amp;'OPTIONvideo (2)'!D6&amp;'OPTIONvideo (2)'!E6&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0106.mp4\"&gt;04 WXPFL&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="226" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3\"&gt;13Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E226" t="s">
+        <v>548</v>
+      </c>
       <c r="G226" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B7&amp;$C$1&amp;'OPTIONvideo (2)'!D7&amp;'OPTIONvideo (2)'!E7&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0109.mp4\"&gt;05 WXPFL&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="227" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3\"&gt;14Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7">
+      <c r="B227" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E227" t="s">
+        <v>548</v>
+      </c>
       <c r="G227" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B8&amp;$C$1&amp;'OPTIONvideo (2)'!D8&amp;'OPTIONvideo (2)'!E8&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0113.mp4\"&gt;01 WXPFL&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="228" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3\"&gt;15Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7">
+      <c r="B228" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E228" t="s">
+        <v>548</v>
+      </c>
       <c r="G228" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B9&amp;$C$1&amp;'OPTIONvideo (2)'!D9&amp;'OPTIONvideo (2)'!E9&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0116.mp4\"&gt;02 WXPFL&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="229" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/2%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3\"&gt;02Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E229" t="s">
+        <v>548</v>
+      </c>
       <c r="G229" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B10&amp;$C$1&amp;'OPTIONvideo (2)'!D10&amp;'OPTIONvideo (2)'!E10&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0117.mp4\"&gt;03 WXPFL&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="230" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/3%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3\"&gt;03Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7">
+      <c r="B230" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E230" t="s">
+        <v>548</v>
+      </c>
       <c r="G230" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B11&amp;$C$1&amp;'OPTIONvideo (2)'!D11&amp;'OPTIONvideo (2)'!E11&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0119.mp4\"&gt;04 WXPFL&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="231" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/5%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3\"&gt;04Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7">
+      <c r="B231" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E231" t="s">
+        <v>548</v>
+      </c>
       <c r="G231" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B12&amp;$C$1&amp;'OPTIONvideo (2)'!D12&amp;'OPTIONvideo (2)'!E12&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0120.mp4\"&gt;05 WXPFL&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="232" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/6%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3\"&gt;05Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7">
+      <c r="B232" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E232" t="s">
+        <v>548</v>
+      </c>
       <c r="G232" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B13&amp;$C$1&amp;'OPTIONvideo (2)'!D13&amp;'OPTIONvideo (2)'!E13&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/IMG_0127.mp4\"&gt;06 WXPFL&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="233" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/7%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3\"&gt;06Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7">
+      <c r="B233" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E233" t="s">
+        <v>548</v>
+      </c>
       <c r="G233" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B14&amp;$C$1&amp;'OPTIONvideo (2)'!D14&amp;'OPTIONvideo (2)'!E14&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/wxpfl/wxpfl-greenwood-201411.mp4\"&gt;07 WXPFL&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="234" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/8%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3\"&gt;07Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7">
+      <c r="B234" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E234" t="s">
+        <v>548</v>
+      </c>
       <c r="G234" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B15&amp;$C$1&amp;'OPTIONvideo (2)'!D15&amp;'OPTIONvideo (2)'!E15&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/kaylacheering/kayla_cheerleading_20150215.mp4\"&gt;01 Kayla Cheering&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="235" spans="7:7">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/9%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3\"&gt;08Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7">
+      <c r="B235" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E235" t="s">
+        <v>557</v>
+      </c>
       <c r="G235" t="str">
-        <f>$A$1&amp;'OPTIONvideo (2)'!B16&amp;$C$1&amp;'OPTIONvideo (2)'!D16&amp;'OPTIONvideo (2)'!E16&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/kaylacheering/kayla_cheerleading_20150215b.mp4\"&gt; 02Kayla Cheering&lt;/option&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3\"&gt;01 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7">
+      <c r="B236" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E236" t="s">
+        <v>557</v>
+      </c>
+      <c r="G236" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/02inthemorning-BuiltToSpill-Freemont-20140620.mp3\"&gt;02 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7">
+      <c r="B237" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E237" t="s">
+        <v>557</v>
+      </c>
+      <c r="G237" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/03theplan-BuiltToSpill-Freemont-20140620.mp3\"&gt;03 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7">
+      <c r="B238" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E238" t="s">
+        <v>557</v>
+      </c>
+      <c r="G238" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/04strange-BuiltToSpill-Freemont-20140620.mp3\"&gt;04 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7">
+      <c r="B239" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E239" t="s">
+        <v>557</v>
+      </c>
+      <c r="G239" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/05untrustable-BuiltToSpill-Freemont-20140620.mp3\"&gt;05 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E240" t="s">
+        <v>557</v>
+      </c>
+      <c r="G240" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/06else-BuiltToSpill-Freemont-20140620.mp3\"&gt;01 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7">
+      <c r="B241" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E241" t="s">
+        <v>557</v>
+      </c>
+      <c r="G241" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/07messwithtime-BuiltToSpill-Freemont-20140620.mp3\"&gt;02 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7">
+      <c r="B242" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E242" t="s">
+        <v>557</v>
+      </c>
+      <c r="G242" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3\"&gt;03 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7">
+      <c r="B243" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E243" t="s">
+        <v>557</v>
+      </c>
+      <c r="G243" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/09getalife-BuiltToSpill-Freemont-20140620.mp3\"&gt;04 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7">
+      <c r="B244" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E244" t="s">
+        <v>557</v>
+      </c>
+      <c r="G244" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/10joyride-BuiltToSpill-Freemont-20140620.mp3\"&gt;05 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7">
+      <c r="B245" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E245" t="s">
+        <v>557</v>
+      </c>
+      <c r="G245" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/11stab-BuiltToSpill-Freemont-20140620.mp3\"&gt;06 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7">
+      <c r="B246" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E246" t="s">
+        <v>557</v>
+      </c>
+      <c r="G246" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/12carrythezero-BuiltToSpill-Freemont-20140620.mp3\"&gt;07 Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7">
+      <c r="B247" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E247" t="s">
+        <v>557</v>
+      </c>
+      <c r="G247" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/13youwereright-BuiltToSpill-Freemont-20140620.mp3\"&gt;01Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7">
+      <c r="B248" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E248" t="s">
+        <v>557</v>
+      </c>
+      <c r="G248" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/14bigdipper-BuiltToSpill-Freemont-20140620.mp3\"&gt;10Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7">
+      <c r="B249" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E249" t="s">
+        <v>557</v>
+      </c>
+      <c r="G249" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3\"&gt;11Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7">
+      <c r="B250" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E250" t="s">
+        <v>557</v>
+      </c>
+      <c r="G250" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3\"&gt;12Built to Spill - Fremont - June 20th, 2014&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7">
+      <c r="B251" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E251" t="s">
+        <v>559</v>
+      </c>
+      <c r="G251" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/bts-center-BuiltToSpill-Geogetown-20130713.mp3\"&gt;01Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7">
+      <c r="B252" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E252" t="s">
+        <v>559</v>
+      </c>
+      <c r="G252" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/bts-fly-BuiltToSpill-Geogetown-20130713.mp3\"&gt;02Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7">
+      <c r="B253" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E253" t="s">
+        <v>559</v>
+      </c>
+      <c r="G253" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3\"&gt;03Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7">
+      <c r="B254" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E254" t="s">
+        <v>559</v>
+      </c>
+      <c r="G254" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3\"&gt;04Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7">
+      <c r="B255" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E255" t="s">
+        <v>559</v>
+      </c>
+      <c r="G255" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3\"&gt;05Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7">
+      <c r="B256" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E256" t="s">
+        <v>559</v>
+      </c>
+      <c r="G256" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3\"&gt;06Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7">
+      <c r="B257" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E257" t="s">
+        <v>559</v>
+      </c>
+      <c r="G257" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3\"&gt;07Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7">
+      <c r="B258" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E258" t="s">
+        <v>559</v>
+      </c>
+      <c r="G258" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/bts-theplan-BuiltToSpill-Geogetown-20130713.mp3\"&gt;08Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7">
+      <c r="B259" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E259" t="s">
+        <v>559</v>
+      </c>
+      <c r="G259" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/bts-untitled-BuiltToSpill-Geogetown-20130713.mp3\"&gt;09Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7">
+      <c r="B260" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E260" t="s">
+        <v>559</v>
+      </c>
+      <c r="G260" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3\"&gt;10Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7">
+      <c r="B261" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E261" t="s">
+        <v>558</v>
+      </c>
+      <c r="G261" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/1%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;01Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7">
+      <c r="B262" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E262" t="s">
+        <v>558</v>
+      </c>
+      <c r="G262" t="str">
+        <f t="shared" ref="G262:G278" si="7">$A$1&amp;B262&amp;$C$1&amp;D262&amp;E262&amp;$F$1</f>
+        <v>&lt;option value=\"http://analogarchive.com/live/10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;02Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7">
+      <c r="B263" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E263" t="s">
+        <v>558</v>
+      </c>
+      <c r="G263" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;03Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7">
+      <c r="B264" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E264" t="s">
+        <v>558</v>
+      </c>
+      <c r="G264" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;04Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7">
+      <c r="B265" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E265" t="s">
+        <v>558</v>
+      </c>
+      <c r="G265" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;05Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7">
+      <c r="B266" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E266" t="s">
+        <v>558</v>
+      </c>
+      <c r="G266" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;06Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7">
+      <c r="B267" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E267" t="s">
+        <v>558</v>
+      </c>
+      <c r="G267" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;07Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7">
+      <c r="B268" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E268" t="s">
+        <v>558</v>
+      </c>
+      <c r="G268" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;08Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7">
+      <c r="B269" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E269" t="s">
+        <v>558</v>
+      </c>
+      <c r="G269" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;09Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7">
+      <c r="B270" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E270" t="s">
+        <v>558</v>
+      </c>
+      <c r="G270" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;10Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7">
+      <c r="B271" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E271" t="s">
+        <v>558</v>
+      </c>
+      <c r="G271" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/2%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;11Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7">
+      <c r="B272" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E272" t="s">
+        <v>558</v>
+      </c>
+      <c r="G272" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/3%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;12Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7">
+      <c r="B273" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E273" t="s">
+        <v>558</v>
+      </c>
+      <c r="G273" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/4%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;13Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7">
+      <c r="B274" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E274" t="s">
+        <v>558</v>
+      </c>
+      <c r="G274" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/5%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;14Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7">
+      <c r="B275" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E275" t="s">
+        <v>558</v>
+      </c>
+      <c r="G275" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/6%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;15Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7">
+      <c r="B276" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E276" t="s">
+        <v>558</v>
+      </c>
+      <c r="G276" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/7%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;16Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="B277" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E277" t="s">
+        <v>558</v>
+      </c>
+      <c r="G277" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/8%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;17Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7">
+      <c r="B278" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E278" t="s">
+        <v>558</v>
+      </c>
+      <c r="G278" t="str">
+        <f t="shared" si="7"/>
+        <v>&lt;option value=\"http://analogarchive.com/live/9%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;18Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +6446,6 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="D71:D120" numberStoredAsText="1"/>
-    <ignoredError sqref="G221" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5619,7 +6459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
@@ -8029,309 +8869,488 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="106" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B41" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>494</v>
+      </c>
+      <c r="B42" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>510</v>
+      </c>
+      <c r="B44" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>496</v>
+      </c>
+      <c r="B45" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>511</v>
+      </c>
+      <c r="B46" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>499</v>
+      </c>
+      <c r="B47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>513</v>
+      </c>
+      <c r="B48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B49" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>500</v>
+      </c>
+      <c r="B50" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B51" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B52" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B53" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B54" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B55" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B56" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B57" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>345</v>
+      <c r="B58" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B58">
+    <sortCondition ref="B1:B58"/>
+    <sortCondition ref="A1:A58"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="597">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -1708,6 +1708,114 @@
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>08 bts-center-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>08 bts-fly-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>08 bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>08 bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>09 bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>09 bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>09 bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>09 bts-theplan-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>09 bts-untitled-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>09 bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3</t>
+  </si>
+  <si>
+    <t>02 In The Morning-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>03 Center of the Universe-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>04 The Plan-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>01 Going Against Your Mind-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>05 Planting Seeds-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>06 Kicked It In the Sun-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>07 Get a Life-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>08 Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>09 Here - Pavement-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>10 You were right-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>11 Conventional Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>12 Heart - Doug Martsch-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>13 Carry the Zero-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>14 Instrumental - dont know-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>15 I would hurt a fly-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>16 Age of Consent - New Order-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>17 How Soon is Now - The Smiths-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>18 Car-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>01%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>02%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>03%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>05%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>06%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>07%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>08%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>09%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1871,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1842,6 +1950,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1939,7 +2050,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="170">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2067,6 +2178,9 @@
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2437,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="G227" sqref="G227:G278"/>
+    <sheetView tabSelected="1" topLeftCell="C213" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5569,7 +5683,7 @@
     </row>
     <row r="221" spans="2:9">
       <c r="B221" s="1" t="s">
-        <v>483</v>
+        <v>589</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>549</v>
@@ -5579,12 +5693,12 @@
       </c>
       <c r="G221" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/1%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3\"&gt;01Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/01%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3\"&gt;01Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="222" spans="2:9">
       <c r="B222" s="1" t="s">
-        <v>507</v>
+        <v>590</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>285</v>
@@ -5594,12 +5708,12 @@
       </c>
       <c r="G222" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3\"&gt;10Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/02%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3\"&gt;10Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="223" spans="2:9">
       <c r="B223" s="1" t="s">
-        <v>495</v>
+        <v>591</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>286</v>
@@ -5609,12 +5723,12 @@
       </c>
       <c r="G223" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3\"&gt;11Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/03%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3\"&gt;11Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="224" spans="2:9">
       <c r="B224" s="1" t="s">
-        <v>509</v>
+        <v>592</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>287</v>
@@ -5624,12 +5738,12 @@
       </c>
       <c r="G224" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3\"&gt;12Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/05%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3\"&gt;12Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="225" spans="2:7">
       <c r="B225" s="1" t="s">
-        <v>497</v>
+        <v>593</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>288</v>
@@ -5639,12 +5753,12 @@
       </c>
       <c r="G225" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3\"&gt;13Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/06%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3\"&gt;13Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="226" spans="2:7">
       <c r="B226" s="1" t="s">
-        <v>498</v>
+        <v>594</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>289</v>
@@ -5654,12 +5768,12 @@
       </c>
       <c r="G226" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3\"&gt;14Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/07%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3\"&gt;14Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="227" spans="2:7">
       <c r="B227" s="1" t="s">
-        <v>512</v>
+        <v>595</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>290</v>
@@ -5669,12 +5783,12 @@
       </c>
       <c r="G227" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3\"&gt;15Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/08%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3\"&gt;15Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="228" spans="2:7">
       <c r="B228" s="1" t="s">
-        <v>502</v>
+        <v>596</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>560</v>
@@ -5684,12 +5798,12 @@
       </c>
       <c r="G228" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/2%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3\"&gt;02Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/09%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3\"&gt;02Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="229" spans="2:7">
       <c r="B229" s="1" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>550</v>
@@ -5699,12 +5813,12 @@
       </c>
       <c r="G229" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/3%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3\"&gt;03Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3\"&gt;03Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="230" spans="2:7">
       <c r="B230" s="1" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>551</v>
@@ -5714,12 +5828,12 @@
       </c>
       <c r="G230" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/5%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3\"&gt;04Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3\"&gt;04Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="231" spans="2:7">
       <c r="B231" s="1" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>552</v>
@@ -5729,12 +5843,12 @@
       </c>
       <c r="G231" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/6%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3\"&gt;05Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3\"&gt;05Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="232" spans="2:7">
       <c r="B232" s="1" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>553</v>
@@ -5744,12 +5858,12 @@
       </c>
       <c r="G232" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/7%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3\"&gt;06Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3\"&gt;06Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="233" spans="2:7">
       <c r="B233" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>554</v>
@@ -5759,12 +5873,12 @@
       </c>
       <c r="G233" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/8%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3\"&gt;07Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3\"&gt;07Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="234" spans="2:7">
       <c r="B234" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>555</v>
@@ -5774,7 +5888,7 @@
       </c>
       <c r="G234" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/9%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3\"&gt;08Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3\"&gt;08Built to Spill - Bellingham - February 2nd, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="235" spans="2:7">
@@ -8869,485 +8983,834 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A58"/>
+      <selection activeCell="C1" sqref="C1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="79.33203125" customWidth="1"/>
+    <col min="3" max="3" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>483</v>
       </c>
       <c r="B1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>507</v>
       </c>
       <c r="B2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>495</v>
       </c>
       <c r="B3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>509</v>
       </c>
       <c r="B4" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>497</v>
       </c>
       <c r="B5" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>498</v>
       </c>
       <c r="B6" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>512</v>
       </c>
       <c r="B7" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>502</v>
       </c>
       <c r="B8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>485</v>
       </c>
       <c r="B9" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>486</v>
       </c>
       <c r="B10" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>495</v>
+      </c>
+      <c r="D10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>488</v>
       </c>
       <c r="B11" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>489</v>
       </c>
       <c r="B12" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>491</v>
       </c>
       <c r="B13" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>498</v>
+      </c>
+      <c r="D13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>506</v>
       </c>
       <c r="B14" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>320</v>
       </c>
       <c r="B15" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>321</v>
       </c>
       <c r="B16" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>322</v>
       </c>
       <c r="B17" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>323</v>
       </c>
       <c r="B18" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>324</v>
       </c>
       <c r="B19" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>325</v>
       </c>
       <c r="B20" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>326</v>
       </c>
       <c r="B21" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>327</v>
       </c>
       <c r="B22" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>328</v>
       </c>
       <c r="B23" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>329</v>
       </c>
       <c r="B24" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>330</v>
       </c>
       <c r="B25" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>331</v>
       </c>
       <c r="B26" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>332</v>
       </c>
       <c r="B27" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>333</v>
       </c>
       <c r="B28" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>334</v>
       </c>
       <c r="B29" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>335</v>
       </c>
       <c r="B30" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>336</v>
       </c>
       <c r="B31" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>337</v>
       </c>
       <c r="B32" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>562</v>
+      </c>
+      <c r="D32" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>338</v>
       </c>
       <c r="B33" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>563</v>
+      </c>
+      <c r="D33" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>339</v>
       </c>
       <c r="B34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>564</v>
+      </c>
+      <c r="D34" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>340</v>
       </c>
       <c r="B35" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>565</v>
+      </c>
+      <c r="D35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>341</v>
       </c>
       <c r="B36" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>566</v>
+      </c>
+      <c r="D36" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>342</v>
       </c>
       <c r="B37" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>567</v>
+      </c>
+      <c r="D37" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>343</v>
       </c>
       <c r="B38" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D38" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>344</v>
       </c>
       <c r="B39" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>569</v>
+      </c>
+      <c r="D39" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>345</v>
       </c>
       <c r="B40" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>570</v>
+      </c>
+      <c r="D40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>501</v>
       </c>
       <c r="B41" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>574</v>
+      </c>
+      <c r="D41" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>494</v>
       </c>
       <c r="B42" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>571</v>
+      </c>
+      <c r="D42" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>508</v>
       </c>
       <c r="B43" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>572</v>
+      </c>
+      <c r="D43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>510</v>
       </c>
       <c r="B44" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>573</v>
+      </c>
+      <c r="D44" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>496</v>
       </c>
       <c r="B45" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>575</v>
+      </c>
+      <c r="D45" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>511</v>
       </c>
       <c r="B46" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>576</v>
+      </c>
+      <c r="D46" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>499</v>
       </c>
       <c r="B47" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>513</v>
       </c>
       <c r="B48" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>578</v>
+      </c>
+      <c r="D48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>482</v>
       </c>
       <c r="B49" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>579</v>
+      </c>
+      <c r="D49" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>500</v>
       </c>
       <c r="B50" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>580</v>
+      </c>
+      <c r="D50" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>484</v>
       </c>
       <c r="B51" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>581</v>
+      </c>
+      <c r="D51" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>503</v>
       </c>
       <c r="B52" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="s">
+        <v>582</v>
+      </c>
+      <c r="D52" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>504</v>
       </c>
       <c r="B53" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" t="s">
+        <v>583</v>
+      </c>
+      <c r="D53" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>505</v>
       </c>
       <c r="B54" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="s">
+        <v>584</v>
+      </c>
+      <c r="D54" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>487</v>
       </c>
       <c r="B55" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="s">
+        <v>585</v>
+      </c>
+      <c r="D55" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>490</v>
       </c>
       <c r="B56" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="s">
+        <v>586</v>
+      </c>
+      <c r="D56" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>492</v>
       </c>
       <c r="B57" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="s">
+        <v>587</v>
+      </c>
+      <c r="D57" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>493</v>
       </c>
       <c r="B58" t="s">
         <v>545</v>
       </c>
+      <c r="C58" t="s">
+        <v>588</v>
+      </c>
+      <c r="D58" t="s">
+        <v>545</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B58">
-    <sortCondition ref="B1:B58"/>
-    <sortCondition ref="A1:A58"/>
+  <sortState ref="C1:D58">
+    <sortCondition ref="D1:D58"/>
+    <sortCondition ref="C1:C58"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="606">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -1816,6 +1816,33 @@
   </si>
   <si>
     <t>09%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3</t>
+  </si>
+  <si>
+    <t>01%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>02%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>03%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>04%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>05%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>06%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>07%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>08%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>09%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1898,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="170">
+  <cellStyleXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1950,6 +1977,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2050,7 +2079,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="170">
+  <cellStyles count="172">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2181,6 +2210,8 @@
     <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2551,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C213" workbookViewId="0">
-      <selection activeCell="D234" sqref="D234"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261:B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6282,8 +6313,8 @@
       </c>
     </row>
     <row r="261" spans="2:7">
-      <c r="B261" s="1" t="s">
-        <v>501</v>
+      <c r="B261" t="s">
+        <v>597</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>549</v>
@@ -6293,12 +6324,12 @@
       </c>
       <c r="G261" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/1%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;01Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/01%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;01Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="262" spans="2:7">
-      <c r="B262" s="1" t="s">
-        <v>494</v>
+      <c r="B262" t="s">
+        <v>598</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>560</v>
@@ -6308,12 +6339,12 @@
       </c>
       <c r="G262" t="str">
         <f t="shared" ref="G262:G278" si="7">$A$1&amp;B262&amp;$C$1&amp;D262&amp;E262&amp;$F$1</f>
-        <v>&lt;option value=\"http://analogarchive.com/live/10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;02Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/02%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;02Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="263" spans="2:7">
-      <c r="B263" s="1" t="s">
-        <v>508</v>
+      <c r="B263" t="s">
+        <v>599</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>550</v>
@@ -6323,12 +6354,12 @@
       </c>
       <c r="G263" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;03Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/03%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;03Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="264" spans="2:7">
-      <c r="B264" s="1" t="s">
-        <v>510</v>
+      <c r="B264" t="s">
+        <v>600</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>551</v>
@@ -6338,12 +6369,12 @@
       </c>
       <c r="G264" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;04Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/04%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;04Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="265" spans="2:7">
-      <c r="B265" s="1" t="s">
-        <v>496</v>
+      <c r="B265" t="s">
+        <v>601</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>552</v>
@@ -6353,12 +6384,12 @@
       </c>
       <c r="G265" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;05Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/05%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;05Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="266" spans="2:7">
-      <c r="B266" s="1" t="s">
-        <v>511</v>
+      <c r="B266" t="s">
+        <v>602</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>553</v>
@@ -6368,12 +6399,12 @@
       </c>
       <c r="G266" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;06Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/06%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;06Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="267" spans="2:7">
-      <c r="B267" s="1" t="s">
-        <v>499</v>
+      <c r="B267" t="s">
+        <v>603</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>554</v>
@@ -6383,12 +6414,12 @@
       </c>
       <c r="G267" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;07Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/07%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;07Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="268" spans="2:7">
-      <c r="B268" s="1" t="s">
-        <v>513</v>
+      <c r="B268" t="s">
+        <v>604</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>555</v>
@@ -6398,12 +6429,12 @@
       </c>
       <c r="G268" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;08Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/08%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;08Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="269" spans="2:7">
-      <c r="B269" s="1" t="s">
-        <v>482</v>
+      <c r="B269" t="s">
+        <v>605</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>556</v>
@@ -6413,12 +6444,12 @@
       </c>
       <c r="G269" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;09Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/09%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;09Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="270" spans="2:7">
-      <c r="B270" s="1" t="s">
-        <v>500</v>
+      <c r="B270" t="s">
+        <v>494</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>285</v>
@@ -6428,12 +6459,12 @@
       </c>
       <c r="G270" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;10Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;10Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="271" spans="2:7">
-      <c r="B271" s="1" t="s">
-        <v>484</v>
+      <c r="B271" t="s">
+        <v>508</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>286</v>
@@ -6443,12 +6474,12 @@
       </c>
       <c r="G271" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/2%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;11Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;11Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="272" spans="2:7">
-      <c r="B272" s="1" t="s">
-        <v>503</v>
+      <c r="B272" t="s">
+        <v>510</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>287</v>
@@ -6458,12 +6489,12 @@
       </c>
       <c r="G272" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/3%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;12Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;12Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="273" spans="2:7">
-      <c r="B273" s="1" t="s">
-        <v>504</v>
+      <c r="B273" t="s">
+        <v>496</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>288</v>
@@ -6473,12 +6504,12 @@
       </c>
       <c r="G273" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/4%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;13Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;13Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="274" spans="2:7">
-      <c r="B274" s="1" t="s">
-        <v>505</v>
+      <c r="B274" t="s">
+        <v>511</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>289</v>
@@ -6488,12 +6519,12 @@
       </c>
       <c r="G274" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/5%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;14Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;14Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="275" spans="2:7">
-      <c r="B275" s="1" t="s">
-        <v>487</v>
+      <c r="B275" t="s">
+        <v>499</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>290</v>
@@ -6503,12 +6534,12 @@
       </c>
       <c r="G275" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/6%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;15Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;15Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="276" spans="2:7">
-      <c r="B276" s="1" t="s">
-        <v>490</v>
+      <c r="B276" t="s">
+        <v>513</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>291</v>
@@ -6518,12 +6549,12 @@
       </c>
       <c r="G276" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/7%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;16Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;16Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="277" spans="2:7">
-      <c r="B277" s="1" t="s">
-        <v>492</v>
+      <c r="B277" t="s">
+        <v>482</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>292</v>
@@ -6533,12 +6564,12 @@
       </c>
       <c r="G277" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/8%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;17Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;17Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
     <row r="278" spans="2:7">
-      <c r="B278" s="1" t="s">
-        <v>493</v>
+      <c r="B278" t="s">
+        <v>500</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>293</v>
@@ -6548,7 +6579,7 @@
       </c>
       <c r="G278" t="str">
         <f t="shared" si="7"/>
-        <v>&lt;option value=\"http://analogarchive.com/live/9%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;18Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
+        <v>&lt;option value=\"http://analogarchive.com/live/18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3\"&gt;18Built to Spill - Neumos, Seattle - December 27th, 2013&lt;/option&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -8983,19 +9014,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C14"/>
+      <selection activeCell="E1" sqref="E1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="79.33203125" customWidth="1"/>
-    <col min="3" max="3" width="78" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>483</v>
       </c>
@@ -9008,8 +9040,11 @@
       <c r="D1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>507</v>
       </c>
@@ -9022,8 +9057,11 @@
       <c r="D2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>495</v>
       </c>
@@ -9036,8 +9074,11 @@
       <c r="D3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>509</v>
       </c>
@@ -9050,8 +9091,11 @@
       <c r="D4" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>497</v>
       </c>
@@ -9064,8 +9108,11 @@
       <c r="D5" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>498</v>
       </c>
@@ -9078,8 +9125,11 @@
       <c r="D6" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>512</v>
       </c>
@@ -9092,8 +9142,11 @@
       <c r="D7" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>502</v>
       </c>
@@ -9106,8 +9159,11 @@
       <c r="D8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>485</v>
       </c>
@@ -9120,8 +9176,11 @@
       <c r="D9" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>486</v>
       </c>
@@ -9134,8 +9193,11 @@
       <c r="D10" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>488</v>
       </c>
@@ -9148,8 +9210,11 @@
       <c r="D11" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>489</v>
       </c>
@@ -9162,8 +9227,11 @@
       <c r="D12" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>491</v>
       </c>
@@ -9176,8 +9244,11 @@
       <c r="D13" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>506</v>
       </c>
@@ -9190,8 +9261,11 @@
       <c r="D14" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -9204,8 +9278,11 @@
       <c r="D15" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>321</v>
       </c>
@@ -9218,8 +9295,11 @@
       <c r="D16" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>322</v>
       </c>
@@ -9232,8 +9312,11 @@
       <c r="D17" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>323</v>
       </c>
@@ -9246,8 +9329,11 @@
       <c r="D18" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>324</v>
       </c>
@@ -9261,7 +9347,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>325</v>
       </c>
@@ -9275,7 +9361,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>326</v>
       </c>
@@ -9289,7 +9375,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>327</v>
       </c>
@@ -9303,7 +9389,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>328</v>
       </c>
@@ -9317,7 +9403,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>329</v>
       </c>
@@ -9331,7 +9417,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>330</v>
       </c>
@@ -9345,7 +9431,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>331</v>
       </c>
@@ -9359,7 +9445,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>332</v>
       </c>
@@ -9373,7 +9459,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>333</v>
       </c>
@@ -9387,7 +9473,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>334</v>
       </c>
@@ -9401,7 +9487,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>335</v>
       </c>
@@ -9415,7 +9501,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>336</v>
       </c>
@@ -9429,7 +9515,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>337</v>
       </c>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="OPTIONaudio" sheetId="1" r:id="rId1"/>
-    <sheet name="OPTIONvideo" sheetId="7" r:id="rId2"/>
-    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId3"/>
-    <sheet name="IMG" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
-    <sheet name="SONGS WITH SPACES" sheetId="5" r:id="rId6"/>
-    <sheet name="built to spill" sheetId="6" r:id="rId7"/>
+    <sheet name="json array" sheetId="10" r:id="rId1"/>
+    <sheet name="OPTIONaudio" sheetId="1" r:id="rId2"/>
+    <sheet name="OPTIONvideo" sheetId="7" r:id="rId3"/>
+    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId4"/>
+    <sheet name="IMG" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="SONGS WITH SPACES" sheetId="5" r:id="rId7"/>
+    <sheet name="built to spill" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -2580,9 +2581,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
       <selection activeCell="B261" sqref="B261:B278"/>
     </sheetView>
   </sheetViews>
@@ -2592,7 +2610,7 @@
     <col min="2" max="2" width="91.5" customWidth="1"/>
     <col min="3" max="3" width="2.5" customWidth="1"/>
     <col min="4" max="4" width="3.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="8" max="8" width="78.1640625" customWidth="1"/>
@@ -6600,7 +6618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -6748,7 +6766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -7011,7 +7029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -7146,7 +7164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A52:A248"/>
   <sheetViews>
@@ -8155,7 +8173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
@@ -9012,7 +9030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44600" windowHeight="25040" tabRatio="760"/>
   </bookViews>
   <sheets>
-    <sheet name="json array" sheetId="10" r:id="rId1"/>
-    <sheet name="OPTIONaudio" sheetId="1" r:id="rId2"/>
-    <sheet name="OPTIONvideo" sheetId="7" r:id="rId3"/>
-    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId4"/>
-    <sheet name="IMG" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
-    <sheet name="SONGS WITH SPACES" sheetId="5" r:id="rId7"/>
-    <sheet name="built to spill" sheetId="6" r:id="rId8"/>
+    <sheet name="builttospilljson" sheetId="11" r:id="rId1"/>
+    <sheet name="json array" sheetId="10" r:id="rId2"/>
+    <sheet name="OPTIONaudio" sheetId="1" r:id="rId3"/>
+    <sheet name="OPTIONvideo" sheetId="7" r:id="rId4"/>
+    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId5"/>
+    <sheet name="IMG" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="SONGS WITH SPACES" sheetId="5" r:id="rId8"/>
+    <sheet name="built to spill" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="659">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -1844,6 +1845,165 @@
   </si>
   <si>
     <t>09%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3</t>
+  </si>
+  <si>
+    <t>01 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>02 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>03 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>04 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>05 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>06 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>07 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>08 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>10 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>11 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>12 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>13 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>14 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>15 Built to Spill - Bellingham - February 2nd, 2013</t>
+  </si>
+  <si>
+    <t>01 Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>02 Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>03 Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>04 Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>05 Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>06 Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>07 Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>01Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>10Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>11Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>12Built to Spill - Fremont - June 20th, 2014</t>
+  </si>
+  <si>
+    <t>01Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>02Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>03Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>04Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>05Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>06Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>07Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>08Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>09Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>10Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013</t>
+  </si>
+  <si>
+    <t>01Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>02Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>03Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>04Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>05Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>06Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>07Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>08Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>09Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>10Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>11Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>12Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>13Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>14Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>15Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>16Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>17Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>18Built to Spill - Neumos, Seattle - December 27th, 2013</t>
   </si>
 </sst>
 </file>
@@ -2581,6 +2741,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C60" sqref="C59:C67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"{'file':'"&amp;A1&amp;"','title','"&amp;B1&amp;"'},"</f>
+        <v>{'file':'01%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3','title','01 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">"{'file':'"&amp;A2&amp;"','title','"&amp;B2&amp;"'},"</f>
+        <v>{'file':'09%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3','title','02 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3','title','03 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3','title','04 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3','title','05 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3','title','06 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3','title','07 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3','title','08 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'02%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3','title','10 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'03%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3','title','11 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B11" t="s">
+        <v>616</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'05%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3','title','12 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'06%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3','title','13 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B13" t="s">
+        <v>618</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'07%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3','title','14 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B14" t="s">
+        <v>619</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'08%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3','title','15 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3','title','01 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>621</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'02inthemorning-BuiltToSpill-Freemont-20140620.mp3','title','02 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>622</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'03theplan-BuiltToSpill-Freemont-20140620.mp3','title','03 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>623</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'04strange-BuiltToSpill-Freemont-20140620.mp3','title','04 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>624</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'05untrustable-BuiltToSpill-Freemont-20140620.mp3','title','05 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>620</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'06else-BuiltToSpill-Freemont-20140620.mp3','title','01 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>621</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'07messwithtime-BuiltToSpill-Freemont-20140620.mp3','title','02 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>622</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3','title','03 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>623</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'09getalife-BuiltToSpill-Freemont-20140620.mp3','title','04 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>624</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'10joyride-BuiltToSpill-Freemont-20140620.mp3','title','05 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" t="s">
+        <v>625</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'11stab-BuiltToSpill-Freemont-20140620.mp3','title','06 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>626</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'12carrythezero-BuiltToSpill-Freemont-20140620.mp3','title','07 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>627</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'13youwereright-BuiltToSpill-Freemont-20140620.mp3','title','01Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" t="s">
+        <v>628</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'14bigdipper-BuiltToSpill-Freemont-20140620.mp3','title','10Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>629</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3','title','11Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>630</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3','title','12Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>631</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-center-BuiltToSpill-Geogetown-20130713.mp3','title','01Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>632</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-fly-BuiltToSpill-Geogetown-20130713.mp3','title','02Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>633</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3','title','03Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>634</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3','title','04Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>635</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3','title','05Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="s">
+        <v>636</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3','title','06Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>637</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3','title','07Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>638</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-theplan-BuiltToSpill-Geogetown-20130713.mp3','title','08Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>639</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-untitled-BuiltToSpill-Geogetown-20130713.mp3','title','09Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>640</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3','title','10Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>597</v>
+      </c>
+      <c r="B41" t="s">
+        <v>641</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3','title','01Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>598</v>
+      </c>
+      <c r="B42" t="s">
+        <v>642</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'02%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3','title','02Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>599</v>
+      </c>
+      <c r="B43" t="s">
+        <v>643</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'03%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3','title','03Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>600</v>
+      </c>
+      <c r="B44" t="s">
+        <v>644</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'04%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3','title','04Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>601</v>
+      </c>
+      <c r="B45" t="s">
+        <v>645</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'05%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3','title','05Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>602</v>
+      </c>
+      <c r="B46" t="s">
+        <v>646</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'06%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3','title','06Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>603</v>
+      </c>
+      <c r="B47" t="s">
+        <v>647</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'07%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3','title','07Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>604</v>
+      </c>
+      <c r="B48" t="s">
+        <v>648</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'08%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3','title','08Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>605</v>
+      </c>
+      <c r="B49" t="s">
+        <v>649</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'09%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3','title','09Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>494</v>
+      </c>
+      <c r="B50" t="s">
+        <v>650</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3','title','10Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>508</v>
+      </c>
+      <c r="B51" t="s">
+        <v>651</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3','title','11Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>510</v>
+      </c>
+      <c r="B52" t="s">
+        <v>652</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3','title','12Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>496</v>
+      </c>
+      <c r="B53" t="s">
+        <v>653</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3','title','13Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>511</v>
+      </c>
+      <c r="B54" t="s">
+        <v>654</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3','title','14Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>499</v>
+      </c>
+      <c r="B55" t="s">
+        <v>655</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3','title','15Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>513</v>
+      </c>
+      <c r="B56" t="s">
+        <v>656</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3','title','16Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>482</v>
+      </c>
+      <c r="B57" t="s">
+        <v>657</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3','title','17Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>500</v>
+      </c>
+      <c r="B58" t="s">
+        <v>658</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3','title','18Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2596,11 +3476,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+    <sheetView topLeftCell="A237" workbookViewId="0">
       <selection activeCell="B261" sqref="B261:B278"/>
     </sheetView>
   </sheetViews>
@@ -6618,7 +7498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -6766,7 +7646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -7029,7 +7909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -7164,7 +8044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A52:A248"/>
   <sheetViews>
@@ -8173,7 +9053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
@@ -9030,11 +9910,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E18"/>
     </sheetView>
   </sheetViews>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="44600" windowHeight="25040" tabRatio="760"/>
   </bookViews>
   <sheets>
-    <sheet name="builttospilljson" sheetId="11" r:id="rId1"/>
-    <sheet name="json array" sheetId="10" r:id="rId2"/>
-    <sheet name="OPTIONaudio" sheetId="1" r:id="rId3"/>
-    <sheet name="OPTIONvideo" sheetId="7" r:id="rId4"/>
-    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId5"/>
-    <sheet name="IMG" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
-    <sheet name="SONGS WITH SPACES" sheetId="5" r:id="rId8"/>
-    <sheet name="built to spill" sheetId="6" r:id="rId9"/>
+    <sheet name="cracksabbathjson" sheetId="12" r:id="rId1"/>
+    <sheet name="builttospilljson" sheetId="11" r:id="rId2"/>
+    <sheet name="json array" sheetId="10" r:id="rId3"/>
+    <sheet name="OPTIONaudio" sheetId="1" r:id="rId4"/>
+    <sheet name="OPTIONvideo" sheetId="7" r:id="rId5"/>
+    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId6"/>
+    <sheet name="IMG" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
+    <sheet name="SONGS WITH SPACES" sheetId="5" r:id="rId9"/>
+    <sheet name="built to spill" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="721">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -2004,6 +2005,192 @@
   </si>
   <si>
     <t>18Built to Spill - Neumos, Seattle - December 27th, 2013</t>
+  </si>
+  <si>
+    <t>01 Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>02 Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>03 Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>04 Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>05 Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>06 Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>07 Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>08 Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>09 Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>10Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>11Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>12Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>13Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>14Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>15Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>16Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>17Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>18Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>19Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>20Crack Sabbath - Darrell's - May 8th, 2014</t>
+  </si>
+  <si>
+    <t>01 Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>02 Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>03 Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>04 Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>05 Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>06 Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>07 Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>08 Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>09 Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>10Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>11Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>12Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>13Crack Sabbath - The Mix - September 20th, 2013</t>
+  </si>
+  <si>
+    <t>01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>06 Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>07 Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>08 Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>09 Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>10Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>11Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>12Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>13Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>14Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>15Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>16Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>17Crack Sabbath - Owl 'n Thistle - September 17th, 2014</t>
+  </si>
+  <si>
+    <t>01 Crack Sabbath - Royal Room - June 22nd, 2013</t>
+  </si>
+  <si>
+    <t>02 Crack Sabbath - Royal Room - June 22nd, 2014</t>
+  </si>
+  <si>
+    <t>03 Crack Sabbath - Royal Room - June 22nd, 2015</t>
+  </si>
+  <si>
+    <t>04 Crack Sabbath - Royal Room - June 22nd, 2016</t>
+  </si>
+  <si>
+    <t>05 Crack Sabbath - Royal Room - June 22nd, 2017</t>
+  </si>
+  <si>
+    <t>01 Crack Sabbath - Royal Room - June 22nd, 2018</t>
+  </si>
+  <si>
+    <t>02 Crack Sabbath - Royal Room - June 22nd, 2019</t>
+  </si>
+  <si>
+    <t>03 Crack Sabbath - Royal Room - June 22nd, 2020</t>
+  </si>
+  <si>
+    <t>04 Crack Sabbath - Royal Room - June 22nd, 2021</t>
+  </si>
+  <si>
+    <t>05 Crack Sabbath - Royal Room - June 22nd, 2022</t>
+  </si>
+  <si>
+    <t>06 Crack Sabbath - Royal Room - June 22nd, 2023</t>
+  </si>
+  <si>
+    <t>07 Crack Sabbath - Royal Room - June 22nd, 2024</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2246,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="172">
+  <cellStyleXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2138,6 +2325,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2240,7 +2435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="172">
+  <cellStyles count="180">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2373,6 +2568,14 @@
     <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2741,716 +2944,1842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C60" sqref="C59:C67"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="74" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>589</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>606</v>
+        <v>659</v>
       </c>
       <c r="C1" t="str">
-        <f>"{'file':'"&amp;A1&amp;"','title','"&amp;B1&amp;"'},"</f>
-        <v>{'file':'01%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3','title','01 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <v>{'file':'cracksabbath20140509-01.mp3','title':'01 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="0">"{'file':'"&amp;A2&amp;"','title','"&amp;B2&amp;"'},"</f>
-        <v>{'file':'09%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3','title','02 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <f t="shared" ref="C2:C65" si="0">"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
+        <v>{'file':'cracksabbath20140509-02.mp3','title':'02 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>608</v>
+        <v>661</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3','title','03 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-03.mp3','title':'03 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>609</v>
+        <v>662</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3','title','04 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-04.mp3','title':'04 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3','title','05 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-05.mp3','title':'05 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>497</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>659</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3','title','06 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-06.mp3','title':'01 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3','title','07 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-07.mp3','title':'02 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3','title','08 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-08.mp3','title':'03 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>590</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>614</v>
+        <v>662</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'02%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3','title','10 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-09.mp3','title':'04 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>591</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>615</v>
+        <v>663</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'03%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3','title','11 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-10.mp3','title':'05 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>592</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'05%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3','title','12 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-11.mp3','title':'06 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>593</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'06%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3','title','13 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-12.mp3','title':'07 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>594</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'07%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3','title','14 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-13.mp3','title':'08 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>595</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'08%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3','title','15 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+        <v>{'file':'cracksabbath20140509-14.mp3','title':'09 Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="B15" t="s">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3','title','01 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-15.mp3','title':'10Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="B16" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'02inthemorning-BuiltToSpill-Freemont-20140620.mp3','title','02 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-16.mp3','title':'11Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'03theplan-BuiltToSpill-Freemont-20140620.mp3','title','03 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-17.mp3','title':'12Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'04strange-BuiltToSpill-Freemont-20140620.mp3','title','04 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-18.mp3','title':'13Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'05untrustable-BuiltToSpill-Freemont-20140620.mp3','title','05 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-19.mp3','title':'14Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'06else-BuiltToSpill-Freemont-20140620.mp3','title','01 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-20.mp3','title':'15Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'07messwithtime-BuiltToSpill-Freemont-20140620.mp3','title','02 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-21.mp3','title':'16Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>622</v>
+        <v>675</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3','title','03 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-22.mp3','title':'17Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s">
-        <v>623</v>
+        <v>676</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'09getalife-BuiltToSpill-Freemont-20140620.mp3','title','04 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-23.mp3','title':'18Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s">
-        <v>624</v>
+        <v>677</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'10joyride-BuiltToSpill-Freemont-20140620.mp3','title','05 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-24.mp3','title':'19Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'11stab-BuiltToSpill-Freemont-20140620.mp3','title','06 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'cracksabbath20140509-25.mp3','title':'20Crack Sabbath - Darrell's - May 8th, 2014'},</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'12carrythezero-BuiltToSpill-Freemont-20140620.mp3','title','07 Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'ZOOM0001-cracksabbath-themix-20130920.mp3','title':'01 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>627</v>
+        <v>680</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'13youwereright-BuiltToSpill-Freemont-20140620.mp3','title','01Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'ZOOM0002-cracksabbath-themix-20130920.mp3','title':'02 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'14bigdipper-BuiltToSpill-Freemont-20140620.mp3','title','10Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'ZOOM0003-cracksabbath-themix-20130920.mp3','title':'03 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>334</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
-        <v>629</v>
+        <v>682</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3','title','11Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'ZOOM0004-cracksabbath-themix-20130920.mp3','title':'04 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3','title','12Built to Spill - Fremont - June 20th, 2014'},</v>
+        <v>{'file':'ZOOM0005-cracksabbath-themix-20130920.mp3','title':'05 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>631</v>
+        <v>679</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'bts-center-BuiltToSpill-Geogetown-20130713.mp3','title','01Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+        <v>{'file':'ZOOM0007-cracksabbath-themix-20130920.mp3','title':'01 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="B32" t="s">
-        <v>632</v>
+        <v>680</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'bts-fly-BuiltToSpill-Geogetown-20130713.mp3','title','02Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+        <v>{'file':'ZOOM0008-cracksabbath-themix-20130920.mp3','title':'02 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3','title','03Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+        <v>{'file':'ZOOM0009-cracksabbath-themix-20130920.mp3','title':'03 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3','title','04Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+        <v>{'file':'ZOOM0010-cracksabbath-themix-20130920.mp3','title':'04 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>340</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3','title','05Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+        <v>{'file':'ZOOM0011-cracksabbath-themix-20130920.mp3','title':'05 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
-        <v>636</v>
+        <v>684</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3','title','06Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+        <v>{'file':'ZOOM0012-cracksabbath-themix-20130920.mp3','title':'06 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s">
-        <v>637</v>
+        <v>685</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3','title','07Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+        <v>{'file':'ZOOM0013-cracksabbath-themix-20130920.mp3','title':'07 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>638</v>
+        <v>686</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'bts-theplan-BuiltToSpill-Geogetown-20130713.mp3','title','08Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+        <v>{'file':'ZOOM0014-cracksabbath-themix-20130920.mp3','title':'08 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'bts-untitled-BuiltToSpill-Geogetown-20130713.mp3','title','09Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+        <v>{'file':'ZOOM0015-cracksabbath-themix-20130920.mp3','title':'09 Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="B40" t="s">
-        <v>640</v>
+        <v>688</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3','title','10Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+        <v>{'file':'ZOOM0016-cracksabbath-themix-20130920.mp3','title':'10Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>597</v>
+        <v>273</v>
       </c>
       <c r="B41" t="s">
-        <v>641</v>
+        <v>689</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'01%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3','title','01Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0017-cracksabbath-themix-20130920.mp3','title':'11Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>598</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s">
-        <v>642</v>
+        <v>690</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'02%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3','title','02Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0018-cracksabbath-themix-20130920.mp3','title':'12Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>599</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'03%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3','title','03Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0019-cracksabbath-themix-20130920.mp3','title':'13Crack Sabbath - The Mix - September 20th, 2013'},</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>600</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
-        <v>644</v>
+        <v>692</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'04%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3','title','04Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0002-cracksabbath-owlandthistle-20140917.mp3','title':'01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>601</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s">
-        <v>645</v>
+        <v>693</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'05%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3','title','05Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0003-cracksabbath-owlandthistle-20140917.mp3','title':'02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>602</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'06%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3','title','06Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0004-cracksabbath-owlandthistle-20140917.mp3','title':'03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>603</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'07%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3','title','07Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0005-cracksabbath-owlandthistle-20140917.mp3','title':'04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>604</v>
+        <v>253</v>
       </c>
       <c r="B48" t="s">
-        <v>648</v>
+        <v>696</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'08%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3','title','08Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0006-cracksabbath-owlandthistle-20140917.mp3','title':'05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>605</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'09%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3','title','09Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0007-cracksabbath-owlandthistle-20140917.mp3','title':'01 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>494</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
-        <v>650</v>
+        <v>693</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3','title','10Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0008-cracksabbath-owlandthistle-20140917.mp3','title':'02 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>508</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3','title','11Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0009-cracksabbath-owlandthistle-20140917.mp3','title':'03 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>510</v>
+        <v>258</v>
       </c>
       <c r="B52" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3','title','12Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0010-cracksabbath-owlandthistle-20140917.mp3','title':'04 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>496</v>
+        <v>260</v>
       </c>
       <c r="B53" t="s">
-        <v>653</v>
+        <v>696</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3','title','13Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0011-cracksabbath-owlandthistle-20140917.mp3','title':'05 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>511</v>
+        <v>262</v>
       </c>
       <c r="B54" t="s">
-        <v>654</v>
+        <v>697</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3','title','14Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0012-cracksabbath-owlandthistle-20140917.mp3','title':'06 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>499</v>
+        <v>264</v>
       </c>
       <c r="B55" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3','title','15Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0013-cracksabbath-owlandthistle-20140917.mp3','title':'07 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>513</v>
+        <v>266</v>
       </c>
       <c r="B56" t="s">
-        <v>656</v>
+        <v>699</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3','title','16Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0014-cracksabbath-owlandthistle-20140917.mp3','title':'08 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>482</v>
+        <v>268</v>
       </c>
       <c r="B57" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3','title','17Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0015-cracksabbath-owlandthistle-20140917.mp3','title':'09 Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="B58" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3','title','18Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+        <v>{'file':'ZOOM0016-cracksabbath-owlandthistle-20140917.mp3','title':'10Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" t="s">
+        <v>702</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0017-cracksabbath-owlandthistle-20140917.mp3','title':'11Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" t="s">
+        <v>703</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0018-cracksabbath-owlandthistle-20140917.mp3','title':'12Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" t="s">
+        <v>704</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0019-cracksabbath-owlandthistle-20140917.mp3','title':'13Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B62" t="s">
+        <v>705</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0020-cracksabbath-owlandthistle-20140917.mp3','title':'14Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>279</v>
+      </c>
+      <c r="B63" t="s">
+        <v>706</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0021-cracksabbath-owlandthistle-20140917.mp3','title':'15Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>280</v>
+      </c>
+      <c r="B64" t="s">
+        <v>707</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0022-cracksabbath-owlandthistle-20140917.mp3','title':'16Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>281</v>
+      </c>
+      <c r="B65" t="s">
+        <v>708</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0023-cracksabbath-owlandthistle-20140917.mp3','title':'17Crack Sabbath - Owl 'n Thistle - September 17th, 2014'},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>296</v>
+      </c>
+      <c r="B66" t="s">
+        <v>709</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C77" si="1">"{'file':'"&amp;A66&amp;"','title':'"&amp;B66&amp;"'},"</f>
+        <v>{'file':'ZOOM0001-CrackSabbath-RoyalRoom-20130622.mp3','title':'01 Crack Sabbath - Royal Room - June 22nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" t="s">
+        <v>710</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0002-CrackSabbath-RoyalRoom-20130622.mp3','title':'02 Crack Sabbath - Royal Room - June 22nd, 2014'},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" t="s">
+        <v>711</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0003-CrackSabbath-RoyalRoom-20130622.mp3','title':'03 Crack Sabbath - Royal Room - June 22nd, 2015'},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>299</v>
+      </c>
+      <c r="B69" t="s">
+        <v>712</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0004-CrackSabbath-RoyalRoom-20130622.mp3','title':'04 Crack Sabbath - Royal Room - June 22nd, 2016'},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>300</v>
+      </c>
+      <c r="B70" t="s">
+        <v>713</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0005-CrackSabbath-RoyalRoom-20130622.mp3','title':'05 Crack Sabbath - Royal Room - June 22nd, 2017'},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" t="s">
+        <v>714</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0008-CrackSabbath-RoyalRoom-20130622.mp3','title':'01 Crack Sabbath - Royal Room - June 22nd, 2018'},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" t="s">
+        <v>715</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0009-CrackSabbath-RoyalRoom-20130622.mp3','title':'02 Crack Sabbath - Royal Room - June 22nd, 2019'},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73" t="s">
+        <v>716</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0010-CrackSabbath-RoyalRoom-20130622.mp3','title':'03 Crack Sabbath - Royal Room - June 22nd, 2020'},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>304</v>
+      </c>
+      <c r="B74" t="s">
+        <v>717</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0011-CrackSabbath-RoyalRoom-20130622.mp3','title':'04 Crack Sabbath - Royal Room - June 22nd, 2021'},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>305</v>
+      </c>
+      <c r="B75" t="s">
+        <v>718</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0012-CrackSabbath-RoyalRoom-20130622.mp3','title':'05 Crack Sabbath - Royal Room - June 22nd, 2022'},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>306</v>
+      </c>
+      <c r="B76" t="s">
+        <v>719</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0013-CrackSabbath-RoyalRoom-20130622.mp3','title':'06 Crack Sabbath - Royal Room - June 22nd, 2023'},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" t="s">
+        <v>720</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0014-CrackSabbath-RoyalRoom-20130622.mp3','title':'07 Crack Sabbath - Royal Room - June 22nd, 2024'},</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D8" t="s">
+        <v>546</v>
+      </c>
+      <c r="E8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" t="s">
+        <v>546</v>
+      </c>
+      <c r="E9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" t="s">
+        <v>495</v>
+      </c>
+      <c r="D10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D12" t="s">
+        <v>546</v>
+      </c>
+      <c r="E12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13" t="s">
+        <v>546</v>
+      </c>
+      <c r="C13" t="s">
+        <v>498</v>
+      </c>
+      <c r="D13" t="s">
+        <v>546</v>
+      </c>
+      <c r="E13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14" t="s">
+        <v>546</v>
+      </c>
+      <c r="E14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" t="s">
+        <v>544</v>
+      </c>
+      <c r="E15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>544</v>
+      </c>
+      <c r="C16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" t="s">
+        <v>544</v>
+      </c>
+      <c r="E16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" t="s">
+        <v>544</v>
+      </c>
+      <c r="E17" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>544</v>
+      </c>
+      <c r="C18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" t="s">
+        <v>544</v>
+      </c>
+      <c r="E18" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>544</v>
+      </c>
+      <c r="C19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>544</v>
+      </c>
+      <c r="C20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>544</v>
+      </c>
+      <c r="C22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>544</v>
+      </c>
+      <c r="C23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>544</v>
+      </c>
+      <c r="C24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" t="s">
+        <v>544</v>
+      </c>
+      <c r="C25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>544</v>
+      </c>
+      <c r="C26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>544</v>
+      </c>
+      <c r="C27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" t="s">
+        <v>544</v>
+      </c>
+      <c r="C28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>544</v>
+      </c>
+      <c r="C29" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>544</v>
+      </c>
+      <c r="C30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>547</v>
+      </c>
+      <c r="C31" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>547</v>
+      </c>
+      <c r="C32" t="s">
+        <v>562</v>
+      </c>
+      <c r="D32" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>547</v>
+      </c>
+      <c r="C33" t="s">
+        <v>563</v>
+      </c>
+      <c r="D33" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>547</v>
+      </c>
+      <c r="C34" t="s">
+        <v>564</v>
+      </c>
+      <c r="D34" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>547</v>
+      </c>
+      <c r="C35" t="s">
+        <v>565</v>
+      </c>
+      <c r="D35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="s">
+        <v>547</v>
+      </c>
+      <c r="C36" t="s">
+        <v>566</v>
+      </c>
+      <c r="D36" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>547</v>
+      </c>
+      <c r="C37" t="s">
+        <v>567</v>
+      </c>
+      <c r="D37" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>547</v>
+      </c>
+      <c r="C38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D38" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>547</v>
+      </c>
+      <c r="C39" t="s">
+        <v>569</v>
+      </c>
+      <c r="D39" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>547</v>
+      </c>
+      <c r="C40" t="s">
+        <v>570</v>
+      </c>
+      <c r="D40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>501</v>
+      </c>
+      <c r="B41" t="s">
+        <v>545</v>
+      </c>
+      <c r="C41" t="s">
+        <v>574</v>
+      </c>
+      <c r="D41" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>494</v>
+      </c>
+      <c r="B42" t="s">
+        <v>545</v>
+      </c>
+      <c r="C42" t="s">
+        <v>571</v>
+      </c>
+      <c r="D42" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>508</v>
+      </c>
+      <c r="B43" t="s">
+        <v>545</v>
+      </c>
+      <c r="C43" t="s">
+        <v>572</v>
+      </c>
+      <c r="D43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>510</v>
+      </c>
+      <c r="B44" t="s">
+        <v>545</v>
+      </c>
+      <c r="C44" t="s">
+        <v>573</v>
+      </c>
+      <c r="D44" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>496</v>
+      </c>
+      <c r="B45" t="s">
+        <v>545</v>
+      </c>
+      <c r="C45" t="s">
+        <v>575</v>
+      </c>
+      <c r="D45" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>511</v>
+      </c>
+      <c r="B46" t="s">
+        <v>545</v>
+      </c>
+      <c r="C46" t="s">
+        <v>576</v>
+      </c>
+      <c r="D46" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>499</v>
+      </c>
+      <c r="B47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C47" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>513</v>
+      </c>
+      <c r="B48" t="s">
+        <v>545</v>
+      </c>
+      <c r="C48" t="s">
+        <v>578</v>
+      </c>
+      <c r="D48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B49" t="s">
+        <v>545</v>
+      </c>
+      <c r="C49" t="s">
+        <v>579</v>
+      </c>
+      <c r="D49" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>500</v>
+      </c>
+      <c r="B50" t="s">
+        <v>545</v>
+      </c>
+      <c r="C50" t="s">
+        <v>580</v>
+      </c>
+      <c r="D50" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>484</v>
+      </c>
+      <c r="B51" t="s">
+        <v>545</v>
+      </c>
+      <c r="C51" t="s">
+        <v>581</v>
+      </c>
+      <c r="D51" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>503</v>
+      </c>
+      <c r="B52" t="s">
+        <v>545</v>
+      </c>
+      <c r="C52" t="s">
+        <v>582</v>
+      </c>
+      <c r="D52" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>504</v>
+      </c>
+      <c r="B53" t="s">
+        <v>545</v>
+      </c>
+      <c r="C53" t="s">
+        <v>583</v>
+      </c>
+      <c r="D53" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>505</v>
+      </c>
+      <c r="B54" t="s">
+        <v>545</v>
+      </c>
+      <c r="C54" t="s">
+        <v>584</v>
+      </c>
+      <c r="D54" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>487</v>
+      </c>
+      <c r="B55" t="s">
+        <v>545</v>
+      </c>
+      <c r="C55" t="s">
+        <v>585</v>
+      </c>
+      <c r="D55" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>490</v>
+      </c>
+      <c r="B56" t="s">
+        <v>545</v>
+      </c>
+      <c r="C56" t="s">
+        <v>586</v>
+      </c>
+      <c r="D56" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>492</v>
+      </c>
+      <c r="B57" t="s">
+        <v>545</v>
+      </c>
+      <c r="C57" t="s">
+        <v>587</v>
+      </c>
+      <c r="D57" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>493</v>
+      </c>
+      <c r="B58" t="s">
+        <v>545</v>
+      </c>
+      <c r="C58" t="s">
+        <v>588</v>
+      </c>
+      <c r="D58" t="s">
+        <v>545</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C1:D58">
+    <sortCondition ref="D1:D58"/>
+    <sortCondition ref="C1:C58"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3460,6 +4789,728 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <v>{'file':'01%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3','title':'01 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C58" si="0">"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
+        <v>{'file':'09%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3','title':'02 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3','title':'03 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3','title':'04 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3','title':'05 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3','title':'06 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3','title':'07 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3','title':'08 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'02%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3','title':'10 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'03%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3','title':'11 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B11" t="s">
+        <v>616</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'05%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3','title':'12 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'06%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3','title':'13 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B13" t="s">
+        <v>618</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'07%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3','title':'14 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B14" t="s">
+        <v>619</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'08%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3','title':'15 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3','title':'01 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>621</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'02inthemorning-BuiltToSpill-Freemont-20140620.mp3','title':'02 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>622</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'03theplan-BuiltToSpill-Freemont-20140620.mp3','title':'03 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>623</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'04strange-BuiltToSpill-Freemont-20140620.mp3','title':'04 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>624</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'05untrustable-BuiltToSpill-Freemont-20140620.mp3','title':'05 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>620</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'06else-BuiltToSpill-Freemont-20140620.mp3','title':'01 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>621</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'07messwithtime-BuiltToSpill-Freemont-20140620.mp3','title':'02 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>622</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3','title':'03 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>623</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'09getalife-BuiltToSpill-Freemont-20140620.mp3','title':'04 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>624</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'10joyride-BuiltToSpill-Freemont-20140620.mp3','title':'05 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" t="s">
+        <v>625</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'11stab-BuiltToSpill-Freemont-20140620.mp3','title':'06 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>626</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'12carrythezero-BuiltToSpill-Freemont-20140620.mp3','title':'07 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>627</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'13youwereright-BuiltToSpill-Freemont-20140620.mp3','title':'01Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" t="s">
+        <v>628</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'14bigdipper-BuiltToSpill-Freemont-20140620.mp3','title':'10Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>629</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3','title':'11Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>630</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3','title':'12Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>631</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-center-BuiltToSpill-Geogetown-20130713.mp3','title':'01Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>632</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-fly-BuiltToSpill-Geogetown-20130713.mp3','title':'02Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>633</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3','title':'03Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>634</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3','title':'04Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>635</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3','title':'05Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="s">
+        <v>636</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3','title':'06Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>637</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3','title':'07Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>638</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-theplan-BuiltToSpill-Geogetown-20130713.mp3','title':'08Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>639</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-untitled-BuiltToSpill-Geogetown-20130713.mp3','title':'09Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>640</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3','title':'10Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>597</v>
+      </c>
+      <c r="B41" t="s">
+        <v>641</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3','title':'01Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>598</v>
+      </c>
+      <c r="B42" t="s">
+        <v>642</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'02%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3','title':'02Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>599</v>
+      </c>
+      <c r="B43" t="s">
+        <v>643</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'03%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3','title':'03Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>600</v>
+      </c>
+      <c r="B44" t="s">
+        <v>644</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'04%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3','title':'04Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>601</v>
+      </c>
+      <c r="B45" t="s">
+        <v>645</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'05%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3','title':'05Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>602</v>
+      </c>
+      <c r="B46" t="s">
+        <v>646</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'06%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3','title':'06Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>603</v>
+      </c>
+      <c r="B47" t="s">
+        <v>647</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'07%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3','title':'07Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>604</v>
+      </c>
+      <c r="B48" t="s">
+        <v>648</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'08%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3','title':'08Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>605</v>
+      </c>
+      <c r="B49" t="s">
+        <v>649</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'09%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3','title':'09Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>494</v>
+      </c>
+      <c r="B50" t="s">
+        <v>650</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3','title':'10Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>508</v>
+      </c>
+      <c r="B51" t="s">
+        <v>651</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3','title':'11Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>510</v>
+      </c>
+      <c r="B52" t="s">
+        <v>652</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3','title':'12Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>496</v>
+      </c>
+      <c r="B53" t="s">
+        <v>653</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3','title':'13Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>511</v>
+      </c>
+      <c r="B54" t="s">
+        <v>654</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3','title':'14Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>499</v>
+      </c>
+      <c r="B55" t="s">
+        <v>655</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3','title':'15Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>513</v>
+      </c>
+      <c r="B56" t="s">
+        <v>656</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3','title':'16Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>482</v>
+      </c>
+      <c r="B57" t="s">
+        <v>657</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3','title':'17Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>500</v>
+      </c>
+      <c r="B58" t="s">
+        <v>658</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3','title':'18Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3476,12 +5527,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261:B278"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144:E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7498,7 +9549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -7646,7 +9697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -7909,7 +9960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -8044,7 +10095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A52:A248"/>
   <sheetViews>
@@ -9053,7 +11104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
@@ -9908,900 +11959,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
-  <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="81" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" t="s">
-        <v>546</v>
-      </c>
-      <c r="E3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B4" t="s">
-        <v>546</v>
-      </c>
-      <c r="C4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D4" t="s">
-        <v>546</v>
-      </c>
-      <c r="E4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C5" t="s">
-        <v>593</v>
-      </c>
-      <c r="D5" t="s">
-        <v>546</v>
-      </c>
-      <c r="E5" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C6" t="s">
-        <v>594</v>
-      </c>
-      <c r="D6" t="s">
-        <v>546</v>
-      </c>
-      <c r="E6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>512</v>
-      </c>
-      <c r="B7" t="s">
-        <v>546</v>
-      </c>
-      <c r="C7" t="s">
-        <v>595</v>
-      </c>
-      <c r="D7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>502</v>
-      </c>
-      <c r="B8" t="s">
-        <v>546</v>
-      </c>
-      <c r="C8" t="s">
-        <v>596</v>
-      </c>
-      <c r="D8" t="s">
-        <v>546</v>
-      </c>
-      <c r="E8" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C9" t="s">
-        <v>507</v>
-      </c>
-      <c r="D9" t="s">
-        <v>546</v>
-      </c>
-      <c r="E9" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C10" t="s">
-        <v>495</v>
-      </c>
-      <c r="D10" t="s">
-        <v>546</v>
-      </c>
-      <c r="E10" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B11" t="s">
-        <v>546</v>
-      </c>
-      <c r="C11" t="s">
-        <v>509</v>
-      </c>
-      <c r="D11" t="s">
-        <v>546</v>
-      </c>
-      <c r="E11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>489</v>
-      </c>
-      <c r="B12" t="s">
-        <v>546</v>
-      </c>
-      <c r="C12" t="s">
-        <v>497</v>
-      </c>
-      <c r="D12" t="s">
-        <v>546</v>
-      </c>
-      <c r="E12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>491</v>
-      </c>
-      <c r="B13" t="s">
-        <v>546</v>
-      </c>
-      <c r="C13" t="s">
-        <v>498</v>
-      </c>
-      <c r="D13" t="s">
-        <v>546</v>
-      </c>
-      <c r="E13" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>506</v>
-      </c>
-      <c r="B14" t="s">
-        <v>546</v>
-      </c>
-      <c r="C14" t="s">
-        <v>512</v>
-      </c>
-      <c r="D14" t="s">
-        <v>546</v>
-      </c>
-      <c r="E14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B15" t="s">
-        <v>544</v>
-      </c>
-      <c r="C15" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" t="s">
-        <v>544</v>
-      </c>
-      <c r="E15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>321</v>
-      </c>
-      <c r="B16" t="s">
-        <v>544</v>
-      </c>
-      <c r="C16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" t="s">
-        <v>544</v>
-      </c>
-      <c r="E16" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>322</v>
-      </c>
-      <c r="B17" t="s">
-        <v>544</v>
-      </c>
-      <c r="C17" t="s">
-        <v>322</v>
-      </c>
-      <c r="D17" t="s">
-        <v>544</v>
-      </c>
-      <c r="E17" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18" t="s">
-        <v>544</v>
-      </c>
-      <c r="C18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" t="s">
-        <v>544</v>
-      </c>
-      <c r="E18" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" t="s">
-        <v>544</v>
-      </c>
-      <c r="C19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D19" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>325</v>
-      </c>
-      <c r="B20" t="s">
-        <v>544</v>
-      </c>
-      <c r="C20" t="s">
-        <v>325</v>
-      </c>
-      <c r="D20" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>326</v>
-      </c>
-      <c r="B21" t="s">
-        <v>544</v>
-      </c>
-      <c r="C21" t="s">
-        <v>326</v>
-      </c>
-      <c r="D21" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>327</v>
-      </c>
-      <c r="B22" t="s">
-        <v>544</v>
-      </c>
-      <c r="C22" t="s">
-        <v>327</v>
-      </c>
-      <c r="D22" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>328</v>
-      </c>
-      <c r="B23" t="s">
-        <v>544</v>
-      </c>
-      <c r="C23" t="s">
-        <v>328</v>
-      </c>
-      <c r="D23" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>329</v>
-      </c>
-      <c r="B24" t="s">
-        <v>544</v>
-      </c>
-      <c r="C24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D24" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>330</v>
-      </c>
-      <c r="B25" t="s">
-        <v>544</v>
-      </c>
-      <c r="C25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D25" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>331</v>
-      </c>
-      <c r="B26" t="s">
-        <v>544</v>
-      </c>
-      <c r="C26" t="s">
-        <v>331</v>
-      </c>
-      <c r="D26" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>332</v>
-      </c>
-      <c r="B27" t="s">
-        <v>544</v>
-      </c>
-      <c r="C27" t="s">
-        <v>332</v>
-      </c>
-      <c r="D27" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>333</v>
-      </c>
-      <c r="B28" t="s">
-        <v>544</v>
-      </c>
-      <c r="C28" t="s">
-        <v>333</v>
-      </c>
-      <c r="D28" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>334</v>
-      </c>
-      <c r="B29" t="s">
-        <v>544</v>
-      </c>
-      <c r="C29" t="s">
-        <v>334</v>
-      </c>
-      <c r="D29" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>335</v>
-      </c>
-      <c r="B30" t="s">
-        <v>544</v>
-      </c>
-      <c r="C30" t="s">
-        <v>335</v>
-      </c>
-      <c r="D30" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>336</v>
-      </c>
-      <c r="B31" t="s">
-        <v>547</v>
-      </c>
-      <c r="C31" t="s">
-        <v>561</v>
-      </c>
-      <c r="D31" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>337</v>
-      </c>
-      <c r="B32" t="s">
-        <v>547</v>
-      </c>
-      <c r="C32" t="s">
-        <v>562</v>
-      </c>
-      <c r="D32" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B33" t="s">
-        <v>547</v>
-      </c>
-      <c r="C33" t="s">
-        <v>563</v>
-      </c>
-      <c r="D33" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>339</v>
-      </c>
-      <c r="B34" t="s">
-        <v>547</v>
-      </c>
-      <c r="C34" t="s">
-        <v>564</v>
-      </c>
-      <c r="D34" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>340</v>
-      </c>
-      <c r="B35" t="s">
-        <v>547</v>
-      </c>
-      <c r="C35" t="s">
-        <v>565</v>
-      </c>
-      <c r="D35" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>341</v>
-      </c>
-      <c r="B36" t="s">
-        <v>547</v>
-      </c>
-      <c r="C36" t="s">
-        <v>566</v>
-      </c>
-      <c r="D36" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>342</v>
-      </c>
-      <c r="B37" t="s">
-        <v>547</v>
-      </c>
-      <c r="C37" t="s">
-        <v>567</v>
-      </c>
-      <c r="D37" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>343</v>
-      </c>
-      <c r="B38" t="s">
-        <v>547</v>
-      </c>
-      <c r="C38" t="s">
-        <v>568</v>
-      </c>
-      <c r="D38" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>344</v>
-      </c>
-      <c r="B39" t="s">
-        <v>547</v>
-      </c>
-      <c r="C39" t="s">
-        <v>569</v>
-      </c>
-      <c r="D39" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>345</v>
-      </c>
-      <c r="B40" t="s">
-        <v>547</v>
-      </c>
-      <c r="C40" t="s">
-        <v>570</v>
-      </c>
-      <c r="D40" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>501</v>
-      </c>
-      <c r="B41" t="s">
-        <v>545</v>
-      </c>
-      <c r="C41" t="s">
-        <v>574</v>
-      </c>
-      <c r="D41" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>494</v>
-      </c>
-      <c r="B42" t="s">
-        <v>545</v>
-      </c>
-      <c r="C42" t="s">
-        <v>571</v>
-      </c>
-      <c r="D42" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>508</v>
-      </c>
-      <c r="B43" t="s">
-        <v>545</v>
-      </c>
-      <c r="C43" t="s">
-        <v>572</v>
-      </c>
-      <c r="D43" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>510</v>
-      </c>
-      <c r="B44" t="s">
-        <v>545</v>
-      </c>
-      <c r="C44" t="s">
-        <v>573</v>
-      </c>
-      <c r="D44" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>496</v>
-      </c>
-      <c r="B45" t="s">
-        <v>545</v>
-      </c>
-      <c r="C45" t="s">
-        <v>575</v>
-      </c>
-      <c r="D45" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>511</v>
-      </c>
-      <c r="B46" t="s">
-        <v>545</v>
-      </c>
-      <c r="C46" t="s">
-        <v>576</v>
-      </c>
-      <c r="D46" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>499</v>
-      </c>
-      <c r="B47" t="s">
-        <v>545</v>
-      </c>
-      <c r="C47" t="s">
-        <v>577</v>
-      </c>
-      <c r="D47" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>513</v>
-      </c>
-      <c r="B48" t="s">
-        <v>545</v>
-      </c>
-      <c r="C48" t="s">
-        <v>578</v>
-      </c>
-      <c r="D48" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>482</v>
-      </c>
-      <c r="B49" t="s">
-        <v>545</v>
-      </c>
-      <c r="C49" t="s">
-        <v>579</v>
-      </c>
-      <c r="D49" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>500</v>
-      </c>
-      <c r="B50" t="s">
-        <v>545</v>
-      </c>
-      <c r="C50" t="s">
-        <v>580</v>
-      </c>
-      <c r="D50" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>484</v>
-      </c>
-      <c r="B51" t="s">
-        <v>545</v>
-      </c>
-      <c r="C51" t="s">
-        <v>581</v>
-      </c>
-      <c r="D51" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>503</v>
-      </c>
-      <c r="B52" t="s">
-        <v>545</v>
-      </c>
-      <c r="C52" t="s">
-        <v>582</v>
-      </c>
-      <c r="D52" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>504</v>
-      </c>
-      <c r="B53" t="s">
-        <v>545</v>
-      </c>
-      <c r="C53" t="s">
-        <v>583</v>
-      </c>
-      <c r="D53" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B54" t="s">
-        <v>545</v>
-      </c>
-      <c r="C54" t="s">
-        <v>584</v>
-      </c>
-      <c r="D54" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>487</v>
-      </c>
-      <c r="B55" t="s">
-        <v>545</v>
-      </c>
-      <c r="C55" t="s">
-        <v>585</v>
-      </c>
-      <c r="D55" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>490</v>
-      </c>
-      <c r="B56" t="s">
-        <v>545</v>
-      </c>
-      <c r="C56" t="s">
-        <v>586</v>
-      </c>
-      <c r="D56" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>492</v>
-      </c>
-      <c r="B57" t="s">
-        <v>545</v>
-      </c>
-      <c r="C57" t="s">
-        <v>587</v>
-      </c>
-      <c r="D57" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>493</v>
-      </c>
-      <c r="B58" t="s">
-        <v>545</v>
-      </c>
-      <c r="C58" t="s">
-        <v>588</v>
-      </c>
-      <c r="D58" t="s">
-        <v>545</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="C1:D58">
-    <sortCondition ref="D1:D58"/>
-    <sortCondition ref="C1:C58"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="zekeJSON" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="845">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -2040,63 +2040,6 @@
     <t>09  Melvins - Showbox Market - October 18th, 2014</t>
   </si>
   <si>
-    <t>marklanegan-showbox-20140703-01.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-02.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-03.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-04.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-05.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-06.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-07.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-08.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-09.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-10.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-11.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-12.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-13.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-14.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-15.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-16.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-17.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-18.mp3</t>
-  </si>
-  <si>
-    <t>marklanegan-showbox-20140703-19.mp3</t>
-  </si>
-  <si>
     <t>ZOOM0038.jpg</t>
   </si>
   <si>
@@ -2509,6 +2452,120 @@
   </si>
   <si>
     <t>Last Gasp 14</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  5119336 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  6442408 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  5876200 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  4334824 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  5291560 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  6011560 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  6002344 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  4486888 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  5206312 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  4175273 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  5622185 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  6081833 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  5962025 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  3719657 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  5572073 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  3307817 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420  3971369 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420 10442153 Sep  6 09</t>
+  </si>
+  <si>
+    <t>-rwxr-xr-x 1 jimara0 pg6998420   990569 Sep  6 09</t>
+  </si>
+  <si>
+    <t>01%20marklanegan-showbox-20140703-01.mp3</t>
+  </si>
+  <si>
+    <t>02%20marklanegan-showbox-20140703-02.mp3</t>
+  </si>
+  <si>
+    <t>03%20marklanegan-showbox-20140703-03.mp3</t>
+  </si>
+  <si>
+    <t>04%20marklanegan-showbox-20140703-04.mp3</t>
+  </si>
+  <si>
+    <t>05%20marklanegan-showbox-20140703-05.mp3</t>
+  </si>
+  <si>
+    <t>06%20marklanegan-showbox-20140703-06.mp3</t>
+  </si>
+  <si>
+    <t>07%20marklanegan-showbox-20140703-07.mp3</t>
+  </si>
+  <si>
+    <t>08%20marklanegan-showbox-20140703-08.mp3</t>
+  </si>
+  <si>
+    <t>09%20marklanegan-showbox-20140703-09.mp3</t>
+  </si>
+  <si>
+    <t>10%20marklanegan-showbox-20140703-10.mp3</t>
+  </si>
+  <si>
+    <t>11%20marklanegan-showbox-20140703-11.mp3</t>
+  </si>
+  <si>
+    <t>12%20marklanegan-showbox-20140703-12.mp3</t>
+  </si>
+  <si>
+    <t>13%20marklanegan-showbox-20140703-13.mp3</t>
+  </si>
+  <si>
+    <t>14%20marklanegan-showbox-20140703-14.mp3</t>
+  </si>
+  <si>
+    <t>15%20marklanegan-showbox-20140703-15.mp3</t>
+  </si>
+  <si>
+    <t>16%20marklanegan-showbox-20140703-16.mp3</t>
+  </si>
+  <si>
+    <t>17%20marklanegan-showbox-20140703-17.mp3</t>
+  </si>
+  <si>
+    <t>18%20marklanegan-showbox-20140703-18.mp3</t>
+  </si>
+  <si>
+    <t>19%20marklanegan-showbox-20140703-19.mp3</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2621,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="222">
+  <cellStyleXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2643,6 +2700,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2795,7 +2856,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="222">
+  <cellStyles count="226">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2978,6 +3039,10 @@
     <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3362,7 +3427,7 @@
         <v>365</v>
       </c>
       <c r="B1" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="C1" t="str">
         <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
@@ -3374,7 +3439,7 @@
         <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C10" si="0">"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
@@ -3386,7 +3451,7 @@
         <v>357</v>
       </c>
       <c r="B3" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -3398,7 +3463,7 @@
         <v>358</v>
       </c>
       <c r="B4" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3410,7 +3475,7 @@
         <v>359</v>
       </c>
       <c r="B5" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3422,7 +3487,7 @@
         <v>360</v>
       </c>
       <c r="B6" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3434,7 +3499,7 @@
         <v>361</v>
       </c>
       <c r="B7" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3446,7 +3511,7 @@
         <v>362</v>
       </c>
       <c r="B8" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3458,7 +3523,7 @@
         <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3470,7 +3535,7 @@
         <v>364</v>
       </c>
       <c r="B10" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3482,10 +3547,10 @@
         <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="C11" t="str">
-        <f>"{'file':'"&amp;A11&amp;"','title':'"&amp;B11&amp;"'},"</f>
+        <f t="shared" ref="C11:C20" si="1">"{'file':'"&amp;A11&amp;"','title':'"&amp;B11&amp;"'},"</f>
         <v>{'file':'Vinyl_10-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 11'},</v>
       </c>
     </row>
@@ -3494,10 +3559,10 @@
         <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="C12" t="str">
-        <f>"{'file':'"&amp;A12&amp;"','title':'"&amp;B12&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'Vinyl_11-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 12'},</v>
       </c>
     </row>
@@ -3506,10 +3571,10 @@
         <v>348</v>
       </c>
       <c r="B13" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="C13" t="str">
-        <f>"{'file':'"&amp;A13&amp;"','title':'"&amp;B13&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'Vinyl_12-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 13'},</v>
       </c>
     </row>
@@ -3518,10 +3583,10 @@
         <v>349</v>
       </c>
       <c r="B14" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="C14" t="str">
-        <f>"{'file':'"&amp;A14&amp;"','title':'"&amp;B14&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'Vinyl_13-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 14'},</v>
       </c>
     </row>
@@ -3530,10 +3595,10 @@
         <v>350</v>
       </c>
       <c r="B15" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="C15" t="str">
-        <f>"{'file':'"&amp;A15&amp;"','title':'"&amp;B15&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'Vinyl_14-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 15'},</v>
       </c>
     </row>
@@ -3542,10 +3607,10 @@
         <v>351</v>
       </c>
       <c r="B16" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="C16" t="str">
-        <f>"{'file':'"&amp;A16&amp;"','title':'"&amp;B16&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'Vinyl_15-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 16'},</v>
       </c>
     </row>
@@ -3554,10 +3619,10 @@
         <v>352</v>
       </c>
       <c r="B17" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="C17" t="str">
-        <f>"{'file':'"&amp;A17&amp;"','title':'"&amp;B17&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'Vinyl_16-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 17'},</v>
       </c>
     </row>
@@ -3566,10 +3631,10 @@
         <v>353</v>
       </c>
       <c r="B18" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="C18" t="str">
-        <f>"{'file':'"&amp;A18&amp;"','title':'"&amp;B18&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'Vinyl_17-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 18'},</v>
       </c>
     </row>
@@ -3578,10 +3643,10 @@
         <v>354</v>
       </c>
       <c r="B19" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="C19" t="str">
-        <f>"{'file':'"&amp;A19&amp;"','title':'"&amp;B19&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'Vinyl_18-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 19'},</v>
       </c>
     </row>
@@ -3590,10 +3655,10 @@
         <v>355</v>
       </c>
       <c r="B20" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="C20" t="str">
-        <f>"{'file':'"&amp;A20&amp;"','title':'"&amp;B20&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'Vinyl_19-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 20'},</v>
       </c>
     </row>
@@ -3602,10 +3667,10 @@
         <v>367</v>
       </c>
       <c r="B21" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21" si="1">"{'file':'"&amp;A21&amp;"','title':'"&amp;B21&amp;"'},"</f>
+        <f t="shared" ref="C21" si="2">"{'file':'"&amp;A21&amp;"','title':'"&amp;B21&amp;"'},"</f>
         <v>{'file':'ZOOM0001-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 1'},</v>
       </c>
     </row>
@@ -3614,10 +3679,10 @@
         <v>369</v>
       </c>
       <c r="B22" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ref="C22:C35" si="2">"{'file':'"&amp;A22&amp;"','title':'"&amp;B22&amp;"'},"</f>
+        <f t="shared" ref="C22:C35" si="3">"{'file':'"&amp;A22&amp;"','title':'"&amp;B22&amp;"'},"</f>
         <v>{'file':'ZOOM0002-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 2'},</v>
       </c>
     </row>
@@ -3626,10 +3691,10 @@
         <v>371</v>
       </c>
       <c r="B23" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0003-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 3'},</v>
       </c>
     </row>
@@ -3638,10 +3703,10 @@
         <v>373</v>
       </c>
       <c r="B24" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0004-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 4'},</v>
       </c>
     </row>
@@ -3650,10 +3715,10 @@
         <v>375</v>
       </c>
       <c r="B25" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0005-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 5'},</v>
       </c>
     </row>
@@ -3662,10 +3727,10 @@
         <v>376</v>
       </c>
       <c r="B26" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0006-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 6'},</v>
       </c>
     </row>
@@ -3674,10 +3739,10 @@
         <v>377</v>
       </c>
       <c r="B27" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0007-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 7'},</v>
       </c>
     </row>
@@ -3686,10 +3751,10 @@
         <v>378</v>
       </c>
       <c r="B28" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0008-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 8'},</v>
       </c>
     </row>
@@ -3698,10 +3763,10 @@
         <v>379</v>
       </c>
       <c r="B29" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0009-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 9'},</v>
       </c>
     </row>
@@ -3710,10 +3775,10 @@
         <v>380</v>
       </c>
       <c r="B30" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0010-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 10'},</v>
       </c>
     </row>
@@ -3722,10 +3787,10 @@
         <v>381</v>
       </c>
       <c r="B31" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0011-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 11'},</v>
       </c>
     </row>
@@ -3734,10 +3799,10 @@
         <v>382</v>
       </c>
       <c r="B32" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0012-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 12'},</v>
       </c>
     </row>
@@ -3746,10 +3811,10 @@
         <v>383</v>
       </c>
       <c r="B33" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0013-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 13'},</v>
       </c>
     </row>
@@ -3758,10 +3823,10 @@
         <v>384</v>
       </c>
       <c r="B34" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0014-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 14'},</v>
       </c>
     </row>
@@ -3770,16 +3835,16 @@
         <v>385</v>
       </c>
       <c r="B35" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>{'file':'ZOOM0015-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 15'},</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -8365,7 +8430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C14"/>
     </sheetView>
   </sheetViews>
@@ -8379,7 +8444,7 @@
         <v>386</v>
       </c>
       <c r="B1" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="C1" t="str">
         <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
@@ -8391,7 +8456,7 @@
         <v>387</v>
       </c>
       <c r="B2" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C28" si="0">"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
@@ -8403,7 +8468,7 @@
         <v>388</v>
       </c>
       <c r="B3" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -8415,7 +8480,7 @@
         <v>389</v>
       </c>
       <c r="B4" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -8427,7 +8492,7 @@
         <v>390</v>
       </c>
       <c r="B5" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -8439,7 +8504,7 @@
         <v>391</v>
       </c>
       <c r="B6" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -8451,7 +8516,7 @@
         <v>392</v>
       </c>
       <c r="B7" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -8463,7 +8528,7 @@
         <v>393</v>
       </c>
       <c r="B8" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -8475,7 +8540,7 @@
         <v>394</v>
       </c>
       <c r="B9" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -8487,7 +8552,7 @@
         <v>395</v>
       </c>
       <c r="B10" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -8499,7 +8564,7 @@
         <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -8511,7 +8576,7 @@
         <v>397</v>
       </c>
       <c r="B12" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -8523,7 +8588,7 @@
         <v>398</v>
       </c>
       <c r="B13" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -8535,7 +8600,7 @@
         <v>399</v>
       </c>
       <c r="B14" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -8544,10 +8609,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="B15" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -8556,10 +8621,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="B16" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -8568,10 +8633,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="B17" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -8580,10 +8645,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="B18" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -8592,10 +8657,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="B19" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -8604,10 +8669,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="B20" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -8616,10 +8681,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="B21" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -8628,10 +8693,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="B22" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -8640,10 +8705,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="B23" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -8652,10 +8717,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="B24" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -8664,10 +8729,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="B25" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -8676,10 +8741,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="B26" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -8688,10 +8753,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="B27" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -8700,10 +8765,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="B28" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -8723,10 +8788,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8736,250 +8801,250 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>669</v>
+        <v>826</v>
       </c>
       <c r="B1" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="C1" t="str">
         <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
-        <v>{'file':'marklanegan-showbox-20140703-01.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 1'},</v>
+        <v>{'file':'01%20marklanegan-showbox-20140703-01.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 1'},</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>670</v>
+        <v>827</v>
       </c>
       <c r="B2" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C22" si="0">"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
-        <v>{'file':'marklanegan-showbox-20140703-02.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 2'},</v>
+        <f>"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
+        <v>{'file':'02%20marklanegan-showbox-20140703-02.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 2'},</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>671</v>
+        <v>828</v>
       </c>
       <c r="B3" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-03.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 3'},</v>
+        <f>"{'file':'"&amp;A3&amp;"','title':'"&amp;B3&amp;"'},"</f>
+        <v>{'file':'03%20marklanegan-showbox-20140703-03.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 3'},</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>672</v>
+        <v>829</v>
       </c>
       <c r="B4" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-04.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 4'},</v>
+        <f>"{'file':'"&amp;A4&amp;"','title':'"&amp;B4&amp;"'},"</f>
+        <v>{'file':'04%20marklanegan-showbox-20140703-04.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 4'},</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>673</v>
+        <v>830</v>
       </c>
       <c r="B5" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-05.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 5'},</v>
+        <f>"{'file':'"&amp;A5&amp;"','title':'"&amp;B5&amp;"'},"</f>
+        <v>{'file':'05%20marklanegan-showbox-20140703-05.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 5'},</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>831</v>
       </c>
       <c r="B6" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-06.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 6'},</v>
+        <f>"{'file':'"&amp;A6&amp;"','title':'"&amp;B6&amp;"'},"</f>
+        <v>{'file':'06%20marklanegan-showbox-20140703-06.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 6'},</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>832</v>
       </c>
       <c r="B7" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-07.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 7'},</v>
+        <f>"{'file':'"&amp;A7&amp;"','title':'"&amp;B7&amp;"'},"</f>
+        <v>{'file':'07%20marklanegan-showbox-20140703-07.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 7'},</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>676</v>
+        <v>833</v>
       </c>
       <c r="B8" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-08.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 8'},</v>
+        <f>"{'file':'"&amp;A8&amp;"','title':'"&amp;B8&amp;"'},"</f>
+        <v>{'file':'08%20marklanegan-showbox-20140703-08.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 8'},</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>677</v>
+        <v>834</v>
       </c>
       <c r="B9" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-09.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 9'},</v>
+        <f>"{'file':'"&amp;A9&amp;"','title':'"&amp;B9&amp;"'},"</f>
+        <v>{'file':'09%20marklanegan-showbox-20140703-09.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 9'},</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>678</v>
+        <v>835</v>
       </c>
       <c r="B10" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-10.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 10'},</v>
+        <f>"{'file':'"&amp;A10&amp;"','title':'"&amp;B10&amp;"'},"</f>
+        <v>{'file':'10%20marklanegan-showbox-20140703-10.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 10'},</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>679</v>
+        <v>836</v>
       </c>
       <c r="B11" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-11.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 11'},</v>
+        <f>"{'file':'"&amp;A11&amp;"','title':'"&amp;B11&amp;"'},"</f>
+        <v>{'file':'11%20marklanegan-showbox-20140703-11.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 11'},</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>680</v>
+        <v>837</v>
       </c>
       <c r="B12" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-12.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 12'},</v>
+        <f>"{'file':'"&amp;A12&amp;"','title':'"&amp;B12&amp;"'},"</f>
+        <v>{'file':'12%20marklanegan-showbox-20140703-12.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 12'},</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>681</v>
+        <v>838</v>
       </c>
       <c r="B13" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-13.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 13'},</v>
+        <f>"{'file':'"&amp;A13&amp;"','title':'"&amp;B13&amp;"'},"</f>
+        <v>{'file':'13%20marklanegan-showbox-20140703-13.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 13'},</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>682</v>
+        <v>839</v>
       </c>
       <c r="B14" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-14.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 14'},</v>
+        <f>"{'file':'"&amp;A14&amp;"','title':'"&amp;B14&amp;"'},"</f>
+        <v>{'file':'14%20marklanegan-showbox-20140703-14.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 14'},</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>683</v>
+        <v>840</v>
       </c>
       <c r="B15" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-15.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 15'},</v>
+        <f>"{'file':'"&amp;A15&amp;"','title':'"&amp;B15&amp;"'},"</f>
+        <v>{'file':'15%20marklanegan-showbox-20140703-15.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 15'},</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>684</v>
+        <v>841</v>
       </c>
       <c r="B16" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-16.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 16'},</v>
+        <f>"{'file':'"&amp;A16&amp;"','title':'"&amp;B16&amp;"'},"</f>
+        <v>{'file':'16%20marklanegan-showbox-20140703-16.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 16'},</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>685</v>
+        <v>842</v>
       </c>
       <c r="B17" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-17.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 17'},</v>
+        <f>"{'file':'"&amp;A17&amp;"','title':'"&amp;B17&amp;"'},"</f>
+        <v>{'file':'17%20marklanegan-showbox-20140703-17.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 17'},</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>686</v>
+        <v>843</v>
       </c>
       <c r="B18" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-18.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 18'},</v>
+        <f>"{'file':'"&amp;A18&amp;"','title':'"&amp;B18&amp;"'},"</f>
+        <v>{'file':'18%20marklanegan-showbox-20140703-18.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 18'},</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>687</v>
+        <v>844</v>
       </c>
       <c r="B19" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'marklanegan-showbox-20140703-19.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 19'},</v>
+        <f>"{'file':'"&amp;A19&amp;"','title':'"&amp;B19&amp;"'},"</f>
+        <v>{'file':'19%20marklanegan-showbox-20140703-19.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 19'},</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="B20" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C20:C22" si="0">"{'file':'"&amp;A20&amp;"','title':'"&amp;B20&amp;"'},"</f>
         <v>{'file':'IMG_0763-1024x768.jpg','title':'Mark Lanegan 1'},</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="B21" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -8988,14 +9053,166 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="B22" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>{'file':'IMG_0768-1024x768.jpg','title':'Mark Lanegan 3'},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>807</v>
+      </c>
+      <c r="B24" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B25" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>809</v>
+      </c>
+      <c r="B26" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>810</v>
+      </c>
+      <c r="B27" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>811</v>
+      </c>
+      <c r="B28" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>812</v>
+      </c>
+      <c r="B29" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>813</v>
+      </c>
+      <c r="B30" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>814</v>
+      </c>
+      <c r="B31" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>815</v>
+      </c>
+      <c r="B32" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>816</v>
+      </c>
+      <c r="B33" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>817</v>
+      </c>
+      <c r="B34" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>818</v>
+      </c>
+      <c r="B35" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>819</v>
+      </c>
+      <c r="B36" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>820</v>
+      </c>
+      <c r="B37" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>821</v>
+      </c>
+      <c r="B38" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>822</v>
+      </c>
+      <c r="B39" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>823</v>
+      </c>
+      <c r="B40" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>824</v>
+      </c>
+      <c r="B41" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>825</v>
+      </c>
+      <c r="B42" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -9027,7 +9244,7 @@
         <v>366</v>
       </c>
       <c r="B1" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="C1" t="str">
         <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
@@ -9039,7 +9256,7 @@
         <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C10" si="0">"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
@@ -9051,7 +9268,7 @@
         <v>370</v>
       </c>
       <c r="B3" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -9063,7 +9280,7 @@
         <v>372</v>
       </c>
       <c r="B4" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -9075,7 +9292,7 @@
         <v>374</v>
       </c>
       <c r="B5" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -9084,10 +9301,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="B6" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -9096,10 +9313,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="B7" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -9108,10 +9325,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="B8" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -9120,10 +9337,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="B9" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -9132,10 +9349,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="B10" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -10094,10 +10311,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="B78" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
@@ -10107,10 +10324,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="B79" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
@@ -10120,10 +10337,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="B80" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -10133,10 +10350,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="B81" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
@@ -10146,10 +10363,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="B82" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
@@ -10159,10 +10376,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="B83" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
@@ -10172,10 +10389,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="B84" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
@@ -10185,10 +10402,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="B85" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
@@ -10198,10 +10415,10 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="B86" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
@@ -10211,10 +10428,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="B87" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="865" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="865"/>
   </bookViews>
   <sheets>
-    <sheet name="zekeJSON" sheetId="4" r:id="rId1"/>
-    <sheet name="lastgaspJSON" sheetId="16" r:id="rId2"/>
-    <sheet name="marklaneganJSON" sheetId="17" r:id="rId3"/>
-    <sheet name="bigbusinessJSON" sheetId="18" r:id="rId4"/>
-    <sheet name="cracksabbathJSON" sheetId="12" r:id="rId5"/>
-    <sheet name="melvinsJSON" sheetId="14" r:id="rId6"/>
-    <sheet name="sufferingfuckheadsJSON" sheetId="15" r:id="rId7"/>
-    <sheet name="builttospillJSON" sheetId="11" r:id="rId8"/>
-    <sheet name="json array" sheetId="10" r:id="rId9"/>
-    <sheet name="OPTIONaudio" sheetId="1" r:id="rId10"/>
-    <sheet name="OPTIONvideo" sheetId="7" r:id="rId11"/>
-    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId12"/>
-    <sheet name="IMG" sheetId="3" r:id="rId13"/>
+    <sheet name="roxhillJSON" sheetId="19" r:id="rId1"/>
+    <sheet name="zekeJSON" sheetId="4" r:id="rId2"/>
+    <sheet name="lastgaspJSON" sheetId="16" r:id="rId3"/>
+    <sheet name="marklaneganJSON" sheetId="17" r:id="rId4"/>
+    <sheet name="bigbusinessJSON" sheetId="18" r:id="rId5"/>
+    <sheet name="cracksabbathJSON" sheetId="12" r:id="rId6"/>
+    <sheet name="melvinsJSON" sheetId="14" r:id="rId7"/>
+    <sheet name="sufferingfuckheadsJSON" sheetId="15" r:id="rId8"/>
+    <sheet name="builttospillJSON" sheetId="11" r:id="rId9"/>
+    <sheet name="json array" sheetId="10" r:id="rId10"/>
+    <sheet name="OPTIONaudio" sheetId="1" r:id="rId11"/>
+    <sheet name="OPTIONvideo" sheetId="7" r:id="rId12"/>
+    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId13"/>
+    <sheet name="IMG" sheetId="3" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="896">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -2566,6 +2568,159 @@
   </si>
   <si>
     <t>19%20marklanegan-showbox-20140703-19.mp3</t>
+  </si>
+  <si>
+    <t>ZOOM0001roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>4506KB</t>
+  </si>
+  <si>
+    <t>2.2MB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0002roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>2620KB</t>
+  </si>
+  <si>
+    <t>2.6MB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0003roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>1174KB</t>
+  </si>
+  <si>
+    <t>1.2MB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0004roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>839KB</t>
+  </si>
+  <si>
+    <t>838.9KB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0005roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>2399KB</t>
+  </si>
+  <si>
+    <t>2.3MB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0006roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>808KB</t>
+  </si>
+  <si>
+    <t>808.0KB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0007roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>1041KB</t>
+  </si>
+  <si>
+    <t>1.0MB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0008roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>1562KB</t>
+  </si>
+  <si>
+    <t>1.5MB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0009roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>3317KB</t>
+  </si>
+  <si>
+    <t>3.2MB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0010roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>2032KB</t>
+  </si>
+  <si>
+    <t>2.0MB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0011roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>3583KB</t>
+  </si>
+  <si>
+    <t>3.5MB/s</t>
+  </si>
+  <si>
+    <t>ZOOM0012roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>3985KB</t>
+  </si>
+  <si>
+    <t>ZOOM0013roxhillsessions20150930.mp3</t>
+  </si>
+  <si>
+    <t>3720KB</t>
+  </si>
+  <si>
+    <t>1.8MB/s</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 1</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 2</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 3</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 4</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 5</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 6</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 7</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 8</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 9</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 10</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 11</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 12</t>
+  </si>
+  <si>
+    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 13</t>
   </si>
 </sst>
 </file>
@@ -2621,7 +2776,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="226">
+  <cellStyleXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2848,15 +3003,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="226">
+  <cellStyles count="229">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3043,6 +3202,9 @@
     <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3411,440 +3573,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>845</v>
       </c>
       <c r="B1" t="s">
-        <v>744</v>
+        <v>883</v>
       </c>
       <c r="C1" t="str">
-        <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
-        <v>{'file':'Vinyl-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 1'},</v>
+        <f t="shared" ref="C1:C13" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <v>{'file':'ZOOM0001roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 1'},</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>848</v>
       </c>
       <c r="B2" t="s">
-        <v>745</v>
+        <v>884</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C10" si="0">"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
-        <v>{'file':'Vinyl_1-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 2'},</v>
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0002roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 2'},</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>851</v>
       </c>
       <c r="B3" t="s">
-        <v>746</v>
+        <v>885</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'Vinyl_2-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 3'},</v>
+        <v>{'file':'ZOOM0003roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 3'},</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>854</v>
       </c>
       <c r="B4" t="s">
-        <v>747</v>
+        <v>886</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'Vinyl_3-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 4'},</v>
+        <v>{'file':'ZOOM0004roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 4'},</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>857</v>
       </c>
       <c r="B5" t="s">
-        <v>748</v>
+        <v>887</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'Vinyl_4-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 5'},</v>
+        <v>{'file':'ZOOM0005roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 5'},</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>860</v>
       </c>
       <c r="B6" t="s">
-        <v>749</v>
+        <v>888</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'Vinyl_5-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 6'},</v>
+        <v>{'file':'ZOOM0006roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 6'},</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>863</v>
       </c>
       <c r="B7" t="s">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'Vinyl_6-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 7'},</v>
+        <v>{'file':'ZOOM0007roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 7'},</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>866</v>
       </c>
       <c r="B8" t="s">
-        <v>751</v>
+        <v>890</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'Vinyl_7-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 8'},</v>
+        <v>{'file':'ZOOM0008roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 8'},</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>869</v>
       </c>
       <c r="B9" t="s">
-        <v>752</v>
+        <v>891</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'Vinyl_8-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 9'},</v>
+        <v>{'file':'ZOOM0009roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 9'},</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>872</v>
       </c>
       <c r="B10" t="s">
-        <v>753</v>
+        <v>892</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'Vinyl_9-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 10'},</v>
+        <v>{'file':'ZOOM0010roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 10'},</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>875</v>
       </c>
       <c r="B11" t="s">
-        <v>754</v>
+        <v>893</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C20" si="1">"{'file':'"&amp;A11&amp;"','title':'"&amp;B11&amp;"'},"</f>
-        <v>{'file':'Vinyl_10-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 11'},</v>
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0011roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 11'},</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>878</v>
       </c>
       <c r="B12" t="s">
-        <v>755</v>
+        <v>894</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'Vinyl_11-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 12'},</v>
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0012roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 12'},</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>880</v>
       </c>
       <c r="B13" t="s">
-        <v>756</v>
+        <v>895</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'Vinyl_12-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 13'},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B14" t="s">
-        <v>757</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'Vinyl_13-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 14'},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>350</v>
-      </c>
-      <c r="B15" t="s">
-        <v>758</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'Vinyl_14-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 15'},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" t="s">
-        <v>759</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'Vinyl_15-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 16'},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>352</v>
-      </c>
-      <c r="B17" t="s">
-        <v>760</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'Vinyl_16-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 17'},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>353</v>
-      </c>
-      <c r="B18" t="s">
-        <v>761</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'Vinyl_17-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 18'},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>354</v>
-      </c>
-      <c r="B19" t="s">
-        <v>762</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'Vinyl_18-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 19'},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B20" t="s">
-        <v>763</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'Vinyl_19-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 20'},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>367</v>
-      </c>
-      <c r="B21" t="s">
-        <v>764</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" ref="C21" si="2">"{'file':'"&amp;A21&amp;"','title':'"&amp;B21&amp;"'},"</f>
-        <v>{'file':'ZOOM0001-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 1'},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>369</v>
-      </c>
-      <c r="B22" t="s">
-        <v>765</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" ref="C22:C35" si="3">"{'file':'"&amp;A22&amp;"','title':'"&amp;B22&amp;"'},"</f>
-        <v>{'file':'ZOOM0002-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 2'},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>371</v>
-      </c>
-      <c r="B23" t="s">
-        <v>766</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0003-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 3'},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>373</v>
-      </c>
-      <c r="B24" t="s">
-        <v>767</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0004-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 4'},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" t="s">
-        <v>768</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0005-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 5'},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>376</v>
-      </c>
-      <c r="B26" t="s">
-        <v>769</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0006-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 6'},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>377</v>
-      </c>
-      <c r="B27" t="s">
-        <v>770</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0007-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 7'},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>378</v>
-      </c>
-      <c r="B28" t="s">
-        <v>771</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0008-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 8'},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>379</v>
-      </c>
-      <c r="B29" t="s">
-        <v>772</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0009-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 9'},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>380</v>
-      </c>
-      <c r="B30" t="s">
-        <v>773</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0010-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 10'},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>381</v>
-      </c>
-      <c r="B31" t="s">
-        <v>774</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0011-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 11'},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>382</v>
-      </c>
-      <c r="B32" t="s">
-        <v>775</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0012-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 12'},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>383</v>
-      </c>
-      <c r="B33" t="s">
-        <v>776</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0013-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 13'},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>384</v>
-      </c>
-      <c r="B34" t="s">
-        <v>777</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0014-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 14'},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>385</v>
-      </c>
-      <c r="B35" t="s">
-        <v>778</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="3"/>
-        <v>{'file':'ZOOM0015-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 15'},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>703</v>
+        <f t="shared" si="0"/>
+        <v>{'file':'ZOOM0013roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 13'},</v>
       </c>
     </row>
   </sheetData>
@@ -3859,6 +3753,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I278"/>
   <sheetViews>
@@ -7880,7 +7791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -8028,7 +7939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -8291,7 +8202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -8426,7 +8337,698 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D3" t="s">
+        <v>853</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>855</v>
+      </c>
+      <c r="D4" t="s">
+        <v>856</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>858</v>
+      </c>
+      <c r="D5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>860</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>861</v>
+      </c>
+      <c r="D6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>863</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>864</v>
+      </c>
+      <c r="D7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>866</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>867</v>
+      </c>
+      <c r="D8" t="s">
+        <v>868</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>869</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D9" t="s">
+        <v>871</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>872</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>873</v>
+      </c>
+      <c r="D10" t="s">
+        <v>874</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>875</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>876</v>
+      </c>
+      <c r="D11" t="s">
+        <v>877</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>878</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>879</v>
+      </c>
+      <c r="D12" t="s">
+        <v>874</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>880</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>881</v>
+      </c>
+      <c r="D13" t="s">
+        <v>882</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C1" t="str">
+        <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <v>{'file':'Vinyl-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 1'},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C10" si="0">"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
+        <v>{'file':'Vinyl_1-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 2'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'Vinyl_2-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 3'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'Vinyl_3-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 4'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'Vinyl_4-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 5'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'Vinyl_5-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 6'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'Vinyl_6-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 7'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'Vinyl_7-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 8'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'Vinyl_8-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 9'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'Vinyl_9-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 10'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" t="s">
+        <v>754</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ref="C11:C20" si="1">"{'file':'"&amp;A11&amp;"','title':'"&amp;B11&amp;"'},"</f>
+        <v>{'file':'Vinyl_10-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 11'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" t="s">
+        <v>755</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'Vinyl_11-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 12'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" t="s">
+        <v>756</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'Vinyl_12-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 13'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" t="s">
+        <v>757</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'Vinyl_13-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 14'},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'Vinyl_14-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 15'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" t="s">
+        <v>759</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'Vinyl_15-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 16'},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'Vinyl_16-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 17'},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'Vinyl_17-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 18'},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" t="s">
+        <v>762</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'Vinyl_18-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 19'},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" t="s">
+        <v>763</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'Vinyl_19-zeke-elcorazon-2013.mp3','title':'Zeke - El Corazon - 2013 - 20'},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" t="s">
+        <v>764</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ref="C21" si="2">"{'file':'"&amp;A21&amp;"','title':'"&amp;B21&amp;"'},"</f>
+        <v>{'file':'ZOOM0001-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 1'},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>369</v>
+      </c>
+      <c r="B22" t="s">
+        <v>765</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:C35" si="3">"{'file':'"&amp;A22&amp;"','title':'"&amp;B22&amp;"'},"</f>
+        <v>{'file':'ZOOM0002-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 2'},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" t="s">
+        <v>766</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0003-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 3'},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" t="s">
+        <v>767</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0004-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 4'},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" t="s">
+        <v>768</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0005-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 5'},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" t="s">
+        <v>769</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0006-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 6'},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" t="s">
+        <v>770</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0007-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 7'},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" t="s">
+        <v>771</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0008-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 8'},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0009-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 9'},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B30" t="s">
+        <v>773</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0010-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 10'},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" t="s">
+        <v>774</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0011-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 11'},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B32" t="s">
+        <v>775</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0012-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 12'},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>383</v>
+      </c>
+      <c r="B33" t="s">
+        <v>776</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0013-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 13'},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>384</v>
+      </c>
+      <c r="B34" t="s">
+        <v>777</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0014-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 14'},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>385</v>
+      </c>
+      <c r="B35" t="s">
+        <v>778</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'ZOOM0015-zeke-highline-20140822.mp3','title':'Zeke - Highline - August 22nd, 2014 - 15'},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -8786,11 +9388,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C19"/>
     </sheetView>
   </sheetViews>
@@ -8807,7 +9409,7 @@
         <v>719</v>
       </c>
       <c r="C1" t="str">
-        <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <f t="shared" ref="C1:C19" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
         <v>{'file':'01%20marklanegan-showbox-20140703-01.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 1'},</v>
       </c>
     </row>
@@ -8819,7 +9421,7 @@
         <v>720</v>
       </c>
       <c r="C2" t="str">
-        <f>"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'02%20marklanegan-showbox-20140703-02.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 2'},</v>
       </c>
     </row>
@@ -8831,7 +9433,7 @@
         <v>721</v>
       </c>
       <c r="C3" t="str">
-        <f>"{'file':'"&amp;A3&amp;"','title':'"&amp;B3&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'03%20marklanegan-showbox-20140703-03.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 3'},</v>
       </c>
     </row>
@@ -8843,7 +9445,7 @@
         <v>722</v>
       </c>
       <c r="C4" t="str">
-        <f>"{'file':'"&amp;A4&amp;"','title':'"&amp;B4&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'04%20marklanegan-showbox-20140703-04.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 4'},</v>
       </c>
     </row>
@@ -8855,7 +9457,7 @@
         <v>723</v>
       </c>
       <c r="C5" t="str">
-        <f>"{'file':'"&amp;A5&amp;"','title':'"&amp;B5&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'05%20marklanegan-showbox-20140703-05.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 5'},</v>
       </c>
     </row>
@@ -8867,7 +9469,7 @@
         <v>724</v>
       </c>
       <c r="C6" t="str">
-        <f>"{'file':'"&amp;A6&amp;"','title':'"&amp;B6&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'06%20marklanegan-showbox-20140703-06.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 6'},</v>
       </c>
     </row>
@@ -8879,7 +9481,7 @@
         <v>725</v>
       </c>
       <c r="C7" t="str">
-        <f>"{'file':'"&amp;A7&amp;"','title':'"&amp;B7&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'07%20marklanegan-showbox-20140703-07.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 7'},</v>
       </c>
     </row>
@@ -8891,7 +9493,7 @@
         <v>726</v>
       </c>
       <c r="C8" t="str">
-        <f>"{'file':'"&amp;A8&amp;"','title':'"&amp;B8&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'08%20marklanegan-showbox-20140703-08.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 8'},</v>
       </c>
     </row>
@@ -8903,7 +9505,7 @@
         <v>727</v>
       </c>
       <c r="C9" t="str">
-        <f>"{'file':'"&amp;A9&amp;"','title':'"&amp;B9&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'09%20marklanegan-showbox-20140703-09.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 9'},</v>
       </c>
     </row>
@@ -8915,7 +9517,7 @@
         <v>728</v>
       </c>
       <c r="C10" t="str">
-        <f>"{'file':'"&amp;A10&amp;"','title':'"&amp;B10&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'10%20marklanegan-showbox-20140703-10.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 10'},</v>
       </c>
     </row>
@@ -8927,7 +9529,7 @@
         <v>729</v>
       </c>
       <c r="C11" t="str">
-        <f>"{'file':'"&amp;A11&amp;"','title':'"&amp;B11&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'11%20marklanegan-showbox-20140703-11.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 11'},</v>
       </c>
     </row>
@@ -8939,7 +9541,7 @@
         <v>730</v>
       </c>
       <c r="C12" t="str">
-        <f>"{'file':'"&amp;A12&amp;"','title':'"&amp;B12&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'12%20marklanegan-showbox-20140703-12.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 12'},</v>
       </c>
     </row>
@@ -8951,7 +9553,7 @@
         <v>731</v>
       </c>
       <c r="C13" t="str">
-        <f>"{'file':'"&amp;A13&amp;"','title':'"&amp;B13&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'13%20marklanegan-showbox-20140703-13.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 13'},</v>
       </c>
     </row>
@@ -8963,7 +9565,7 @@
         <v>732</v>
       </c>
       <c r="C14" t="str">
-        <f>"{'file':'"&amp;A14&amp;"','title':'"&amp;B14&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'14%20marklanegan-showbox-20140703-14.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 14'},</v>
       </c>
     </row>
@@ -8975,7 +9577,7 @@
         <v>733</v>
       </c>
       <c r="C15" t="str">
-        <f>"{'file':'"&amp;A15&amp;"','title':'"&amp;B15&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'15%20marklanegan-showbox-20140703-15.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 15'},</v>
       </c>
     </row>
@@ -8987,7 +9589,7 @@
         <v>734</v>
       </c>
       <c r="C16" t="str">
-        <f>"{'file':'"&amp;A16&amp;"','title':'"&amp;B16&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'16%20marklanegan-showbox-20140703-16.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 16'},</v>
       </c>
     </row>
@@ -8999,7 +9601,7 @@
         <v>735</v>
       </c>
       <c r="C17" t="str">
-        <f>"{'file':'"&amp;A17&amp;"','title':'"&amp;B17&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'17%20marklanegan-showbox-20140703-17.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 17'},</v>
       </c>
     </row>
@@ -9011,7 +9613,7 @@
         <v>736</v>
       </c>
       <c r="C18" t="str">
-        <f>"{'file':'"&amp;A18&amp;"','title':'"&amp;B18&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'18%20marklanegan-showbox-20140703-18.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 18'},</v>
       </c>
     </row>
@@ -9023,7 +9625,7 @@
         <v>737</v>
       </c>
       <c r="C19" t="str">
-        <f>"{'file':'"&amp;A19&amp;"','title':'"&amp;B19&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'19%20marklanegan-showbox-20140703-19.mp3','title':'Mark Lanegan - Showbox Market, Seattle - July 3rd, 2014 - 19'},</v>
       </c>
     </row>
@@ -9035,7 +9637,7 @@
         <v>738</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ref="C20:C22" si="0">"{'file':'"&amp;A20&amp;"','title':'"&amp;B20&amp;"'},"</f>
+        <f t="shared" ref="C20:C22" si="1">"{'file':'"&amp;A20&amp;"','title':'"&amp;B20&amp;"'},"</f>
         <v>{'file':'IMG_0763-1024x768.jpg','title':'Mark Lanegan 1'},</v>
       </c>
     </row>
@@ -9047,7 +9649,7 @@
         <v>739</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_0764-1024x768.jpg','title':'Mark Lanegan 2'},</v>
       </c>
     </row>
@@ -9059,7 +9661,7 @@
         <v>740</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_0768-1024x768.jpg','title':'Mark Lanegan 3'},</v>
       </c>
     </row>
@@ -9226,7 +9828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -9370,7 +9972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H87"/>
   <sheetViews>
@@ -10450,7 +11052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -10750,7 +11352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
@@ -11507,7 +12109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
@@ -12227,21 +12829,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="865"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="865"/>
   </bookViews>
   <sheets>
     <sheet name="roxhillJSON" sheetId="19" r:id="rId1"/>
@@ -2684,9 +2684,6 @@
     <t>1.8MB/s</t>
   </si>
   <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 1</t>
-  </si>
-  <si>
     <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 2</t>
   </si>
   <si>
@@ -2721,6 +2718,9 @@
   </si>
   <si>
     <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 13</t>
+  </si>
+  <si>
+    <t>Are We Really Gonna Spit at This?</t>
   </si>
 </sst>
 </file>
@@ -3576,13 +3576,13 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="70.6640625" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3590,11 +3590,11 @@
         <v>845</v>
       </c>
       <c r="B1" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="C1" t="str">
         <f t="shared" ref="C1:C13" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
-        <v>{'file':'ZOOM0001roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 1'},</v>
+        <v>{'file':'ZOOM0001roxhillsessions20150930.mp3','title':'Are We Really Gonna Spit at This?'},</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3602,7 +3602,7 @@
         <v>848</v>
       </c>
       <c r="B2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" si="0"/>
@@ -3614,7 +3614,7 @@
         <v>851</v>
       </c>
       <c r="B3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -3626,7 +3626,7 @@
         <v>854</v>
       </c>
       <c r="B4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3638,7 +3638,7 @@
         <v>857</v>
       </c>
       <c r="B5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3650,7 +3650,7 @@
         <v>860</v>
       </c>
       <c r="B6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3662,7 +3662,7 @@
         <v>863</v>
       </c>
       <c r="B7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3674,7 +3674,7 @@
         <v>866</v>
       </c>
       <c r="B8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3686,7 +3686,7 @@
         <v>869</v>
       </c>
       <c r="B9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3698,7 +3698,7 @@
         <v>872</v>
       </c>
       <c r="B10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3710,7 +3710,7 @@
         <v>875</v>
       </c>
       <c r="B11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3722,7 +3722,7 @@
         <v>878</v>
       </c>
       <c r="B12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3734,7 +3734,7 @@
         <v>880</v>
       </c>
       <c r="B13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="865"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14520" tabRatio="865" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="roxhillJSON" sheetId="19" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="OPTIONvideo" sheetId="7" r:id="rId12"/>
     <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId13"/>
     <sheet name="IMG" sheetId="3" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="20" r:id="rId15"/>
+    <sheet name="Functions" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="894">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -2573,117 +2573,42 @@
     <t>ZOOM0001roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>4506KB</t>
-  </si>
-  <si>
-    <t>2.2MB/s</t>
-  </si>
-  <si>
     <t>ZOOM0002roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>2620KB</t>
-  </si>
-  <si>
-    <t>2.6MB/s</t>
-  </si>
-  <si>
     <t>ZOOM0003roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>1174KB</t>
-  </si>
-  <si>
-    <t>1.2MB/s</t>
-  </si>
-  <si>
     <t>ZOOM0004roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>839KB</t>
-  </si>
-  <si>
-    <t>838.9KB/s</t>
-  </si>
-  <si>
     <t>ZOOM0005roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>2399KB</t>
-  </si>
-  <si>
-    <t>2.3MB/s</t>
-  </si>
-  <si>
     <t>ZOOM0006roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>808KB</t>
-  </si>
-  <si>
-    <t>808.0KB/s</t>
-  </si>
-  <si>
     <t>ZOOM0007roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>1041KB</t>
-  </si>
-  <si>
-    <t>1.0MB/s</t>
-  </si>
-  <si>
     <t>ZOOM0008roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>1562KB</t>
-  </si>
-  <si>
-    <t>1.5MB/s</t>
-  </si>
-  <si>
     <t>ZOOM0009roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>3317KB</t>
-  </si>
-  <si>
-    <t>3.2MB/s</t>
-  </si>
-  <si>
     <t>ZOOM0010roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>2032KB</t>
-  </si>
-  <si>
-    <t>2.0MB/s</t>
-  </si>
-  <si>
     <t>ZOOM0011roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>3583KB</t>
-  </si>
-  <si>
-    <t>3.5MB/s</t>
-  </si>
-  <si>
     <t>ZOOM0012roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>3985KB</t>
-  </si>
-  <si>
     <t>ZOOM0013roxhillsessions20150930.mp3</t>
   </si>
   <si>
-    <t>3720KB</t>
-  </si>
-  <si>
-    <t>1.8MB/s</t>
-  </si>
-  <si>
     <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 2</t>
   </si>
   <si>
@@ -2721,6 +2646,75 @@
   </si>
   <si>
     <t>Are We Really Gonna Spit at This?</t>
+  </si>
+  <si>
+    <t>function onBaseTapSocketEventDots(tapMsgObject){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            objectTimerId = startShapeObjectTimerUp(circleId,"cx","cy",shapeInterval);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            objectTimerId = startShapeObjectTimerDown(circleId,"cx","cy",shapeInterval);</t>
+  </si>
+  <si>
+    <t>function onBaseTapSocketEventLines(tapMsgObject){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            objectTimerId = startShapeObjectTimerUp(lineId,"x1","y1",shapeInterval);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            objectTimerId = startShapeObjectTimerDown(lineId,"x1","y1",shapeInterval);</t>
+  </si>
+  <si>
+    <t>function onBaseTapSocketEventCustom(tapMsgObject){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                onBaseTapSocketEventImages(tapMsgObject,tapMsgObject.customimage);</t>
+  </si>
+  <si>
+    <t>function onBaseTapSocketEventImages(tapMsgObject,imagePath){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            objectTimerId = startAnimalObjectTimerUp(animalId,"x","y",animalInterval);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            objectTimerId = startAnimalObjectTimerDown(animalId,"x","y",animalInterval);</t>
+  </si>
+  <si>
+    <t>function startAnimalObjectTimerUp(objectId,xAxisAttr,yAxisAttr,animalInterval){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    var timerId=window.setInterval(moveAnimalObjectUp,animalInterval,objectId,xAxisAttr,yAxisAttr);</t>
+  </si>
+  <si>
+    <t>function startShapeObjectTimerUp(objectId,xAxisAttr,yAxisAttr,shapeInterval){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    var timerId = window.setInterval(moveShapeObjectUp,shapeInterval,objectId,xAxisAttr,yAxisAttr);</t>
+  </si>
+  <si>
+    <t>function startAnimalObjectTimerDown(objectId,xAxisAttr,yAxisAttr,animalInterval){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    var timerId = window.setInterval(moveAnimalObjectDown,animalInterval,objectId,xAxisAttr,yAxisAttr);</t>
+  </si>
+  <si>
+    <t>function startShapeObjectTimerDown(objectId,xAxisAttr,yAxisAttr,shapeInterval){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    var timerId = window.setInterval(moveShapeObjectDown,shapeInterval,objectId,xAxisAttr,yAxisAttr);</t>
+  </si>
+  <si>
+    <t>function moveShapeObjectDown(objectId,xAxisAttr,yAxisAttr) {</t>
+  </si>
+  <si>
+    <t>function moveAnimalObjectUp(objectId,xAxisAttr,yAxisAttr) {</t>
+  </si>
+  <si>
+    <t>function moveAnimalObjectDown(objectId,xAxisAttr,yAxisAttr) {</t>
+  </si>
+  <si>
+    <t>function moveShapeObjectUp(objectId,xAxisAttr,yAxisAttr) {</t>
   </si>
 </sst>
 </file>
@@ -3007,13 +3001,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="229">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3575,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3590,7 +3583,7 @@
         <v>845</v>
       </c>
       <c r="B1" t="s">
-        <v>895</v>
+        <v>870</v>
       </c>
       <c r="C1" t="str">
         <f t="shared" ref="C1:C13" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
@@ -3599,10 +3592,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B2" t="s">
-        <v>883</v>
+        <v>858</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" si="0"/>
@@ -3611,10 +3604,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B3" t="s">
-        <v>884</v>
+        <v>859</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -3623,10 +3616,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B4" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3635,10 +3628,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B5" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3647,10 +3640,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="B6" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3659,10 +3652,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B7" t="s">
         <v>863</v>
-      </c>
-      <c r="B7" t="s">
-        <v>888</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3671,10 +3664,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="B8" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3683,10 +3676,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="B9" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3695,10 +3688,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="B10" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3707,10 +3700,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="B11" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3719,10 +3712,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="B12" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3731,10 +3724,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
       <c r="B13" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -8339,234 +8332,159 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="69.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E1" s="4">
-        <v>1.3888888888888889E-3</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>848</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E2" s="4">
-        <v>6.9444444444444447E-4</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>851</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>852</v>
-      </c>
-      <c r="D3" t="s">
-        <v>853</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>854</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>855</v>
-      </c>
-      <c r="D4" t="s">
-        <v>856</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>857</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>858</v>
-      </c>
-      <c r="D5" t="s">
-        <v>859</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>860</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>861</v>
-      </c>
-      <c r="D6" t="s">
-        <v>862</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>863</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>864</v>
-      </c>
-      <c r="D7" t="s">
-        <v>865</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>866</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>867</v>
-      </c>
-      <c r="D8" t="s">
-        <v>868</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>869</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>870</v>
-      </c>
-      <c r="D9" t="s">
-        <v>871</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6.9444444444444447E-4</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>872</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>873</v>
-      </c>
-      <c r="D10" t="s">
-        <v>874</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>875</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>876</v>
-      </c>
-      <c r="D11" t="s">
-        <v>877</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6.9444444444444447E-4</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>878</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>879</v>
-      </c>
-      <c r="D12" t="s">
-        <v>874</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1.3888888888888889E-3</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>880</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>881</v>
-      </c>
-      <c r="D13" t="s">
-        <v>882</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1.3888888888888889E-3</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14520" tabRatio="865" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="865" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="roxhillJSON" sheetId="19" r:id="rId1"/>
@@ -8335,7 +8335,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="865" firstSheet="5" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="865" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="roxhillJSON" sheetId="19" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="melvinsJSON" sheetId="14" r:id="rId7"/>
     <sheet name="sufferingfuckheadsJSON" sheetId="15" r:id="rId8"/>
     <sheet name="builttospillJSON" sheetId="11" r:id="rId9"/>
-    <sheet name="json array" sheetId="10" r:id="rId10"/>
-    <sheet name="OPTIONaudio" sheetId="1" r:id="rId11"/>
-    <sheet name="OPTIONvideo" sheetId="7" r:id="rId12"/>
-    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId13"/>
-    <sheet name="IMG" sheetId="3" r:id="rId14"/>
-    <sheet name="Functions" sheetId="20" r:id="rId15"/>
+    <sheet name="OPTIONaudio" sheetId="1" r:id="rId10"/>
+    <sheet name="OPTIONvideo" sheetId="7" r:id="rId11"/>
+    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId12"/>
+    <sheet name="IMG" sheetId="3" r:id="rId13"/>
+    <sheet name="img2" sheetId="21" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="22" r:id="rId15"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="1149">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -2648,73 +2648,838 @@
     <t>Are We Really Gonna Spit at This?</t>
   </si>
   <si>
-    <t>function onBaseTapSocketEventDots(tapMsgObject){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            objectTimerId = startShapeObjectTimerUp(circleId,"cx","cy",shapeInterval);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            objectTimerId = startShapeObjectTimerDown(circleId,"cx","cy",shapeInterval);</t>
-  </si>
-  <si>
-    <t>function onBaseTapSocketEventLines(tapMsgObject){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            objectTimerId = startShapeObjectTimerUp(lineId,"x1","y1",shapeInterval);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            objectTimerId = startShapeObjectTimerDown(lineId,"x1","y1",shapeInterval);</t>
-  </si>
-  <si>
-    <t>function onBaseTapSocketEventCustom(tapMsgObject){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                onBaseTapSocketEventImages(tapMsgObject,tapMsgObject.customimage);</t>
-  </si>
-  <si>
-    <t>function onBaseTapSocketEventImages(tapMsgObject,imagePath){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            objectTimerId = startAnimalObjectTimerUp(animalId,"x","y",animalInterval);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            objectTimerId = startAnimalObjectTimerDown(animalId,"x","y",animalInterval);</t>
-  </si>
-  <si>
-    <t>function startAnimalObjectTimerUp(objectId,xAxisAttr,yAxisAttr,animalInterval){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    var timerId=window.setInterval(moveAnimalObjectUp,animalInterval,objectId,xAxisAttr,yAxisAttr);</t>
-  </si>
-  <si>
-    <t>function startShapeObjectTimerUp(objectId,xAxisAttr,yAxisAttr,shapeInterval){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    var timerId = window.setInterval(moveShapeObjectUp,shapeInterval,objectId,xAxisAttr,yAxisAttr);</t>
-  </si>
-  <si>
-    <t>function startAnimalObjectTimerDown(objectId,xAxisAttr,yAxisAttr,animalInterval){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    var timerId = window.setInterval(moveAnimalObjectDown,animalInterval,objectId,xAxisAttr,yAxisAttr);</t>
-  </si>
-  <si>
-    <t>function startShapeObjectTimerDown(objectId,xAxisAttr,yAxisAttr,shapeInterval){</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    var timerId = window.setInterval(moveShapeObjectDown,shapeInterval,objectId,xAxisAttr,yAxisAttr);</t>
-  </si>
-  <si>
-    <t>function moveShapeObjectDown(objectId,xAxisAttr,yAxisAttr) {</t>
-  </si>
-  <si>
-    <t>function moveAnimalObjectUp(objectId,xAxisAttr,yAxisAttr) {</t>
-  </si>
-  <si>
-    <t>function moveAnimalObjectDown(objectId,xAxisAttr,yAxisAttr) {</t>
-  </si>
-  <si>
-    <t>function moveShapeObjectUp(objectId,xAxisAttr,yAxisAttr) {</t>
+    <t>IMG_4064.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4065.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4066.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4067.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4068.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4069.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4070.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4071.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4072.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4074.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4075.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4076.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4077.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4078.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4079.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4081.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4082.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4083.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4084.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4085.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4086.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4087.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4089.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4094.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4095.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4096.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4097.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4098.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4099.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4100.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4101.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4102.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4103.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4104.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4105.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4106.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4107.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4108.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4109.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4112.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4113.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4114.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4115.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4116.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4117.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4118.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4119.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4120.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4121.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4123.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4124.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4128.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4129.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4130.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4131.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4132.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4134.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4135.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4137.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4138.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4141.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4142.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4143.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4146.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4147.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4149.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4150.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4151.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4152.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4153.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4154.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4155.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4156.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4157.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4158.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4159.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4160.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4161.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4162.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4163.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4164.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4165.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4166.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4167.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4168.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4169.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4170.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4171.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4172.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4173.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4174.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4175.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4176.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4177.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4178.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4179.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4180.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4181.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4182.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4183.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4184.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4185.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4186.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4187.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4189.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4190.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4191.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4192.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4193.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4194.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4195.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4196.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4197.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4198.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4199.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4200.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4201.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4202.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4203.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4204.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4205.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4206.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4207.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4208.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4209.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4210.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4211.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4212.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4213.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4214.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4215.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4216.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4217.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4218.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4219.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4220.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4221.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4222.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4223.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4224.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4225.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4226.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4227.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4228.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4229.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4230.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4234.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4235.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4236.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4237.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4238.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4239.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4240.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4242.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4243.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4244.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4245.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4247.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4248.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4249.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4250.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4251.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4252.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4253.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4254.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4255.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4256.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4257.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4259.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4261.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4262.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4263.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4264.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4265.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4266.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4267.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4268.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4269.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4270.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4271.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4272.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4273.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4274.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4275.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4276.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4277.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4278.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4279.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4283.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4284.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4286.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4287.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4289.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4290.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4291.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4292.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4293.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4294.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4295.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4296.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4297.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4298.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4299.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4300.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4301.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4302.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4303.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4304.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4305.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4306.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4307.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4308.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4309.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4310.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4311.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4312.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4313.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4314.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4315.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4316.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4317.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4323.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4324.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4325.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4326.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4328.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4329.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4330.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4331.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4332.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4333.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4334.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4335.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4336.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4337.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4338.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4339.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4340.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4341.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4342.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4343.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4344.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4346.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4347.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4349.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4350.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4351.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4352.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4353.JPG</t>
+  </si>
+  <si>
+    <t>http://seattlerules.com/media/houston2015/</t>
+  </si>
+  <si>
+    <t>IMG_4091.mp4</t>
+  </si>
+  <si>
+    <t>IMG_4092.mp4</t>
+  </si>
+  <si>
+    <t>IMG_4111.mp4</t>
+  </si>
+  <si>
+    <t>IMG_4125.mp4</t>
+  </si>
+  <si>
+    <t>IMG_4126.mp4</t>
+  </si>
+  <si>
+    <t>IMG_4127.mp4</t>
+  </si>
+  <si>
+    <t>IMG_4258.mp4</t>
+  </si>
+  <si>
+    <t>IMG_4260.mp4</t>
+  </si>
+  <si>
+    <t>IMG_4285.mp4</t>
+  </si>
+  <si>
+    <t>IMG_4345.mp4</t>
+  </si>
+  <si>
+    <t>IMG_4348.mp4</t>
+  </si>
+  <si>
+    <t>["http://seattlerules.com/media/houston2015/</t>
+  </si>
+  <si>
+    <t>","</t>
+  </si>
+  <si>
+    <t>Video10</t>
+  </si>
+  <si>
+    <t>Video11</t>
+  </si>
+  <si>
+    <t>Video01</t>
+  </si>
+  <si>
+    <t>Video02</t>
+  </si>
+  <si>
+    <t>Video03</t>
+  </si>
+  <si>
+    <t>Video04</t>
+  </si>
+  <si>
+    <t>Video05</t>
+  </si>
+  <si>
+    <t>Video06</t>
+  </si>
+  <si>
+    <t>Video07</t>
+  </si>
+  <si>
+    <t>Video08</t>
+  </si>
+  <si>
+    <t>Video09</t>
+  </si>
+  <si>
+    <t>"],</t>
+  </si>
+  <si>
+    <t>&lt;img width='100' height='100' alt='houston2015photos' src='</t>
+  </si>
+  <si>
+    <t>&lt;a href='</t>
+  </si>
+  <si>
+    <t>' target='_blank'&gt;</t>
   </si>
 </sst>
 </file>
@@ -2770,7 +3535,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="229">
+  <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2849,6 +3614,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3008,7 +3788,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="229">
+  <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3198,6 +3978,21 @@
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3747,23 +4542,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I278"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
@@ -7784,7 +8562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -7932,7 +8710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -8195,12 +8973,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8330,161 +9108,2440 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G1" sqref="G1:G249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="69.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E1" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" t="str">
+        <f>$A$1&amp;$D$1&amp;E1&amp;$B$1&amp;$C$1&amp;$D$1&amp;E1&amp;$F$1</f>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4064.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4064.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="E2" t="s">
         <v>872</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="0">$A$1&amp;$D$1&amp;E2&amp;$B$1&amp;$C$1&amp;$D$1&amp;E2&amp;$F$1</f>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4065.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4065.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="E3" t="s">
         <v>873</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4066.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4066.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="E4" t="s">
         <v>874</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4067.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4067.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="E5" t="s">
         <v>875</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4068.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4068.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="E6" t="s">
         <v>876</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4069.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4069.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="E7" t="s">
         <v>877</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4070.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4070.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="E8" t="s">
         <v>878</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4071.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4071.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" t="s">
         <v>879</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4072.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4072.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" t="s">
         <v>880</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4074.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4074.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" t="s">
         <v>881</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4075.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4075.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" t="s">
         <v>882</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4076.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4076.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" t="s">
         <v>883</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4077.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4077.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" t="s">
         <v>884</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4078.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4078.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" t="s">
         <v>885</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4079.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4079.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" t="s">
         <v>886</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4081.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4081.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
         <v>887</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4082.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4082.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" t="s">
         <v>888</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4083.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4083.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
         <v>889</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4084.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4084.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
         <v>890</v>
       </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4085.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4085.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" t="s">
         <v>891</v>
       </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4086.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4086.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" t="s">
         <v>892</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4087.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4087.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" t="s">
         <v>893</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4089.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4089.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" t="s">
+        <v>894</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4094.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4094.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" t="s">
+        <v>895</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4095.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4095.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" t="s">
+        <v>896</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4096.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4096.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" t="s">
+        <v>897</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4097.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4097.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" t="s">
+        <v>898</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4098.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4098.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
+        <v>899</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4099.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4099.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30" t="s">
+        <v>900</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4100.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4100.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" t="s">
+        <v>901</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4101.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4101.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="E32" t="s">
+        <v>902</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4102.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4102.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" t="s">
+        <v>903</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4103.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4103.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" t="s">
+        <v>904</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4104.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4104.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" t="s">
+        <v>905</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4105.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4105.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" t="s">
+        <v>906</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4106.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4106.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" t="s">
+        <v>907</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4107.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4107.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" t="s">
+        <v>908</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4108.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4108.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" t="s">
+        <v>909</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4109.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4109.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" t="s">
+        <v>910</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4112.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4112.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" t="s">
+        <v>911</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4113.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4113.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" t="s">
+        <v>912</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4114.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4114.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="E43" t="s">
+        <v>913</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4115.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4115.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" t="s">
+        <v>914</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4116.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4116.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45" t="s">
+        <v>915</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4117.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4117.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46" t="s">
+        <v>916</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4118.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4118.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7">
+      <c r="E47" t="s">
+        <v>917</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4119.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4119.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7">
+      <c r="E48" t="s">
+        <v>918</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4120.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4120.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" t="s">
+        <v>919</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4121.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4121.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" t="s">
+        <v>920</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4123.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4123.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" t="s">
+        <v>921</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4124.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4124.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52" t="s">
+        <v>922</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4128.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4128.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" t="s">
+        <v>923</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4129.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4129.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" t="s">
+        <v>924</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4130.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4130.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55" t="s">
+        <v>925</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4131.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4131.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56" t="s">
+        <v>926</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4132.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4132.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57" t="s">
+        <v>927</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4134.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4134.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58" t="s">
+        <v>928</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4135.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4135.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7">
+      <c r="E59" t="s">
+        <v>929</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4137.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4137.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7">
+      <c r="E60" t="s">
+        <v>930</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4138.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4138.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7">
+      <c r="E61" t="s">
+        <v>931</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4141.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4141.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62" t="s">
+        <v>932</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4142.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4142.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7">
+      <c r="E63" t="s">
+        <v>933</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4143.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4143.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64" t="s">
+        <v>934</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4146.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4146.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" t="s">
+        <v>935</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4147.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4147.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" t="s">
+        <v>936</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G129" si="1">$A$1&amp;$D$1&amp;E66&amp;$B$1&amp;$C$1&amp;$D$1&amp;E66&amp;$F$1</f>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4149.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4149.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7">
+      <c r="E67" t="s">
+        <v>937</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4150.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4150.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68" t="s">
+        <v>938</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4151.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4151.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7">
+      <c r="E69" t="s">
+        <v>939</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4152.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4152.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" t="s">
+        <v>940</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4153.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4153.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71" t="s">
+        <v>941</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4154.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4154.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72" t="s">
+        <v>942</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4155.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4155.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7">
+      <c r="E73" t="s">
+        <v>943</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4156.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4156.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74" t="s">
+        <v>944</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4157.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4157.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" t="s">
+        <v>945</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4158.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4158.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76" t="s">
+        <v>946</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4159.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4159.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77" t="s">
+        <v>947</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4160.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4160.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78" t="s">
+        <v>948</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4161.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4161.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7">
+      <c r="E79" t="s">
+        <v>949</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4162.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4162.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7">
+      <c r="E80" t="s">
+        <v>950</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4163.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4163.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="E81" t="s">
+        <v>951</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4164.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4164.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" t="s">
+        <v>952</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4165.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4165.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="E83" t="s">
+        <v>953</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4166.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4166.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7">
+      <c r="E84" t="s">
+        <v>954</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4167.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4167.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7">
+      <c r="E85" t="s">
+        <v>955</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4168.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4168.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7">
+      <c r="E86" t="s">
+        <v>956</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4169.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4169.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7">
+      <c r="E87" t="s">
+        <v>957</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4170.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4170.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7">
+      <c r="E88" t="s">
+        <v>958</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4171.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4171.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7">
+      <c r="E89" t="s">
+        <v>959</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4172.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4172.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7">
+      <c r="E90" t="s">
+        <v>960</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4173.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4173.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7">
+      <c r="E91" t="s">
+        <v>961</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4174.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4174.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7">
+      <c r="E92" t="s">
+        <v>962</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4175.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4175.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7">
+      <c r="E93" t="s">
+        <v>963</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4176.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4176.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7">
+      <c r="E94" t="s">
+        <v>964</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4177.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4177.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7">
+      <c r="E95" t="s">
+        <v>965</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4178.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4178.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7">
+      <c r="E96" t="s">
+        <v>966</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4179.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4179.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7">
+      <c r="E97" t="s">
+        <v>967</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4180.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4180.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7">
+      <c r="E98" t="s">
+        <v>968</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4181.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4181.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7">
+      <c r="E99" t="s">
+        <v>969</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4182.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4182.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7">
+      <c r="E100" t="s">
+        <v>970</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4183.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4183.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7">
+      <c r="E101" t="s">
+        <v>971</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4184.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4184.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7">
+      <c r="E102" t="s">
+        <v>972</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4185.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4185.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7">
+      <c r="E103" t="s">
+        <v>973</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4186.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4186.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7">
+      <c r="E104" t="s">
+        <v>974</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4187.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4187.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7">
+      <c r="E105" t="s">
+        <v>975</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4189.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4189.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7">
+      <c r="E106" t="s">
+        <v>976</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4190.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4190.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7">
+      <c r="E107" t="s">
+        <v>977</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4191.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4191.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7">
+      <c r="E108" t="s">
+        <v>978</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4192.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4192.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="5:7">
+      <c r="E109" t="s">
+        <v>979</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4193.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4193.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="5:7">
+      <c r="E110" t="s">
+        <v>980</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4194.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4194.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7">
+      <c r="E111" t="s">
+        <v>981</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4195.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4195.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7">
+      <c r="E112" t="s">
+        <v>982</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4196.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4196.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7">
+      <c r="E113" t="s">
+        <v>983</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4197.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4197.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7">
+      <c r="E114" t="s">
+        <v>984</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4198.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4198.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7">
+      <c r="E115" t="s">
+        <v>985</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4199.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4199.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7">
+      <c r="E116" t="s">
+        <v>986</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4200.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4200.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7">
+      <c r="E117" t="s">
+        <v>987</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4201.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4201.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7">
+      <c r="E118" t="s">
+        <v>988</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4202.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4202.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7">
+      <c r="E119" t="s">
+        <v>989</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4203.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4203.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7">
+      <c r="E120" t="s">
+        <v>990</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4204.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4204.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7">
+      <c r="E121" t="s">
+        <v>991</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4205.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4205.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7">
+      <c r="E122" t="s">
+        <v>992</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4206.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4206.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7">
+      <c r="E123" t="s">
+        <v>993</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4207.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4207.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7">
+      <c r="E124" t="s">
+        <v>994</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4208.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4208.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7">
+      <c r="E125" t="s">
+        <v>995</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4209.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4209.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="5:7">
+      <c r="E126" t="s">
+        <v>996</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4210.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4210.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7">
+      <c r="E127" t="s">
+        <v>997</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4211.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4211.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7">
+      <c r="E128" t="s">
+        <v>998</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4212.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4212.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7">
+      <c r="E129" t="s">
+        <v>999</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4213.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4213.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7">
+      <c r="E130" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" ref="G130:G193" si="2">$A$1&amp;$D$1&amp;E130&amp;$B$1&amp;$C$1&amp;$D$1&amp;E130&amp;$F$1</f>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4214.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4214.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7">
+      <c r="E131" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4215.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4215.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7">
+      <c r="E132" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4216.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4216.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7">
+      <c r="E133" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4217.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4217.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7">
+      <c r="E134" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4218.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4218.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7">
+      <c r="E135" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4219.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4219.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7">
+      <c r="E136" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4220.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4220.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7">
+      <c r="E137" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4221.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4221.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7">
+      <c r="E138" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4222.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4222.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7">
+      <c r="E139" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4223.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4223.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7">
+      <c r="E140" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4224.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4224.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7">
+      <c r="E141" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4225.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4225.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7">
+      <c r="E142" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4226.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4226.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7">
+      <c r="E143" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4227.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4227.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7">
+      <c r="E144" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4228.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4228.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="145" spans="5:7">
+      <c r="E145" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4229.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4229.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7">
+      <c r="E146" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4230.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4230.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="5:7">
+      <c r="E147" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4234.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4234.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7">
+      <c r="E148" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4235.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4235.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="149" spans="5:7">
+      <c r="E149" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4236.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4236.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="150" spans="5:7">
+      <c r="E150" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4237.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4237.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="151" spans="5:7">
+      <c r="E151" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4238.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4238.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="152" spans="5:7">
+      <c r="E152" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4239.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4239.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="5:7">
+      <c r="E153" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4240.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4240.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="154" spans="5:7">
+      <c r="E154" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4242.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4242.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7">
+      <c r="E155" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4243.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4243.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="156" spans="5:7">
+      <c r="E156" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4244.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4244.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="5:7">
+      <c r="E157" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4245.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4245.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="5:7">
+      <c r="E158" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4247.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4247.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7">
+      <c r="E159" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4248.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4248.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="5:7">
+      <c r="E160" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4249.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4249.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="5:7">
+      <c r="E161" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4250.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4250.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="5:7">
+      <c r="E162" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4251.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4251.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7">
+      <c r="E163" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4252.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4252.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7">
+      <c r="E164" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4253.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4253.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7">
+      <c r="E165" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4254.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4254.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7">
+      <c r="E166" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4255.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4255.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7">
+      <c r="E167" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4256.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4256.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7">
+      <c r="E168" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4257.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4257.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="169" spans="5:7">
+      <c r="E169" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4259.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4259.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="170" spans="5:7">
+      <c r="E170" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4261.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4261.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7">
+      <c r="E171" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4262.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4262.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7">
+      <c r="E172" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4263.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4263.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7">
+      <c r="E173" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4264.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4264.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7">
+      <c r="E174" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4265.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4265.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="5:7">
+      <c r="E175" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4266.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4266.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7">
+      <c r="E176" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4267.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4267.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7">
+      <c r="E177" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4268.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4268.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7">
+      <c r="E178" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4269.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4269.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="5:7">
+      <c r="E179" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4270.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4270.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="180" spans="5:7">
+      <c r="E180" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4271.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4271.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="181" spans="5:7">
+      <c r="E181" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4272.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4272.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="182" spans="5:7">
+      <c r="E182" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4273.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4273.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="183" spans="5:7">
+      <c r="E183" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4274.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4274.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="184" spans="5:7">
+      <c r="E184" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4275.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4275.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="185" spans="5:7">
+      <c r="E185" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4276.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4276.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="186" spans="5:7">
+      <c r="E186" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4277.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4277.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="187" spans="5:7">
+      <c r="E187" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4278.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4278.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="188" spans="5:7">
+      <c r="E188" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4279.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4279.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="189" spans="5:7">
+      <c r="E189" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4283.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4283.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="190" spans="5:7">
+      <c r="E190" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4284.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4284.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="5:7">
+      <c r="E191" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4286.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4286.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="192" spans="5:7">
+      <c r="E192" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4287.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4287.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="193" spans="5:7">
+      <c r="E193" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4289.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4289.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="194" spans="5:7">
+      <c r="E194" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" ref="G194:G249" si="3">$A$1&amp;$D$1&amp;E194&amp;$B$1&amp;$C$1&amp;$D$1&amp;E194&amp;$F$1</f>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4290.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4290.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="195" spans="5:7">
+      <c r="E195" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4291.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4291.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="196" spans="5:7">
+      <c r="E196" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4292.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4292.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="197" spans="5:7">
+      <c r="E197" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4293.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4293.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="198" spans="5:7">
+      <c r="E198" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4294.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4294.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="199" spans="5:7">
+      <c r="E199" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4295.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4295.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="200" spans="5:7">
+      <c r="E200" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4296.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4296.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="201" spans="5:7">
+      <c r="E201" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4297.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4297.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="202" spans="5:7">
+      <c r="E202" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4298.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4298.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="203" spans="5:7">
+      <c r="E203" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4299.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4299.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="204" spans="5:7">
+      <c r="E204" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4300.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4300.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="205" spans="5:7">
+      <c r="E205" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4301.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4301.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="206" spans="5:7">
+      <c r="E206" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4302.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4302.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="207" spans="5:7">
+      <c r="E207" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4303.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4303.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="208" spans="5:7">
+      <c r="E208" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4304.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4304.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7">
+      <c r="E209" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4305.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4305.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="210" spans="5:7">
+      <c r="E210" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4306.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4306.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="211" spans="5:7">
+      <c r="E211" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4307.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4307.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="212" spans="5:7">
+      <c r="E212" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4308.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4308.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="213" spans="5:7">
+      <c r="E213" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4309.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4309.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="214" spans="5:7">
+      <c r="E214" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4310.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4310.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="215" spans="5:7">
+      <c r="E215" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4311.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4311.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="216" spans="5:7">
+      <c r="E216" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4312.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4312.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="217" spans="5:7">
+      <c r="E217" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4313.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4313.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="218" spans="5:7">
+      <c r="E218" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4314.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4314.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="219" spans="5:7">
+      <c r="E219" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4315.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4315.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="220" spans="5:7">
+      <c r="E220" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4316.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4316.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="221" spans="5:7">
+      <c r="E221" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4317.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4317.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="222" spans="5:7">
+      <c r="E222" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4323.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4323.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="223" spans="5:7">
+      <c r="E223" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4324.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4324.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="224" spans="5:7">
+      <c r="E224" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4325.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4325.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="225" spans="5:7">
+      <c r="E225" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4326.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4326.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="226" spans="5:7">
+      <c r="E226" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4328.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4328.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="227" spans="5:7">
+      <c r="E227" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4329.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4329.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="228" spans="5:7">
+      <c r="E228" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4330.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4330.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="229" spans="5:7">
+      <c r="E229" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G229" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4331.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4331.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="230" spans="5:7">
+      <c r="E230" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4332.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4332.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="231" spans="5:7">
+      <c r="E231" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4333.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4333.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="232" spans="5:7">
+      <c r="E232" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4334.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4334.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="233" spans="5:7">
+      <c r="E233" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4335.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4335.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="234" spans="5:7">
+      <c r="E234" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G234" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4336.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4336.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="235" spans="5:7">
+      <c r="E235" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G235" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4337.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4337.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="236" spans="5:7">
+      <c r="E236" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G236" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4338.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4338.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="237" spans="5:7">
+      <c r="E237" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G237" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4339.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4339.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="238" spans="5:7">
+      <c r="E238" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G238" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4340.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4340.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="239" spans="5:7">
+      <c r="E239" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G239" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4341.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4341.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="240" spans="5:7">
+      <c r="E240" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G240" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4342.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4342.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="241" spans="5:7">
+      <c r="E241" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G241" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4343.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4343.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="242" spans="5:7">
+      <c r="E242" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G242" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4344.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4344.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="243" spans="5:7">
+      <c r="E243" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G243" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4346.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4346.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="244" spans="5:7">
+      <c r="E244" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G244" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4347.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4347.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="245" spans="5:7">
+      <c r="E245" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G245" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4349.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4349.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="246" spans="5:7">
+      <c r="E246" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G246" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4350.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4350.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="247" spans="5:7">
+      <c r="E247" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G247" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4351.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4351.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="248" spans="5:7">
+      <c r="E248" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G248" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4352.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4352.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="249" spans="5:7">
+      <c r="E249" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G249" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4353.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4353.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F1" t="str">
+        <f>$A$1&amp;B1&amp;$C$1&amp;D1&amp;$E$1</f>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4091.mp4","Video01"],</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F11" si="0">$A$1&amp;B2&amp;$C$1&amp;D2&amp;$E$1</f>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4092.mp4","Video02"],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4111.mp4","Video03"],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4125.mp4","Video04"],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4126.mp4","Video05"],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4127.mp4","Video06"],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4258.mp4","Video07"],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4260.mp4","Video08"],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4285.mp4","Video09"],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4345.mp4","Video10"],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>["http://seattlerules.com/media/houston2015/IMG_4348.mp4","Video11"],</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11274,7 +14331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="865" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="45120" windowHeight="26320" tabRatio="865"/>
   </bookViews>
   <sheets>
     <sheet name="roxhillJSON" sheetId="19" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1111">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -2570,84 +2570,6 @@
     <t>19%20marklanegan-showbox-20140703-19.mp3</t>
   </si>
   <si>
-    <t>ZOOM0001roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0002roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0003roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0004roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0005roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0006roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0007roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0008roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0009roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0010roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0011roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0012roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>ZOOM0013roxhillsessions20150930.mp3</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 2</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 3</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 4</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 5</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 6</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 7</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 8</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 9</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 10</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 11</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 12</t>
-  </si>
-  <si>
-    <t>Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 13</t>
-  </si>
-  <si>
-    <t>Are We Really Gonna Spit at This?</t>
-  </si>
-  <si>
     <t>IMG_4064.JPG</t>
   </si>
   <si>
@@ -3398,81 +3320,6 @@
     <t>http://seattlerules.com/media/houston2015/</t>
   </si>
   <si>
-    <t>IMG_4091.mp4</t>
-  </si>
-  <si>
-    <t>IMG_4092.mp4</t>
-  </si>
-  <si>
-    <t>IMG_4111.mp4</t>
-  </si>
-  <si>
-    <t>IMG_4125.mp4</t>
-  </si>
-  <si>
-    <t>IMG_4126.mp4</t>
-  </si>
-  <si>
-    <t>IMG_4127.mp4</t>
-  </si>
-  <si>
-    <t>IMG_4258.mp4</t>
-  </si>
-  <si>
-    <t>IMG_4260.mp4</t>
-  </si>
-  <si>
-    <t>IMG_4285.mp4</t>
-  </si>
-  <si>
-    <t>IMG_4345.mp4</t>
-  </si>
-  <si>
-    <t>IMG_4348.mp4</t>
-  </si>
-  <si>
-    <t>["http://seattlerules.com/media/houston2015/</t>
-  </si>
-  <si>
-    <t>","</t>
-  </si>
-  <si>
-    <t>Video10</t>
-  </si>
-  <si>
-    <t>Video11</t>
-  </si>
-  <si>
-    <t>Video01</t>
-  </si>
-  <si>
-    <t>Video02</t>
-  </si>
-  <si>
-    <t>Video03</t>
-  </si>
-  <si>
-    <t>Video04</t>
-  </si>
-  <si>
-    <t>Video05</t>
-  </si>
-  <si>
-    <t>Video06</t>
-  </si>
-  <si>
-    <t>Video07</t>
-  </si>
-  <si>
-    <t>Video08</t>
-  </si>
-  <si>
-    <t>Video09</t>
-  </si>
-  <si>
-    <t>"],</t>
-  </si>
-  <si>
     <t>&lt;img width='100' height='100' alt='houston2015photos' src='</t>
   </si>
   <si>
@@ -3480,6 +3327,45 @@
   </si>
   <si>
     <t>' target='_blank'&gt;</t>
+  </si>
+  <si>
+    <t>01roxhillsessionssquidwerdthisword20151014.mp3</t>
+  </si>
+  <si>
+    <t>02roxhillsessionsgotwithit20151014.mp3</t>
+  </si>
+  <si>
+    <t>03roxhillsessionssnookiewantincookie20151014.mp3</t>
+  </si>
+  <si>
+    <t>04roxhillsessionseatthecheeriosbitch20151014.mp3</t>
+  </si>
+  <si>
+    <t>05roxhillsessionsdickinhernose20151014.mp3</t>
+  </si>
+  <si>
+    <t>06roxhillsessionseventhoughshegotnobush20151014.mp3</t>
+  </si>
+  <si>
+    <t>roxhillsessions20151014.jpg</t>
+  </si>
+  <si>
+    <t>01 Squidwerd This Word</t>
+  </si>
+  <si>
+    <t>02 Got With It</t>
+  </si>
+  <si>
+    <t>03 Snookie Wantin Cookie</t>
+  </si>
+  <si>
+    <t>04 Eat The Cheerios Bitch</t>
+  </si>
+  <si>
+    <t>05 Dick In Her Nose</t>
+  </si>
+  <si>
+    <t>06 Eventhough She Got No Bush</t>
   </si>
 </sst>
 </file>
@@ -3535,7 +3421,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="244">
+  <cellStyleXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3614,6 +3500,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3788,7 +3680,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="244">
+  <cellStyles count="250">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3993,6 +3885,12 @@
     <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4361,173 +4259,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
     <col min="2" max="2" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>845</v>
+      <c r="A1" s="1" t="s">
+        <v>1098</v>
       </c>
       <c r="B1" t="s">
-        <v>870</v>
+        <v>1105</v>
       </c>
       <c r="C1" t="str">
-        <f t="shared" ref="C1:C13" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
-        <v>{'file':'ZOOM0001roxhillsessions20150930.mp3','title':'Are We Really Gonna Spit at This?'},</v>
+        <f t="shared" ref="C1:C6" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <v>{'file':'01roxhillsessionssquidwerdthisword20151014.mp3','title':'01 Squidwerd This Word'},</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>846</v>
+      <c r="A2" s="1" t="s">
+        <v>1099</v>
       </c>
       <c r="B2" t="s">
-        <v>858</v>
+        <v>1106</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0002roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 2'},</v>
+        <v>{'file':'02roxhillsessionsgotwithit20151014.mp3','title':'02 Got With It'},</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>847</v>
+      <c r="A3" s="1" t="s">
+        <v>1100</v>
       </c>
       <c r="B3" t="s">
-        <v>859</v>
+        <v>1107</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0003roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 3'},</v>
+        <v>{'file':'03roxhillsessionssnookiewantincookie20151014.mp3','title':'03 Snookie Wantin Cookie'},</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>848</v>
+      <c r="A4" s="1" t="s">
+        <v>1101</v>
       </c>
       <c r="B4" t="s">
-        <v>860</v>
+        <v>1108</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0004roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 4'},</v>
+        <v>{'file':'04roxhillsessionseatthecheeriosbitch20151014.mp3','title':'04 Eat The Cheerios Bitch'},</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>849</v>
+      <c r="A5" s="1" t="s">
+        <v>1102</v>
       </c>
       <c r="B5" t="s">
-        <v>861</v>
+        <v>1109</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0005roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 5'},</v>
+        <v>{'file':'05roxhillsessionsdickinhernose20151014.mp3','title':'05 Dick In Her Nose'},</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>850</v>
+      <c r="A6" s="1" t="s">
+        <v>1103</v>
       </c>
       <c r="B6" t="s">
-        <v>862</v>
+        <v>1110</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0006roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 6'},</v>
+        <v>{'file':'06roxhillsessionseventhoughshegotnobush20151014.mp3','title':'06 Eventhough She Got No Bush'},</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>851</v>
-      </c>
-      <c r="B7" t="s">
-        <v>863</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0007roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 7'},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>852</v>
-      </c>
-      <c r="B8" t="s">
-        <v>864</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0008roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 8'},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>853</v>
-      </c>
-      <c r="B9" t="s">
-        <v>865</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0009roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 9'},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>854</v>
-      </c>
-      <c r="B10" t="s">
-        <v>866</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0010roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 10'},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>855</v>
-      </c>
-      <c r="B11" t="s">
-        <v>867</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0011roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 11'},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>856</v>
-      </c>
-      <c r="B12" t="s">
-        <v>868</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0012roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 12'},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>857</v>
-      </c>
-      <c r="B13" t="s">
-        <v>869</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'ZOOM0013roxhillsessions20150930.mp3','title':'Roxhill Sessions - Roxhill Bridge, Seattle - September 30th, 2015 - 13'},</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9112,7 +8929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G249"/>
     </sheetView>
   </sheetViews>
@@ -9124,19 +8941,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>1147</v>
+        <v>1096</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1148</v>
+        <v>1097</v>
       </c>
       <c r="C1" t="s">
-        <v>1146</v>
+        <v>1095</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1120</v>
+        <v>1094</v>
       </c>
       <c r="E1" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>191</v>
@@ -9148,7 +8965,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="E2" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G65" si="0">$A$1&amp;$D$1&amp;E2&amp;$B$1&amp;$C$1&amp;$D$1&amp;E2&amp;$F$1</f>
@@ -9157,7 +8974,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="E3" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
@@ -9166,7 +8983,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="E4" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -9175,7 +8992,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="E5" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -9184,7 +9001,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="E6" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -9193,7 +9010,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="E7" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -9202,7 +9019,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="E8" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -9211,7 +9028,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>879</v>
+        <v>853</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -9220,7 +9037,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>880</v>
+        <v>854</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -9229,7 +9046,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -9238,7 +9055,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -9247,7 +9064,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>883</v>
+        <v>857</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -9256,7 +9073,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -9265,7 +9082,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -9274,7 +9091,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -9283,7 +9100,7 @@
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -9292,7 +9109,7 @@
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -9301,7 +9118,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -9310,7 +9127,7 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>890</v>
+        <v>864</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -9319,7 +9136,7 @@
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>891</v>
+        <v>865</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -9328,7 +9145,7 @@
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>892</v>
+        <v>866</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -9337,7 +9154,7 @@
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -9346,7 +9163,7 @@
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -9355,7 +9172,7 @@
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>895</v>
+        <v>869</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -9364,7 +9181,7 @@
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -9373,7 +9190,7 @@
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -9382,7 +9199,7 @@
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -9391,7 +9208,7 @@
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -9400,7 +9217,7 @@
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -9409,7 +9226,7 @@
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -9418,7 +9235,7 @@
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -9427,7 +9244,7 @@
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -9436,7 +9253,7 @@
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -9445,7 +9262,7 @@
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -9454,7 +9271,7 @@
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -9463,7 +9280,7 @@
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -9472,7 +9289,7 @@
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -9481,7 +9298,7 @@
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -9490,7 +9307,7 @@
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -9499,7 +9316,7 @@
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>911</v>
+        <v>885</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -9508,7 +9325,7 @@
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>912</v>
+        <v>886</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -9517,7 +9334,7 @@
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -9526,7 +9343,7 @@
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>914</v>
+        <v>888</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -9535,7 +9352,7 @@
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>915</v>
+        <v>889</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -9544,7 +9361,7 @@
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -9553,7 +9370,7 @@
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -9562,7 +9379,7 @@
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -9571,7 +9388,7 @@
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>919</v>
+        <v>893</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -9580,7 +9397,7 @@
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -9589,7 +9406,7 @@
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>921</v>
+        <v>895</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -9598,7 +9415,7 @@
     </row>
     <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
@@ -9607,7 +9424,7 @@
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>923</v>
+        <v>897</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -9616,7 +9433,7 @@
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -9625,7 +9442,7 @@
     </row>
     <row r="55" spans="5:7">
       <c r="E55" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -9634,7 +9451,7 @@
     </row>
     <row r="56" spans="5:7">
       <c r="E56" t="s">
-        <v>926</v>
+        <v>900</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -9643,7 +9460,7 @@
     </row>
     <row r="57" spans="5:7">
       <c r="E57" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -9652,7 +9469,7 @@
     </row>
     <row r="58" spans="5:7">
       <c r="E58" t="s">
-        <v>928</v>
+        <v>902</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
@@ -9661,7 +9478,7 @@
     </row>
     <row r="59" spans="5:7">
       <c r="E59" t="s">
-        <v>929</v>
+        <v>903</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
@@ -9670,7 +9487,7 @@
     </row>
     <row r="60" spans="5:7">
       <c r="E60" t="s">
-        <v>930</v>
+        <v>904</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
@@ -9679,7 +9496,7 @@
     </row>
     <row r="61" spans="5:7">
       <c r="E61" t="s">
-        <v>931</v>
+        <v>905</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
@@ -9688,7 +9505,7 @@
     </row>
     <row r="62" spans="5:7">
       <c r="E62" t="s">
-        <v>932</v>
+        <v>906</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
@@ -9697,7 +9514,7 @@
     </row>
     <row r="63" spans="5:7">
       <c r="E63" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
@@ -9706,7 +9523,7 @@
     </row>
     <row r="64" spans="5:7">
       <c r="E64" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
@@ -9715,7 +9532,7 @@
     </row>
     <row r="65" spans="5:7">
       <c r="E65" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
@@ -9724,7 +9541,7 @@
     </row>
     <row r="66" spans="5:7">
       <c r="E66" t="s">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" ref="G66:G129" si="1">$A$1&amp;$D$1&amp;E66&amp;$B$1&amp;$C$1&amp;$D$1&amp;E66&amp;$F$1</f>
@@ -9733,7 +9550,7 @@
     </row>
     <row r="67" spans="5:7">
       <c r="E67" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="1"/>
@@ -9742,7 +9559,7 @@
     </row>
     <row r="68" spans="5:7">
       <c r="E68" t="s">
-        <v>938</v>
+        <v>912</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
@@ -9751,7 +9568,7 @@
     </row>
     <row r="69" spans="5:7">
       <c r="E69" t="s">
-        <v>939</v>
+        <v>913</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
@@ -9760,7 +9577,7 @@
     </row>
     <row r="70" spans="5:7">
       <c r="E70" t="s">
-        <v>940</v>
+        <v>914</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
@@ -9769,7 +9586,7 @@
     </row>
     <row r="71" spans="5:7">
       <c r="E71" t="s">
-        <v>941</v>
+        <v>915</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
@@ -9778,7 +9595,7 @@
     </row>
     <row r="72" spans="5:7">
       <c r="E72" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
@@ -9787,7 +9604,7 @@
     </row>
     <row r="73" spans="5:7">
       <c r="E73" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
@@ -9796,7 +9613,7 @@
     </row>
     <row r="74" spans="5:7">
       <c r="E74" t="s">
-        <v>944</v>
+        <v>918</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
@@ -9805,7 +9622,7 @@
     </row>
     <row r="75" spans="5:7">
       <c r="E75" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
@@ -9814,7 +9631,7 @@
     </row>
     <row r="76" spans="5:7">
       <c r="E76" t="s">
-        <v>946</v>
+        <v>920</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
@@ -9823,7 +9640,7 @@
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
-        <v>947</v>
+        <v>921</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
@@ -9832,7 +9649,7 @@
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>948</v>
+        <v>922</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
@@ -9841,7 +9658,7 @@
     </row>
     <row r="79" spans="5:7">
       <c r="E79" t="s">
-        <v>949</v>
+        <v>923</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
@@ -9850,7 +9667,7 @@
     </row>
     <row r="80" spans="5:7">
       <c r="E80" t="s">
-        <v>950</v>
+        <v>924</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
@@ -9859,7 +9676,7 @@
     </row>
     <row r="81" spans="5:7">
       <c r="E81" t="s">
-        <v>951</v>
+        <v>925</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
@@ -9868,7 +9685,7 @@
     </row>
     <row r="82" spans="5:7">
       <c r="E82" t="s">
-        <v>952</v>
+        <v>926</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
@@ -9877,7 +9694,7 @@
     </row>
     <row r="83" spans="5:7">
       <c r="E83" t="s">
-        <v>953</v>
+        <v>927</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
@@ -9886,7 +9703,7 @@
     </row>
     <row r="84" spans="5:7">
       <c r="E84" t="s">
-        <v>954</v>
+        <v>928</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
@@ -9895,7 +9712,7 @@
     </row>
     <row r="85" spans="5:7">
       <c r="E85" t="s">
-        <v>955</v>
+        <v>929</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
@@ -9904,7 +9721,7 @@
     </row>
     <row r="86" spans="5:7">
       <c r="E86" t="s">
-        <v>956</v>
+        <v>930</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
@@ -9913,7 +9730,7 @@
     </row>
     <row r="87" spans="5:7">
       <c r="E87" t="s">
-        <v>957</v>
+        <v>931</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
@@ -9922,7 +9739,7 @@
     </row>
     <row r="88" spans="5:7">
       <c r="E88" t="s">
-        <v>958</v>
+        <v>932</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
@@ -9931,7 +9748,7 @@
     </row>
     <row r="89" spans="5:7">
       <c r="E89" t="s">
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
@@ -9940,7 +9757,7 @@
     </row>
     <row r="90" spans="5:7">
       <c r="E90" t="s">
-        <v>960</v>
+        <v>934</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
@@ -9949,7 +9766,7 @@
     </row>
     <row r="91" spans="5:7">
       <c r="E91" t="s">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
@@ -9958,7 +9775,7 @@
     </row>
     <row r="92" spans="5:7">
       <c r="E92" t="s">
-        <v>962</v>
+        <v>936</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
@@ -9967,7 +9784,7 @@
     </row>
     <row r="93" spans="5:7">
       <c r="E93" t="s">
-        <v>963</v>
+        <v>937</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
@@ -9976,7 +9793,7 @@
     </row>
     <row r="94" spans="5:7">
       <c r="E94" t="s">
-        <v>964</v>
+        <v>938</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
@@ -9985,7 +9802,7 @@
     </row>
     <row r="95" spans="5:7">
       <c r="E95" t="s">
-        <v>965</v>
+        <v>939</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
@@ -9994,7 +9811,7 @@
     </row>
     <row r="96" spans="5:7">
       <c r="E96" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
@@ -10003,7 +9820,7 @@
     </row>
     <row r="97" spans="5:7">
       <c r="E97" t="s">
-        <v>967</v>
+        <v>941</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
@@ -10012,7 +9829,7 @@
     </row>
     <row r="98" spans="5:7">
       <c r="E98" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
@@ -10021,7 +9838,7 @@
     </row>
     <row r="99" spans="5:7">
       <c r="E99" t="s">
-        <v>969</v>
+        <v>943</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
@@ -10030,7 +9847,7 @@
     </row>
     <row r="100" spans="5:7">
       <c r="E100" t="s">
-        <v>970</v>
+        <v>944</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
@@ -10039,7 +9856,7 @@
     </row>
     <row r="101" spans="5:7">
       <c r="E101" t="s">
-        <v>971</v>
+        <v>945</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
@@ -10048,7 +9865,7 @@
     </row>
     <row r="102" spans="5:7">
       <c r="E102" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
@@ -10057,7 +9874,7 @@
     </row>
     <row r="103" spans="5:7">
       <c r="E103" t="s">
-        <v>973</v>
+        <v>947</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
@@ -10066,7 +9883,7 @@
     </row>
     <row r="104" spans="5:7">
       <c r="E104" t="s">
-        <v>974</v>
+        <v>948</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
@@ -10075,7 +9892,7 @@
     </row>
     <row r="105" spans="5:7">
       <c r="E105" t="s">
-        <v>975</v>
+        <v>949</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
@@ -10084,7 +9901,7 @@
     </row>
     <row r="106" spans="5:7">
       <c r="E106" t="s">
-        <v>976</v>
+        <v>950</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
@@ -10093,7 +9910,7 @@
     </row>
     <row r="107" spans="5:7">
       <c r="E107" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
@@ -10102,7 +9919,7 @@
     </row>
     <row r="108" spans="5:7">
       <c r="E108" t="s">
-        <v>978</v>
+        <v>952</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
@@ -10111,7 +9928,7 @@
     </row>
     <row r="109" spans="5:7">
       <c r="E109" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
@@ -10120,7 +9937,7 @@
     </row>
     <row r="110" spans="5:7">
       <c r="E110" t="s">
-        <v>980</v>
+        <v>954</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
@@ -10129,7 +9946,7 @@
     </row>
     <row r="111" spans="5:7">
       <c r="E111" t="s">
-        <v>981</v>
+        <v>955</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
@@ -10138,7 +9955,7 @@
     </row>
     <row r="112" spans="5:7">
       <c r="E112" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
@@ -10147,7 +9964,7 @@
     </row>
     <row r="113" spans="5:7">
       <c r="E113" t="s">
-        <v>983</v>
+        <v>957</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
@@ -10156,7 +9973,7 @@
     </row>
     <row r="114" spans="5:7">
       <c r="E114" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
@@ -10165,7 +9982,7 @@
     </row>
     <row r="115" spans="5:7">
       <c r="E115" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
@@ -10174,7 +9991,7 @@
     </row>
     <row r="116" spans="5:7">
       <c r="E116" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
@@ -10183,7 +10000,7 @@
     </row>
     <row r="117" spans="5:7">
       <c r="E117" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
@@ -10192,7 +10009,7 @@
     </row>
     <row r="118" spans="5:7">
       <c r="E118" t="s">
-        <v>988</v>
+        <v>962</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
@@ -10201,7 +10018,7 @@
     </row>
     <row r="119" spans="5:7">
       <c r="E119" t="s">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
@@ -10210,7 +10027,7 @@
     </row>
     <row r="120" spans="5:7">
       <c r="E120" t="s">
-        <v>990</v>
+        <v>964</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
@@ -10219,7 +10036,7 @@
     </row>
     <row r="121" spans="5:7">
       <c r="E121" t="s">
-        <v>991</v>
+        <v>965</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
@@ -10228,7 +10045,7 @@
     </row>
     <row r="122" spans="5:7">
       <c r="E122" t="s">
-        <v>992</v>
+        <v>966</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="1"/>
@@ -10237,7 +10054,7 @@
     </row>
     <row r="123" spans="5:7">
       <c r="E123" t="s">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="1"/>
@@ -10246,7 +10063,7 @@
     </row>
     <row r="124" spans="5:7">
       <c r="E124" t="s">
-        <v>994</v>
+        <v>968</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
@@ -10255,7 +10072,7 @@
     </row>
     <row r="125" spans="5:7">
       <c r="E125" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="1"/>
@@ -10264,7 +10081,7 @@
     </row>
     <row r="126" spans="5:7">
       <c r="E126" t="s">
-        <v>996</v>
+        <v>970</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="1"/>
@@ -10273,7 +10090,7 @@
     </row>
     <row r="127" spans="5:7">
       <c r="E127" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="1"/>
@@ -10282,7 +10099,7 @@
     </row>
     <row r="128" spans="5:7">
       <c r="E128" t="s">
-        <v>998</v>
+        <v>972</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="1"/>
@@ -10291,7 +10108,7 @@
     </row>
     <row r="129" spans="5:7">
       <c r="E129" t="s">
-        <v>999</v>
+        <v>973</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="1"/>
@@ -10300,7 +10117,7 @@
     </row>
     <row r="130" spans="5:7">
       <c r="E130" t="s">
-        <v>1000</v>
+        <v>974</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" ref="G130:G193" si="2">$A$1&amp;$D$1&amp;E130&amp;$B$1&amp;$C$1&amp;$D$1&amp;E130&amp;$F$1</f>
@@ -10309,7 +10126,7 @@
     </row>
     <row r="131" spans="5:7">
       <c r="E131" t="s">
-        <v>1001</v>
+        <v>975</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="2"/>
@@ -10318,7 +10135,7 @@
     </row>
     <row r="132" spans="5:7">
       <c r="E132" t="s">
-        <v>1002</v>
+        <v>976</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="2"/>
@@ -10327,7 +10144,7 @@
     </row>
     <row r="133" spans="5:7">
       <c r="E133" t="s">
-        <v>1003</v>
+        <v>977</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="2"/>
@@ -10336,7 +10153,7 @@
     </row>
     <row r="134" spans="5:7">
       <c r="E134" t="s">
-        <v>1004</v>
+        <v>978</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="2"/>
@@ -10345,7 +10162,7 @@
     </row>
     <row r="135" spans="5:7">
       <c r="E135" t="s">
-        <v>1005</v>
+        <v>979</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="2"/>
@@ -10354,7 +10171,7 @@
     </row>
     <row r="136" spans="5:7">
       <c r="E136" t="s">
-        <v>1006</v>
+        <v>980</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="2"/>
@@ -10363,7 +10180,7 @@
     </row>
     <row r="137" spans="5:7">
       <c r="E137" t="s">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
@@ -10372,7 +10189,7 @@
     </row>
     <row r="138" spans="5:7">
       <c r="E138" t="s">
-        <v>1008</v>
+        <v>982</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
@@ -10381,7 +10198,7 @@
     </row>
     <row r="139" spans="5:7">
       <c r="E139" t="s">
-        <v>1009</v>
+        <v>983</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
@@ -10390,7 +10207,7 @@
     </row>
     <row r="140" spans="5:7">
       <c r="E140" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="2"/>
@@ -10399,7 +10216,7 @@
     </row>
     <row r="141" spans="5:7">
       <c r="E141" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="2"/>
@@ -10408,7 +10225,7 @@
     </row>
     <row r="142" spans="5:7">
       <c r="E142" t="s">
-        <v>1012</v>
+        <v>986</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="2"/>
@@ -10417,7 +10234,7 @@
     </row>
     <row r="143" spans="5:7">
       <c r="E143" t="s">
-        <v>1013</v>
+        <v>987</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="2"/>
@@ -10426,7 +10243,7 @@
     </row>
     <row r="144" spans="5:7">
       <c r="E144" t="s">
-        <v>1014</v>
+        <v>988</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" si="2"/>
@@ -10435,7 +10252,7 @@
     </row>
     <row r="145" spans="5:7">
       <c r="E145" t="s">
-        <v>1015</v>
+        <v>989</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="2"/>
@@ -10444,7 +10261,7 @@
     </row>
     <row r="146" spans="5:7">
       <c r="E146" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="2"/>
@@ -10453,7 +10270,7 @@
     </row>
     <row r="147" spans="5:7">
       <c r="E147" t="s">
-        <v>1017</v>
+        <v>991</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="2"/>
@@ -10462,7 +10279,7 @@
     </row>
     <row r="148" spans="5:7">
       <c r="E148" t="s">
-        <v>1018</v>
+        <v>992</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="2"/>
@@ -10471,7 +10288,7 @@
     </row>
     <row r="149" spans="5:7">
       <c r="E149" t="s">
-        <v>1019</v>
+        <v>993</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="2"/>
@@ -10480,7 +10297,7 @@
     </row>
     <row r="150" spans="5:7">
       <c r="E150" t="s">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="2"/>
@@ -10489,7 +10306,7 @@
     </row>
     <row r="151" spans="5:7">
       <c r="E151" t="s">
-        <v>1021</v>
+        <v>995</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="2"/>
@@ -10498,7 +10315,7 @@
     </row>
     <row r="152" spans="5:7">
       <c r="E152" t="s">
-        <v>1022</v>
+        <v>996</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="2"/>
@@ -10507,7 +10324,7 @@
     </row>
     <row r="153" spans="5:7">
       <c r="E153" t="s">
-        <v>1023</v>
+        <v>997</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="2"/>
@@ -10516,7 +10333,7 @@
     </row>
     <row r="154" spans="5:7">
       <c r="E154" t="s">
-        <v>1024</v>
+        <v>998</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="2"/>
@@ -10525,7 +10342,7 @@
     </row>
     <row r="155" spans="5:7">
       <c r="E155" t="s">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="2"/>
@@ -10534,7 +10351,7 @@
     </row>
     <row r="156" spans="5:7">
       <c r="E156" t="s">
-        <v>1026</v>
+        <v>1000</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="2"/>
@@ -10543,7 +10360,7 @@
     </row>
     <row r="157" spans="5:7">
       <c r="E157" t="s">
-        <v>1027</v>
+        <v>1001</v>
       </c>
       <c r="G157" t="str">
         <f t="shared" si="2"/>
@@ -10552,7 +10369,7 @@
     </row>
     <row r="158" spans="5:7">
       <c r="E158" t="s">
-        <v>1028</v>
+        <v>1002</v>
       </c>
       <c r="G158" t="str">
         <f t="shared" si="2"/>
@@ -10561,7 +10378,7 @@
     </row>
     <row r="159" spans="5:7">
       <c r="E159" t="s">
-        <v>1029</v>
+        <v>1003</v>
       </c>
       <c r="G159" t="str">
         <f t="shared" si="2"/>
@@ -10570,7 +10387,7 @@
     </row>
     <row r="160" spans="5:7">
       <c r="E160" t="s">
-        <v>1030</v>
+        <v>1004</v>
       </c>
       <c r="G160" t="str">
         <f t="shared" si="2"/>
@@ -10579,7 +10396,7 @@
     </row>
     <row r="161" spans="5:7">
       <c r="E161" t="s">
-        <v>1031</v>
+        <v>1005</v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="2"/>
@@ -10588,7 +10405,7 @@
     </row>
     <row r="162" spans="5:7">
       <c r="E162" t="s">
-        <v>1032</v>
+        <v>1006</v>
       </c>
       <c r="G162" t="str">
         <f t="shared" si="2"/>
@@ -10597,7 +10414,7 @@
     </row>
     <row r="163" spans="5:7">
       <c r="E163" t="s">
-        <v>1033</v>
+        <v>1007</v>
       </c>
       <c r="G163" t="str">
         <f t="shared" si="2"/>
@@ -10606,7 +10423,7 @@
     </row>
     <row r="164" spans="5:7">
       <c r="E164" t="s">
-        <v>1034</v>
+        <v>1008</v>
       </c>
       <c r="G164" t="str">
         <f t="shared" si="2"/>
@@ -10615,7 +10432,7 @@
     </row>
     <row r="165" spans="5:7">
       <c r="E165" t="s">
-        <v>1035</v>
+        <v>1009</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="2"/>
@@ -10624,7 +10441,7 @@
     </row>
     <row r="166" spans="5:7">
       <c r="E166" t="s">
-        <v>1036</v>
+        <v>1010</v>
       </c>
       <c r="G166" t="str">
         <f t="shared" si="2"/>
@@ -10633,7 +10450,7 @@
     </row>
     <row r="167" spans="5:7">
       <c r="E167" t="s">
-        <v>1037</v>
+        <v>1011</v>
       </c>
       <c r="G167" t="str">
         <f t="shared" si="2"/>
@@ -10642,7 +10459,7 @@
     </row>
     <row r="168" spans="5:7">
       <c r="E168" t="s">
-        <v>1038</v>
+        <v>1012</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="2"/>
@@ -10651,7 +10468,7 @@
     </row>
     <row r="169" spans="5:7">
       <c r="E169" t="s">
-        <v>1039</v>
+        <v>1013</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="2"/>
@@ -10660,7 +10477,7 @@
     </row>
     <row r="170" spans="5:7">
       <c r="E170" t="s">
-        <v>1040</v>
+        <v>1014</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="2"/>
@@ -10669,7 +10486,7 @@
     </row>
     <row r="171" spans="5:7">
       <c r="E171" t="s">
-        <v>1041</v>
+        <v>1015</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="2"/>
@@ -10678,7 +10495,7 @@
     </row>
     <row r="172" spans="5:7">
       <c r="E172" t="s">
-        <v>1042</v>
+        <v>1016</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="2"/>
@@ -10687,7 +10504,7 @@
     </row>
     <row r="173" spans="5:7">
       <c r="E173" t="s">
-        <v>1043</v>
+        <v>1017</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="2"/>
@@ -10696,7 +10513,7 @@
     </row>
     <row r="174" spans="5:7">
       <c r="E174" t="s">
-        <v>1044</v>
+        <v>1018</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="2"/>
@@ -10705,7 +10522,7 @@
     </row>
     <row r="175" spans="5:7">
       <c r="E175" t="s">
-        <v>1045</v>
+        <v>1019</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="2"/>
@@ -10714,7 +10531,7 @@
     </row>
     <row r="176" spans="5:7">
       <c r="E176" t="s">
-        <v>1046</v>
+        <v>1020</v>
       </c>
       <c r="G176" t="str">
         <f t="shared" si="2"/>
@@ -10723,7 +10540,7 @@
     </row>
     <row r="177" spans="5:7">
       <c r="E177" t="s">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="G177" t="str">
         <f t="shared" si="2"/>
@@ -10732,7 +10549,7 @@
     </row>
     <row r="178" spans="5:7">
       <c r="E178" t="s">
-        <v>1048</v>
+        <v>1022</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="2"/>
@@ -10741,7 +10558,7 @@
     </row>
     <row r="179" spans="5:7">
       <c r="E179" t="s">
-        <v>1049</v>
+        <v>1023</v>
       </c>
       <c r="G179" t="str">
         <f t="shared" si="2"/>
@@ -10750,7 +10567,7 @@
     </row>
     <row r="180" spans="5:7">
       <c r="E180" t="s">
-        <v>1050</v>
+        <v>1024</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" si="2"/>
@@ -10759,7 +10576,7 @@
     </row>
     <row r="181" spans="5:7">
       <c r="E181" t="s">
-        <v>1051</v>
+        <v>1025</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" si="2"/>
@@ -10768,7 +10585,7 @@
     </row>
     <row r="182" spans="5:7">
       <c r="E182" t="s">
-        <v>1052</v>
+        <v>1026</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="2"/>
@@ -10777,7 +10594,7 @@
     </row>
     <row r="183" spans="5:7">
       <c r="E183" t="s">
-        <v>1053</v>
+        <v>1027</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="2"/>
@@ -10786,7 +10603,7 @@
     </row>
     <row r="184" spans="5:7">
       <c r="E184" t="s">
-        <v>1054</v>
+        <v>1028</v>
       </c>
       <c r="G184" t="str">
         <f t="shared" si="2"/>
@@ -10795,7 +10612,7 @@
     </row>
     <row r="185" spans="5:7">
       <c r="E185" t="s">
-        <v>1055</v>
+        <v>1029</v>
       </c>
       <c r="G185" t="str">
         <f t="shared" si="2"/>
@@ -10804,7 +10621,7 @@
     </row>
     <row r="186" spans="5:7">
       <c r="E186" t="s">
-        <v>1056</v>
+        <v>1030</v>
       </c>
       <c r="G186" t="str">
         <f t="shared" si="2"/>
@@ -10813,7 +10630,7 @@
     </row>
     <row r="187" spans="5:7">
       <c r="E187" t="s">
-        <v>1057</v>
+        <v>1031</v>
       </c>
       <c r="G187" t="str">
         <f t="shared" si="2"/>
@@ -10822,7 +10639,7 @@
     </row>
     <row r="188" spans="5:7">
       <c r="E188" t="s">
-        <v>1058</v>
+        <v>1032</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="2"/>
@@ -10831,7 +10648,7 @@
     </row>
     <row r="189" spans="5:7">
       <c r="E189" t="s">
-        <v>1059</v>
+        <v>1033</v>
       </c>
       <c r="G189" t="str">
         <f t="shared" si="2"/>
@@ -10840,7 +10657,7 @@
     </row>
     <row r="190" spans="5:7">
       <c r="E190" t="s">
-        <v>1060</v>
+        <v>1034</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="2"/>
@@ -10849,7 +10666,7 @@
     </row>
     <row r="191" spans="5:7">
       <c r="E191" t="s">
-        <v>1061</v>
+        <v>1035</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" si="2"/>
@@ -10858,7 +10675,7 @@
     </row>
     <row r="192" spans="5:7">
       <c r="E192" t="s">
-        <v>1062</v>
+        <v>1036</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="2"/>
@@ -10867,7 +10684,7 @@
     </row>
     <row r="193" spans="5:7">
       <c r="E193" t="s">
-        <v>1063</v>
+        <v>1037</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" si="2"/>
@@ -10876,7 +10693,7 @@
     </row>
     <row r="194" spans="5:7">
       <c r="E194" t="s">
-        <v>1064</v>
+        <v>1038</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" ref="G194:G249" si="3">$A$1&amp;$D$1&amp;E194&amp;$B$1&amp;$C$1&amp;$D$1&amp;E194&amp;$F$1</f>
@@ -10885,7 +10702,7 @@
     </row>
     <row r="195" spans="5:7">
       <c r="E195" t="s">
-        <v>1065</v>
+        <v>1039</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" si="3"/>
@@ -10894,7 +10711,7 @@
     </row>
     <row r="196" spans="5:7">
       <c r="E196" t="s">
-        <v>1066</v>
+        <v>1040</v>
       </c>
       <c r="G196" t="str">
         <f t="shared" si="3"/>
@@ -10903,7 +10720,7 @@
     </row>
     <row r="197" spans="5:7">
       <c r="E197" t="s">
-        <v>1067</v>
+        <v>1041</v>
       </c>
       <c r="G197" t="str">
         <f t="shared" si="3"/>
@@ -10912,7 +10729,7 @@
     </row>
     <row r="198" spans="5:7">
       <c r="E198" t="s">
-        <v>1068</v>
+        <v>1042</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="3"/>
@@ -10921,7 +10738,7 @@
     </row>
     <row r="199" spans="5:7">
       <c r="E199" t="s">
-        <v>1069</v>
+        <v>1043</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" si="3"/>
@@ -10930,7 +10747,7 @@
     </row>
     <row r="200" spans="5:7">
       <c r="E200" t="s">
-        <v>1070</v>
+        <v>1044</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" si="3"/>
@@ -10939,7 +10756,7 @@
     </row>
     <row r="201" spans="5:7">
       <c r="E201" t="s">
-        <v>1071</v>
+        <v>1045</v>
       </c>
       <c r="G201" t="str">
         <f t="shared" si="3"/>
@@ -10948,7 +10765,7 @@
     </row>
     <row r="202" spans="5:7">
       <c r="E202" t="s">
-        <v>1072</v>
+        <v>1046</v>
       </c>
       <c r="G202" t="str">
         <f t="shared" si="3"/>
@@ -10957,7 +10774,7 @@
     </row>
     <row r="203" spans="5:7">
       <c r="E203" t="s">
-        <v>1073</v>
+        <v>1047</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="3"/>
@@ -10966,7 +10783,7 @@
     </row>
     <row r="204" spans="5:7">
       <c r="E204" t="s">
-        <v>1074</v>
+        <v>1048</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="3"/>
@@ -10975,7 +10792,7 @@
     </row>
     <row r="205" spans="5:7">
       <c r="E205" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
       <c r="G205" t="str">
         <f t="shared" si="3"/>
@@ -10984,7 +10801,7 @@
     </row>
     <row r="206" spans="5:7">
       <c r="E206" t="s">
-        <v>1076</v>
+        <v>1050</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="3"/>
@@ -10993,7 +10810,7 @@
     </row>
     <row r="207" spans="5:7">
       <c r="E207" t="s">
-        <v>1077</v>
+        <v>1051</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="3"/>
@@ -11002,7 +10819,7 @@
     </row>
     <row r="208" spans="5:7">
       <c r="E208" t="s">
-        <v>1078</v>
+        <v>1052</v>
       </c>
       <c r="G208" t="str">
         <f t="shared" si="3"/>
@@ -11011,7 +10828,7 @@
     </row>
     <row r="209" spans="5:7">
       <c r="E209" t="s">
-        <v>1079</v>
+        <v>1053</v>
       </c>
       <c r="G209" t="str">
         <f t="shared" si="3"/>
@@ -11020,7 +10837,7 @@
     </row>
     <row r="210" spans="5:7">
       <c r="E210" t="s">
-        <v>1080</v>
+        <v>1054</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="3"/>
@@ -11029,7 +10846,7 @@
     </row>
     <row r="211" spans="5:7">
       <c r="E211" t="s">
-        <v>1081</v>
+        <v>1055</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="3"/>
@@ -11038,7 +10855,7 @@
     </row>
     <row r="212" spans="5:7">
       <c r="E212" t="s">
-        <v>1082</v>
+        <v>1056</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="3"/>
@@ -11047,7 +10864,7 @@
     </row>
     <row r="213" spans="5:7">
       <c r="E213" t="s">
-        <v>1083</v>
+        <v>1057</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="3"/>
@@ -11056,7 +10873,7 @@
     </row>
     <row r="214" spans="5:7">
       <c r="E214" t="s">
-        <v>1084</v>
+        <v>1058</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="3"/>
@@ -11065,7 +10882,7 @@
     </row>
     <row r="215" spans="5:7">
       <c r="E215" t="s">
-        <v>1085</v>
+        <v>1059</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="3"/>
@@ -11074,7 +10891,7 @@
     </row>
     <row r="216" spans="5:7">
       <c r="E216" t="s">
-        <v>1086</v>
+        <v>1060</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="3"/>
@@ -11083,7 +10900,7 @@
     </row>
     <row r="217" spans="5:7">
       <c r="E217" t="s">
-        <v>1087</v>
+        <v>1061</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="3"/>
@@ -11092,7 +10909,7 @@
     </row>
     <row r="218" spans="5:7">
       <c r="E218" t="s">
-        <v>1088</v>
+        <v>1062</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="3"/>
@@ -11101,7 +10918,7 @@
     </row>
     <row r="219" spans="5:7">
       <c r="E219" t="s">
-        <v>1089</v>
+        <v>1063</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="3"/>
@@ -11110,7 +10927,7 @@
     </row>
     <row r="220" spans="5:7">
       <c r="E220" t="s">
-        <v>1090</v>
+        <v>1064</v>
       </c>
       <c r="G220" t="str">
         <f t="shared" si="3"/>
@@ -11119,7 +10936,7 @@
     </row>
     <row r="221" spans="5:7">
       <c r="E221" t="s">
-        <v>1091</v>
+        <v>1065</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="3"/>
@@ -11128,7 +10945,7 @@
     </row>
     <row r="222" spans="5:7">
       <c r="E222" t="s">
-        <v>1092</v>
+        <v>1066</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="3"/>
@@ -11137,7 +10954,7 @@
     </row>
     <row r="223" spans="5:7">
       <c r="E223" t="s">
-        <v>1093</v>
+        <v>1067</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="3"/>
@@ -11146,7 +10963,7 @@
     </row>
     <row r="224" spans="5:7">
       <c r="E224" t="s">
-        <v>1094</v>
+        <v>1068</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="3"/>
@@ -11155,7 +10972,7 @@
     </row>
     <row r="225" spans="5:7">
       <c r="E225" t="s">
-        <v>1095</v>
+        <v>1069</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="3"/>
@@ -11164,7 +10981,7 @@
     </row>
     <row r="226" spans="5:7">
       <c r="E226" t="s">
-        <v>1096</v>
+        <v>1070</v>
       </c>
       <c r="G226" t="str">
         <f t="shared" si="3"/>
@@ -11173,7 +10990,7 @@
     </row>
     <row r="227" spans="5:7">
       <c r="E227" t="s">
-        <v>1097</v>
+        <v>1071</v>
       </c>
       <c r="G227" t="str">
         <f t="shared" si="3"/>
@@ -11182,7 +10999,7 @@
     </row>
     <row r="228" spans="5:7">
       <c r="E228" t="s">
-        <v>1098</v>
+        <v>1072</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="3"/>
@@ -11191,7 +11008,7 @@
     </row>
     <row r="229" spans="5:7">
       <c r="E229" t="s">
-        <v>1099</v>
+        <v>1073</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="3"/>
@@ -11200,7 +11017,7 @@
     </row>
     <row r="230" spans="5:7">
       <c r="E230" t="s">
-        <v>1100</v>
+        <v>1074</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" si="3"/>
@@ -11209,7 +11026,7 @@
     </row>
     <row r="231" spans="5:7">
       <c r="E231" t="s">
-        <v>1101</v>
+        <v>1075</v>
       </c>
       <c r="G231" t="str">
         <f t="shared" si="3"/>
@@ -11218,7 +11035,7 @@
     </row>
     <row r="232" spans="5:7">
       <c r="E232" t="s">
-        <v>1102</v>
+        <v>1076</v>
       </c>
       <c r="G232" t="str">
         <f t="shared" si="3"/>
@@ -11227,7 +11044,7 @@
     </row>
     <row r="233" spans="5:7">
       <c r="E233" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
       <c r="G233" t="str">
         <f t="shared" si="3"/>
@@ -11236,7 +11053,7 @@
     </row>
     <row r="234" spans="5:7">
       <c r="E234" t="s">
-        <v>1104</v>
+        <v>1078</v>
       </c>
       <c r="G234" t="str">
         <f t="shared" si="3"/>
@@ -11245,7 +11062,7 @@
     </row>
     <row r="235" spans="5:7">
       <c r="E235" t="s">
-        <v>1105</v>
+        <v>1079</v>
       </c>
       <c r="G235" t="str">
         <f t="shared" si="3"/>
@@ -11254,7 +11071,7 @@
     </row>
     <row r="236" spans="5:7">
       <c r="E236" t="s">
-        <v>1106</v>
+        <v>1080</v>
       </c>
       <c r="G236" t="str">
         <f t="shared" si="3"/>
@@ -11263,7 +11080,7 @@
     </row>
     <row r="237" spans="5:7">
       <c r="E237" t="s">
-        <v>1107</v>
+        <v>1081</v>
       </c>
       <c r="G237" t="str">
         <f t="shared" si="3"/>
@@ -11272,7 +11089,7 @@
     </row>
     <row r="238" spans="5:7">
       <c r="E238" t="s">
-        <v>1108</v>
+        <v>1082</v>
       </c>
       <c r="G238" t="str">
         <f t="shared" si="3"/>
@@ -11281,7 +11098,7 @@
     </row>
     <row r="239" spans="5:7">
       <c r="E239" t="s">
-        <v>1109</v>
+        <v>1083</v>
       </c>
       <c r="G239" t="str">
         <f t="shared" si="3"/>
@@ -11290,7 +11107,7 @@
     </row>
     <row r="240" spans="5:7">
       <c r="E240" t="s">
-        <v>1110</v>
+        <v>1084</v>
       </c>
       <c r="G240" t="str">
         <f t="shared" si="3"/>
@@ -11299,7 +11116,7 @@
     </row>
     <row r="241" spans="5:7">
       <c r="E241" t="s">
-        <v>1111</v>
+        <v>1085</v>
       </c>
       <c r="G241" t="str">
         <f t="shared" si="3"/>
@@ -11308,7 +11125,7 @@
     </row>
     <row r="242" spans="5:7">
       <c r="E242" t="s">
-        <v>1112</v>
+        <v>1086</v>
       </c>
       <c r="G242" t="str">
         <f t="shared" si="3"/>
@@ -11317,7 +11134,7 @@
     </row>
     <row r="243" spans="5:7">
       <c r="E243" t="s">
-        <v>1113</v>
+        <v>1087</v>
       </c>
       <c r="G243" t="str">
         <f t="shared" si="3"/>
@@ -11326,7 +11143,7 @@
     </row>
     <row r="244" spans="5:7">
       <c r="E244" t="s">
-        <v>1114</v>
+        <v>1088</v>
       </c>
       <c r="G244" t="str">
         <f t="shared" si="3"/>
@@ -11335,7 +11152,7 @@
     </row>
     <row r="245" spans="5:7">
       <c r="E245" t="s">
-        <v>1115</v>
+        <v>1089</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" si="3"/>
@@ -11344,7 +11161,7 @@
     </row>
     <row r="246" spans="5:7">
       <c r="E246" t="s">
-        <v>1116</v>
+        <v>1090</v>
       </c>
       <c r="G246" t="str">
         <f t="shared" si="3"/>
@@ -11353,7 +11170,7 @@
     </row>
     <row r="247" spans="5:7">
       <c r="E247" t="s">
-        <v>1117</v>
+        <v>1091</v>
       </c>
       <c r="G247" t="str">
         <f t="shared" si="3"/>
@@ -11362,7 +11179,7 @@
     </row>
     <row r="248" spans="5:7">
       <c r="E248" t="s">
-        <v>1118</v>
+        <v>1092</v>
       </c>
       <c r="G248" t="str">
         <f t="shared" si="3"/>
@@ -11371,7 +11188,7 @@
     </row>
     <row r="249" spans="5:7">
       <c r="E249" t="s">
-        <v>1119</v>
+        <v>1093</v>
       </c>
       <c r="G249" t="str">
         <f t="shared" si="3"/>
@@ -11394,153 +11211,47 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F11"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F1" t="str">
-        <f>$A$1&amp;B1&amp;$C$1&amp;D1&amp;$E$1</f>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4091.mp4","Video01"],</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F11" si="0">$A$1&amp;B2&amp;$C$1&amp;D2&amp;$E$1</f>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4092.mp4","Video02"],</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4111.mp4","Video03"],</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4125.mp4","Video04"],</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4126.mp4","Video05"],</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4127.mp4","Video06"],</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4258.mp4","Video07"],</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4260.mp4","Video08"],</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4285.mp4","Video09"],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4345.mp4","Video10"],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>["http://seattlerules.com/media/houston2015/IMG_4348.mp4","Video11"],</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="45120" windowHeight="26320" tabRatio="865"/>
+    <workbookView xWindow="60" yWindow="40" windowWidth="25040" windowHeight="15040" tabRatio="865"/>
   </bookViews>
   <sheets>
     <sheet name="roxhillJSON" sheetId="19" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1117">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -3366,6 +3366,24 @@
   </si>
   <si>
     <t>06 Eventhough She Got No Bush</t>
+  </si>
+  <si>
+    <t>01roxhillsessions20151101.mp3</t>
+  </si>
+  <si>
+    <t>01roxhillsessions20151102.mp3</t>
+  </si>
+  <si>
+    <t>01roxhillsessions20151103.mp3</t>
+  </si>
+  <si>
+    <t>01 This is Called Roshay</t>
+  </si>
+  <si>
+    <t>02 Rabid Beauboon</t>
+  </si>
+  <si>
+    <t>03 Harry Potters My Bitch</t>
   </si>
 </sst>
 </file>
@@ -3421,7 +3439,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="250">
+  <cellStyleXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3500,6 +3518,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3680,7 +3700,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="250">
+  <cellStyles count="252">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3891,6 +3911,8 @@
     <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4259,10 +4281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD13"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4279,7 +4301,7 @@
         <v>1105</v>
       </c>
       <c r="C1" t="str">
-        <f t="shared" ref="C1:C6" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <f t="shared" ref="C1:C9" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
         <v>{'file':'01roxhillsessionssquidwerdthisword20151014.mp3','title':'01 Squidwerd This Word'},</v>
       </c>
     </row>
@@ -4344,7 +4366,40 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01roxhillsessions20151101.mp3','title':'01 This is Called Roshay'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01roxhillsessions20151102.mp3','title':'02 Rabid Beauboon'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01roxhillsessions20151103.mp3','title':'03 Harry Potters My Bitch'},</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -7,21 +7,22 @@
     <workbookView xWindow="60" yWindow="40" windowWidth="25040" windowHeight="15040" tabRatio="865"/>
   </bookViews>
   <sheets>
-    <sheet name="roxhillJSON" sheetId="19" r:id="rId1"/>
-    <sheet name="zekeJSON" sheetId="4" r:id="rId2"/>
-    <sheet name="lastgaspJSON" sheetId="16" r:id="rId3"/>
-    <sheet name="marklaneganJSON" sheetId="17" r:id="rId4"/>
-    <sheet name="bigbusinessJSON" sheetId="18" r:id="rId5"/>
-    <sheet name="cracksabbathJSON" sheetId="12" r:id="rId6"/>
-    <sheet name="melvinsJSON" sheetId="14" r:id="rId7"/>
-    <sheet name="sufferingfuckheadsJSON" sheetId="15" r:id="rId8"/>
-    <sheet name="builttospillJSON" sheetId="11" r:id="rId9"/>
-    <sheet name="OPTIONaudio" sheetId="1" r:id="rId10"/>
-    <sheet name="OPTIONvideo" sheetId="7" r:id="rId11"/>
-    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId12"/>
-    <sheet name="IMG" sheetId="3" r:id="rId13"/>
-    <sheet name="img2" sheetId="21" r:id="rId14"/>
+    <sheet name="image anchors" sheetId="21" r:id="rId1"/>
+    <sheet name="roxhillJSON" sheetId="19" r:id="rId2"/>
+    <sheet name="zekeJSON" sheetId="4" r:id="rId3"/>
+    <sheet name="lastgaspJSON" sheetId="16" r:id="rId4"/>
+    <sheet name="marklaneganJSON" sheetId="17" r:id="rId5"/>
+    <sheet name="bigbusinessJSON" sheetId="18" r:id="rId6"/>
+    <sheet name="cracksabbathJSON" sheetId="12" r:id="rId7"/>
+    <sheet name="melvinsJSON" sheetId="14" r:id="rId8"/>
+    <sheet name="sufferingfuckheadsJSON" sheetId="15" r:id="rId9"/>
+    <sheet name="builttospillJSON" sheetId="11" r:id="rId10"/>
+    <sheet name="OPTIONaudio" sheetId="1" r:id="rId11"/>
+    <sheet name="OPTIONvideo" sheetId="7" r:id="rId12"/>
+    <sheet name="OPTIONvideo (2)" sheetId="9" r:id="rId13"/>
+    <sheet name="IMG" sheetId="3" r:id="rId14"/>
     <sheet name="Sheet2" sheetId="22" r:id="rId15"/>
+    <sheet name="SCRATCH" sheetId="23" r:id="rId16"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="898">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -2570,759 +2571,6 @@
     <t>19%20marklanegan-showbox-20140703-19.mp3</t>
   </si>
   <si>
-    <t>IMG_4064.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4065.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4066.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4067.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4068.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4069.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4070.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4071.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4072.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4074.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4075.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4076.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4077.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4078.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4079.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4081.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4082.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4083.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4084.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4085.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4086.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4087.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4089.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4094.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4095.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4096.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4097.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4098.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4099.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4100.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4101.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4102.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4103.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4104.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4105.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4106.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4107.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4108.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4109.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4112.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4113.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4114.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4115.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4116.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4117.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4118.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4119.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4120.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4121.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4123.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4124.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4128.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4129.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4130.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4131.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4132.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4134.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4135.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4137.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4138.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4141.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4142.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4143.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4146.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4147.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4149.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4150.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4151.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4152.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4153.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4154.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4155.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4156.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4157.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4158.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4159.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4160.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4161.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4162.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4163.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4164.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4165.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4166.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4167.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4168.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4169.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4170.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4171.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4172.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4173.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4174.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4175.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4176.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4177.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4178.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4179.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4180.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4181.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4182.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4183.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4184.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4185.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4186.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4187.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4189.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4190.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4191.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4192.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4193.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4194.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4195.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4196.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4197.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4198.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4199.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4200.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4201.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4202.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4203.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4204.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4205.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4206.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4207.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4208.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4209.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4210.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4211.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4212.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4213.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4214.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4215.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4216.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4217.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4218.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4219.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4220.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4221.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4222.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4223.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4224.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4225.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4226.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4227.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4228.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4229.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4230.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4234.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4235.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4236.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4237.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4238.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4239.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4240.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4242.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4243.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4244.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4245.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4247.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4248.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4249.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4250.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4251.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4252.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4253.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4254.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4255.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4256.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4257.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4259.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4261.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4262.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4263.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4264.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4265.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4266.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4267.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4268.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4269.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4270.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4271.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4272.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4273.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4274.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4275.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4276.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4277.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4278.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4279.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4283.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4284.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4286.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4287.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4289.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4290.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4291.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4292.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4293.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4294.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4295.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4296.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4297.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4298.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4299.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4300.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4301.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4302.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4303.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4304.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4305.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4306.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4307.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4308.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4309.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4310.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4311.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4312.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4313.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4314.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4315.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4316.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4317.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4323.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4324.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4325.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4326.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4328.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4329.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4330.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4331.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4332.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4333.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4334.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4335.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4336.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4337.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4338.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4339.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4340.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4341.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4342.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4343.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4344.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4346.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4347.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4349.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4350.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4351.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4352.JPG</t>
-  </si>
-  <si>
-    <t>IMG_4353.JPG</t>
-  </si>
-  <si>
-    <t>http://seattlerules.com/media/houston2015/</t>
-  </si>
-  <si>
-    <t>&lt;img width='100' height='100' alt='houston2015photos' src='</t>
-  </si>
-  <si>
     <t>&lt;a href='</t>
   </si>
   <si>
@@ -3384,6 +2632,102 @@
   </si>
   <si>
     <t>03 Harry Potters My Bitch</t>
+  </si>
+  <si>
+    <t>uri path</t>
+  </si>
+  <si>
+    <t>http://seattlerules.com/media/kayla/</t>
+  </si>
+  <si>
+    <t>Picture015.jpg</t>
+  </si>
+  <si>
+    <t>christmas2002005.jpg</t>
+  </si>
+  <si>
+    <t>christmas2002b034.jpg</t>
+  </si>
+  <si>
+    <t>dadandkayla.jpg</t>
+  </si>
+  <si>
+    <t>jacobandkaylasunvalley09142002070.jpg</t>
+  </si>
+  <si>
+    <t>kaylarollercoaster.jpg</t>
+  </si>
+  <si>
+    <t>newwasherdryer200005.jpg</t>
+  </si>
+  <si>
+    <t>september2002001.JPG</t>
+  </si>
+  <si>
+    <t>september2002002.JPG</t>
+  </si>
+  <si>
+    <t>BoiseJune2002 008.jpg</t>
+  </si>
+  <si>
+    <t>Kayla smile 9.1.JPG</t>
+  </si>
+  <si>
+    <t>Picture 012.jpg</t>
+  </si>
+  <si>
+    <t>Picture 013.jpg</t>
+  </si>
+  <si>
+    <t>Picture 031.jpg</t>
+  </si>
+  <si>
+    <t>Picture 034.jpg</t>
+  </si>
+  <si>
+    <t>Picture 038.jpg</t>
+  </si>
+  <si>
+    <t>jacob and kayla.jpg</t>
+  </si>
+  <si>
+    <t>bru2 007.jpg</t>
+  </si>
+  <si>
+    <t>bru2 014.jpg</t>
+  </si>
+  <si>
+    <t>bru2 036.jpg</t>
+  </si>
+  <si>
+    <t>bru2 040.jpg</t>
+  </si>
+  <si>
+    <t>Jake and Kayla at park.JPG</t>
+  </si>
+  <si>
+    <t>Kayla on slide.JPG</t>
+  </si>
+  <si>
+    <t>Kayla pucker.JPG</t>
+  </si>
+  <si>
+    <t>Kayla rocking1.JPG</t>
+  </si>
+  <si>
+    <t>Kayla rocking2.JPG</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>old kayla photos</t>
+  </si>
+  <si>
+    <t>&lt;img width='100' height='100' alt='</t>
+  </si>
+  <si>
+    <t>' src='</t>
   </si>
 </sst>
 </file>
@@ -3439,7 +2783,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="252">
+  <cellStyleXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3518,6 +2862,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3700,7 +3053,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="77"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="252">
+  <cellStyles count="261">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3913,6 +3266,15 @@
     <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4281,124 +3643,1015 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+      <selection activeCell="H3" sqref="H3:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.5" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="120" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f>$B$1</f>
+        <v>http://seattlerules.com/media/kayla/</v>
+      </c>
+      <c r="F3" t="s">
+        <v>877</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" t="str">
+        <f>$A$3&amp;$E$3&amp;F3&amp;$B$3&amp;$C$3&amp;$B$2&amp;$D$3&amp;$E$3&amp;F3&amp;$G$3</f>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/BoiseJune2002 008.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/BoiseJune2002 008.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="F4" t="s">
+        <v>889</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H28" si="0">$A$3&amp;$E$3&amp;F4&amp;$B$3&amp;$C$3&amp;$B$2&amp;$D$3&amp;$E$3&amp;F4&amp;$G$3</f>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Jake and Kayla at park.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Jake and Kayla at park.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="F5" t="s">
+        <v>890</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Kayla on slide.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Kayla on slide.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6" t="s">
+        <v>891</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Kayla pucker.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Kayla pucker.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" t="s">
+        <v>892</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Kayla rocking1.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Kayla rocking1.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="F8" t="s">
+        <v>893</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Kayla rocking2.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Kayla rocking2.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" t="s">
+        <v>878</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Kayla smile 9.1.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Kayla smile 9.1.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" t="s">
+        <v>879</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Picture 012.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Picture 012.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" t="s">
+        <v>880</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Picture 013.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Picture 013.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" t="s">
+        <v>881</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Picture 031.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Picture 031.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13" t="s">
+        <v>882</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Picture 034.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Picture 034.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" t="s">
+        <v>883</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Picture 038.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Picture 038.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="F15" t="s">
+        <v>868</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/Picture015.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/Picture015.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" t="s">
+        <v>885</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/bru2 007.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/bru2 007.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" t="s">
+        <v>886</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/bru2 014.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/bru2 014.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" t="s">
+        <v>887</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/bru2 036.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/bru2 036.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" t="s">
+        <v>888</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/bru2 040.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/bru2 040.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" t="s">
+        <v>869</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/christmas2002005.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/christmas2002005.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" t="s">
+        <v>870</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/christmas2002b034.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/christmas2002b034.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" t="s">
+        <v>871</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/dadandkayla.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/dadandkayla.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" t="s">
+        <v>884</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/jacob and kayla.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/jacob and kayla.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" t="s">
+        <v>872</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/jacobandkaylasunvalley09142002070.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/jacobandkaylasunvalley09142002070.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" t="s">
+        <v>873</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/kaylarollercoaster.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/kaylarollercoaster.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" t="s">
+        <v>874</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/newwasherdryer200005.jpg' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/newwasherdryer200005.jpg'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" t="s">
+        <v>875</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/september2002001.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/september2002001.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" t="s">
+        <v>876</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='http://seattlerules.com/media/kayla/september2002002.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='old kayla photos' src='http://seattlerules.com/media/kayla/september2002002.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="http://seattlerules.com/media/houston2015/"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>1098</v>
+      <c r="A1" t="s">
+        <v>458</v>
       </c>
       <c r="B1" t="s">
-        <v>1105</v>
+        <v>475</v>
       </c>
       <c r="C1" t="str">
-        <f t="shared" ref="C1:C9" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
-        <v>{'file':'01roxhillsessionssquidwerdthisword20151014.mp3','title':'01 Squidwerd This Word'},</v>
+        <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <v>{'file':'01%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3','title':'01 Built to Spill - Bellingham - February 2nd, 2013'},</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>1099</v>
+      <c r="A2" t="s">
+        <v>465</v>
       </c>
       <c r="B2" t="s">
-        <v>1106</v>
+        <v>476</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'02roxhillsessionsgotwithit20151014.mp3','title':'02 Got With It'},</v>
+        <f t="shared" ref="C2:C58" si="0">"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
+        <v>{'file':'09%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3','title':'02 Built to Spill - Bellingham - February 2nd, 2013'},</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>1100</v>
+      <c r="A3" t="s">
+        <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>1107</v>
+        <v>477</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'03roxhillsessionssnookiewantincookie20151014.mp3','title':'03 Snookie Wantin Cookie'},</v>
+        <v>{'file':'10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3','title':'03 Built to Spill - Bellingham - February 2nd, 2013'},</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>1101</v>
+      <c r="A4" t="s">
+        <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>1108</v>
+        <v>478</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'04roxhillsessionseatthecheeriosbitch20151014.mp3','title':'04 Eat The Cheerios Bitch'},</v>
+        <v>{'file':'11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3','title':'04 Built to Spill - Bellingham - February 2nd, 2013'},</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>1102</v>
+      <c r="A5" t="s">
+        <v>410</v>
       </c>
       <c r="B5" t="s">
-        <v>1109</v>
+        <v>479</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'05roxhillsessionsdickinhernose20151014.mp3','title':'05 Dick In Her Nose'},</v>
+        <v>{'file':'12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3','title':'05 Built to Spill - Bellingham - February 2nd, 2013'},</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>1103</v>
+      <c r="A6" t="s">
+        <v>404</v>
       </c>
       <c r="B6" t="s">
-        <v>1110</v>
+        <v>480</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'06roxhillsessionseventhoughshegotnobush20151014.mp3','title':'06 Eventhough She Got No Bush'},</v>
+        <v>{'file':'13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3','title':'06 Built to Spill - Bellingham - February 2nd, 2013'},</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1114</v>
+      <c r="A7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" t="s">
+        <v>481</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'01roxhillsessions20151101.mp3','title':'01 This is Called Roshay'},</v>
+        <v>{'file':'14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3','title':'07 Built to Spill - Bellingham - February 2nd, 2013'},</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1115</v>
+        <v>413</v>
+      </c>
+      <c r="B8" t="s">
+        <v>482</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'01roxhillsessions20151102.mp3','title':'02 Rabid Beauboon'},</v>
+        <v>{'file':'15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3','title':'08 Built to Spill - Bellingham - February 2nd, 2013'},</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1116</v>
+        <v>459</v>
+      </c>
+      <c r="B9" t="s">
+        <v>483</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'01roxhillsessions20151103.mp3','title':'03 Harry Potters My Bitch'},</v>
+        <v>{'file':'02%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3','title':'10 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'03%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3','title':'11 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'05%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3','title':'12 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'06%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3','title':'13 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'07%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3','title':'14 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'08%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3','title':'15 Built to Spill - Bellingham - February 2nd, 2013'},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3','title':'01 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'02inthemorning-BuiltToSpill-Freemont-20140620.mp3','title':'02 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'03theplan-BuiltToSpill-Freemont-20140620.mp3','title':'03 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>492</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'04strange-BuiltToSpill-Freemont-20140620.mp3','title':'04 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>493</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'05untrustable-BuiltToSpill-Freemont-20140620.mp3','title':'05 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'06else-BuiltToSpill-Freemont-20140620.mp3','title':'01 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>490</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'07messwithtime-BuiltToSpill-Freemont-20140620.mp3','title':'02 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3','title':'03 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'09getalife-BuiltToSpill-Freemont-20140620.mp3','title':'04 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>493</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'10joyride-BuiltToSpill-Freemont-20140620.mp3','title':'05 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'11stab-BuiltToSpill-Freemont-20140620.mp3','title':'06 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>495</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'12carrythezero-BuiltToSpill-Freemont-20140620.mp3','title':'07 Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>496</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'13youwereright-BuiltToSpill-Freemont-20140620.mp3','title':'01Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" t="s">
+        <v>497</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'14bigdipper-BuiltToSpill-Freemont-20140620.mp3','title':'10Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>498</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3','title':'11Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3','title':'12Built to Spill - Fremont - June 20th, 2014'},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-center-BuiltToSpill-Geogetown-20130713.mp3','title':'01Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-fly-BuiltToSpill-Geogetown-20130713.mp3','title':'02Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>502</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3','title':'03Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3','title':'04Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3','title':'05Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="s">
+        <v>505</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3','title':'06Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>506</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3','title':'07Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>507</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-theplan-BuiltToSpill-Geogetown-20130713.mp3','title':'08Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>508</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-untitled-BuiltToSpill-Geogetown-20130713.mp3','title':'09Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>509</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3','title':'10Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>466</v>
+      </c>
+      <c r="B41" t="s">
+        <v>510</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3','title':'01Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>467</v>
+      </c>
+      <c r="B42" t="s">
+        <v>511</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'02%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3','title':'02Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>468</v>
+      </c>
+      <c r="B43" t="s">
+        <v>512</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'03%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3','title':'03Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>469</v>
+      </c>
+      <c r="B44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'04%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3','title':'04Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>470</v>
+      </c>
+      <c r="B45" t="s">
+        <v>514</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'05%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3','title':'05Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>471</v>
+      </c>
+      <c r="B46" t="s">
+        <v>515</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'06%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3','title':'06Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>472</v>
+      </c>
+      <c r="B47" t="s">
+        <v>516</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'07%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3','title':'07Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>473</v>
+      </c>
+      <c r="B48" t="s">
+        <v>517</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'08%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3','title':'08Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>474</v>
+      </c>
+      <c r="B49" t="s">
+        <v>518</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'09%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3','title':'09Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>401</v>
+      </c>
+      <c r="B50" t="s">
+        <v>519</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3','title':'10Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>409</v>
+      </c>
+      <c r="B51" t="s">
+        <v>520</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3','title':'11Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>411</v>
+      </c>
+      <c r="B52" t="s">
+        <v>521</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3','title':'12Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>403</v>
+      </c>
+      <c r="B53" t="s">
+        <v>522</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3','title':'13Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>412</v>
+      </c>
+      <c r="B54" t="s">
+        <v>523</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3','title':'14Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>406</v>
+      </c>
+      <c r="B55" t="s">
+        <v>524</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3','title':'15Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" t="s">
+        <v>525</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3','title':'16Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>400</v>
+      </c>
+      <c r="B57" t="s">
+        <v>526</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3','title':'17Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>407</v>
+      </c>
+      <c r="B58" t="s">
+        <v>527</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3','title':'18Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +4665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I278"/>
   <sheetViews>
@@ -8434,7 +8687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -8582,7 +8835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -8845,7 +9098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -8969,2290 +9222,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G249"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G249"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E1" t="s">
-        <v>845</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" t="str">
-        <f>$A$1&amp;$D$1&amp;E1&amp;$B$1&amp;$C$1&amp;$D$1&amp;E1&amp;$F$1</f>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4064.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4064.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="E2" t="s">
-        <v>846</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G65" si="0">$A$1&amp;$D$1&amp;E2&amp;$B$1&amp;$C$1&amp;$D$1&amp;E2&amp;$F$1</f>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4065.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4065.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="E3" t="s">
-        <v>847</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4066.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4066.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="E4" t="s">
-        <v>848</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4067.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4067.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="E5" t="s">
-        <v>849</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4068.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4068.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="E6" t="s">
-        <v>850</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4069.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4069.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="E7" t="s">
-        <v>851</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4070.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4070.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="E8" t="s">
-        <v>852</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4071.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4071.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="E9" t="s">
-        <v>853</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4072.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4072.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="E10" t="s">
-        <v>854</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4074.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4074.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4075.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4075.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" t="s">
-        <v>856</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4076.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4076.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="E13" t="s">
-        <v>857</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4077.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4077.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" t="s">
-        <v>858</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4078.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4078.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" t="s">
-        <v>859</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4079.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4079.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16" t="s">
-        <v>860</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4081.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4081.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" t="s">
-        <v>861</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4082.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4082.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" t="s">
-        <v>862</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4083.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4083.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" t="s">
-        <v>863</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4084.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4084.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" t="s">
-        <v>864</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4085.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4085.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" t="s">
-        <v>865</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4086.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4086.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" t="s">
-        <v>866</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4087.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4087.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" t="s">
-        <v>867</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4089.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4089.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" t="s">
-        <v>868</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4094.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4094.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" t="s">
-        <v>869</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4095.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4095.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" t="s">
-        <v>870</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4096.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4096.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" t="s">
-        <v>871</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4097.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4097.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" t="s">
-        <v>872</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4098.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4098.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7">
-      <c r="E29" t="s">
-        <v>873</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4099.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4099.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7">
-      <c r="E30" t="s">
-        <v>874</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4100.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4100.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7">
-      <c r="E31" t="s">
-        <v>875</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4101.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4101.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7">
-      <c r="E32" t="s">
-        <v>876</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4102.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4102.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7">
-      <c r="E33" t="s">
-        <v>877</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4103.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4103.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7">
-      <c r="E34" t="s">
-        <v>878</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4104.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4104.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7">
-      <c r="E35" t="s">
-        <v>879</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4105.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4105.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7">
-      <c r="E36" t="s">
-        <v>880</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4106.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4106.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7">
-      <c r="E37" t="s">
-        <v>881</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4107.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4107.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7">
-      <c r="E38" t="s">
-        <v>882</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4108.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4108.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39" t="s">
-        <v>883</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4109.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4109.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40" t="s">
-        <v>884</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4112.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4112.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" t="s">
-        <v>885</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4113.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4113.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42" t="s">
-        <v>886</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4114.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4114.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" t="s">
-        <v>887</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4115.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4115.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" t="s">
-        <v>888</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4116.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4116.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" t="s">
-        <v>889</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4117.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4117.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" t="s">
-        <v>890</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4118.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4118.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" t="s">
-        <v>891</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4119.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4119.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="E48" t="s">
-        <v>892</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4120.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4120.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49" t="s">
-        <v>893</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4121.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4121.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50" t="s">
-        <v>894</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4123.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4123.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" t="s">
-        <v>895</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4124.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4124.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" t="s">
-        <v>896</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4128.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4128.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53" t="s">
-        <v>897</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4129.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4129.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7">
-      <c r="E54" t="s">
-        <v>898</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4130.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4130.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7">
-      <c r="E55" t="s">
-        <v>899</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4131.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4131.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" t="s">
-        <v>900</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4132.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4132.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" t="s">
-        <v>901</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4134.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4134.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" t="s">
-        <v>902</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4135.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4135.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7">
-      <c r="E59" t="s">
-        <v>903</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4137.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4137.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7">
-      <c r="E60" t="s">
-        <v>904</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4138.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4138.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7">
-      <c r="E61" t="s">
-        <v>905</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4141.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4141.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7">
-      <c r="E62" t="s">
-        <v>906</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4142.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4142.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7">
-      <c r="E63" t="s">
-        <v>907</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4143.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4143.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7">
-      <c r="E64" t="s">
-        <v>908</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4146.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4146.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7">
-      <c r="E65" t="s">
-        <v>909</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4147.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4147.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7">
-      <c r="E66" t="s">
-        <v>910</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" ref="G66:G129" si="1">$A$1&amp;$D$1&amp;E66&amp;$B$1&amp;$C$1&amp;$D$1&amp;E66&amp;$F$1</f>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4149.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4149.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="5:7">
-      <c r="E67" t="s">
-        <v>911</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4150.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4150.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7">
-      <c r="E68" t="s">
-        <v>912</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4151.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4151.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7">
-      <c r="E69" t="s">
-        <v>913</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4152.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4152.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7">
-      <c r="E70" t="s">
-        <v>914</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4153.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4153.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7">
-      <c r="E71" t="s">
-        <v>915</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4154.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4154.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7">
-      <c r="E72" t="s">
-        <v>916</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4155.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4155.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7">
-      <c r="E73" t="s">
-        <v>917</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4156.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4156.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7">
-      <c r="E74" t="s">
-        <v>918</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4157.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4157.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="75" spans="5:7">
-      <c r="E75" t="s">
-        <v>919</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4158.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4158.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7">
-      <c r="E76" t="s">
-        <v>920</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4159.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4159.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7">
-      <c r="E77" t="s">
-        <v>921</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4160.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4160.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="78" spans="5:7">
-      <c r="E78" t="s">
-        <v>922</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4161.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4161.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="5:7">
-      <c r="E79" t="s">
-        <v>923</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4162.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4162.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="5:7">
-      <c r="E80" t="s">
-        <v>924</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4163.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4163.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="81" spans="5:7">
-      <c r="E81" t="s">
-        <v>925</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4164.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4164.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="5:7">
-      <c r="E82" t="s">
-        <v>926</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4165.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4165.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="5:7">
-      <c r="E83" t="s">
-        <v>927</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4166.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4166.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="5:7">
-      <c r="E84" t="s">
-        <v>928</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4167.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4167.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="5:7">
-      <c r="E85" t="s">
-        <v>929</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4168.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4168.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="86" spans="5:7">
-      <c r="E86" t="s">
-        <v>930</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4169.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4169.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="5:7">
-      <c r="E87" t="s">
-        <v>931</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4170.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4170.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="5:7">
-      <c r="E88" t="s">
-        <v>932</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4171.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4171.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="5:7">
-      <c r="E89" t="s">
-        <v>933</v>
-      </c>
-      <c r="G89" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4172.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4172.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="5:7">
-      <c r="E90" t="s">
-        <v>934</v>
-      </c>
-      <c r="G90" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4173.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4173.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="91" spans="5:7">
-      <c r="E91" t="s">
-        <v>935</v>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4174.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4174.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="5:7">
-      <c r="E92" t="s">
-        <v>936</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4175.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4175.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="93" spans="5:7">
-      <c r="E93" t="s">
-        <v>937</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4176.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4176.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="94" spans="5:7">
-      <c r="E94" t="s">
-        <v>938</v>
-      </c>
-      <c r="G94" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4177.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4177.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="95" spans="5:7">
-      <c r="E95" t="s">
-        <v>939</v>
-      </c>
-      <c r="G95" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4178.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4178.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="96" spans="5:7">
-      <c r="E96" t="s">
-        <v>940</v>
-      </c>
-      <c r="G96" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4179.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4179.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="5:7">
-      <c r="E97" t="s">
-        <v>941</v>
-      </c>
-      <c r="G97" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4180.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4180.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="98" spans="5:7">
-      <c r="E98" t="s">
-        <v>942</v>
-      </c>
-      <c r="G98" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4181.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4181.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="99" spans="5:7">
-      <c r="E99" t="s">
-        <v>943</v>
-      </c>
-      <c r="G99" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4182.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4182.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="100" spans="5:7">
-      <c r="E100" t="s">
-        <v>944</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4183.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4183.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="101" spans="5:7">
-      <c r="E101" t="s">
-        <v>945</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4184.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4184.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="102" spans="5:7">
-      <c r="E102" t="s">
-        <v>946</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4185.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4185.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="103" spans="5:7">
-      <c r="E103" t="s">
-        <v>947</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4186.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4186.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="104" spans="5:7">
-      <c r="E104" t="s">
-        <v>948</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4187.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4187.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="105" spans="5:7">
-      <c r="E105" t="s">
-        <v>949</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4189.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4189.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="106" spans="5:7">
-      <c r="E106" t="s">
-        <v>950</v>
-      </c>
-      <c r="G106" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4190.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4190.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="107" spans="5:7">
-      <c r="E107" t="s">
-        <v>951</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4191.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4191.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="108" spans="5:7">
-      <c r="E108" t="s">
-        <v>952</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4192.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4192.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="109" spans="5:7">
-      <c r="E109" t="s">
-        <v>953</v>
-      </c>
-      <c r="G109" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4193.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4193.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="110" spans="5:7">
-      <c r="E110" t="s">
-        <v>954</v>
-      </c>
-      <c r="G110" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4194.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4194.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="111" spans="5:7">
-      <c r="E111" t="s">
-        <v>955</v>
-      </c>
-      <c r="G111" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4195.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4195.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="112" spans="5:7">
-      <c r="E112" t="s">
-        <v>956</v>
-      </c>
-      <c r="G112" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4196.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4196.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="5:7">
-      <c r="E113" t="s">
-        <v>957</v>
-      </c>
-      <c r="G113" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4197.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4197.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="114" spans="5:7">
-      <c r="E114" t="s">
-        <v>958</v>
-      </c>
-      <c r="G114" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4198.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4198.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="115" spans="5:7">
-      <c r="E115" t="s">
-        <v>959</v>
-      </c>
-      <c r="G115" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4199.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4199.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="116" spans="5:7">
-      <c r="E116" t="s">
-        <v>960</v>
-      </c>
-      <c r="G116" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4200.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4200.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="117" spans="5:7">
-      <c r="E117" t="s">
-        <v>961</v>
-      </c>
-      <c r="G117" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4201.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4201.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="118" spans="5:7">
-      <c r="E118" t="s">
-        <v>962</v>
-      </c>
-      <c r="G118" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4202.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4202.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="119" spans="5:7">
-      <c r="E119" t="s">
-        <v>963</v>
-      </c>
-      <c r="G119" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4203.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4203.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="120" spans="5:7">
-      <c r="E120" t="s">
-        <v>964</v>
-      </c>
-      <c r="G120" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4204.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4204.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="121" spans="5:7">
-      <c r="E121" t="s">
-        <v>965</v>
-      </c>
-      <c r="G121" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4205.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4205.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="122" spans="5:7">
-      <c r="E122" t="s">
-        <v>966</v>
-      </c>
-      <c r="G122" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4206.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4206.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="123" spans="5:7">
-      <c r="E123" t="s">
-        <v>967</v>
-      </c>
-      <c r="G123" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4207.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4207.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="124" spans="5:7">
-      <c r="E124" t="s">
-        <v>968</v>
-      </c>
-      <c r="G124" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4208.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4208.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="125" spans="5:7">
-      <c r="E125" t="s">
-        <v>969</v>
-      </c>
-      <c r="G125" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4209.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4209.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="126" spans="5:7">
-      <c r="E126" t="s">
-        <v>970</v>
-      </c>
-      <c r="G126" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4210.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4210.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="127" spans="5:7">
-      <c r="E127" t="s">
-        <v>971</v>
-      </c>
-      <c r="G127" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4211.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4211.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="128" spans="5:7">
-      <c r="E128" t="s">
-        <v>972</v>
-      </c>
-      <c r="G128" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4212.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4212.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="129" spans="5:7">
-      <c r="E129" t="s">
-        <v>973</v>
-      </c>
-      <c r="G129" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4213.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4213.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="130" spans="5:7">
-      <c r="E130" t="s">
-        <v>974</v>
-      </c>
-      <c r="G130" t="str">
-        <f t="shared" ref="G130:G193" si="2">$A$1&amp;$D$1&amp;E130&amp;$B$1&amp;$C$1&amp;$D$1&amp;E130&amp;$F$1</f>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4214.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4214.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="131" spans="5:7">
-      <c r="E131" t="s">
-        <v>975</v>
-      </c>
-      <c r="G131" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4215.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4215.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="132" spans="5:7">
-      <c r="E132" t="s">
-        <v>976</v>
-      </c>
-      <c r="G132" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4216.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4216.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="133" spans="5:7">
-      <c r="E133" t="s">
-        <v>977</v>
-      </c>
-      <c r="G133" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4217.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4217.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="134" spans="5:7">
-      <c r="E134" t="s">
-        <v>978</v>
-      </c>
-      <c r="G134" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4218.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4218.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="135" spans="5:7">
-      <c r="E135" t="s">
-        <v>979</v>
-      </c>
-      <c r="G135" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4219.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4219.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="136" spans="5:7">
-      <c r="E136" t="s">
-        <v>980</v>
-      </c>
-      <c r="G136" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4220.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4220.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="137" spans="5:7">
-      <c r="E137" t="s">
-        <v>981</v>
-      </c>
-      <c r="G137" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4221.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4221.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="138" spans="5:7">
-      <c r="E138" t="s">
-        <v>982</v>
-      </c>
-      <c r="G138" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4222.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4222.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="139" spans="5:7">
-      <c r="E139" t="s">
-        <v>983</v>
-      </c>
-      <c r="G139" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4223.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4223.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="140" spans="5:7">
-      <c r="E140" t="s">
-        <v>984</v>
-      </c>
-      <c r="G140" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4224.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4224.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="141" spans="5:7">
-      <c r="E141" t="s">
-        <v>985</v>
-      </c>
-      <c r="G141" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4225.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4225.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="142" spans="5:7">
-      <c r="E142" t="s">
-        <v>986</v>
-      </c>
-      <c r="G142" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4226.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4226.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="143" spans="5:7">
-      <c r="E143" t="s">
-        <v>987</v>
-      </c>
-      <c r="G143" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4227.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4227.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="144" spans="5:7">
-      <c r="E144" t="s">
-        <v>988</v>
-      </c>
-      <c r="G144" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4228.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4228.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="145" spans="5:7">
-      <c r="E145" t="s">
-        <v>989</v>
-      </c>
-      <c r="G145" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4229.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4229.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="146" spans="5:7">
-      <c r="E146" t="s">
-        <v>990</v>
-      </c>
-      <c r="G146" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4230.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4230.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="147" spans="5:7">
-      <c r="E147" t="s">
-        <v>991</v>
-      </c>
-      <c r="G147" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4234.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4234.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="148" spans="5:7">
-      <c r="E148" t="s">
-        <v>992</v>
-      </c>
-      <c r="G148" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4235.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4235.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="149" spans="5:7">
-      <c r="E149" t="s">
-        <v>993</v>
-      </c>
-      <c r="G149" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4236.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4236.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="150" spans="5:7">
-      <c r="E150" t="s">
-        <v>994</v>
-      </c>
-      <c r="G150" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4237.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4237.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="151" spans="5:7">
-      <c r="E151" t="s">
-        <v>995</v>
-      </c>
-      <c r="G151" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4238.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4238.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="152" spans="5:7">
-      <c r="E152" t="s">
-        <v>996</v>
-      </c>
-      <c r="G152" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4239.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4239.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="153" spans="5:7">
-      <c r="E153" t="s">
-        <v>997</v>
-      </c>
-      <c r="G153" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4240.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4240.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="154" spans="5:7">
-      <c r="E154" t="s">
-        <v>998</v>
-      </c>
-      <c r="G154" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4242.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4242.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="155" spans="5:7">
-      <c r="E155" t="s">
-        <v>999</v>
-      </c>
-      <c r="G155" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4243.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4243.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="156" spans="5:7">
-      <c r="E156" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G156" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4244.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4244.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="157" spans="5:7">
-      <c r="E157" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G157" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4245.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4245.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="158" spans="5:7">
-      <c r="E158" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G158" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4247.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4247.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="159" spans="5:7">
-      <c r="E159" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G159" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4248.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4248.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="160" spans="5:7">
-      <c r="E160" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G160" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4249.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4249.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="161" spans="5:7">
-      <c r="E161" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G161" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4250.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4250.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="162" spans="5:7">
-      <c r="E162" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G162" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4251.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4251.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="163" spans="5:7">
-      <c r="E163" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G163" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4252.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4252.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="164" spans="5:7">
-      <c r="E164" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G164" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4253.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4253.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="165" spans="5:7">
-      <c r="E165" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G165" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4254.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4254.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="166" spans="5:7">
-      <c r="E166" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G166" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4255.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4255.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="167" spans="5:7">
-      <c r="E167" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G167" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4256.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4256.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="168" spans="5:7">
-      <c r="E168" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G168" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4257.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4257.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="169" spans="5:7">
-      <c r="E169" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G169" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4259.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4259.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="170" spans="5:7">
-      <c r="E170" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G170" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4261.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4261.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="171" spans="5:7">
-      <c r="E171" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G171" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4262.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4262.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="172" spans="5:7">
-      <c r="E172" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G172" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4263.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4263.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="173" spans="5:7">
-      <c r="E173" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G173" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4264.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4264.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="174" spans="5:7">
-      <c r="E174" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G174" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4265.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4265.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="175" spans="5:7">
-      <c r="E175" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G175" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4266.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4266.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="176" spans="5:7">
-      <c r="E176" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G176" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4267.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4267.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="177" spans="5:7">
-      <c r="E177" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G177" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4268.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4268.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="178" spans="5:7">
-      <c r="E178" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G178" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4269.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4269.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="179" spans="5:7">
-      <c r="E179" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G179" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4270.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4270.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="180" spans="5:7">
-      <c r="E180" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G180" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4271.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4271.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="181" spans="5:7">
-      <c r="E181" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G181" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4272.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4272.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="182" spans="5:7">
-      <c r="E182" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G182" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4273.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4273.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="183" spans="5:7">
-      <c r="E183" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G183" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4274.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4274.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="184" spans="5:7">
-      <c r="E184" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G184" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4275.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4275.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="185" spans="5:7">
-      <c r="E185" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G185" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4276.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4276.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="186" spans="5:7">
-      <c r="E186" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G186" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4277.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4277.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="187" spans="5:7">
-      <c r="E187" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G187" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4278.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4278.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="188" spans="5:7">
-      <c r="E188" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G188" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4279.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4279.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="189" spans="5:7">
-      <c r="E189" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G189" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4283.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4283.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="190" spans="5:7">
-      <c r="E190" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G190" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4284.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4284.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="191" spans="5:7">
-      <c r="E191" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G191" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4286.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4286.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="192" spans="5:7">
-      <c r="E192" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G192" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4287.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4287.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="193" spans="5:7">
-      <c r="E193" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G193" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4289.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4289.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="194" spans="5:7">
-      <c r="E194" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G194" t="str">
-        <f t="shared" ref="G194:G249" si="3">$A$1&amp;$D$1&amp;E194&amp;$B$1&amp;$C$1&amp;$D$1&amp;E194&amp;$F$1</f>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4290.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4290.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="195" spans="5:7">
-      <c r="E195" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G195" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4291.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4291.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="196" spans="5:7">
-      <c r="E196" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G196" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4292.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4292.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="197" spans="5:7">
-      <c r="E197" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G197" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4293.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4293.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="198" spans="5:7">
-      <c r="E198" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G198" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4294.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4294.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="199" spans="5:7">
-      <c r="E199" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G199" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4295.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4295.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="200" spans="5:7">
-      <c r="E200" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G200" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4296.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4296.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="201" spans="5:7">
-      <c r="E201" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G201" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4297.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4297.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="202" spans="5:7">
-      <c r="E202" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G202" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4298.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4298.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="203" spans="5:7">
-      <c r="E203" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G203" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4299.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4299.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="204" spans="5:7">
-      <c r="E204" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G204" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4300.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4300.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="205" spans="5:7">
-      <c r="E205" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G205" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4301.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4301.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="206" spans="5:7">
-      <c r="E206" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G206" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4302.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4302.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="207" spans="5:7">
-      <c r="E207" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G207" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4303.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4303.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="208" spans="5:7">
-      <c r="E208" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G208" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4304.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4304.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="209" spans="5:7">
-      <c r="E209" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G209" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4305.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4305.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="210" spans="5:7">
-      <c r="E210" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G210" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4306.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4306.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="211" spans="5:7">
-      <c r="E211" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G211" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4307.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4307.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="212" spans="5:7">
-      <c r="E212" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G212" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4308.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4308.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="213" spans="5:7">
-      <c r="E213" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G213" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4309.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4309.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="214" spans="5:7">
-      <c r="E214" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G214" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4310.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4310.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="215" spans="5:7">
-      <c r="E215" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G215" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4311.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4311.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="216" spans="5:7">
-      <c r="E216" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G216" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4312.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4312.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="217" spans="5:7">
-      <c r="E217" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G217" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4313.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4313.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="218" spans="5:7">
-      <c r="E218" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G218" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4314.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4314.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="219" spans="5:7">
-      <c r="E219" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G219" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4315.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4315.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="220" spans="5:7">
-      <c r="E220" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G220" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4316.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4316.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="221" spans="5:7">
-      <c r="E221" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G221" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4317.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4317.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="222" spans="5:7">
-      <c r="E222" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G222" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4323.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4323.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="223" spans="5:7">
-      <c r="E223" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G223" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4324.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4324.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="224" spans="5:7">
-      <c r="E224" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G224" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4325.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4325.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="225" spans="5:7">
-      <c r="E225" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G225" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4326.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4326.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="226" spans="5:7">
-      <c r="E226" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G226" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4328.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4328.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="227" spans="5:7">
-      <c r="E227" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G227" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4329.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4329.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="228" spans="5:7">
-      <c r="E228" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G228" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4330.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4330.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="229" spans="5:7">
-      <c r="E229" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G229" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4331.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4331.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="230" spans="5:7">
-      <c r="E230" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G230" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4332.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4332.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="231" spans="5:7">
-      <c r="E231" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G231" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4333.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4333.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="232" spans="5:7">
-      <c r="E232" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G232" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4334.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4334.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="233" spans="5:7">
-      <c r="E233" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G233" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4335.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4335.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="234" spans="5:7">
-      <c r="E234" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G234" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4336.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4336.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="235" spans="5:7">
-      <c r="E235" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G235" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4337.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4337.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="236" spans="5:7">
-      <c r="E236" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G236" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4338.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4338.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="237" spans="5:7">
-      <c r="E237" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G237" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4339.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4339.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="238" spans="5:7">
-      <c r="E238" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G238" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4340.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4340.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="239" spans="5:7">
-      <c r="E239" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G239" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4341.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4341.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="240" spans="5:7">
-      <c r="E240" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G240" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4342.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4342.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="241" spans="5:7">
-      <c r="E241" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G241" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4343.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4343.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="242" spans="5:7">
-      <c r="E242" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G242" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4344.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4344.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="243" spans="5:7">
-      <c r="E243" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G243" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4346.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4346.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="244" spans="5:7">
-      <c r="E244" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G244" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4347.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4347.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="245" spans="5:7">
-      <c r="E245" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G245" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4349.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4349.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="246" spans="5:7">
-      <c r="E246" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G246" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4350.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4350.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="247" spans="5:7">
-      <c r="E247" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G247" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4351.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4351.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="248" spans="5:7">
-      <c r="E248" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G248" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4352.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4352.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-    <row r="249" spans="5:7">
-      <c r="E249" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G249" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;a href='http://seattlerules.com/media/houston2015/IMG_4353.JPG' target='_blank'&gt;&lt;img width='100' height='100' alt='houston2015photos' src='http://seattlerules.com/media/houston2015/IMG_4353.JPG'&gt;&lt;/a&gt;&lt;br /&gt;</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11276,37 +9245,191 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1098</v>
+        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1099</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>1100</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1101</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1102</v>
+        <v>851</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>1103</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>1104</v>
+        <v>853</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -11321,6 +9444,139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" t="str">
+        <f t="shared" ref="C1:C9" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <v>{'file':'01roxhillsessionssquidwerdthisword20151014.mp3','title':'01 Squidwerd This Word'},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'02roxhillsessionsgotwithit20151014.mp3','title':'02 Got With It'},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'03roxhillsessionssnookiewantincookie20151014.mp3','title':'03 Snookie Wantin Cookie'},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'04roxhillsessionseatthecheeriosbitch20151014.mp3','title':'04 Eat The Cheerios Bitch'},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B5" t="s">
+        <v>858</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'05roxhillsessionsdickinhernose20151014.mp3','title':'05 Dick In Her Nose'},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B6" t="s">
+        <v>859</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'06roxhillsessionseventhoughshegotnobush20151014.mp3','title':'06 Eventhough She Got No Bush'},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01roxhillsessions20151101.mp3','title':'01 This is Called Roshay'},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>861</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01roxhillsessions20151102.mp3','title':'02 Rabid Beauboon'},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>862</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{'file':'01roxhillsessions20151103.mp3','title':'03 Harry Potters My Bitch'},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -11769,7 +10025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -12129,7 +10385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -12569,7 +10825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -12713,7 +10969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H87"/>
   <sheetViews>
@@ -13793,7 +12049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -14093,7 +12349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
@@ -14848,726 +13104,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="76.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C1" t="str">
-        <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
-        <v>{'file':'01%20Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3','title':'01 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C58" si="0">"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
-        <v>{'file':'09%20Dont%20Fear%20the%20Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3','title':'02 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'10%20Goin%20Against%20Your%20Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3','title':'03 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'11%20Kicked%20It%20In%20The%20Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3','title':'04 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'12%20Center%20Of%20The%20Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3','title':'05 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'13%20Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3','title':'06 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B7" t="s">
-        <v>481</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'14%20Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3','title':'07 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'15%20How%20Soon%20Is%20Now%20-%20Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3','title':'08 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'02%20The%20Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3','title':'10 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B10" t="s">
-        <v>484</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'03%20Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3','title':'11 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'05%20Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3','title':'12 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>462</v>
-      </c>
-      <c r="B12" t="s">
-        <v>486</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'06%20Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3','title':'13 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>463</v>
-      </c>
-      <c r="B13" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'07%20Get%20a%20Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3','title':'14 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>464</v>
-      </c>
-      <c r="B14" t="s">
-        <v>488</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'08%20Made%20Up%20Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3','title':'15 Built to Spill - Bellingham - February 2nd, 2013'},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B15" t="s">
-        <v>489</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3','title':'01 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>321</v>
-      </c>
-      <c r="B16" t="s">
-        <v>490</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'02inthemorning-BuiltToSpill-Freemont-20140620.mp3','title':'02 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>322</v>
-      </c>
-      <c r="B17" t="s">
-        <v>491</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'03theplan-BuiltToSpill-Freemont-20140620.mp3','title':'03 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18" t="s">
-        <v>492</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'04strange-BuiltToSpill-Freemont-20140620.mp3','title':'04 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" t="s">
-        <v>493</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'05untrustable-BuiltToSpill-Freemont-20140620.mp3','title':'05 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>325</v>
-      </c>
-      <c r="B20" t="s">
-        <v>489</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'06else-BuiltToSpill-Freemont-20140620.mp3','title':'01 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>326</v>
-      </c>
-      <c r="B21" t="s">
-        <v>490</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'07messwithtime-BuiltToSpill-Freemont-20140620.mp3','title':'02 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>327</v>
-      </c>
-      <c r="B22" t="s">
-        <v>491</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3','title':'03 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>328</v>
-      </c>
-      <c r="B23" t="s">
-        <v>492</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'09getalife-BuiltToSpill-Freemont-20140620.mp3','title':'04 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>329</v>
-      </c>
-      <c r="B24" t="s">
-        <v>493</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'10joyride-BuiltToSpill-Freemont-20140620.mp3','title':'05 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>330</v>
-      </c>
-      <c r="B25" t="s">
-        <v>494</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'11stab-BuiltToSpill-Freemont-20140620.mp3','title':'06 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>331</v>
-      </c>
-      <c r="B26" t="s">
-        <v>495</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'12carrythezero-BuiltToSpill-Freemont-20140620.mp3','title':'07 Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>332</v>
-      </c>
-      <c r="B27" t="s">
-        <v>496</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'13youwereright-BuiltToSpill-Freemont-20140620.mp3','title':'01Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>333</v>
-      </c>
-      <c r="B28" t="s">
-        <v>497</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'14bigdipper-BuiltToSpill-Freemont-20140620.mp3','title':'10Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>334</v>
-      </c>
-      <c r="B29" t="s">
-        <v>498</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3','title':'11Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>335</v>
-      </c>
-      <c r="B30" t="s">
-        <v>499</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3','title':'12Built to Spill - Fremont - June 20th, 2014'},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>336</v>
-      </c>
-      <c r="B31" t="s">
-        <v>500</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'bts-center-BuiltToSpill-Geogetown-20130713.mp3','title':'01Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>337</v>
-      </c>
-      <c r="B32" t="s">
-        <v>501</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'bts-fly-BuiltToSpill-Geogetown-20130713.mp3','title':'02Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B33" t="s">
-        <v>502</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3','title':'03Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>339</v>
-      </c>
-      <c r="B34" t="s">
-        <v>503</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3','title':'04Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>340</v>
-      </c>
-      <c r="B35" t="s">
-        <v>504</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3','title':'05Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>341</v>
-      </c>
-      <c r="B36" t="s">
-        <v>505</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3','title':'06Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>342</v>
-      </c>
-      <c r="B37" t="s">
-        <v>506</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3','title':'07Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>343</v>
-      </c>
-      <c r="B38" t="s">
-        <v>507</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'bts-theplan-BuiltToSpill-Geogetown-20130713.mp3','title':'08Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>344</v>
-      </c>
-      <c r="B39" t="s">
-        <v>508</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'bts-untitled-BuiltToSpill-Geogetown-20130713.mp3','title':'09Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>345</v>
-      </c>
-      <c r="B40" t="s">
-        <v>509</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3','title':'10Built to Spill - Sub Pop 25th, Georgetown - July 13th, 2013'},</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>466</v>
-      </c>
-      <c r="B41" t="s">
-        <v>510</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'01%20Going%20Against%20Your%20Mind-BuiltToSpill-LiveatNeumos20131227.mp3','title':'01Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>467</v>
-      </c>
-      <c r="B42" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'02%20In%20The%20Morning-BuiltToSpill-LiveatNeumos20131227.mp3','title':'02Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>468</v>
-      </c>
-      <c r="B43" t="s">
-        <v>512</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'03%20Center%20of%20the%20Universe-BuiltToSpill-LiveatNeumos20131227.mp3','title':'03Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>469</v>
-      </c>
-      <c r="B44" t="s">
-        <v>513</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'04%20The%20Plan-BuiltToSpill-LiveatNeumos20131227.mp3','title':'04Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>470</v>
-      </c>
-      <c r="B45" t="s">
-        <v>514</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'05%20Planting%20Seeds-BuiltToSpill-LiveatNeumos20131227.mp3','title':'05Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>471</v>
-      </c>
-      <c r="B46" t="s">
-        <v>515</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'06%20Kicked%20It%20In%20the%20Sun-BuiltToSpill-LiveatNeumos20131227.mp3','title':'06Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>472</v>
-      </c>
-      <c r="B47" t="s">
-        <v>516</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'07%20Get%20a%20Life-BuiltToSpill-LiveatNeumos20131227.mp3','title':'07Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>473</v>
-      </c>
-      <c r="B48" t="s">
-        <v>517</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'08%20Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3','title':'08Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>474</v>
-      </c>
-      <c r="B49" t="s">
-        <v>518</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'09%20Here%20-%20Pavement-BuiltToSpill-LiveatNeumos20131227.mp3','title':'09Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>401</v>
-      </c>
-      <c r="B50" t="s">
-        <v>519</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'10%20You%20were%20right-BuiltToSpill-LiveatNeumos20131227.mp3','title':'10Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>409</v>
-      </c>
-      <c r="B51" t="s">
-        <v>520</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'11%20Conventional%20Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3','title':'11Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>411</v>
-      </c>
-      <c r="B52" t="s">
-        <v>521</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'12%20Heart%20-%20Doug%20Martsch-BuiltToSpill-LiveatNeumos20131227.mp3','title':'12Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>403</v>
-      </c>
-      <c r="B53" t="s">
-        <v>522</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'13%20Carry%20the%20Zero-BuiltToSpill-LiveatNeumos20131227.mp3','title':'13Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>412</v>
-      </c>
-      <c r="B54" t="s">
-        <v>523</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'14%20Instrumental%20-%20dont%20know-BuiltToSpill-LiveatNeumos20131227.mp3','title':'14Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>406</v>
-      </c>
-      <c r="B55" t="s">
-        <v>524</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'15%20I%20would%20hurt%20a%20fly-BuiltToSpill-LiveatNeumos20131227.mp3','title':'15Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>414</v>
-      </c>
-      <c r="B56" t="s">
-        <v>525</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'16%20Age%20of%20Consent%20-%20New%20Order-BuiltToSpill-LiveatNeumos20131227.mp3','title':'16Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>400</v>
-      </c>
-      <c r="B57" t="s">
-        <v>526</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'17%20How%20Soon%20is%20Now%20-%20The%20Smiths-BuiltToSpill-LiveatNeumos20131227.mp3','title':'17Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>407</v>
-      </c>
-      <c r="B58" t="s">
-        <v>527</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'18%20Car-BuiltToSpill-LiveatNeumos20131227.mp3','title':'18Built to Spill - Neumos, Seattle - December 27th, 2013'},</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="40" windowWidth="25040" windowHeight="15040" tabRatio="865"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1078">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -3219,6 +3219,54 @@
   </si>
   <si>
     <t>Sky Cries Mary - Neumos - 2015 - Video02</t>
+  </si>
+  <si>
+    <t>skycriesmaryneumos201508.mp3</t>
+  </si>
+  <si>
+    <t>skycriesmaryneumos201501.mp3</t>
+  </si>
+  <si>
+    <t>skycriesmaryneumos201502.mp3</t>
+  </si>
+  <si>
+    <t>skycriesmaryneumos201503.mp3</t>
+  </si>
+  <si>
+    <t>skycriesmaryneumos201504.mp3</t>
+  </si>
+  <si>
+    <t>skycriesmaryneumos201505.mp3</t>
+  </si>
+  <si>
+    <t>skycriesmaryneumos201506.mp3</t>
+  </si>
+  <si>
+    <t>skycriesmaryneumos201507.mp3</t>
+  </si>
+  <si>
+    <t>Sky Cries Mary - Neumos - 2015 - Second Set 01</t>
+  </si>
+  <si>
+    <t>Sky Cries Mary - Neumos - 2015 - Second Set 02</t>
+  </si>
+  <si>
+    <t>Sky Cries Mary - Neumos - 2015 - Second Set 03</t>
+  </si>
+  <si>
+    <t>Sky Cries Mary - Neumos - 2015 - Second Set 04</t>
+  </si>
+  <si>
+    <t>Sky Cries Mary - Neumos - 2015 - Second Set 05</t>
+  </si>
+  <si>
+    <t>Sky Cries Mary - Neumos - 2015 - Second Set 06</t>
+  </si>
+  <si>
+    <t>Sky Cries Mary - Neumos - 2015 - Second Set 07</t>
+  </si>
+  <si>
+    <t>Sky Cries Mary - Neumos - 2015 - Second Set 08</t>
   </si>
 </sst>
 </file>
@@ -3274,7 +3322,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="271">
+  <cellStyleXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3353,6 +3401,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3555,7 +3605,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="271">
+  <cellStyles count="273">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3787,6 +3837,8 @@
     <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4155,16 +4207,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C60"/>
+      <selection activeCell="C62" sqref="C62:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4679,7 +4731,7 @@
         <v>790</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ref="C44:C60" si="1">"{'file':'"&amp;A44&amp;"','title':'"&amp;B44&amp;"'},"</f>
+        <f t="shared" ref="C44:C69" si="1">"{'file':'"&amp;A44&amp;"','title':'"&amp;B44&amp;"'},"</f>
         <v>{'file':'ZOOM0038.jpg','title':'Last Gasp 1'},</v>
       </c>
     </row>
@@ -4862,6 +4914,109 @@
       <c r="C60" t="str">
         <f t="shared" si="1"/>
         <v>{'file':'IMG_4519.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video02'},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'skycriesmaryneumos201501.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 01'},</v>
+      </c>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'skycriesmaryneumos201502.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 02'},</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'skycriesmaryneumos201503.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 03'},</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'skycriesmaryneumos201504.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 04'},</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'skycriesmaryneumos201505.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 05'},</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'skycriesmaryneumos201506.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 06'},</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'skycriesmaryneumos201507.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 07'},</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'skycriesmaryneumos201508.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 08'},</v>
       </c>
     </row>
   </sheetData>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="40" windowWidth="25040" windowHeight="15040" tabRatio="865"/>
   </bookViews>
   <sheets>
-    <sheet name="skycriesmaryJSON" sheetId="24" r:id="rId1"/>
+    <sheet name="file title JSON" sheetId="24" r:id="rId1"/>
     <sheet name="image anchors" sheetId="21" r:id="rId2"/>
     <sheet name="roxhillJSON" sheetId="19" r:id="rId3"/>
     <sheet name="zekeJSON" sheetId="4" r:id="rId4"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="1104">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -3267,6 +3267,84 @@
   </si>
   <si>
     <t>Sky Cries Mary - Neumos - 2015 - Second Set 08</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Crocodile</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>R2D2</t>
+  </si>
+  <si>
+    <t>I'm tired of these motherfuckin' snakes on this motherfuckin' plane!</t>
+  </si>
+  <si>
+    <t>Storm Trooper</t>
+  </si>
+  <si>
+    <t>You were the chosen one!</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>gamemedia/cats.png</t>
+  </si>
+  <si>
+    <t>gamemedia/chickens.png</t>
+  </si>
+  <si>
+    <t>gamemedia/crocodiles.png</t>
+  </si>
+  <si>
+    <t>gamemedia/darthvader.png</t>
+  </si>
+  <si>
+    <t>gamemedia/dogs.png</t>
+  </si>
+  <si>
+    <t>gamemedia/lamblambs.png</t>
+  </si>
+  <si>
+    <t>gamemedia/lions.png</t>
+  </si>
+  <si>
+    <t>gamemedia/queen.png</t>
+  </si>
+  <si>
+    <t>gamemedia/r2d2.png</t>
+  </si>
+  <si>
+    <t>gamemedia/snakesonaplane.png</t>
+  </si>
+  <si>
+    <t>gamemedia/stormtrooper.png</t>
+  </si>
+  <si>
+    <t>gamemedia/thechosenone.png</t>
+  </si>
+  <si>
+    <t>gamemedia/yoda.png</t>
   </si>
 </sst>
 </file>
@@ -3322,7 +3400,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="273">
+  <cellStyleXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3401,6 +3479,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3605,7 +3687,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="273">
+  <cellStyles count="277">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3839,6 +3921,10 @@
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4207,10 +4293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:C69"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4731,7 +4817,7 @@
         <v>790</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ref="C44:C69" si="1">"{'file':'"&amp;A44&amp;"','title':'"&amp;B44&amp;"'},"</f>
+        <f t="shared" ref="C44:C83" si="1">"{'file':'"&amp;A44&amp;"','title':'"&amp;B44&amp;"'},"</f>
         <v>{'file':'ZOOM0038.jpg','title':'Last Gasp 1'},</v>
       </c>
     </row>
@@ -4955,7 +5041,7 @@
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>1066</v>
       </c>
@@ -4968,7 +5054,7 @@
       </c>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>1067</v>
       </c>
@@ -4981,7 +5067,7 @@
       </c>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>1068</v>
       </c>
@@ -4994,7 +5080,7 @@
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>1069</v>
       </c>
@@ -5007,7 +5093,7 @@
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>1062</v>
       </c>
@@ -5018,6 +5104,174 @@
         <f t="shared" si="1"/>
         <v>{'file':'skycriesmaryneumos201508.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 08'},</v>
       </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/cats.png','title':'Cat'},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/chickens.png','title':'Chicken'},</v>
+      </c>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/crocodiles.png','title':'Crocodile'},</v>
+      </c>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/darthvader.png','title':'Darth Vader'},</v>
+      </c>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/dogs.png','title':'Dog'},</v>
+      </c>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/lamblambs.png','title':'Lamb'},</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/lions.png','title':'Lion'},</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/queen.png','title':'Queen'},</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/r2d2.png','title':'R2D2'},</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/snakesonaplane.png','title':'I'm tired of these motherfuckin' snakes on this motherfuckin' plane!'},</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/stormtrooper.png','title':'Storm Trooper'},</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/thechosenone.png','title':'You were the chosen one!'},</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/yoda.png','title':'Yoda'},</v>
+      </c>
+      <c r="H83" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -3296,9 +3296,6 @@
     <t>R2D2</t>
   </si>
   <si>
-    <t>I'm tired of these motherfuckin' snakes on this motherfuckin' plane!</t>
-  </si>
-  <si>
     <t>Storm Trooper</t>
   </si>
   <si>
@@ -3345,6 +3342,9 @@
   </si>
   <si>
     <t>gamemedia/yoda.png</t>
+  </si>
+  <si>
+    <t>Im tired of these motherfuckin stuffed animals on this motherfuckin game!</t>
   </si>
 </sst>
 </file>
@@ -3400,7 +3400,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="277">
+  <cellStyleXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3479,6 +3479,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3687,7 +3692,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="277">
+  <cellStyles count="282">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3925,6 +3930,11 @@
     <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4293,10 +4303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4809,469 +4819,469 @@
         <v>{'file':'IMG_4558.JPG','title':'Sky Cries Mary - Neumos - 2015 - 042'},</v>
       </c>
     </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>666</v>
+      </c>
+      <c r="B43" t="s">
+        <v>790</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" ref="C43:C73" si="1">"{'file':'"&amp;A43&amp;"','title':'"&amp;B43&amp;"'},"</f>
+        <v>{'file':'ZOOM0038.jpg','title':'Last Gasp 1'},</v>
+      </c>
+    </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B44" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ref="C44:C83" si="1">"{'file':'"&amp;A44&amp;"','title':'"&amp;B44&amp;"'},"</f>
-        <v>{'file':'ZOOM0038.jpg','title':'Last Gasp 1'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0039.jpg','title':'Last Gasp 2'},</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B45" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0039.jpg','title':'Last Gasp 2'},</v>
+        <v>{'file':'ZOOM0040.jpg','title':'Last Gasp 3'},</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B46" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0040.jpg','title':'Last Gasp 3'},</v>
+        <v>{'file':'ZOOM0041.jpg','title':'Last Gasp 4'},</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B47" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0041.jpg','title':'Last Gasp 4'},</v>
+        <v>{'file':'ZOOM0042.jpg','title':'Last Gasp 5'},</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B48" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0042.jpg','title':'Last Gasp 5'},</v>
+        <v>{'file':'ZOOM0043.jpg','title':'Last Gasp 6'},</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B49" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0043.jpg','title':'Last Gasp 6'},</v>
+        <v>{'file':'ZOOM0044.jpg','title':'Last Gasp 7'},</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B50" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0044.jpg','title':'Last Gasp 7'},</v>
+        <v>{'file':'ZOOM0045.jpg','title':'Last Gasp 8'},</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B51" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0045.jpg','title':'Last Gasp 8'},</v>
+        <v>{'file':'ZOOM0046.jpg','title':'Last Gasp 9'},</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B52" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0046.jpg','title':'Last Gasp 9'},</v>
+        <v>{'file':'ZOOM0047.jpg','title':'Last Gasp 10'},</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B53" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0047.jpg','title':'Last Gasp 10'},</v>
+        <v>{'file':'ZOOM0048.jpg','title':'Last Gasp 11'},</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B54" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0048.jpg','title':'Last Gasp 11'},</v>
+        <v>{'file':'ZOOM0049.jpg','title':'Last Gasp 12'},</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B55" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0049.jpg','title':'Last Gasp 12'},</v>
+        <v>{'file':'ZOOM0050.jpg','title':'Last Gasp 13'},</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B56" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0050.jpg','title':'Last Gasp 13'},</v>
+        <v>{'file':'ZOOM0051.jpg','title':'Last Gasp 14'},</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>679</v>
-      </c>
-      <c r="B57" t="s">
-        <v>803</v>
+        <v>1058</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>1060</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0051.jpg','title':'Last Gasp 14'},</v>
+        <v>{'file':'IMG_4516.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video01'},</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'IMG_4519.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video02'},</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'IMG_4516.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video01'},</v>
+        <v>{'file':'skycriesmaryneumos201501.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 01'},</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'IMG_4519.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video02'},</v>
-      </c>
+        <v>{'file':'skycriesmaryneumos201502.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 02'},</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>{'file':'skycriesmaryneumos201503.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 03'},</v>
+      </c>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201501.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 01'},</v>
+        <v>{'file':'skycriesmaryneumos201504.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 04'},</v>
       </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201502.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 02'},</v>
+        <v>{'file':'skycriesmaryneumos201505.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 05'},</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201503.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 03'},</v>
+        <v>{'file':'skycriesmaryneumos201506.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 06'},</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201504.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 04'},</v>
+        <v>{'file':'skycriesmaryneumos201507.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 07'},</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201505.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 05'},</v>
-      </c>
-      <c r="E66" s="4"/>
+        <v>{'file':'skycriesmaryneumos201508.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 08'},</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>1068</v>
+        <v>1093</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201506.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 06'},</v>
-      </c>
-      <c r="E67" s="4"/>
+        <f>"{'file':'"&amp;A67&amp;"','title':'"&amp;B67&amp;"'},"</f>
+        <v>{'file':'gamemedia/darthvader.png','title':'Darth Vader'},</v>
+      </c>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>1069</v>
+        <v>1097</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1076</v>
+        <v>1085</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201507.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 07'},</v>
-      </c>
-      <c r="E68" s="4"/>
+        <v>{'file':'gamemedia/queen.png','title':'Queen'},</v>
+      </c>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>1062</v>
+        <v>1099</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1077</v>
+        <v>1103</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201508.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 08'},</v>
-      </c>
+        <v>{'file':'gamemedia/snakesonaplane.png','title':'Im tired of these motherfuckin stuffed animals on this motherfuckin game!'},</v>
+      </c>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C70" t="str">
+        <f>"{'file':'"&amp;A70&amp;"','title':'"&amp;B70&amp;"'},"</f>
+        <v>{'file':'gamemedia/r2d2.png','title':'R2D2'},</v>
+      </c>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>1091</v>
+        <v>1100</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/cats.png','title':'Cat'},</v>
-      </c>
+        <v>{'file':'gamemedia/stormtrooper.png','title':'Storm Trooper'},</v>
+      </c>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>1092</v>
+        <v>1101</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1079</v>
+        <v>1088</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/chickens.png','title':'Chicken'},</v>
+        <v>{'file':'gamemedia/thechosenone.png','title':'You were the chosen one!'},</v>
       </c>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/crocodiles.png','title':'Crocodile'},</v>
+        <v>{'file':'gamemedia/yoda.png','title':'Yoda'},</v>
       </c>
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/darthvader.png','title':'Darth Vader'},</v>
-      </c>
-      <c r="H74" s="4"/>
+        <f>"{'file':'"&amp;A74&amp;"','title':'"&amp;B74&amp;"'},"</f>
+        <v>{'file':'gamemedia/cats.png','title':'Cat'},</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/dogs.png','title':'Dog'},</v>
+        <f>"{'file':'"&amp;A75&amp;"','title':'"&amp;B75&amp;"'},"</f>
+        <v>{'file':'gamemedia/chickens.png','title':'Chicken'},</v>
       </c>
       <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/lamblambs.png','title':'Lamb'},</v>
+        <f>"{'file':'"&amp;A76&amp;"','title':'"&amp;B76&amp;"'},"</f>
+        <v>{'file':'gamemedia/crocodiles.png','title':'Crocodile'},</v>
       </c>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/lions.png','title':'Lion'},</v>
+        <f>"{'file':'"&amp;A77&amp;"','title':'"&amp;B77&amp;"'},"</f>
+        <v>{'file':'gamemedia/dogs.png','title':'Dog'},</v>
       </c>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/queen.png','title':'Queen'},</v>
+        <f>"{'file':'"&amp;A78&amp;"','title':'"&amp;B78&amp;"'},"</f>
+        <v>{'file':'gamemedia/lamblambs.png','title':'Lamb'},</v>
       </c>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/r2d2.png','title':'R2D2'},</v>
+        <f>"{'file':'"&amp;A79&amp;"','title':'"&amp;B79&amp;"'},"</f>
+        <v>{'file':'gamemedia/lions.png','title':'Lion'},</v>
       </c>
       <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/snakesonaplane.png','title':'I'm tired of these motherfuckin' snakes on this motherfuckin' plane!'},</v>
-      </c>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/stormtrooper.png','title':'Storm Trooper'},</v>
-      </c>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/thechosenone.png','title':'You were the chosen one!'},</v>
-      </c>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/yoda.png','title':'Yoda'},</v>
-      </c>
-      <c r="H83" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="40" windowWidth="25040" windowHeight="15040" tabRatio="865"/>
+    <workbookView xWindow="25700" yWindow="160" windowWidth="37980" windowHeight="20440" tabRatio="865"/>
   </bookViews>
   <sheets>
     <sheet name="file title JSON" sheetId="24" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1118">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -3345,6 +3345,48 @@
   </si>
   <si>
     <t>Im tired of these motherfuckin stuffed animals on this motherfuckin game!</t>
+  </si>
+  <si>
+    <t>Bats Do It.mp3</t>
+  </si>
+  <si>
+    <t>Cannabalistic Attack.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delirious.mp3    </t>
+  </si>
+  <si>
+    <t>God Knowledge.mp3</t>
+  </si>
+  <si>
+    <t>Hella Buckarooni.mp3</t>
+  </si>
+  <si>
+    <t>Hop Off This Beat.mp3</t>
+  </si>
+  <si>
+    <t>Just Beau By Himself.mp3</t>
+  </si>
+  <si>
+    <t>Bats Do It</t>
+  </si>
+  <si>
+    <t>Cannibalistic Attack</t>
+  </si>
+  <si>
+    <t>Delirious</t>
+  </si>
+  <si>
+    <t>God Knowledge</t>
+  </si>
+  <si>
+    <t>Hella Buckarooni</t>
+  </si>
+  <si>
+    <t>Hop Off This Beat</t>
+  </si>
+  <si>
+    <t>Just Beau By Himself</t>
   </si>
 </sst>
 </file>
@@ -3400,7 +3442,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="282">
+  <cellStyleXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3479,6 +3521,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3692,7 +3736,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="282">
+  <cellStyles count="284">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3935,6 +3979,8 @@
     <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4303,10 +4349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5214,7 +5260,7 @@
         <v>1078</v>
       </c>
       <c r="C74" t="str">
-        <f>"{'file':'"&amp;A74&amp;"','title':'"&amp;B74&amp;"'},"</f>
+        <f t="shared" ref="C74:C86" si="2">"{'file':'"&amp;A74&amp;"','title':'"&amp;B74&amp;"'},"</f>
         <v>{'file':'gamemedia/cats.png','title':'Cat'},</v>
       </c>
     </row>
@@ -5226,7 +5272,7 @@
         <v>1079</v>
       </c>
       <c r="C75" t="str">
-        <f>"{'file':'"&amp;A75&amp;"','title':'"&amp;B75&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'gamemedia/chickens.png','title':'Chicken'},</v>
       </c>
       <c r="H75" s="4"/>
@@ -5239,7 +5285,7 @@
         <v>1080</v>
       </c>
       <c r="C76" t="str">
-        <f>"{'file':'"&amp;A76&amp;"','title':'"&amp;B76&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'gamemedia/crocodiles.png','title':'Crocodile'},</v>
       </c>
       <c r="H76" s="4"/>
@@ -5252,7 +5298,7 @@
         <v>1082</v>
       </c>
       <c r="C77" t="str">
-        <f>"{'file':'"&amp;A77&amp;"','title':'"&amp;B77&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'gamemedia/dogs.png','title':'Dog'},</v>
       </c>
       <c r="H77" s="4"/>
@@ -5265,7 +5311,7 @@
         <v>1083</v>
       </c>
       <c r="C78" t="str">
-        <f>"{'file':'"&amp;A78&amp;"','title':'"&amp;B78&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'gamemedia/lamblambs.png','title':'Lamb'},</v>
       </c>
       <c r="H78" s="4"/>
@@ -5278,10 +5324,94 @@
         <v>1084</v>
       </c>
       <c r="C79" t="str">
-        <f>"{'file':'"&amp;A79&amp;"','title':'"&amp;B79&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'gamemedia/lions.png','title':'Lion'},</v>
       </c>
       <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'Bats Do It.mp3','title':'Bats Do It'},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'Cannabalistic Attack.mp3','title':'Cannibalistic Attack'},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'Delirious.mp3    ','title':'Delirious'},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'God Knowledge.mp3','title':'God Knowledge'},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'Hella Buckarooni.mp3','title':'Hella Buckarooni'},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'Hop Off This Beat.mp3','title':'Hop Off This Beat'},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'Just Beau By Himself.mp3','title':'Just Beau By Himself'},</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1156">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -3387,6 +3387,120 @@
   </si>
   <si>
     <t>Just Beau By Himself</t>
+  </si>
+  <si>
+    <t>airplanejivetalkersfoodsickwithjunecleaver.mp4</t>
+  </si>
+  <si>
+    <t>airplanejivetalkers.mp4</t>
+  </si>
+  <si>
+    <t>Airplane Movie -Jive Talkers</t>
+  </si>
+  <si>
+    <t>Airplane Movie -Jive Talkers Order Food</t>
+  </si>
+  <si>
+    <t>Airplane Movie -Jive Talkers Sick with June Cleaver</t>
+  </si>
+  <si>
+    <t>airplanejivetalkersorderfood.mp4</t>
+  </si>
+  <si>
+    <t>01 Here To Fall.mp3</t>
+  </si>
+  <si>
+    <t>03 By Twos.mp3</t>
+  </si>
+  <si>
+    <t>04 Nothing To Hide.mp3</t>
+  </si>
+  <si>
+    <t>02 Avalon Or Someone Very Similar.mp3</t>
+  </si>
+  <si>
+    <t>05 Periodically Triple Or Double.mp3</t>
+  </si>
+  <si>
+    <t>07 Im On My Way.mp3</t>
+  </si>
+  <si>
+    <t>08 When Its Dark.mp3</t>
+  </si>
+  <si>
+    <t>09 All Your Secrets.mp3</t>
+  </si>
+  <si>
+    <t>10 More Stars Than There Are In Heaven.mp3</t>
+  </si>
+  <si>
+    <t>11 The Fireside.mp3</t>
+  </si>
+  <si>
+    <t>IMG_4599.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4659.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4675.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4575.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4691.JPG</t>
+  </si>
+  <si>
+    <t>Here to Fall</t>
+  </si>
+  <si>
+    <t>Avalon Or Someone Very Similar</t>
+  </si>
+  <si>
+    <t>By Twos</t>
+  </si>
+  <si>
+    <t>Nothing to Hide</t>
+  </si>
+  <si>
+    <t>Periodically Triple Or Double</t>
+  </si>
+  <si>
+    <t>If Its True</t>
+  </si>
+  <si>
+    <t>Im On My Way</t>
+  </si>
+  <si>
+    <t>When Its Dark</t>
+  </si>
+  <si>
+    <t>All Your Secrets</t>
+  </si>
+  <si>
+    <t>More Stars Than There Are In Heaven</t>
+  </si>
+  <si>
+    <t>The Fireside</t>
+  </si>
+  <si>
+    <t>Leaf Blower</t>
+  </si>
+  <si>
+    <t>Good Luck Kitteh!</t>
+  </si>
+  <si>
+    <t>Good Boy!</t>
+  </si>
+  <si>
+    <t>Kitteh Mehowh</t>
+  </si>
+  <si>
+    <t>Daffodil</t>
+  </si>
+  <si>
+    <t>06 If Its True.mp3</t>
   </si>
 </sst>
 </file>
@@ -3442,7 +3556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="284">
+  <cellStyleXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3521,6 +3635,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3736,7 +3867,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="284">
+  <cellStyles count="301">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3981,6 +4112,23 @@
     <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4349,15 +4497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101:C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
     <col min="2" max="2" width="58.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5260,7 +5408,7 @@
         <v>1078</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ref="C74:C86" si="2">"{'file':'"&amp;A74&amp;"','title':'"&amp;B74&amp;"'},"</f>
+        <f t="shared" ref="C74:C105" si="2">"{'file':'"&amp;A74&amp;"','title':'"&amp;B74&amp;"'},"</f>
         <v>{'file':'gamemedia/cats.png','title':'Cat'},</v>
       </c>
     </row>
@@ -5411,6 +5559,234 @@
       <c r="C86" t="str">
         <f t="shared" si="2"/>
         <v>{'file':'Just Beau By Himself.mp3','title':'Just Beau By Himself'},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'airplanejivetalkersfoodsickwithjunecleaver.mp4','title':'Airplane Movie -Jive Talkers Sick with June Cleaver'},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'airplanejivetalkers.mp4','title':'Airplane Movie -Jive Talkers'},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'airplanejivetalkersorderfood.mp4','title':'Airplane Movie -Jive Talkers Order Food'},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'01 Here To Fall.mp3','title':'Here to Fall'},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'02 Avalon Or Someone Very Similar.mp3','title':'Avalon Or Someone Very Similar'},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'03 By Twos.mp3','title':'By Twos'},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'04 Nothing To Hide.mp3','title':'Nothing to Hide'},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'05 Periodically Triple Or Double.mp3','title':'Periodically Triple Or Double'},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'06 If Its True.mp3','title':'If Its True'},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'07 Im On My Way.mp3','title':'Im On My Way'},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'08 When Its Dark.mp3','title':'When Its Dark'},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'09 All Your Secrets.mp3','title':'All Your Secrets'},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'10 More Stars Than There Are In Heaven.mp3','title':'More Stars Than There Are In Heaven'},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'11 The Fireside.mp3','title':'The Fireside'},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4599.JPG','title':'Kitteh Mehowh'},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4659.JPG','title':'Daffodil'},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4675.JPG','title':'Good Luck Kitteh!'},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4575.JPG','title':'Good Boy!'},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4691.JPG','title':'Leaf Blower'},</v>
       </c>
     </row>
   </sheetData>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25700" yWindow="160" windowWidth="37980" windowHeight="20440" tabRatio="865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="865"/>
   </bookViews>
   <sheets>
     <sheet name="file title JSON" sheetId="24" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1164">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -3501,6 +3501,30 @@
   </si>
   <si>
     <t>06 If Its True.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IMG_0054rotated.m4v</t>
+  </si>
+  <si>
+    <t>IMG_0055.m4v</t>
+  </si>
+  <si>
+    <t>IMG_0056.m4v</t>
+  </si>
+  <si>
+    <t>IMG_0059.m4v</t>
+  </si>
+  <si>
+    <t>IMG_0069rotated.m4v</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jim-marginal-overthelight-march2015.mp4</t>
+  </si>
+  <si>
+    <t>Marginal - Jim over the light</t>
+  </si>
+  <si>
+    <t>Marginal?</t>
   </si>
 </sst>
 </file>
@@ -3556,7 +3580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="301">
+  <cellStyleXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3635,6 +3659,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3867,7 +3892,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="301">
+  <cellStyles count="302">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4129,6 +4154,7 @@
     <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4497,10 +4523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101:C105"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5408,7 +5434,7 @@
         <v>1078</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ref="C74:C105" si="2">"{'file':'"&amp;A74&amp;"','title':'"&amp;B74&amp;"'},"</f>
+        <f t="shared" ref="C74:C111" si="2">"{'file':'"&amp;A74&amp;"','title':'"&amp;B74&amp;"'},"</f>
         <v>{'file':'gamemedia/cats.png','title':'Cat'},</v>
       </c>
     </row>
@@ -5787,6 +5813,78 @@
       <c r="C105" t="str">
         <f t="shared" si="2"/>
         <v>{'file':'IMG_4691.JPG','title':'Leaf Blower'},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':' IMG_0054rotated.m4v','title':'Marginal?'},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_0055.m4v','title':'Marginal?'},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_0056.m4v','title':'Marginal?'},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_0059.m4v','title':'Marginal?'},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_0069rotated.m4v','title':'Marginal?'},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="2"/>
+        <v>{'file':' jim-marginal-overthelight-march2015.mp4','title':'Marginal - Jim over the light'},</v>
       </c>
     </row>
   </sheetData>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="865"/>
   </bookViews>
   <sheets>
     <sheet name="file title JSON" sheetId="24" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1361">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -2723,366 +2723,126 @@
     <t>IMG_4504.JPG</t>
   </si>
   <si>
-    <t>310KB</t>
-  </si>
-  <si>
-    <t>310.1KB/s</t>
-  </si>
-  <si>
     <t>IMG_4505.JPG</t>
   </si>
   <si>
-    <t>302KB</t>
-  </si>
-  <si>
-    <t>302.0KB/s</t>
-  </si>
-  <si>
     <t>IMG_4507.JPG</t>
   </si>
   <si>
-    <t>324KB</t>
-  </si>
-  <si>
-    <t>324.0KB/s</t>
-  </si>
-  <si>
     <t>IMG_4509.JPG</t>
   </si>
   <si>
-    <t>331KB</t>
-  </si>
-  <si>
-    <t>331.3KB/s</t>
-  </si>
-  <si>
     <t>IMG_4510.JPG</t>
   </si>
   <si>
-    <t>301KB</t>
-  </si>
-  <si>
-    <t>301.2KB/s</t>
-  </si>
-  <si>
     <t>IMG_4512.JPG</t>
   </si>
   <si>
-    <t>332KB</t>
-  </si>
-  <si>
-    <t>331.6KB/s</t>
-  </si>
-  <si>
     <t>IMG_4513.JPG</t>
   </si>
   <si>
-    <t>307KB</t>
-  </si>
-  <si>
-    <t>307.5KB/s</t>
-  </si>
-  <si>
     <t>IMG_4514.JPG</t>
   </si>
   <si>
-    <t>327KB</t>
-  </si>
-  <si>
-    <t>326.8KB/s</t>
-  </si>
-  <si>
     <t>IMG_4515.JPG</t>
   </si>
   <si>
-    <t>385KB</t>
-  </si>
-  <si>
-    <t>385.2KB/s</t>
-  </si>
-  <si>
     <t>IMG_4520.JPG</t>
   </si>
   <si>
-    <t>335KB</t>
-  </si>
-  <si>
-    <t>334.7KB/s</t>
-  </si>
-  <si>
     <t>IMG_4521.JPG</t>
   </si>
   <si>
-    <t>372KB</t>
-  </si>
-  <si>
-    <t>372.1KB/s</t>
-  </si>
-  <si>
     <t>IMG_4522.JPG</t>
   </si>
   <si>
-    <t>410KB</t>
-  </si>
-  <si>
-    <t>410.1KB/s</t>
-  </si>
-  <si>
     <t>IMG_4523.JPG</t>
   </si>
   <si>
-    <t>383KB</t>
-  </si>
-  <si>
-    <t>382.9KB/s</t>
-  </si>
-  <si>
     <t>IMG_4524.JPG</t>
   </si>
   <si>
-    <t>469KB</t>
-  </si>
-  <si>
-    <t>469.4KB/s</t>
-  </si>
-  <si>
     <t>IMG_4525.JPG</t>
   </si>
   <si>
-    <t>315KB</t>
-  </si>
-  <si>
-    <t>314.9KB/s</t>
-  </si>
-  <si>
     <t>IMG_4526.JPG</t>
   </si>
   <si>
-    <t>304KB</t>
-  </si>
-  <si>
-    <t>303.9KB/s</t>
-  </si>
-  <si>
     <t>IMG_4527.JPG</t>
   </si>
   <si>
-    <t>282KB</t>
-  </si>
-  <si>
-    <t>281.7KB/s</t>
-  </si>
-  <si>
     <t>IMG_4528.JPG</t>
   </si>
   <si>
-    <t>304.1KB/s</t>
-  </si>
-  <si>
     <t>IMG_4529.JPG</t>
   </si>
   <si>
-    <t>261KB</t>
-  </si>
-  <si>
-    <t>261.4KB/s</t>
-  </si>
-  <si>
     <t>IMG_4530.JPG</t>
   </si>
   <si>
-    <t>345KB</t>
-  </si>
-  <si>
-    <t>345.4KB/s</t>
-  </si>
-  <si>
     <t>IMG_4531.JPG</t>
   </si>
   <si>
-    <t>344KB</t>
-  </si>
-  <si>
-    <t>344.3KB/s</t>
-  </si>
-  <si>
     <t>IMG_4532.JPG</t>
   </si>
   <si>
-    <t>302.4KB/s</t>
-  </si>
-  <si>
     <t>IMG_4533.JPG</t>
   </si>
   <si>
-    <t>286KB</t>
-  </si>
-  <si>
-    <t>285.8KB/s</t>
-  </si>
-  <si>
     <t>IMG_4534.JPG</t>
   </si>
   <si>
-    <t>270KB</t>
-  </si>
-  <si>
-    <t>270.1KB/s</t>
-  </si>
-  <si>
     <t>IMG_4535.JPG</t>
   </si>
   <si>
-    <t>272KB</t>
-  </si>
-  <si>
-    <t>271.9KB/s</t>
-  </si>
-  <si>
     <t>IMG_4536.JPG</t>
   </si>
   <si>
-    <t>260KB</t>
-  </si>
-  <si>
-    <t>259.9KB/s</t>
-  </si>
-  <si>
     <t>IMG_4537.JPG</t>
   </si>
   <si>
-    <t>257KB</t>
-  </si>
-  <si>
-    <t>257.2KB/s</t>
-  </si>
-  <si>
     <t>IMG_4539.JPG</t>
   </si>
   <si>
-    <t>296KB</t>
-  </si>
-  <si>
-    <t>295.8KB/s</t>
-  </si>
-  <si>
     <t>IMG_4540.JPG</t>
   </si>
   <si>
-    <t>290KB</t>
-  </si>
-  <si>
-    <t>289.6KB/s</t>
-  </si>
-  <si>
     <t>IMG_4541.JPG</t>
   </si>
   <si>
-    <t>284KB</t>
-  </si>
-  <si>
-    <t>283.7KB/s</t>
-  </si>
-  <si>
     <t>IMG_4542.JPG</t>
   </si>
   <si>
-    <t>355KB</t>
-  </si>
-  <si>
-    <t>354.8KB/s</t>
-  </si>
-  <si>
     <t>IMG_4543.JPG</t>
   </si>
   <si>
-    <t>334KB</t>
-  </si>
-  <si>
-    <t>333.5KB/s</t>
-  </si>
-  <si>
     <t>IMG_4544.JPG</t>
   </si>
   <si>
-    <t>322KB</t>
-  </si>
-  <si>
-    <t>322.4KB/s</t>
-  </si>
-  <si>
     <t>IMG_4545.JPG</t>
   </si>
   <si>
-    <t>323KB</t>
-  </si>
-  <si>
-    <t>322.6KB/s</t>
-  </si>
-  <si>
     <t>IMG_4546.JPG</t>
   </si>
   <si>
-    <t>311KB</t>
-  </si>
-  <si>
-    <t>310.6KB/s</t>
-  </si>
-  <si>
     <t>IMG_4547.JPG</t>
   </si>
   <si>
-    <t>326KB</t>
-  </si>
-  <si>
-    <t>326.2KB/s</t>
-  </si>
-  <si>
     <t>IMG_4548.JPG</t>
   </si>
   <si>
-    <t>288KB</t>
-  </si>
-  <si>
-    <t>287.8KB/s</t>
-  </si>
-  <si>
     <t>IMG_4549.JPG</t>
   </si>
   <si>
-    <t>258KB</t>
-  </si>
-  <si>
-    <t>258.0KB/s</t>
-  </si>
-  <si>
     <t>IMG_4551.JPG</t>
   </si>
   <si>
-    <t>274KB</t>
-  </si>
-  <si>
-    <t>273.8KB/s</t>
-  </si>
-  <si>
     <t>IMG_4553.JPG</t>
   </si>
   <si>
-    <t>234KB</t>
-  </si>
-  <si>
-    <t>233.7KB/s</t>
-  </si>
-  <si>
     <t>IMG_4554.JPG</t>
   </si>
   <si>
-    <t>259KB</t>
-  </si>
-  <si>
-    <t>259.5KB/s</t>
-  </si>
-  <si>
     <t>Sky Cries Mary - Neumos - 2015 - 001</t>
   </si>
   <si>
@@ -3525,6 +3285,837 @@
   </si>
   <si>
     <t>Marginal?</t>
+  </si>
+  <si>
+    <t>-rw-r--r--@</t>
+  </si>
+  <si>
+    <t>jameskarasim</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>IMG_4693.m4v</t>
+  </si>
+  <si>
+    <t>IMG_4695.m4v</t>
+  </si>
+  <si>
+    <t>IMG_4699.m4v</t>
+  </si>
+  <si>
+    <t>IMG_4701.m4v</t>
+  </si>
+  <si>
+    <t>IMG_4818.m4v</t>
+  </si>
+  <si>
+    <t>IMG_4819.m4v</t>
+  </si>
+  <si>
+    <t>IMG_4837.m4v</t>
+  </si>
+  <si>
+    <t>IMG_4838.m4v</t>
+  </si>
+  <si>
+    <t>IMG_4839.m4v</t>
+  </si>
+  <si>
+    <t>IMG_4841.m4v</t>
+  </si>
+  <si>
+    <t>IMG_4843.m4v</t>
+  </si>
+  <si>
+    <t>NGNQ0173.m4v</t>
+  </si>
+  <si>
+    <t>Video 01</t>
+  </si>
+  <si>
+    <t>Video 02</t>
+  </si>
+  <si>
+    <t>Video 03</t>
+  </si>
+  <si>
+    <t>Video 04</t>
+  </si>
+  <si>
+    <t>Video 05</t>
+  </si>
+  <si>
+    <t>Video 06</t>
+  </si>
+  <si>
+    <t>Video 07</t>
+  </si>
+  <si>
+    <t>Video 08</t>
+  </si>
+  <si>
+    <t>Video 09</t>
+  </si>
+  <si>
+    <t>Video 10</t>
+  </si>
+  <si>
+    <t>Video 11</t>
+  </si>
+  <si>
+    <t>Video 12</t>
+  </si>
+  <si>
+    <t>./marginal/jim-marginal-overthelight-march2015.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0098.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0101.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0103.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0106.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0109.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0113.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0116.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0117.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0119.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0120.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/IMG_0127.mp4</t>
+  </si>
+  <si>
+    <t>./wxpfl/wxpfl-greenwood-201411.mp4</t>
+  </si>
+  <si>
+    <t>./kaylacheering/kayla_cheerleading_20150215.mp4</t>
+  </si>
+  <si>
+    <t>./kaylacheering/kayla_cheerleading_20150215b.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4285.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4348.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4090.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4091.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4092.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4111.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4125.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4126.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4127.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4258.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4260.mp4</t>
+  </si>
+  <si>
+    <t>./houston2015/IMG_4345.mp4</t>
+  </si>
+  <si>
+    <t>./skycriesmary/IMG_4516.mp4</t>
+  </si>
+  <si>
+    <t>./skycriesmary/IMG_4519.mp4</t>
+  </si>
+  <si>
+    <t>./movieclips/airplanejivetalkers.mp4</t>
+  </si>
+  <si>
+    <t>./movieclips/airplanejivetalkersfoodsickwithjunecleaver.mp4</t>
+  </si>
+  <si>
+    <t>./movieclips/airplanejivetalkersorderfood.mp4</t>
+  </si>
+  <si>
+    <t>./skate/yakima201508.mp4</t>
+  </si>
+  <si>
+    <t>./skate/roxhillollierockline201508.mp4</t>
+  </si>
+  <si>
+    <t>./skate/roxhillbacksideolliesmallbankstepup201500807.mp4</t>
+  </si>
+  <si>
+    <t>./skate/roxhillbacksideollieline201508.mp4</t>
+  </si>
+  <si>
+    <t>./skate/jimroxhill5.mp4</t>
+  </si>
+  <si>
+    <t>./skate/jimroxhill4.mp4</t>
+  </si>
+  <si>
+    <t>./skate/jimroxhill3.mp4</t>
+  </si>
+  <si>
+    <t>./skate/jimroxhill2.mp4</t>
+  </si>
+  <si>
+    <t>./skate/jimroxhill.mp4</t>
+  </si>
+  <si>
+    <t>./skate/fortboise201508.mp4</t>
+  </si>
+  <si>
+    <t>./ats/IMG_0361.m4v</t>
+  </si>
+  <si>
+    <t>./ats/IMG_0365.m4v</t>
+  </si>
+  <si>
+    <t>./bigbusiness/big-business-veraproject20140611-1.m4v</t>
+  </si>
+  <si>
+    <t>./bigbusiness/big-business-veraproject20140611-2.m4v</t>
+  </si>
+  <si>
+    <t>./bigbusiness/big-business-veraproject20140611-3.m4v</t>
+  </si>
+  <si>
+    <t>./bigbusiness/big-business-veraproject20140611-4.m4v</t>
+  </si>
+  <si>
+    <t>./bigbusiness/big-business-veraproject20140611-5.m4v</t>
+  </si>
+  <si>
+    <t>./bigbusiness/big-business-veraproject20140611-6.m4v</t>
+  </si>
+  <si>
+    <t>./bigbusiness/big-business-veraproject20140611-7.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0485.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/ZOOM0009.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0486.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0487.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0488.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0493.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0499.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0500.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0505.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0507.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0513.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0514.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0516.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0531.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0535.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0549.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0559.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0562.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0566.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0567.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0568.m4v</t>
+  </si>
+  <si>
+    <t>./cincodemargo/IMG_0570.m4v</t>
+  </si>
+  <si>
+    <t>./cracksabbath/ZOOM0001.m4v</t>
+  </si>
+  <si>
+    <t>./cracksabbath/ZOOM0002.m4v</t>
+  </si>
+  <si>
+    <t>./cracksabbath/ZOOM0003.m4v</t>
+  </si>
+  <si>
+    <t>./cracksabbath/ZOOM0004.m4v</t>
+  </si>
+  <si>
+    <t>./cracksabbath/ZOOM0005.m4v</t>
+  </si>
+  <si>
+    <t>./cracksabbath/ZOOM0006.m4v</t>
+  </si>
+  <si>
+    <t>./cracksabbath/ZOOM0007.m4v</t>
+  </si>
+  <si>
+    <t>./cracksabbath/ZOOM0008.m4v</t>
+  </si>
+  <si>
+    <t>./cracksabbath/ZOOM0009.m4v</t>
+  </si>
+  <si>
+    <t>./cracksabbath/ZOOM0010.m4v</t>
+  </si>
+  <si>
+    <t>./greenlake/IMG_0624.m4v</t>
+  </si>
+  <si>
+    <t>./jefferson/IMG_0824.m4v</t>
+  </si>
+  <si>
+    <t>./jefferson/IMG_0825.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0038.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0039.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0040.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0041.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0042.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0043.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0044.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0045.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0046.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0047.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0048.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0049.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0050.m4v</t>
+  </si>
+  <si>
+    <t>./lastgasp/ZOOM0051.m4v</t>
+  </si>
+  <si>
+    <t>./marginal/IMG_0054rotated.m4v</t>
+  </si>
+  <si>
+    <t>./marginal/IMG_0055.m4v</t>
+  </si>
+  <si>
+    <t>./marginal/IMG_0056.m4v</t>
+  </si>
+  <si>
+    <t>./marginal/IMG_0059.m4v</t>
+  </si>
+  <si>
+    <t>./marginal/IMG_0069rotated.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0372.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0385.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0387.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0389.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0392.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0409.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0458.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0488.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0581.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0592.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0624.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0645.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0657.m4v</t>
+  </si>
+  <si>
+    <t>./pride/IMG_0676.m4v</t>
+  </si>
+  <si>
+    <t>./kaylacheering/kayla_cheerleading_20150215b.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4693.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4695.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4699.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4701.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4818.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4819.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4837.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4838.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4839.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4841.m4v</t>
+  </si>
+  <si>
+    <t>./skate/IMG_4843.m4v</t>
+  </si>
+  <si>
+    <t>./skate/NGNQ0173.m4v</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4285.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4348.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4090.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4091.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4092.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4111.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4125.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4126.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4127.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4258.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4260.mp4</t>
+  </si>
+  <si>
+    <t>houston2015/IMG_4345.mp4</t>
+  </si>
+  <si>
+    <t>skycriesmary/IMG_4516.mp4</t>
+  </si>
+  <si>
+    <t>skycriesmary/IMG_4519.mp4</t>
+  </si>
+  <si>
+    <t>movieclips/airplanejivetalkers.mp4</t>
+  </si>
+  <si>
+    <t>movieclips/airplanejivetalkersfoodsickwithjunecleaver.mp4</t>
+  </si>
+  <si>
+    <t>movieclips/airplanejivetalkersorderfood.mp4</t>
+  </si>
+  <si>
+    <t>skate/yakima201508.mp4</t>
+  </si>
+  <si>
+    <t>skate/roxhillollierockline201508.mp4</t>
+  </si>
+  <si>
+    <t>skate/roxhillbacksideolliesmallbankstepup201500807.mp4</t>
+  </si>
+  <si>
+    <t>skate/roxhillbacksideollieline201508.mp4</t>
+  </si>
+  <si>
+    <t>skate/jimroxhill5.mp4</t>
+  </si>
+  <si>
+    <t>skate/jimroxhill4.mp4</t>
+  </si>
+  <si>
+    <t>skate/jimroxhill3.mp4</t>
+  </si>
+  <si>
+    <t>skate/jimroxhill2.mp4</t>
+  </si>
+  <si>
+    <t>skate/jimroxhill.mp4</t>
+  </si>
+  <si>
+    <t>skate/fortboise201508.mp4</t>
+  </si>
+  <si>
+    <t>ats/IMG_0361.m4v</t>
+  </si>
+  <si>
+    <t>ats/IMG_0365.m4v</t>
+  </si>
+  <si>
+    <t>bigbusiness/big-business-veraproject20140611-1.m4v</t>
+  </si>
+  <si>
+    <t>bigbusiness/big-business-veraproject20140611-2.m4v</t>
+  </si>
+  <si>
+    <t>bigbusiness/big-business-veraproject20140611-3.m4v</t>
+  </si>
+  <si>
+    <t>bigbusiness/big-business-veraproject20140611-4.m4v</t>
+  </si>
+  <si>
+    <t>bigbusiness/big-business-veraproject20140611-5.m4v</t>
+  </si>
+  <si>
+    <t>bigbusiness/big-business-veraproject20140611-6.m4v</t>
+  </si>
+  <si>
+    <t>bigbusiness/big-business-veraproject20140611-7.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0485.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/ZOOM0009.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0486.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0487.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0488.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0493.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0499.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0500.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0505.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0507.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0513.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0514.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0516.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0531.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0535.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0549.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0559.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0562.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0566.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0567.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0568.m4v</t>
+  </si>
+  <si>
+    <t>cincodemargo/IMG_0570.m4v</t>
+  </si>
+  <si>
+    <t>cracksabbath/ZOOM0001.m4v</t>
+  </si>
+  <si>
+    <t>cracksabbath/ZOOM0002.m4v</t>
+  </si>
+  <si>
+    <t>cracksabbath/ZOOM0003.m4v</t>
+  </si>
+  <si>
+    <t>cracksabbath/ZOOM0004.m4v</t>
+  </si>
+  <si>
+    <t>cracksabbath/ZOOM0005.m4v</t>
+  </si>
+  <si>
+    <t>cracksabbath/ZOOM0006.m4v</t>
+  </si>
+  <si>
+    <t>cracksabbath/ZOOM0007.m4v</t>
+  </si>
+  <si>
+    <t>cracksabbath/ZOOM0008.m4v</t>
+  </si>
+  <si>
+    <t>cracksabbath/ZOOM0009.m4v</t>
+  </si>
+  <si>
+    <t>cracksabbath/ZOOM0010.m4v</t>
+  </si>
+  <si>
+    <t>greenlake/IMG_0624.m4v</t>
+  </si>
+  <si>
+    <t>jefferson/IMG_0824.m4v</t>
+  </si>
+  <si>
+    <t>jefferson/IMG_0825.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0038.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0039.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0040.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0041.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0042.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0043.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0044.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0045.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0046.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0047.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0048.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0049.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0050.m4v</t>
+  </si>
+  <si>
+    <t>lastgasp/ZOOM0051.m4v</t>
+  </si>
+  <si>
+    <t>marginal/IMG_0054rotated.m4v</t>
+  </si>
+  <si>
+    <t>marginal/IMG_0055.m4v</t>
+  </si>
+  <si>
+    <t>marginal/IMG_0056.m4v</t>
+  </si>
+  <si>
+    <t>marginal/IMG_0059.m4v</t>
+  </si>
+  <si>
+    <t>marginal/IMG_0069rotated.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0372.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0385.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0387.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0389.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0392.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0409.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0458.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0488.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0581.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0592.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0624.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0645.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0657.m4v</t>
+  </si>
+  <si>
+    <t>pride/IMG_0676.m4v</t>
+  </si>
+  <si>
+    <t>kaylacheering/kayla_cheerleading_20150215b.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4693.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4695.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4699.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4701.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4818.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4819.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4837.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4838.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4839.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4841.m4v</t>
+  </si>
+  <si>
+    <t>skate/IMG_4843.m4v</t>
+  </si>
+  <si>
+    <t>skate/NGNQ0173.m4v</t>
   </si>
 </sst>
 </file>
@@ -3580,7 +4171,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="302">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3659,6 +4250,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3892,7 +4494,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="302">
+  <cellStyles count="313">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4155,6 +4757,17 @@
     <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4523,1371 +5136,3102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105:C111"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="76" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1016</v>
+        <v>1039</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1040</v>
       </c>
       <c r="C1" t="str">
-        <f t="shared" ref="C1:C42" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
-        <v>{'file':'IMG_4504.JPG','title':'Sky Cries Mary - Neumos - 2015 - 001'},</v>
+        <f t="shared" ref="C1:C32" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <v>{'file':'airplanejivetalkers.mp4','title':'Airplane Movie -Jive Talkers'},</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1017</v>
+        <v>1043</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1041</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4505.JPG','title':'Sky Cries Mary - Neumos - 2015 - 002'},</v>
+        <v>{'file':'airplanejivetalkersorderfood.mp4','title':'Airplane Movie -Jive Talkers Order Food'},</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>901</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1018</v>
+        <v>1038</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1042</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4507.JPG','title':'Sky Cries Mary - Neumos - 2015 - 003'},</v>
+        <v>{'file':'airplanejivetalkersfoodsickwithjunecleaver.mp4','title':'Airplane Movie -Jive Talkers Sick with June Cleaver'},</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>904</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1019</v>
+        <v>1051</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1067</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4509.JPG','title':'Sky Cries Mary - Neumos - 2015 - 004'},</v>
+        <v>{'file':'09 All Your Secrets.mp3','title':'All Your Secrets'},</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>907</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1020</v>
+        <v>1047</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1060</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4510.JPG','title':'Sky Cries Mary - Neumos - 2015 - 005'},</v>
+        <v>{'file':'02 Avalon Or Someone Very Similar.mp3','title':'Avalon Or Someone Very Similar'},</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>910</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1021</v>
+        <v>1024</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1031</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4512.JPG','title':'Sky Cries Mary - Neumos - 2015 - 006'},</v>
+        <v>{'file':'Bats Do It.mp3','title':'Bats Do It'},</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>913</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1022</v>
+        <v>1045</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1061</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4513.JPG','title':'Sky Cries Mary - Neumos - 2015 - 007'},</v>
+        <v>{'file':'03 By Twos.mp3','title':'By Twos'},</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>916</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1023</v>
+        <v>1025</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1032</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4514.JPG','title':'Sky Cries Mary - Neumos - 2015 - 008'},</v>
+        <v>{'file':'Cannabalistic Attack.mp3','title':'Cannibalistic Attack'},</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>919</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1024</v>
+        <v>1010</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>998</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4515.JPG','title':'Sky Cries Mary - Neumos - 2015 - 009'},</v>
+        <v>{'file':'gamemedia/cats.png','title':'Cat'},</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>922</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1025</v>
+        <v>1011</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>999</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4520.JPG','title':'Sky Cries Mary - Neumos - 2015 - 010'},</v>
+        <v>{'file':'gamemedia/chickens.png','title':'Chicken'},</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>925</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1026</v>
+        <v>1012</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1000</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4521.JPG','title':'Sky Cries Mary - Neumos - 2015 - 011'},</v>
+        <v>{'file':'gamemedia/crocodiles.png','title':'Crocodile'},</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>928</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1027</v>
+        <v>1055</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1074</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4522.JPG','title':'Sky Cries Mary - Neumos - 2015 - 012'},</v>
+        <v>{'file':'IMG_4659.JPG','title':'Daffodil'},</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>931</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1028</v>
+        <v>1013</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1001</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4523.JPG','title':'Sky Cries Mary - Neumos - 2015 - 013'},</v>
+        <v>{'file':'gamemedia/darthvader.png','title':'Darth Vader'},</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>934</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1029</v>
+        <v>1026</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1033</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4524.JPG','title':'Sky Cries Mary - Neumos - 2015 - 014'},</v>
+        <v>{'file':'Delirious.mp3    ','title':'Delirious'},</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>937</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1030</v>
+        <v>1014</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1002</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4525.JPG','title':'Sky Cries Mary - Neumos - 2015 - 015'},</v>
+        <v>{'file':'gamemedia/dogs.png','title':'Dog'},</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>940</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1031</v>
+        <v>1027</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1034</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4526.JPG','title':'Sky Cries Mary - Neumos - 2015 - 016'},</v>
+        <v>{'file':'God Knowledge.mp3','title':'God Knowledge'},</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>943</v>
+        <v>1057</v>
       </c>
       <c r="B17" t="s">
-        <v>1032</v>
+        <v>1072</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4527.JPG','title':'Sky Cries Mary - Neumos - 2015 - 017'},</v>
+        <v>{'file':'IMG_4575.JPG','title':'Good Boy!'},</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>946</v>
+        <v>1056</v>
       </c>
       <c r="B18" t="s">
-        <v>1033</v>
+        <v>1071</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4528.JPG','title':'Sky Cries Mary - Neumos - 2015 - 018'},</v>
+        <v>{'file':'IMG_4675.JPG','title':'Good Luck Kitteh!'},</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>948</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1034</v>
+        <v>1028</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1035</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4529.JPG','title':'Sky Cries Mary - Neumos - 2015 - 019'},</v>
+        <v>{'file':'Hella Buckarooni.mp3','title':'Hella Buckarooni'},</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>951</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1035</v>
+        <v>1044</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1059</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4530.JPG','title':'Sky Cries Mary - Neumos - 2015 - 020'},</v>
+        <v>{'file':'01 Here To Fall.mp3','title':'Here to Fall'},</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>954</v>
-      </c>
-      <c r="B21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4531.JPG','title':'Sky Cries Mary - Neumos - 2015 - 021'},</v>
+        <v>{'file':'Hop Off This Beat.mp3','title':'Hop Off This Beat'},</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>957</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1037</v>
+        <v>1075</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1064</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4532.JPG','title':'Sky Cries Mary - Neumos - 2015 - 022'},</v>
+        <v>{'file':'06 If Its True.mp3','title':'If Its True'},</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>959</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1038</v>
+        <v>1049</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1065</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4533.JPG','title':'Sky Cries Mary - Neumos - 2015 - 023'},</v>
+        <v>{'file':'07 Im On My Way.mp3','title':'Im On My Way'},</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>962</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1039</v>
+        <v>1019</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1023</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4534.JPG','title':'Sky Cries Mary - Neumos - 2015 - 024'},</v>
+        <v>{'file':'gamemedia/snakesonaplane.png','title':'Im tired of these motherfuckin stuffed animals on this motherfuckin game!'},</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>965</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1040</v>
+        <v>1030</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1037</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4535.JPG','title':'Sky Cries Mary - Neumos - 2015 - 025'},</v>
+        <v>{'file':'Just Beau By Himself.mp3','title':'Just Beau By Himself'},</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>968</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1041</v>
+        <v>1054</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1073</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4536.JPG','title':'Sky Cries Mary - Neumos - 2015 - 026'},</v>
+        <v>{'file':'IMG_4599.JPG','title':'Kitteh Mehowh'},</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>971</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1042</v>
+        <v>1015</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1003</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4537.JPG','title':'Sky Cries Mary - Neumos - 2015 - 027'},</v>
+        <v>{'file':'gamemedia/lamblambs.png','title':'Lamb'},</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>974</v>
+        <v>666</v>
       </c>
       <c r="B28" t="s">
-        <v>1043</v>
+        <v>790</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4539.JPG','title':'Sky Cries Mary - Neumos - 2015 - 028'},</v>
+        <v>{'file':'ZOOM0038.jpg','title':'Last Gasp 1'},</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>977</v>
+        <v>675</v>
       </c>
       <c r="B29" t="s">
-        <v>1044</v>
+        <v>799</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4540.JPG','title':'Sky Cries Mary - Neumos - 2015 - 029'},</v>
+        <v>{'file':'ZOOM0047.jpg','title':'Last Gasp 10'},</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>980</v>
+        <v>676</v>
       </c>
       <c r="B30" t="s">
-        <v>1045</v>
+        <v>800</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4541.JPG','title':'Sky Cries Mary - Neumos - 2015 - 030'},</v>
+        <v>{'file':'ZOOM0048.jpg','title':'Last Gasp 11'},</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>983</v>
+        <v>677</v>
       </c>
       <c r="B31" t="s">
-        <v>1046</v>
+        <v>801</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4542.JPG','title':'Sky Cries Mary - Neumos - 2015 - 031'},</v>
+        <v>{'file':'ZOOM0049.jpg','title':'Last Gasp 12'},</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>986</v>
+        <v>678</v>
       </c>
       <c r="B32" t="s">
-        <v>1047</v>
+        <v>802</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>{'file':'IMG_4543.JPG','title':'Sky Cries Mary - Neumos - 2015 - 032'},</v>
+        <v>{'file':'ZOOM0050.jpg','title':'Last Gasp 13'},</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>989</v>
+        <v>679</v>
       </c>
       <c r="B33" t="s">
-        <v>1048</v>
+        <v>803</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'IMG_4544.JPG','title':'Sky Cries Mary - Neumos - 2015 - 033'},</v>
+        <f t="shared" ref="C33:C64" si="1">"{'file':'"&amp;A33&amp;"','title':'"&amp;B33&amp;"'},"</f>
+        <v>{'file':'ZOOM0051.jpg','title':'Last Gasp 14'},</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>992</v>
+        <v>667</v>
       </c>
       <c r="B34" t="s">
-        <v>1049</v>
+        <v>791</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'IMG_4545.JPG','title':'Sky Cries Mary - Neumos - 2015 - 034'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0039.jpg','title':'Last Gasp 2'},</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>995</v>
+        <v>668</v>
       </c>
       <c r="B35" t="s">
-        <v>1050</v>
+        <v>792</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'IMG_4546.JPG','title':'Sky Cries Mary - Neumos - 2015 - 035'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0040.jpg','title':'Last Gasp 3'},</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>998</v>
+        <v>669</v>
       </c>
       <c r="B36" t="s">
-        <v>1051</v>
+        <v>793</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'IMG_4547.JPG','title':'Sky Cries Mary - Neumos - 2015 - 036'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0041.jpg','title':'Last Gasp 4'},</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>1001</v>
+        <v>670</v>
       </c>
       <c r="B37" t="s">
-        <v>1052</v>
+        <v>794</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'IMG_4548.JPG','title':'Sky Cries Mary - Neumos - 2015 - 037'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0042.jpg','title':'Last Gasp 5'},</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1004</v>
+        <v>671</v>
       </c>
       <c r="B38" t="s">
-        <v>1053</v>
+        <v>795</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'IMG_4549.JPG','title':'Sky Cries Mary - Neumos - 2015 - 038'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0043.jpg','title':'Last Gasp 6'},</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1007</v>
+        <v>672</v>
       </c>
       <c r="B39" t="s">
-        <v>1054</v>
+        <v>796</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'IMG_4551.JPG','title':'Sky Cries Mary - Neumos - 2015 - 039'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0044.jpg','title':'Last Gasp 7'},</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1010</v>
+        <v>673</v>
       </c>
       <c r="B40" t="s">
-        <v>1055</v>
+        <v>797</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'IMG_4553.JPG','title':'Sky Cries Mary - Neumos - 2015 - 040'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0045.jpg','title':'Last Gasp 8'},</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1013</v>
+        <v>674</v>
       </c>
       <c r="B41" t="s">
-        <v>1056</v>
+        <v>798</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'IMG_4554.JPG','title':'Sky Cries Mary - Neumos - 2015 - 041'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'ZOOM0046.jpg','title':'Last Gasp 9'},</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>894</v>
+        <v>1058</v>
       </c>
       <c r="B42" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>{'file':'IMG_4558.JPG','title':'Sky Cries Mary - Neumos - 2015 - 042'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'IMG_4691.JPG','title':'Leaf Blower'},</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>666</v>
-      </c>
-      <c r="B43" t="s">
-        <v>790</v>
+        <v>1016</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1004</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" ref="C43:C73" si="1">"{'file':'"&amp;A43&amp;"','title':'"&amp;B43&amp;"'},"</f>
-        <v>{'file':'ZOOM0038.jpg','title':'Last Gasp 1'},</v>
+        <f t="shared" si="1"/>
+        <v>{'file':'gamemedia/lions.png','title':'Lion'},</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>667</v>
+        <v>1081</v>
       </c>
       <c r="B44" t="s">
-        <v>791</v>
+        <v>1082</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0039.jpg','title':'Last Gasp 2'},</v>
+        <v>{'file':' jim-marginal-overthelight-march2015.mp4','title':'Marginal - Jim over the light'},</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>668</v>
+        <v>1076</v>
       </c>
       <c r="B45" t="s">
-        <v>792</v>
+        <v>1083</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0040.jpg','title':'Last Gasp 3'},</v>
+        <v>{'file':' IMG_0054rotated.m4v','title':'Marginal?'},</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>669</v>
+        <v>1077</v>
       </c>
       <c r="B46" t="s">
-        <v>793</v>
+        <v>1083</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0041.jpg','title':'Last Gasp 4'},</v>
+        <v>{'file':'IMG_0055.m4v','title':'Marginal?'},</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>670</v>
+        <v>1078</v>
       </c>
       <c r="B47" t="s">
-        <v>794</v>
+        <v>1083</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0042.jpg','title':'Last Gasp 5'},</v>
+        <v>{'file':'IMG_0056.m4v','title':'Marginal?'},</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>671</v>
+        <v>1079</v>
       </c>
       <c r="B48" t="s">
-        <v>795</v>
+        <v>1083</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0043.jpg','title':'Last Gasp 6'},</v>
+        <v>{'file':'IMG_0059.m4v','title':'Marginal?'},</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>672</v>
+        <v>1080</v>
       </c>
       <c r="B49" t="s">
-        <v>796</v>
+        <v>1083</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0044.jpg','title':'Last Gasp 7'},</v>
+        <v>{'file':'IMG_0069rotated.m4v','title':'Marginal?'},</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>673</v>
-      </c>
-      <c r="B50" t="s">
-        <v>797</v>
+        <v>1052</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1068</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0045.jpg','title':'Last Gasp 8'},</v>
+        <v>{'file':'10 More Stars Than There Are In Heaven.mp3','title':'More Stars Than There Are In Heaven'},</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>674</v>
-      </c>
-      <c r="B51" t="s">
-        <v>798</v>
+        <v>1046</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1062</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0046.jpg','title':'Last Gasp 9'},</v>
+        <v>{'file':'04 Nothing To Hide.mp3','title':'Nothing to Hide'},</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>675</v>
-      </c>
-      <c r="B52" t="s">
-        <v>799</v>
+        <v>1048</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1063</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0047.jpg','title':'Last Gasp 10'},</v>
+        <v>{'file':'05 Periodically Triple Or Double.mp3','title':'Periodically Triple Or Double'},</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>676</v>
-      </c>
-      <c r="B53" t="s">
-        <v>800</v>
+        <v>1017</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1005</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0048.jpg','title':'Last Gasp 11'},</v>
+        <v>{'file':'gamemedia/queen.png','title':'Queen'},</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>677</v>
-      </c>
-      <c r="B54" t="s">
-        <v>801</v>
+        <v>1018</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1006</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0049.jpg','title':'Last Gasp 12'},</v>
+        <v>{'file':'gamemedia/r2d2.png','title':'R2D2'},</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>678</v>
+        <v>895</v>
       </c>
       <c r="B55" t="s">
-        <v>802</v>
+        <v>936</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0050.jpg','title':'Last Gasp 13'},</v>
+        <v>{'file':'IMG_4504.JPG','title':'Sky Cries Mary - Neumos - 2015 - 001'},</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>679</v>
+        <v>896</v>
       </c>
       <c r="B56" t="s">
-        <v>803</v>
+        <v>937</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'ZOOM0051.jpg','title':'Last Gasp 14'},</v>
+        <v>{'file':'IMG_4505.JPG','title':'Sky Cries Mary - Neumos - 2015 - 002'},</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>1060</v>
+        <v>897</v>
+      </c>
+      <c r="B57" t="s">
+        <v>938</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'IMG_4516.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video01'},</v>
+        <v>{'file':'IMG_4507.JPG','title':'Sky Cries Mary - Neumos - 2015 - 003'},</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>1061</v>
+        <v>898</v>
+      </c>
+      <c r="B58" t="s">
+        <v>939</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'IMG_4519.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video02'},</v>
+        <v>{'file':'IMG_4509.JPG','title':'Sky Cries Mary - Neumos - 2015 - 004'},</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>1070</v>
+        <v>899</v>
+      </c>
+      <c r="B59" t="s">
+        <v>940</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201501.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 01'},</v>
+        <v>{'file':'IMG_4510.JPG','title':'Sky Cries Mary - Neumos - 2015 - 005'},</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>1071</v>
+        <v>900</v>
+      </c>
+      <c r="B60" t="s">
+        <v>941</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201502.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 02'},</v>
+        <v>{'file':'IMG_4512.JPG','title':'Sky Cries Mary - Neumos - 2015 - 006'},</v>
       </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>1072</v>
+        <v>901</v>
+      </c>
+      <c r="B61" t="s">
+        <v>942</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201503.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 03'},</v>
+        <v>{'file':'IMG_4513.JPG','title':'Sky Cries Mary - Neumos - 2015 - 007'},</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>1073</v>
+        <v>902</v>
+      </c>
+      <c r="B62" t="s">
+        <v>943</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201504.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 04'},</v>
+        <v>{'file':'IMG_4514.JPG','title':'Sky Cries Mary - Neumos - 2015 - 008'},</v>
       </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>1074</v>
+        <v>903</v>
+      </c>
+      <c r="B63" t="s">
+        <v>944</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201505.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 05'},</v>
+        <v>{'file':'IMG_4515.JPG','title':'Sky Cries Mary - Neumos - 2015 - 009'},</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>1075</v>
+        <v>904</v>
+      </c>
+      <c r="B64" t="s">
+        <v>945</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201506.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 06'},</v>
+        <v>{'file':'IMG_4520.JPG','title':'Sky Cries Mary - Neumos - 2015 - 010'},</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>1076</v>
+        <v>905</v>
+      </c>
+      <c r="B65" t="s">
+        <v>946</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201507.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 07'},</v>
+        <f t="shared" ref="C65:C96" si="2">"{'file':'"&amp;A65&amp;"','title':'"&amp;B65&amp;"'},"</f>
+        <v>{'file':'IMG_4521.JPG','title':'Sky Cries Mary - Neumos - 2015 - 011'},</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>1077</v>
+        <v>906</v>
+      </c>
+      <c r="B66" t="s">
+        <v>947</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'skycriesmaryneumos201508.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 08'},</v>
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4522.JPG','title':'Sky Cries Mary - Neumos - 2015 - 012'},</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>1081</v>
+        <v>907</v>
+      </c>
+      <c r="B67" t="s">
+        <v>948</v>
       </c>
       <c r="C67" t="str">
-        <f>"{'file':'"&amp;A67&amp;"','title':'"&amp;B67&amp;"'},"</f>
-        <v>{'file':'gamemedia/darthvader.png','title':'Darth Vader'},</v>
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4523.JPG','title':'Sky Cries Mary - Neumos - 2015 - 013'},</v>
       </c>
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>1085</v>
+        <v>908</v>
+      </c>
+      <c r="B68" t="s">
+        <v>949</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/queen.png','title':'Queen'},</v>
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4524.JPG','title':'Sky Cries Mary - Neumos - 2015 - 014'},</v>
       </c>
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>1103</v>
+        <v>909</v>
+      </c>
+      <c r="B69" t="s">
+        <v>950</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/snakesonaplane.png','title':'Im tired of these motherfuckin stuffed animals on this motherfuckin game!'},</v>
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4525.JPG','title':'Sky Cries Mary - Neumos - 2015 - 015'},</v>
       </c>
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>1086</v>
+        <v>910</v>
+      </c>
+      <c r="B70" t="s">
+        <v>951</v>
       </c>
       <c r="C70" t="str">
-        <f>"{'file':'"&amp;A70&amp;"','title':'"&amp;B70&amp;"'},"</f>
-        <v>{'file':'gamemedia/r2d2.png','title':'R2D2'},</v>
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4526.JPG','title':'Sky Cries Mary - Neumos - 2015 - 016'},</v>
       </c>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>1087</v>
+        <v>911</v>
+      </c>
+      <c r="B71" t="s">
+        <v>952</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/stormtrooper.png','title':'Storm Trooper'},</v>
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4527.JPG','title':'Sky Cries Mary - Neumos - 2015 - 017'},</v>
       </c>
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>1088</v>
+        <v>912</v>
+      </c>
+      <c r="B72" t="s">
+        <v>953</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/thechosenone.png','title':'You were the chosen one!'},</v>
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4528.JPG','title':'Sky Cries Mary - Neumos - 2015 - 018'},</v>
       </c>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>1089</v>
+        <v>913</v>
+      </c>
+      <c r="B73" t="s">
+        <v>954</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="1"/>
-        <v>{'file':'gamemedia/yoda.png','title':'Yoda'},</v>
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4529.JPG','title':'Sky Cries Mary - Neumos - 2015 - 019'},</v>
       </c>
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>1078</v>
+        <v>914</v>
+      </c>
+      <c r="B74" t="s">
+        <v>955</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ref="C74:C111" si="2">"{'file':'"&amp;A74&amp;"','title':'"&amp;B74&amp;"'},"</f>
-        <v>{'file':'gamemedia/cats.png','title':'Cat'},</v>
+        <f t="shared" si="2"/>
+        <v>{'file':'IMG_4530.JPG','title':'Sky Cries Mary - Neumos - 2015 - 020'},</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>1079</v>
+        <v>915</v>
+      </c>
+      <c r="B75" t="s">
+        <v>956</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'gamemedia/chickens.png','title':'Chicken'},</v>
+        <v>{'file':'IMG_4531.JPG','title':'Sky Cries Mary - Neumos - 2015 - 021'},</v>
       </c>
       <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>1080</v>
+        <v>916</v>
+      </c>
+      <c r="B76" t="s">
+        <v>957</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'gamemedia/crocodiles.png','title':'Crocodile'},</v>
+        <v>{'file':'IMG_4532.JPG','title':'Sky Cries Mary - Neumos - 2015 - 022'},</v>
       </c>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>1082</v>
+        <v>917</v>
+      </c>
+      <c r="B77" t="s">
+        <v>958</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'gamemedia/dogs.png','title':'Dog'},</v>
+        <v>{'file':'IMG_4533.JPG','title':'Sky Cries Mary - Neumos - 2015 - 023'},</v>
       </c>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>1083</v>
+        <v>918</v>
+      </c>
+      <c r="B78" t="s">
+        <v>959</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'gamemedia/lamblambs.png','title':'Lamb'},</v>
+        <v>{'file':'IMG_4534.JPG','title':'Sky Cries Mary - Neumos - 2015 - 024'},</v>
       </c>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>1084</v>
+        <v>919</v>
+      </c>
+      <c r="B79" t="s">
+        <v>960</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'gamemedia/lions.png','title':'Lion'},</v>
+        <v>{'file':'IMG_4535.JPG','title':'Sky Cries Mary - Neumos - 2015 - 025'},</v>
       </c>
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>1111</v>
+        <v>920</v>
+      </c>
+      <c r="B80" t="s">
+        <v>961</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'Bats Do It.mp3','title':'Bats Do It'},</v>
+        <v>{'file':'IMG_4536.JPG','title':'Sky Cries Mary - Neumos - 2015 - 026'},</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>1112</v>
+        <v>921</v>
+      </c>
+      <c r="B81" t="s">
+        <v>962</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'Cannabalistic Attack.mp3','title':'Cannibalistic Attack'},</v>
+        <v>{'file':'IMG_4537.JPG','title':'Sky Cries Mary - Neumos - 2015 - 027'},</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>1113</v>
+        <v>922</v>
+      </c>
+      <c r="B82" t="s">
+        <v>963</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'Delirious.mp3    ','title':'Delirious'},</v>
+        <v>{'file':'IMG_4539.JPG','title':'Sky Cries Mary - Neumos - 2015 - 028'},</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>1114</v>
+        <v>923</v>
+      </c>
+      <c r="B83" t="s">
+        <v>964</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'God Knowledge.mp3','title':'God Knowledge'},</v>
+        <v>{'file':'IMG_4540.JPG','title':'Sky Cries Mary - Neumos - 2015 - 029'},</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>1115</v>
+        <v>924</v>
+      </c>
+      <c r="B84" t="s">
+        <v>965</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'Hella Buckarooni.mp3','title':'Hella Buckarooni'},</v>
+        <v>{'file':'IMG_4541.JPG','title':'Sky Cries Mary - Neumos - 2015 - 030'},</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>1116</v>
+        <v>925</v>
+      </c>
+      <c r="B85" t="s">
+        <v>966</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'Hop Off This Beat.mp3','title':'Hop Off This Beat'},</v>
+        <v>{'file':'IMG_4542.JPG','title':'Sky Cries Mary - Neumos - 2015 - 031'},</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>1117</v>
+        <v>926</v>
+      </c>
+      <c r="B86" t="s">
+        <v>967</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'Just Beau By Himself.mp3','title':'Just Beau By Himself'},</v>
+        <v>{'file':'IMG_4543.JPG','title':'Sky Cries Mary - Neumos - 2015 - 032'},</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>1122</v>
+        <v>927</v>
+      </c>
+      <c r="B87" t="s">
+        <v>968</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'airplanejivetalkersfoodsickwithjunecleaver.mp4','title':'Airplane Movie -Jive Talkers Sick with June Cleaver'},</v>
+        <v>{'file':'IMG_4544.JPG','title':'Sky Cries Mary - Neumos - 2015 - 033'},</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>1120</v>
+        <v>928</v>
+      </c>
+      <c r="B88" t="s">
+        <v>969</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'airplanejivetalkers.mp4','title':'Airplane Movie -Jive Talkers'},</v>
+        <v>{'file':'IMG_4545.JPG','title':'Sky Cries Mary - Neumos - 2015 - 034'},</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>1121</v>
+        <v>929</v>
+      </c>
+      <c r="B89" t="s">
+        <v>970</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'airplanejivetalkersorderfood.mp4','title':'Airplane Movie -Jive Talkers Order Food'},</v>
+        <v>{'file':'IMG_4546.JPG','title':'Sky Cries Mary - Neumos - 2015 - 035'},</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>1139</v>
+        <v>930</v>
+      </c>
+      <c r="B90" t="s">
+        <v>971</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'01 Here To Fall.mp3','title':'Here to Fall'},</v>
+        <v>{'file':'IMG_4547.JPG','title':'Sky Cries Mary - Neumos - 2015 - 036'},</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>1140</v>
+        <v>931</v>
+      </c>
+      <c r="B91" t="s">
+        <v>972</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'02 Avalon Or Someone Very Similar.mp3','title':'Avalon Or Someone Very Similar'},</v>
+        <v>{'file':'IMG_4548.JPG','title':'Sky Cries Mary - Neumos - 2015 - 037'},</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>1141</v>
+        <v>932</v>
+      </c>
+      <c r="B92" t="s">
+        <v>973</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'03 By Twos.mp3','title':'By Twos'},</v>
+        <v>{'file':'IMG_4549.JPG','title':'Sky Cries Mary - Neumos - 2015 - 038'},</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>1142</v>
+        <v>933</v>
+      </c>
+      <c r="B93" t="s">
+        <v>974</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'04 Nothing To Hide.mp3','title':'Nothing to Hide'},</v>
+        <v>{'file':'IMG_4551.JPG','title':'Sky Cries Mary - Neumos - 2015 - 039'},</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>1143</v>
+        <v>934</v>
+      </c>
+      <c r="B94" t="s">
+        <v>975</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'05 Periodically Triple Or Double.mp3','title':'Periodically Triple Or Double'},</v>
+        <v>{'file':'IMG_4553.JPG','title':'Sky Cries Mary - Neumos - 2015 - 040'},</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>1144</v>
+        <v>935</v>
+      </c>
+      <c r="B95" t="s">
+        <v>976</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'06 If Its True.mp3','title':'If Its True'},</v>
+        <v>{'file':'IMG_4554.JPG','title':'Sky Cries Mary - Neumos - 2015 - 041'},</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>1145</v>
+        <v>894</v>
+      </c>
+      <c r="B96" t="s">
+        <v>977</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="2"/>
-        <v>{'file':'07 Im On My Way.mp3','title':'Im On My Way'},</v>
+        <v>{'file':'IMG_4558.JPG','title':'Sky Cries Mary - Neumos - 2015 - 042'},</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>1130</v>
+        <v>983</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1146</v>
+        <v>990</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'08 When Its Dark.mp3','title':'When Its Dark'},</v>
+        <f t="shared" ref="C97:C128" si="3">"{'file':'"&amp;A97&amp;"','title':'"&amp;B97&amp;"'},"</f>
+        <v>{'file':'skycriesmaryneumos201501.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 01'},</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>1131</v>
+        <v>984</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1147</v>
+        <v>991</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'09 All Your Secrets.mp3','title':'All Your Secrets'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'skycriesmaryneumos201502.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 02'},</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>1132</v>
+        <v>985</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1148</v>
+        <v>992</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'10 More Stars Than There Are In Heaven.mp3','title':'More Stars Than There Are In Heaven'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'skycriesmaryneumos201503.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 03'},</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>1133</v>
+        <v>986</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1149</v>
+        <v>993</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'11 The Fireside.mp3','title':'The Fireside'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'skycriesmaryneumos201504.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 04'},</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>1134</v>
+        <v>987</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1153</v>
+        <v>994</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'IMG_4599.JPG','title':'Kitteh Mehowh'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'skycriesmaryneumos201505.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 05'},</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>1135</v>
+        <v>988</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1154</v>
+        <v>995</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'IMG_4659.JPG','title':'Daffodil'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'skycriesmaryneumos201506.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 06'},</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1151</v>
+        <v>989</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>996</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'IMG_4675.JPG','title':'Good Luck Kitteh!'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'skycriesmaryneumos201507.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 07'},</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1152</v>
+        <v>982</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>997</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'IMG_4575.JPG','title':'Good Boy!'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'skycriesmaryneumos201508.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 08'},</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1150</v>
+        <v>978</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>980</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'IMG_4691.JPG','title':'Leaf Blower'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4516.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video01'},</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1163</v>
+        <v>979</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>981</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':' IMG_0054rotated.m4v','title':'Marginal?'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4519.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video02'},</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1163</v>
+        <v>1020</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1007</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'IMG_0055.m4v','title':'Marginal?'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'gamemedia/stormtrooper.png','title':'Storm Trooper'},</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1163</v>
+        <v>1053</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1069</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'IMG_0056.m4v','title':'Marginal?'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'11 The Fireside.mp3','title':'The Fireside'},</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>1159</v>
+        <v>1088</v>
       </c>
       <c r="B109" t="s">
-        <v>1163</v>
+        <v>1100</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'IMG_0059.m4v','title':'Marginal?'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4693.m4v','title':'Video 01'},</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>1160</v>
+        <v>1089</v>
       </c>
       <c r="B110" t="s">
-        <v>1163</v>
+        <v>1101</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':'IMG_0069rotated.m4v','title':'Marginal?'},</v>
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4695.m4v','title':'Video 02'},</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4699.m4v','title':'Video 03'},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4701.m4v','title':'Video 04'},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4818.m4v','title':'Video 05'},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4819.m4v','title':'Video 06'},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4837.m4v','title':'Video 07'},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4838.m4v','title':'Video 08'},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4839.m4v','title':'Video 09'},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4841.m4v','title':'Video 10'},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'IMG_4843.m4v','title':'Video 11'},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'NGNQ0173.m4v','title':'Video 12'},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'08 When Its Dark.mp3','title':'When Its Dark'},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'gamemedia/yoda.png','title':'Yoda'},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="3"/>
+        <v>{'file':'gamemedia/thechosenone.png','title':'You were the chosen one!'},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>439</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" ref="C124:C187" si="4">"{'file':'"&amp;A124&amp;"','title':'"&amp;B124&amp;"'},"</f>
+        <v>{'file':'marginal/jim-marginal-overthelight-march2015.mp4','title':'./marginal/jim-marginal-overthelight-march2015.mp4'},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>425</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0098.mp4','title':'./wxpfl/IMG_0098.mp4'},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>426</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0101.mp4','title':'./wxpfl/IMG_0101.mp4'},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>427</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0103.mp4','title':'./wxpfl/IMG_0103.mp4'},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>428</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0106.mp4','title':'./wxpfl/IMG_0106.mp4'},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>429</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0109.mp4','title':'./wxpfl/IMG_0109.mp4'},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>430</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0113.mp4','title':'./wxpfl/IMG_0113.mp4'},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>431</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0116.mp4','title':'./wxpfl/IMG_0116.mp4'},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>432</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0117.mp4','title':'./wxpfl/IMG_0117.mp4'},</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>433</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0119.mp4','title':'./wxpfl/IMG_0119.mp4'},</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>434</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0120.mp4','title':'./wxpfl/IMG_0120.mp4'},</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>435</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/IMG_0127.mp4','title':'./wxpfl/IMG_0127.mp4'},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>436</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'wxpfl/wxpfl-greenwood-201411.mp4','title':'./wxpfl/wxpfl-greenwood-201411.mp4'},</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>437</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'kaylacheering/kayla_cheerleading_20150215.mp4','title':'./kaylacheering/kayla_cheerleading_20150215.mp4'},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>438</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'kaylacheering/kayla_cheerleading_20150215b.mp4','title':'./kaylacheering/kayla_cheerleading_20150215b.mp4'},</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4285.mp4','title':'./houston2015/IMG_4285.mp4'},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4348.mp4','title':'./houston2015/IMG_4348.mp4'},</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4090.mp4','title':'./houston2015/IMG_4090.mp4'},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4091.mp4','title':'./houston2015/IMG_4091.mp4'},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4092.mp4','title':'./houston2015/IMG_4092.mp4'},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4111.mp4','title':'./houston2015/IMG_4111.mp4'},</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4125.mp4','title':'./houston2015/IMG_4125.mp4'},</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4126.mp4','title':'./houston2015/IMG_4126.mp4'},</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4127.mp4','title':'./houston2015/IMG_4127.mp4'},</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4258.mp4','title':'./houston2015/IMG_4258.mp4'},</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4260.mp4','title':'./houston2015/IMG_4260.mp4'},</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'houston2015/IMG_4345.mp4','title':'./houston2015/IMG_4345.mp4'},</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skycriesmary/IMG_4516.mp4','title':'./skycriesmary/IMG_4516.mp4'},</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skycriesmary/IMG_4519.mp4','title':'./skycriesmary/IMG_4519.mp4'},</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'movieclips/airplanejivetalkers.mp4','title':'./movieclips/airplanejivetalkers.mp4'},</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'movieclips/airplanejivetalkersfoodsickwithjunecleaver.mp4','title':'./movieclips/airplanejivetalkersfoodsickwithjunecleaver.mp4'},</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'movieclips/airplanejivetalkersorderfood.mp4','title':'./movieclips/airplanejivetalkersorderfood.mp4'},</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skate/yakima201508.mp4','title':'./skate/yakima201508.mp4'},</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skate/roxhillollierockline201508.mp4','title':'./skate/roxhillollierockline201508.mp4'},</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skate/roxhillbacksideolliesmallbankstepup201500807.mp4','title':'./skate/roxhillbacksideolliesmallbankstepup201500807.mp4'},</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skate/roxhillbacksideollieline201508.mp4','title':'./skate/roxhillbacksideollieline201508.mp4'},</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skate/jimroxhill5.mp4','title':'./skate/jimroxhill5.mp4'},</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skate/jimroxhill4.mp4','title':'./skate/jimroxhill4.mp4'},</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skate/jimroxhill3.mp4','title':'./skate/jimroxhill3.mp4'},</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skate/jimroxhill2.mp4','title':'./skate/jimroxhill2.mp4'},</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skate/jimroxhill.mp4','title':'./skate/jimroxhill.mp4'},</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'skate/fortboise201508.mp4','title':'./skate/fortboise201508.mp4'},</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'ats/IMG_0361.m4v','title':'./ats/IMG_0361.m4v'},</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'ats/IMG_0365.m4v','title':'./ats/IMG_0365.m4v'},</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'bigbusiness/big-business-veraproject20140611-1.m4v','title':'./bigbusiness/big-business-veraproject20140611-1.m4v'},</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'bigbusiness/big-business-veraproject20140611-2.m4v','title':'./bigbusiness/big-business-veraproject20140611-2.m4v'},</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'bigbusiness/big-business-veraproject20140611-3.m4v','title':'./bigbusiness/big-business-veraproject20140611-3.m4v'},</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'bigbusiness/big-business-veraproject20140611-4.m4v','title':'./bigbusiness/big-business-veraproject20140611-4.m4v'},</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'bigbusiness/big-business-veraproject20140611-5.m4v','title':'./bigbusiness/big-business-veraproject20140611-5.m4v'},</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B173" t="s">
         <v>1161</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C173" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'bigbusiness/big-business-veraproject20140611-6.m4v','title':'./bigbusiness/big-business-veraproject20140611-6.m4v'},</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B174" t="s">
         <v>1162</v>
       </c>
-      <c r="C111" t="str">
-        <f t="shared" si="2"/>
-        <v>{'file':' jim-marginal-overthelight-march2015.mp4','title':'Marginal - Jim over the light'},</v>
+      <c r="C174" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'bigbusiness/big-business-veraproject20140611-7.m4v','title':'./bigbusiness/big-business-veraproject20140611-7.m4v'},</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0485.m4v','title':'./cincodemargo/IMG_0485.m4v'},</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/ZOOM0009.m4v','title':'./cincodemargo/ZOOM0009.m4v'},</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0486.m4v','title':'./cincodemargo/IMG_0486.m4v'},</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0487.m4v','title':'./cincodemargo/IMG_0487.m4v'},</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0488.m4v','title':'./cincodemargo/IMG_0488.m4v'},</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0493.m4v','title':'./cincodemargo/IMG_0493.m4v'},</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0499.m4v','title':'./cincodemargo/IMG_0499.m4v'},</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0500.m4v','title':'./cincodemargo/IMG_0500.m4v'},</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0505.m4v','title':'./cincodemargo/IMG_0505.m4v'},</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0507.m4v','title':'./cincodemargo/IMG_0507.m4v'},</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0513.m4v','title':'./cincodemargo/IMG_0513.m4v'},</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0514.m4v','title':'./cincodemargo/IMG_0514.m4v'},</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="4"/>
+        <v>{'file':'cincodemargo/IMG_0516.m4v','title':'./cincodemargo/IMG_0516.m4v'},</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" ref="C188:C251" si="5">"{'file':'"&amp;A188&amp;"','title':'"&amp;B188&amp;"'},"</f>
+        <v>{'file':'cincodemargo/IMG_0531.m4v','title':'./cincodemargo/IMG_0531.m4v'},</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cincodemargo/IMG_0535.m4v','title':'./cincodemargo/IMG_0535.m4v'},</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cincodemargo/IMG_0549.m4v','title':'./cincodemargo/IMG_0549.m4v'},</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cincodemargo/IMG_0559.m4v','title':'./cincodemargo/IMG_0559.m4v'},</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cincodemargo/IMG_0562.m4v','title':'./cincodemargo/IMG_0562.m4v'},</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cincodemargo/IMG_0566.m4v','title':'./cincodemargo/IMG_0566.m4v'},</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cincodemargo/IMG_0567.m4v','title':'./cincodemargo/IMG_0567.m4v'},</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cincodemargo/IMG_0568.m4v','title':'./cincodemargo/IMG_0568.m4v'},</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cincodemargo/IMG_0570.m4v','title':'./cincodemargo/IMG_0570.m4v'},</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cracksabbath/ZOOM0001.m4v','title':'./cracksabbath/ZOOM0001.m4v'},</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cracksabbath/ZOOM0002.m4v','title':'./cracksabbath/ZOOM0002.m4v'},</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cracksabbath/ZOOM0003.m4v','title':'./cracksabbath/ZOOM0003.m4v'},</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cracksabbath/ZOOM0004.m4v','title':'./cracksabbath/ZOOM0004.m4v'},</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cracksabbath/ZOOM0005.m4v','title':'./cracksabbath/ZOOM0005.m4v'},</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cracksabbath/ZOOM0006.m4v','title':'./cracksabbath/ZOOM0006.m4v'},</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cracksabbath/ZOOM0007.m4v','title':'./cracksabbath/ZOOM0007.m4v'},</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cracksabbath/ZOOM0008.m4v','title':'./cracksabbath/ZOOM0008.m4v'},</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cracksabbath/ZOOM0009.m4v','title':'./cracksabbath/ZOOM0009.m4v'},</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'cracksabbath/ZOOM0010.m4v','title':'./cracksabbath/ZOOM0010.m4v'},</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'greenlake/IMG_0624.m4v','title':'./greenlake/IMG_0624.m4v'},</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'jefferson/IMG_0824.m4v','title':'./jefferson/IMG_0824.m4v'},</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'jefferson/IMG_0825.m4v','title':'./jefferson/IMG_0825.m4v'},</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0038.m4v','title':'./lastgasp/ZOOM0038.m4v'},</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0039.m4v','title':'./lastgasp/ZOOM0039.m4v'},</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C212" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0040.m4v','title':'./lastgasp/ZOOM0040.m4v'},</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0041.m4v','title':'./lastgasp/ZOOM0041.m4v'},</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0042.m4v','title':'./lastgasp/ZOOM0042.m4v'},</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0043.m4v','title':'./lastgasp/ZOOM0043.m4v'},</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0044.m4v','title':'./lastgasp/ZOOM0044.m4v'},</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0045.m4v','title':'./lastgasp/ZOOM0045.m4v'},</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0046.m4v','title':'./lastgasp/ZOOM0046.m4v'},</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0047.m4v','title':'./lastgasp/ZOOM0047.m4v'},</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0048.m4v','title':'./lastgasp/ZOOM0048.m4v'},</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0049.m4v','title':'./lastgasp/ZOOM0049.m4v'},</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0050.m4v','title':'./lastgasp/ZOOM0050.m4v'},</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'lastgasp/ZOOM0051.m4v','title':'./lastgasp/ZOOM0051.m4v'},</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'marginal/IMG_0054rotated.m4v','title':'./marginal/IMG_0054rotated.m4v'},</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'marginal/IMG_0055.m4v','title':'./marginal/IMG_0055.m4v'},</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'marginal/IMG_0056.m4v','title':'./marginal/IMG_0056.m4v'},</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'marginal/IMG_0059.m4v','title':'./marginal/IMG_0059.m4v'},</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'marginal/IMG_0069rotated.m4v','title':'./marginal/IMG_0069rotated.m4v'},</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0372.m4v','title':'./pride/IMG_0372.m4v'},</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0385.m4v','title':'./pride/IMG_0385.m4v'},</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0387.m4v','title':'./pride/IMG_0387.m4v'},</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0389.m4v','title':'./pride/IMG_0389.m4v'},</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0392.m4v','title':'./pride/IMG_0392.m4v'},</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0409.m4v','title':'./pride/IMG_0409.m4v'},</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0458.m4v','title':'./pride/IMG_0458.m4v'},</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0488.m4v','title':'./pride/IMG_0488.m4v'},</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0581.m4v','title':'./pride/IMG_0581.m4v'},</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0592.m4v','title':'./pride/IMG_0592.m4v'},</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0624.m4v','title':'./pride/IMG_0624.m4v'},</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0645.m4v','title':'./pride/IMG_0645.m4v'},</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0657.m4v','title':'./pride/IMG_0657.m4v'},</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'pride/IMG_0676.m4v','title':'./pride/IMG_0676.m4v'},</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'kaylacheering/kayla_cheerleading_20150215b.m4v','title':'./kaylacheering/kayla_cheerleading_20150215b.m4v'},</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'skate/IMG_4693.m4v','title':'./skate/IMG_4693.m4v'},</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'skate/IMG_4695.m4v','title':'./skate/IMG_4695.m4v'},</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'skate/IMG_4699.m4v','title':'./skate/IMG_4699.m4v'},</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'skate/IMG_4701.m4v','title':'./skate/IMG_4701.m4v'},</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'skate/IMG_4818.m4v','title':'./skate/IMG_4818.m4v'},</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'skate/IMG_4819.m4v','title':'./skate/IMG_4819.m4v'},</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'skate/IMG_4837.m4v','title':'./skate/IMG_4837.m4v'},</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="5"/>
+        <v>{'file':'skate/IMG_4838.m4v','title':'./skate/IMG_4838.m4v'},</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" ref="C252:C255" si="6">"{'file':'"&amp;A252&amp;"','title':'"&amp;B252&amp;"'},"</f>
+        <v>{'file':'skate/IMG_4839.m4v','title':'./skate/IMG_4839.m4v'},</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="6"/>
+        <v>{'file':'skate/IMG_4841.m4v','title':'./skate/IMG_4841.m4v'},</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="6"/>
+        <v>{'file':'skate/IMG_4843.m4v','title':'./skate/IMG_4843.m4v'},</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="6"/>
+        <v>{'file':'skate/NGNQ0173.m4v','title':'./skate/NGNQ0173.m4v'},</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:C255">
+    <sortCondition ref="B131"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -11812,10 +14156,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I1" sqref="I1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11823,707 +14167,469 @@
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>895</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>896</v>
+        <v>1085</v>
       </c>
       <c r="D1" t="s">
-        <v>897</v>
+        <v>1086</v>
       </c>
       <c r="E1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>898</v>
+        <v>19596401</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G1">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>899</v>
+        <v>1085</v>
       </c>
       <c r="D2" t="s">
-        <v>900</v>
+        <v>1086</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>901</v>
+        <v>4441292</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>902</v>
+        <v>1085</v>
       </c>
       <c r="D3" t="s">
-        <v>903</v>
+        <v>1086</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>904</v>
+        <v>13012711</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>905</v>
+        <v>1085</v>
       </c>
       <c r="D4" t="s">
-        <v>906</v>
+        <v>1086</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>907</v>
+        <v>1469884</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>908</v>
+        <v>1085</v>
       </c>
       <c r="D5" t="s">
-        <v>909</v>
+        <v>1086</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>910</v>
+        <v>42024525</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>911</v>
+        <v>1085</v>
       </c>
       <c r="D6" t="s">
-        <v>912</v>
+        <v>1086</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>913</v>
+        <v>6216851</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>914</v>
+        <v>1085</v>
       </c>
       <c r="D7" t="s">
-        <v>915</v>
+        <v>1086</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>916</v>
+        <v>54040212</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>917</v>
+        <v>1085</v>
       </c>
       <c r="D8" t="s">
-        <v>918</v>
+        <v>1086</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>919</v>
+        <v>29013074</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>920</v>
+        <v>1085</v>
       </c>
       <c r="D9" t="s">
-        <v>921</v>
+        <v>1086</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>922</v>
+        <v>33077999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>923</v>
+        <v>1085</v>
       </c>
       <c r="D10" t="s">
-        <v>924</v>
+        <v>1086</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>925</v>
+        <v>37349958</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>926</v>
+        <v>1085</v>
       </c>
       <c r="D11" t="s">
-        <v>927</v>
+        <v>1086</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>928</v>
+        <v>3510733</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>929</v>
+        <v>1085</v>
       </c>
       <c r="D12" t="s">
-        <v>930</v>
+        <v>1086</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>931</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>932</v>
-      </c>
-      <c r="D13" t="s">
-        <v>933</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>934</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>935</v>
-      </c>
-      <c r="D14" t="s">
-        <v>936</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>937</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>938</v>
-      </c>
-      <c r="D15" t="s">
-        <v>939</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>940</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>941</v>
-      </c>
-      <c r="D16" t="s">
-        <v>942</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>943</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>944</v>
-      </c>
-      <c r="D17" t="s">
-        <v>945</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>946</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>941</v>
-      </c>
-      <c r="D18" t="s">
-        <v>947</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>948</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>949</v>
-      </c>
-      <c r="D19" t="s">
-        <v>950</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>951</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>952</v>
-      </c>
-      <c r="D20" t="s">
-        <v>953</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>954</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>955</v>
-      </c>
-      <c r="D21" t="s">
-        <v>956</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>957</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>899</v>
-      </c>
-      <c r="D22" t="s">
-        <v>958</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>959</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>960</v>
-      </c>
-      <c r="D23" t="s">
-        <v>961</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>962</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>963</v>
-      </c>
-      <c r="D24" t="s">
-        <v>964</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>965</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>966</v>
-      </c>
-      <c r="D25" t="s">
-        <v>967</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>968</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>969</v>
-      </c>
-      <c r="D26" t="s">
-        <v>970</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>971</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>972</v>
-      </c>
-      <c r="D27" t="s">
-        <v>973</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>974</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>975</v>
-      </c>
-      <c r="D28" t="s">
-        <v>976</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>977</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>978</v>
-      </c>
-      <c r="D29" t="s">
-        <v>979</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>980</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>981</v>
-      </c>
-      <c r="D30" t="s">
-        <v>982</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>983</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>984</v>
-      </c>
-      <c r="D31" t="s">
-        <v>985</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>986</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>987</v>
-      </c>
-      <c r="D32" t="s">
-        <v>988</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>989</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>990</v>
-      </c>
-      <c r="D33" t="s">
-        <v>991</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>992</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>993</v>
-      </c>
-      <c r="D34" t="s">
-        <v>994</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>995</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>996</v>
-      </c>
-      <c r="D35" t="s">
-        <v>997</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>998</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>999</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>894</v>
-      </c>
+        <v>19940688</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G12">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="5"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="5"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="5"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="5"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="5"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="5"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="5"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="5"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="5"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="5"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="5"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="5"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="5"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="5"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="5"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="5"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="5"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="5"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="5"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="5"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="5"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="5"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="5"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="5"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="5"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="5"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="5"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="5"/>
+      <c r="E41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stuffedanimalwar.com/scratch.xlsx
+++ b/stuffedanimalwar.com/scratch.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="1448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="1506">
   <si>
     <t>ZOOM0001roxhillsessions20150827.mp3</t>
   </si>
@@ -4377,6 +4377,180 @@
   </si>
   <si>
     <t>ZOOM0021-SkerikTrio-OwlnThistle-20130227.mp3</t>
+  </si>
+  <si>
+    <t>IMG_4733.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4734.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4743.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4748.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4757.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4758.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4759.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4763.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4766.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4767.JPG</t>
+  </si>
+  <si>
+    <t>Photo01</t>
+  </si>
+  <si>
+    <t>Photo02</t>
+  </si>
+  <si>
+    <t>Photo03</t>
+  </si>
+  <si>
+    <t>Photo04</t>
+  </si>
+  <si>
+    <t>Photo05</t>
+  </si>
+  <si>
+    <t>Photo06</t>
+  </si>
+  <si>
+    <t>Photo07</t>
+  </si>
+  <si>
+    <t>Photo08</t>
+  </si>
+  <si>
+    <t>Photo09</t>
+  </si>
+  <si>
+    <t>Photo10</t>
+  </si>
+  <si>
+    <t>Song03</t>
+  </si>
+  <si>
+    <t>Song04</t>
+  </si>
+  <si>
+    <t>Song05</t>
+  </si>
+  <si>
+    <t>Song06</t>
+  </si>
+  <si>
+    <t>Song07</t>
+  </si>
+  <si>
+    <t>Song08</t>
+  </si>
+  <si>
+    <t>Song09</t>
+  </si>
+  <si>
+    <t>Song10</t>
+  </si>
+  <si>
+    <t>Song11</t>
+  </si>
+  <si>
+    <t>Song12</t>
+  </si>
+  <si>
+    <t>Song13</t>
+  </si>
+  <si>
+    <t>Song14</t>
+  </si>
+  <si>
+    <t>01ride2015.mp3</t>
+  </si>
+  <si>
+    <t>02ride2015.mp3</t>
+  </si>
+  <si>
+    <t>03ride2015.mp3</t>
+  </si>
+  <si>
+    <t>04ride2015.mp3</t>
+  </si>
+  <si>
+    <t>05ride2015.mp3</t>
+  </si>
+  <si>
+    <t>06ride2015.mp3</t>
+  </si>
+  <si>
+    <t>07ride2015.mp3</t>
+  </si>
+  <si>
+    <t>08ride2015.mp3</t>
+  </si>
+  <si>
+    <t>09ride2015.mp3</t>
+  </si>
+  <si>
+    <t>10ride2015.mp3</t>
+  </si>
+  <si>
+    <t>11ride2015.mp3</t>
+  </si>
+  <si>
+    <t>12ride2015.mp3</t>
+  </si>
+  <si>
+    <t>13ride2015.mp3</t>
+  </si>
+  <si>
+    <t>14ride2015.mp3</t>
+  </si>
+  <si>
+    <t>IMG_4733.jpg</t>
+  </si>
+  <si>
+    <t>IMG_4734.jpg</t>
+  </si>
+  <si>
+    <t>IMG_4743.jpg</t>
+  </si>
+  <si>
+    <t>IMG_4748.jpg</t>
+  </si>
+  <si>
+    <t>IMG_4757.jpg</t>
+  </si>
+  <si>
+    <t>IMG_4758.jpg</t>
+  </si>
+  <si>
+    <t>IMG_4759.jpg</t>
+  </si>
+  <si>
+    <t>IMG_4763.jpg</t>
+  </si>
+  <si>
+    <t>IMG_4766.jpg</t>
+  </si>
+  <si>
+    <t>IMG_4767.jpg</t>
+  </si>
+  <si>
+    <t>Leave Them All Behind</t>
+  </si>
+  <si>
+    <t>Twisterella</t>
   </si>
 </sst>
 </file>
@@ -4775,7 +4949,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4784,6 +4958,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="317">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5431,10 +5606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H653"/>
+  <dimension ref="A1:H687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A636" workbookViewId="0">
-      <selection activeCell="C653" sqref="C256:C653"/>
+    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
+      <selection activeCell="B666" sqref="B666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5443,7 +5618,7 @@
     <col min="2" max="2" width="58.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" hidden="1">
       <c r="A1" t="s">
         <v>1039</v>
       </c>
@@ -5451,11 +5626,11 @@
         <v>1040</v>
       </c>
       <c r="C1" t="str">
-        <f>"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
+        <f t="shared" ref="C1:C64" si="0">"{'file':'"&amp;A1&amp;"','title':'"&amp;B1&amp;"'},"</f>
         <v>{'file':'airplanejivetalkers.mp4','title':'Airplane Movie -Jive Talkers'},</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" t="s">
         <v>1043</v>
       </c>
@@ -5463,11 +5638,11 @@
         <v>1041</v>
       </c>
       <c r="C2" t="str">
-        <f>"{'file':'"&amp;A2&amp;"','title':'"&amp;B2&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'airplanejivetalkersorderfood.mp4','title':'Airplane Movie -Jive Talkers Order Food'},</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3" t="s">
         <v>1038</v>
       </c>
@@ -5475,11 +5650,11 @@
         <v>1042</v>
       </c>
       <c r="C3" t="str">
-        <f>"{'file':'"&amp;A3&amp;"','title':'"&amp;B3&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'airplanejivetalkersfoodsickwithjunecleaver.mp4','title':'Airplane Movie -Jive Talkers Sick with June Cleaver'},</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4" t="s">
         <v>1051</v>
       </c>
@@ -5487,11 +5662,11 @@
         <v>1067</v>
       </c>
       <c r="C4" t="str">
-        <f>"{'file':'"&amp;A4&amp;"','title':'"&amp;B4&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'09 All Your Secrets.mp3','title':'All Your Secrets'},</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" hidden="1">
       <c r="A5" t="s">
         <v>1047</v>
       </c>
@@ -5499,11 +5674,11 @@
         <v>1060</v>
       </c>
       <c r="C5" t="str">
-        <f>"{'file':'"&amp;A5&amp;"','title':'"&amp;B5&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'02 Avalon Or Someone Very Similar.mp3','title':'Avalon Or Someone Very Similar'},</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" hidden="1">
       <c r="A6" t="s">
         <v>1024</v>
       </c>
@@ -5511,11 +5686,11 @@
         <v>1031</v>
       </c>
       <c r="C6" t="str">
-        <f>"{'file':'"&amp;A6&amp;"','title':'"&amp;B6&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'Bats Do It.mp3','title':'Bats Do It'},</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" hidden="1">
       <c r="A7" t="s">
         <v>1045</v>
       </c>
@@ -5523,11 +5698,11 @@
         <v>1061</v>
       </c>
       <c r="C7" t="str">
-        <f>"{'file':'"&amp;A7&amp;"','title':'"&amp;B7&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'03 By Twos.mp3','title':'By Twos'},</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" hidden="1">
       <c r="A8" t="s">
         <v>1025</v>
       </c>
@@ -5535,11 +5710,11 @@
         <v>1032</v>
       </c>
       <c r="C8" t="str">
-        <f>"{'file':'"&amp;A8&amp;"','title':'"&amp;B8&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'Cannabalistic Attack.mp3','title':'Cannibalistic Attack'},</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" hidden="1">
       <c r="A9" t="s">
         <v>1010</v>
       </c>
@@ -5547,11 +5722,11 @@
         <v>998</v>
       </c>
       <c r="C9" t="str">
-        <f>"{'file':'"&amp;A9&amp;"','title':'"&amp;B9&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'gamemedia/cats.png','title':'Cat'},</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" hidden="1">
       <c r="A10" t="s">
         <v>1011</v>
       </c>
@@ -5559,11 +5734,11 @@
         <v>999</v>
       </c>
       <c r="C10" t="str">
-        <f>"{'file':'"&amp;A10&amp;"','title':'"&amp;B10&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'gamemedia/chickens.png','title':'Chicken'},</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" hidden="1">
       <c r="A11" t="s">
         <v>1012</v>
       </c>
@@ -5571,11 +5746,11 @@
         <v>1000</v>
       </c>
       <c r="C11" t="str">
-        <f>"{'file':'"&amp;A11&amp;"','title':'"&amp;B11&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'gamemedia/crocodiles.png','title':'Crocodile'},</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" hidden="1">
       <c r="A12" t="s">
         <v>1055</v>
       </c>
@@ -5583,11 +5758,11 @@
         <v>1074</v>
       </c>
       <c r="C12" t="str">
-        <f>"{'file':'"&amp;A12&amp;"','title':'"&amp;B12&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4659.JPG','title':'Daffodil'},</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" hidden="1">
       <c r="A13" t="s">
         <v>1013</v>
       </c>
@@ -5595,11 +5770,11 @@
         <v>1001</v>
       </c>
       <c r="C13" t="str">
-        <f>"{'file':'"&amp;A13&amp;"','title':'"&amp;B13&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'gamemedia/darthvader.png','title':'Darth Vader'},</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" hidden="1">
       <c r="A14" t="s">
         <v>1026</v>
       </c>
@@ -5607,11 +5782,11 @@
         <v>1033</v>
       </c>
       <c r="C14" t="str">
-        <f>"{'file':'"&amp;A14&amp;"','title':'"&amp;B14&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'Delirious.mp3    ','title':'Delirious'},</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" hidden="1">
       <c r="A15" t="s">
         <v>1014</v>
       </c>
@@ -5619,11 +5794,11 @@
         <v>1002</v>
       </c>
       <c r="C15" t="str">
-        <f>"{'file':'"&amp;A15&amp;"','title':'"&amp;B15&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'gamemedia/dogs.png','title':'Dog'},</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" hidden="1">
       <c r="A16" t="s">
         <v>1027</v>
       </c>
@@ -5631,11 +5806,11 @@
         <v>1034</v>
       </c>
       <c r="C16" t="str">
-        <f>"{'file':'"&amp;A16&amp;"','title':'"&amp;B16&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'God Knowledge.mp3','title':'God Knowledge'},</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" hidden="1">
       <c r="A17" t="s">
         <v>1057</v>
       </c>
@@ -5643,11 +5818,11 @@
         <v>1072</v>
       </c>
       <c r="C17" t="str">
-        <f>"{'file':'"&amp;A17&amp;"','title':'"&amp;B17&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4575.JPG','title':'Good Boy!'},</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18" t="s">
         <v>1056</v>
       </c>
@@ -5655,11 +5830,11 @@
         <v>1071</v>
       </c>
       <c r="C18" t="str">
-        <f>"{'file':'"&amp;A18&amp;"','title':'"&amp;B18&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4675.JPG','title':'Good Luck Kitteh!'},</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19" t="s">
         <v>1028</v>
       </c>
@@ -5667,11 +5842,11 @@
         <v>1035</v>
       </c>
       <c r="C19" t="str">
-        <f>"{'file':'"&amp;A19&amp;"','title':'"&amp;B19&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'Hella Buckarooni.mp3','title':'Hella Buckarooni'},</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" hidden="1">
       <c r="A20" t="s">
         <v>1044</v>
       </c>
@@ -5679,11 +5854,11 @@
         <v>1059</v>
       </c>
       <c r="C20" t="str">
-        <f>"{'file':'"&amp;A20&amp;"','title':'"&amp;B20&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'01 Here To Fall.mp3','title':'Here to Fall'},</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" hidden="1">
       <c r="A21" t="s">
         <v>1029</v>
       </c>
@@ -5691,11 +5866,11 @@
         <v>1036</v>
       </c>
       <c r="C21" t="str">
-        <f>"{'file':'"&amp;A21&amp;"','title':'"&amp;B21&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'Hop Off This Beat.mp3','title':'Hop Off This Beat'},</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" hidden="1">
       <c r="A22" t="s">
         <v>1075</v>
       </c>
@@ -5703,11 +5878,11 @@
         <v>1064</v>
       </c>
       <c r="C22" t="str">
-        <f>"{'file':'"&amp;A22&amp;"','title':'"&amp;B22&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'06 If Its True.mp3','title':'If Its True'},</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" hidden="1">
       <c r="A23" t="s">
         <v>1049</v>
       </c>
@@ -5715,11 +5890,11 @@
         <v>1065</v>
       </c>
       <c r="C23" t="str">
-        <f>"{'file':'"&amp;A23&amp;"','title':'"&amp;B23&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'07 Im On My Way.mp3','title':'Im On My Way'},</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" hidden="1">
       <c r="A24" t="s">
         <v>1019</v>
       </c>
@@ -5727,11 +5902,11 @@
         <v>1023</v>
       </c>
       <c r="C24" t="str">
-        <f>"{'file':'"&amp;A24&amp;"','title':'"&amp;B24&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'gamemedia/snakesonaplane.png','title':'Im tired of these motherfuckin stuffed animals on this motherfuckin game!'},</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" hidden="1">
       <c r="A25" t="s">
         <v>1030</v>
       </c>
@@ -5739,11 +5914,11 @@
         <v>1037</v>
       </c>
       <c r="C25" t="str">
-        <f>"{'file':'"&amp;A25&amp;"','title':'"&amp;B25&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'Just Beau By Himself.mp3','title':'Just Beau By Himself'},</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" hidden="1">
       <c r="A26" t="s">
         <v>1054</v>
       </c>
@@ -5751,11 +5926,11 @@
         <v>1073</v>
       </c>
       <c r="C26" t="str">
-        <f>"{'file':'"&amp;A26&amp;"','title':'"&amp;B26&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4599.JPG','title':'Kitteh Mehowh'},</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" hidden="1">
       <c r="A27" t="s">
         <v>1015</v>
       </c>
@@ -5763,11 +5938,11 @@
         <v>1003</v>
       </c>
       <c r="C27" t="str">
-        <f>"{'file':'"&amp;A27&amp;"','title':'"&amp;B27&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'gamemedia/lamblambs.png','title':'Lamb'},</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" hidden="1">
       <c r="A28" t="s">
         <v>666</v>
       </c>
@@ -5775,11 +5950,11 @@
         <v>790</v>
       </c>
       <c r="C28" t="str">
-        <f>"{'file':'"&amp;A28&amp;"','title':'"&amp;B28&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0038.jpg','title':'Last Gasp 1'},</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" hidden="1">
       <c r="A29" t="s">
         <v>675</v>
       </c>
@@ -5787,11 +5962,11 @@
         <v>799</v>
       </c>
       <c r="C29" t="str">
-        <f>"{'file':'"&amp;A29&amp;"','title':'"&amp;B29&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0047.jpg','title':'Last Gasp 10'},</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" hidden="1">
       <c r="A30" t="s">
         <v>676</v>
       </c>
@@ -5799,11 +5974,11 @@
         <v>800</v>
       </c>
       <c r="C30" t="str">
-        <f>"{'file':'"&amp;A30&amp;"','title':'"&amp;B30&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0048.jpg','title':'Last Gasp 11'},</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" hidden="1">
       <c r="A31" t="s">
         <v>677</v>
       </c>
@@ -5811,11 +5986,11 @@
         <v>801</v>
       </c>
       <c r="C31" t="str">
-        <f>"{'file':'"&amp;A31&amp;"','title':'"&amp;B31&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0049.jpg','title':'Last Gasp 12'},</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" hidden="1">
       <c r="A32" t="s">
         <v>678</v>
       </c>
@@ -5823,11 +5998,11 @@
         <v>802</v>
       </c>
       <c r="C32" t="str">
-        <f>"{'file':'"&amp;A32&amp;"','title':'"&amp;B32&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0050.jpg','title':'Last Gasp 13'},</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33" t="s">
         <v>679</v>
       </c>
@@ -5835,11 +6010,11 @@
         <v>803</v>
       </c>
       <c r="C33" t="str">
-        <f>"{'file':'"&amp;A33&amp;"','title':'"&amp;B33&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0051.jpg','title':'Last Gasp 14'},</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" hidden="1">
       <c r="A34" t="s">
         <v>667</v>
       </c>
@@ -5847,11 +6022,11 @@
         <v>791</v>
       </c>
       <c r="C34" t="str">
-        <f>"{'file':'"&amp;A34&amp;"','title':'"&amp;B34&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0039.jpg','title':'Last Gasp 2'},</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" hidden="1">
       <c r="A35" t="s">
         <v>668</v>
       </c>
@@ -5859,11 +6034,11 @@
         <v>792</v>
       </c>
       <c r="C35" t="str">
-        <f>"{'file':'"&amp;A35&amp;"','title':'"&amp;B35&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0040.jpg','title':'Last Gasp 3'},</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" hidden="1">
       <c r="A36" t="s">
         <v>669</v>
       </c>
@@ -5871,11 +6046,11 @@
         <v>793</v>
       </c>
       <c r="C36" t="str">
-        <f>"{'file':'"&amp;A36&amp;"','title':'"&amp;B36&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0041.jpg','title':'Last Gasp 4'},</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" hidden="1">
       <c r="A37" t="s">
         <v>670</v>
       </c>
@@ -5883,11 +6058,11 @@
         <v>794</v>
       </c>
       <c r="C37" t="str">
-        <f>"{'file':'"&amp;A37&amp;"','title':'"&amp;B37&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0042.jpg','title':'Last Gasp 5'},</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38" t="s">
         <v>671</v>
       </c>
@@ -5895,11 +6070,11 @@
         <v>795</v>
       </c>
       <c r="C38" t="str">
-        <f>"{'file':'"&amp;A38&amp;"','title':'"&amp;B38&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0043.jpg','title':'Last Gasp 6'},</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" hidden="1">
       <c r="A39" t="s">
         <v>672</v>
       </c>
@@ -5907,11 +6082,11 @@
         <v>796</v>
       </c>
       <c r="C39" t="str">
-        <f>"{'file':'"&amp;A39&amp;"','title':'"&amp;B39&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0044.jpg','title':'Last Gasp 7'},</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" hidden="1">
       <c r="A40" t="s">
         <v>673</v>
       </c>
@@ -5919,11 +6094,11 @@
         <v>797</v>
       </c>
       <c r="C40" t="str">
-        <f>"{'file':'"&amp;A40&amp;"','title':'"&amp;B40&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0045.jpg','title':'Last Gasp 8'},</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" hidden="1">
       <c r="A41" t="s">
         <v>674</v>
       </c>
@@ -5931,11 +6106,11 @@
         <v>798</v>
       </c>
       <c r="C41" t="str">
-        <f>"{'file':'"&amp;A41&amp;"','title':'"&amp;B41&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'ZOOM0046.jpg','title':'Last Gasp 9'},</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" hidden="1">
       <c r="A42" t="s">
         <v>1058</v>
       </c>
@@ -5943,11 +6118,11 @@
         <v>1070</v>
       </c>
       <c r="C42" t="str">
-        <f>"{'file':'"&amp;A42&amp;"','title':'"&amp;B42&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4691.JPG','title':'Leaf Blower'},</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" hidden="1">
       <c r="A43" t="s">
         <v>1016</v>
       </c>
@@ -5955,11 +6130,11 @@
         <v>1004</v>
       </c>
       <c r="C43" t="str">
-        <f>"{'file':'"&amp;A43&amp;"','title':'"&amp;B43&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'gamemedia/lions.png','title':'Lion'},</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" hidden="1">
       <c r="A44" t="s">
         <v>1081</v>
       </c>
@@ -5967,11 +6142,11 @@
         <v>1082</v>
       </c>
       <c r="C44" t="str">
-        <f>"{'file':'"&amp;A44&amp;"','title':'"&amp;B44&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':' jim-marginal-overthelight-march2015.mp4','title':'Marginal - Jim over the light'},</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" hidden="1">
       <c r="A45" t="s">
         <v>1076</v>
       </c>
@@ -5979,11 +6154,11 @@
         <v>1083</v>
       </c>
       <c r="C45" t="str">
-        <f>"{'file':'"&amp;A45&amp;"','title':'"&amp;B45&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':' IMG_0054rotated.m4v','title':'Marginal?'},</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" hidden="1">
       <c r="A46" t="s">
         <v>1077</v>
       </c>
@@ -5991,11 +6166,11 @@
         <v>1083</v>
       </c>
       <c r="C46" t="str">
-        <f>"{'file':'"&amp;A46&amp;"','title':'"&amp;B46&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_0055.m4v','title':'Marginal?'},</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" hidden="1">
       <c r="A47" t="s">
         <v>1078</v>
       </c>
@@ -6003,11 +6178,11 @@
         <v>1083</v>
       </c>
       <c r="C47" t="str">
-        <f>"{'file':'"&amp;A47&amp;"','title':'"&amp;B47&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_0056.m4v','title':'Marginal?'},</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" hidden="1">
       <c r="A48" t="s">
         <v>1079</v>
       </c>
@@ -6015,11 +6190,11 @@
         <v>1083</v>
       </c>
       <c r="C48" t="str">
-        <f>"{'file':'"&amp;A48&amp;"','title':'"&amp;B48&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_0059.m4v','title':'Marginal?'},</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" t="s">
         <v>1080</v>
       </c>
@@ -6027,11 +6202,11 @@
         <v>1083</v>
       </c>
       <c r="C49" t="str">
-        <f>"{'file':'"&amp;A49&amp;"','title':'"&amp;B49&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_0069rotated.m4v','title':'Marginal?'},</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" t="s">
         <v>1052</v>
       </c>
@@ -6039,11 +6214,11 @@
         <v>1068</v>
       </c>
       <c r="C50" t="str">
-        <f>"{'file':'"&amp;A50&amp;"','title':'"&amp;B50&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'10 More Stars Than There Are In Heaven.mp3','title':'More Stars Than There Are In Heaven'},</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
         <v>1046</v>
       </c>
@@ -6051,11 +6226,11 @@
         <v>1062</v>
       </c>
       <c r="C51" t="str">
-        <f>"{'file':'"&amp;A51&amp;"','title':'"&amp;B51&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'04 Nothing To Hide.mp3','title':'Nothing to Hide'},</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
         <v>1048</v>
       </c>
@@ -6063,11 +6238,11 @@
         <v>1063</v>
       </c>
       <c r="C52" t="str">
-        <f>"{'file':'"&amp;A52&amp;"','title':'"&amp;B52&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'05 Periodically Triple Or Double.mp3','title':'Periodically Triple Or Double'},</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
         <v>1017</v>
       </c>
@@ -6075,11 +6250,11 @@
         <v>1005</v>
       </c>
       <c r="C53" t="str">
-        <f>"{'file':'"&amp;A53&amp;"','title':'"&amp;B53&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'gamemedia/queen.png','title':'Queen'},</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
         <v>1018</v>
       </c>
@@ -6087,11 +6262,11 @@
         <v>1006</v>
       </c>
       <c r="C54" t="str">
-        <f>"{'file':'"&amp;A54&amp;"','title':'"&amp;B54&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'gamemedia/r2d2.png','title':'R2D2'},</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
         <v>895</v>
       </c>
@@ -6099,11 +6274,11 @@
         <v>936</v>
       </c>
       <c r="C55" t="str">
-        <f>"{'file':'"&amp;A55&amp;"','title':'"&amp;B55&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4504.JPG','title':'Sky Cries Mary - Neumos - 2015 - 001'},</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" t="s">
         <v>896</v>
       </c>
@@ -6111,11 +6286,11 @@
         <v>937</v>
       </c>
       <c r="C56" t="str">
-        <f>"{'file':'"&amp;A56&amp;"','title':'"&amp;B56&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4505.JPG','title':'Sky Cries Mary - Neumos - 2015 - 002'},</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
         <v>897</v>
       </c>
@@ -6123,12 +6298,12 @@
         <v>938</v>
       </c>
       <c r="C57" t="str">
-        <f>"{'file':'"&amp;A57&amp;"','title':'"&amp;B57&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4507.JPG','title':'Sky Cries Mary - Neumos - 2015 - 003'},</v>
       </c>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
         <v>898</v>
       </c>
@@ -6136,11 +6311,11 @@
         <v>939</v>
       </c>
       <c r="C58" t="str">
-        <f>"{'file':'"&amp;A58&amp;"','title':'"&amp;B58&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4509.JPG','title':'Sky Cries Mary - Neumos - 2015 - 004'},</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
         <v>899</v>
       </c>
@@ -6148,12 +6323,12 @@
         <v>940</v>
       </c>
       <c r="C59" t="str">
-        <f>"{'file':'"&amp;A59&amp;"','title':'"&amp;B59&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4510.JPG','title':'Sky Cries Mary - Neumos - 2015 - 005'},</v>
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" t="s">
         <v>900</v>
       </c>
@@ -6161,12 +6336,12 @@
         <v>941</v>
       </c>
       <c r="C60" t="str">
-        <f>"{'file':'"&amp;A60&amp;"','title':'"&amp;B60&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4512.JPG','title':'Sky Cries Mary - Neumos - 2015 - 006'},</v>
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
         <v>901</v>
       </c>
@@ -6174,12 +6349,12 @@
         <v>942</v>
       </c>
       <c r="C61" t="str">
-        <f>"{'file':'"&amp;A61&amp;"','title':'"&amp;B61&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4513.JPG','title':'Sky Cries Mary - Neumos - 2015 - 007'},</v>
       </c>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" t="s">
         <v>902</v>
       </c>
@@ -6187,12 +6362,12 @@
         <v>943</v>
       </c>
       <c r="C62" t="str">
-        <f>"{'file':'"&amp;A62&amp;"','title':'"&amp;B62&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4514.JPG','title':'Sky Cries Mary - Neumos - 2015 - 008'},</v>
       </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" t="s">
         <v>903</v>
       </c>
@@ -6200,12 +6375,12 @@
         <v>944</v>
       </c>
       <c r="C63" t="str">
-        <f>"{'file':'"&amp;A63&amp;"','title':'"&amp;B63&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4515.JPG','title':'Sky Cries Mary - Neumos - 2015 - 009'},</v>
       </c>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64" t="s">
         <v>904</v>
       </c>
@@ -6213,12 +6388,12 @@
         <v>945</v>
       </c>
       <c r="C64" t="str">
-        <f>"{'file':'"&amp;A64&amp;"','title':'"&amp;B64&amp;"'},"</f>
+        <f t="shared" si="0"/>
         <v>{'file':'IMG_4520.JPG','title':'Sky Cries Mary - Neumos - 2015 - 010'},</v>
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65" t="s">
         <v>905</v>
       </c>
@@ -6226,12 +6401,12 @@
         <v>946</v>
       </c>
       <c r="C65" t="str">
-        <f>"{'file':'"&amp;A65&amp;"','title':'"&amp;B65&amp;"'},"</f>
+        <f t="shared" ref="C65:C128" si="1">"{'file':'"&amp;A65&amp;"','title':'"&amp;B65&amp;"'},"</f>
         <v>{'file':'IMG_4521.JPG','title':'Sky Cries Mary - Neumos - 2015 - 011'},</v>
       </c>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66" t="s">
         <v>906</v>
       </c>
@@ -6239,11 +6414,11 @@
         <v>947</v>
       </c>
       <c r="C66" t="str">
-        <f>"{'file':'"&amp;A66&amp;"','title':'"&amp;B66&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4522.JPG','title':'Sky Cries Mary - Neumos - 2015 - 012'},</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" hidden="1">
       <c r="A67" t="s">
         <v>907</v>
       </c>
@@ -6251,12 +6426,12 @@
         <v>948</v>
       </c>
       <c r="C67" t="str">
-        <f>"{'file':'"&amp;A67&amp;"','title':'"&amp;B67&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4523.JPG','title':'Sky Cries Mary - Neumos - 2015 - 013'},</v>
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68" t="s">
         <v>908</v>
       </c>
@@ -6264,12 +6439,12 @@
         <v>949</v>
       </c>
       <c r="C68" t="str">
-        <f>"{'file':'"&amp;A68&amp;"','title':'"&amp;B68&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4524.JPG','title':'Sky Cries Mary - Neumos - 2015 - 014'},</v>
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" t="s">
         <v>909</v>
       </c>
@@ -6277,12 +6452,12 @@
         <v>950</v>
       </c>
       <c r="C69" t="str">
-        <f>"{'file':'"&amp;A69&amp;"','title':'"&amp;B69&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4525.JPG','title':'Sky Cries Mary - Neumos - 2015 - 015'},</v>
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" t="s">
         <v>910</v>
       </c>
@@ -6290,12 +6465,12 @@
         <v>951</v>
       </c>
       <c r="C70" t="str">
-        <f>"{'file':'"&amp;A70&amp;"','title':'"&amp;B70&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4526.JPG','title':'Sky Cries Mary - Neumos - 2015 - 016'},</v>
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" t="s">
         <v>911</v>
       </c>
@@ -6303,12 +6478,12 @@
         <v>952</v>
       </c>
       <c r="C71" t="str">
-        <f>"{'file':'"&amp;A71&amp;"','title':'"&amp;B71&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4527.JPG','title':'Sky Cries Mary - Neumos - 2015 - 017'},</v>
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" t="s">
         <v>912</v>
       </c>
@@ -6316,12 +6491,12 @@
         <v>953</v>
       </c>
       <c r="C72" t="str">
-        <f>"{'file':'"&amp;A72&amp;"','title':'"&amp;B72&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4528.JPG','title':'Sky Cries Mary - Neumos - 2015 - 018'},</v>
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" t="s">
         <v>913</v>
       </c>
@@ -6329,12 +6504,12 @@
         <v>954</v>
       </c>
       <c r="C73" t="str">
-        <f>"{'file':'"&amp;A73&amp;"','title':'"&amp;B73&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4529.JPG','title':'Sky Cries Mary - Neumos - 2015 - 019'},</v>
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" t="s">
         <v>914</v>
       </c>
@@ -6342,11 +6517,11 @@
         <v>955</v>
       </c>
       <c r="C74" t="str">
-        <f>"{'file':'"&amp;A74&amp;"','title':'"&amp;B74&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4530.JPG','title':'Sky Cries Mary - Neumos - 2015 - 020'},</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75" t="s">
         <v>915</v>
       </c>
@@ -6354,12 +6529,12 @@
         <v>956</v>
       </c>
       <c r="C75" t="str">
-        <f>"{'file':'"&amp;A75&amp;"','title':'"&amp;B75&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4531.JPG','title':'Sky Cries Mary - Neumos - 2015 - 021'},</v>
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" t="s">
         <v>916</v>
       </c>
@@ -6367,12 +6542,12 @@
         <v>957</v>
       </c>
       <c r="C76" t="str">
-        <f>"{'file':'"&amp;A76&amp;"','title':'"&amp;B76&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4532.JPG','title':'Sky Cries Mary - Neumos - 2015 - 022'},</v>
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77" t="s">
         <v>917</v>
       </c>
@@ -6380,12 +6555,12 @@
         <v>958</v>
       </c>
       <c r="C77" t="str">
-        <f>"{'file':'"&amp;A77&amp;"','title':'"&amp;B77&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4533.JPG','title':'Sky Cries Mary - Neumos - 2015 - 023'},</v>
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" t="s">
         <v>918</v>
       </c>
@@ -6393,12 +6568,12 @@
         <v>959</v>
       </c>
       <c r="C78" t="str">
-        <f>"{'file':'"&amp;A78&amp;"','title':'"&amp;B78&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4534.JPG','title':'Sky Cries Mary - Neumos - 2015 - 024'},</v>
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" t="s">
         <v>919</v>
       </c>
@@ -6406,12 +6581,12 @@
         <v>960</v>
       </c>
       <c r="C79" t="str">
-        <f>"{'file':'"&amp;A79&amp;"','title':'"&amp;B79&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4535.JPG','title':'Sky Cries Mary - Neumos - 2015 - 025'},</v>
       </c>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80" t="s">
         <v>920</v>
       </c>
@@ -6419,11 +6594,11 @@
         <v>961</v>
       </c>
       <c r="C80" t="str">
-        <f>"{'file':'"&amp;A80&amp;"','title':'"&amp;B80&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4536.JPG','title':'Sky Cries Mary - Neumos - 2015 - 026'},</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" hidden="1">
       <c r="A81" t="s">
         <v>921</v>
       </c>
@@ -6431,11 +6606,11 @@
         <v>962</v>
       </c>
       <c r="C81" t="str">
-        <f>"{'file':'"&amp;A81&amp;"','title':'"&amp;B81&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4537.JPG','title':'Sky Cries Mary - Neumos - 2015 - 027'},</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" hidden="1">
       <c r="A82" t="s">
         <v>922</v>
       </c>
@@ -6443,11 +6618,11 @@
         <v>963</v>
       </c>
       <c r="C82" t="str">
-        <f>"{'file':'"&amp;A82&amp;"','title':'"&amp;B82&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4539.JPG','title':'Sky Cries Mary - Neumos - 2015 - 028'},</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" hidden="1">
       <c r="A83" t="s">
         <v>923</v>
       </c>
@@ -6455,11 +6630,11 @@
         <v>964</v>
       </c>
       <c r="C83" t="str">
-        <f>"{'file':'"&amp;A83&amp;"','title':'"&amp;B83&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4540.JPG','title':'Sky Cries Mary - Neumos - 2015 - 029'},</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" hidden="1">
       <c r="A84" t="s">
         <v>924</v>
       </c>
@@ -6467,11 +6642,11 @@
         <v>965</v>
       </c>
       <c r="C84" t="str">
-        <f>"{'file':'"&amp;A84&amp;"','title':'"&amp;B84&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4541.JPG','title':'Sky Cries Mary - Neumos - 2015 - 030'},</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" hidden="1">
       <c r="A85" t="s">
         <v>925</v>
       </c>
@@ -6479,11 +6654,11 @@
         <v>966</v>
       </c>
       <c r="C85" t="str">
-        <f>"{'file':'"&amp;A85&amp;"','title':'"&amp;B85&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4542.JPG','title':'Sky Cries Mary - Neumos - 2015 - 031'},</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" hidden="1">
       <c r="A86" t="s">
         <v>926</v>
       </c>
@@ -6491,11 +6666,11 @@
         <v>967</v>
       </c>
       <c r="C86" t="str">
-        <f>"{'file':'"&amp;A86&amp;"','title':'"&amp;B86&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4543.JPG','title':'Sky Cries Mary - Neumos - 2015 - 032'},</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" hidden="1">
       <c r="A87" t="s">
         <v>927</v>
       </c>
@@ -6503,11 +6678,11 @@
         <v>968</v>
       </c>
       <c r="C87" t="str">
-        <f>"{'file':'"&amp;A87&amp;"','title':'"&amp;B87&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4544.JPG','title':'Sky Cries Mary - Neumos - 2015 - 033'},</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" hidden="1">
       <c r="A88" t="s">
         <v>928</v>
       </c>
@@ -6515,11 +6690,11 @@
         <v>969</v>
       </c>
       <c r="C88" t="str">
-        <f>"{'file':'"&amp;A88&amp;"','title':'"&amp;B88&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4545.JPG','title':'Sky Cries Mary - Neumos - 2015 - 034'},</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" hidden="1">
       <c r="A89" t="s">
         <v>929</v>
       </c>
@@ -6527,11 +6702,11 @@
         <v>970</v>
       </c>
       <c r="C89" t="str">
-        <f>"{'file':'"&amp;A89&amp;"','title':'"&amp;B89&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4546.JPG','title':'Sky Cries Mary - Neumos - 2015 - 035'},</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90" t="s">
         <v>930</v>
       </c>
@@ -6539,11 +6714,11 @@
         <v>971</v>
       </c>
       <c r="C90" t="str">
-        <f>"{'file':'"&amp;A90&amp;"','title':'"&amp;B90&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4547.JPG','title':'Sky Cries Mary - Neumos - 2015 - 036'},</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" hidden="1">
       <c r="A91" t="s">
         <v>931</v>
       </c>
@@ -6551,11 +6726,11 @@
         <v>972</v>
       </c>
       <c r="C91" t="str">
-        <f>"{'file':'"&amp;A91&amp;"','title':'"&amp;B91&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4548.JPG','title':'Sky Cries Mary - Neumos - 2015 - 037'},</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" t="s">
         <v>932</v>
       </c>
@@ -6563,11 +6738,11 @@
         <v>973</v>
       </c>
       <c r="C92" t="str">
-        <f>"{'file':'"&amp;A92&amp;"','title':'"&amp;B92&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4549.JPG','title':'Sky Cries Mary - Neumos - 2015 - 038'},</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" t="s">
         <v>933</v>
       </c>
@@ -6575,11 +6750,11 @@
         <v>974</v>
       </c>
       <c r="C93" t="str">
-        <f>"{'file':'"&amp;A93&amp;"','title':'"&amp;B93&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4551.JPG','title':'Sky Cries Mary - Neumos - 2015 - 039'},</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" hidden="1">
       <c r="A94" t="s">
         <v>934</v>
       </c>
@@ -6587,11 +6762,11 @@
         <v>975</v>
       </c>
       <c r="C94" t="str">
-        <f>"{'file':'"&amp;A94&amp;"','title':'"&amp;B94&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4553.JPG','title':'Sky Cries Mary - Neumos - 2015 - 040'},</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" hidden="1">
       <c r="A95" t="s">
         <v>935</v>
       </c>
@@ -6599,11 +6774,11 @@
         <v>976</v>
       </c>
       <c r="C95" t="str">
-        <f>"{'file':'"&amp;A95&amp;"','title':'"&amp;B95&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4554.JPG','title':'Sky Cries Mary - Neumos - 2015 - 041'},</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96" t="s">
         <v>894</v>
       </c>
@@ -6611,11 +6786,11 @@
         <v>977</v>
       </c>
       <c r="C96" t="str">
-        <f>"{'file':'"&amp;A96&amp;"','title':'"&amp;B96&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4558.JPG','title':'Sky Cries Mary - Neumos - 2015 - 042'},</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" t="s">
         <v>983</v>
       </c>
@@ -6623,11 +6798,11 @@
         <v>990</v>
       </c>
       <c r="C97" t="str">
-        <f>"{'file':'"&amp;A97&amp;"','title':'"&amp;B97&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'skycriesmaryneumos201501.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 01'},</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" t="s">
         <v>984</v>
       </c>
@@ -6635,11 +6810,11 @@
         <v>991</v>
       </c>
       <c r="C98" t="str">
-        <f>"{'file':'"&amp;A98&amp;"','title':'"&amp;B98&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'skycriesmaryneumos201502.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 02'},</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" t="s">
         <v>985</v>
       </c>
@@ -6647,11 +6822,11 @@
         <v>992</v>
       </c>
       <c r="C99" t="str">
-        <f>"{'file':'"&amp;A99&amp;"','title':'"&amp;B99&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'skycriesmaryneumos201503.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 03'},</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" t="s">
         <v>986</v>
       </c>
@@ -6659,11 +6834,11 @@
         <v>993</v>
       </c>
       <c r="C100" t="str">
-        <f>"{'file':'"&amp;A100&amp;"','title':'"&amp;B100&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'skycriesmaryneumos201504.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 04'},</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" t="s">
         <v>987</v>
       </c>
@@ -6671,11 +6846,11 @@
         <v>994</v>
       </c>
       <c r="C101" t="str">
-        <f>"{'file':'"&amp;A101&amp;"','title':'"&amp;B101&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'skycriesmaryneumos201505.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 05'},</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" t="s">
         <v>988</v>
       </c>
@@ -6683,11 +6858,11 @@
         <v>995</v>
       </c>
       <c r="C102" t="str">
-        <f>"{'file':'"&amp;A102&amp;"','title':'"&amp;B102&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'skycriesmaryneumos201506.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 06'},</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" hidden="1">
       <c r="A103" t="s">
         <v>989</v>
       </c>
@@ -6695,11 +6870,11 @@
         <v>996</v>
       </c>
       <c r="C103" t="str">
-        <f>"{'file':'"&amp;A103&amp;"','title':'"&amp;B103&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'skycriesmaryneumos201507.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 07'},</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" hidden="1">
       <c r="A104" t="s">
         <v>982</v>
       </c>
@@ -6707,11 +6882,11 @@
         <v>997</v>
       </c>
       <c r="C104" t="str">
-        <f>"{'file':'"&amp;A104&amp;"','title':'"&amp;B104&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'skycriesmaryneumos201508.mp3','title':'Sky Cries Mary - Neumos - 2015 - Second Set 08'},</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105" t="s">
         <v>978</v>
       </c>
@@ -6719,11 +6894,11 @@
         <v>980</v>
       </c>
       <c r="C105" t="str">
-        <f>"{'file':'"&amp;A105&amp;"','title':'"&amp;B105&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4516.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video01'},</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" t="s">
         <v>979</v>
       </c>
@@ -6731,11 +6906,11 @@
         <v>981</v>
       </c>
       <c r="C106" t="str">
-        <f>"{'file':'"&amp;A106&amp;"','title':'"&amp;B106&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4519.mp4','title':'Sky Cries Mary - Neumos - 2015 - Video02'},</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" t="s">
         <v>1020</v>
       </c>
@@ -6743,11 +6918,11 @@
         <v>1007</v>
       </c>
       <c r="C107" t="str">
-        <f>"{'file':'"&amp;A107&amp;"','title':'"&amp;B107&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'gamemedia/stormtrooper.png','title':'Storm Trooper'},</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108" t="s">
         <v>1053</v>
       </c>
@@ -6755,11 +6930,11 @@
         <v>1069</v>
       </c>
       <c r="C108" t="str">
-        <f>"{'file':'"&amp;A108&amp;"','title':'"&amp;B108&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'11 The Fireside.mp3','title':'The Fireside'},</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109" t="s">
         <v>1084</v>
       </c>
@@ -6767,11 +6942,11 @@
         <v>1096</v>
       </c>
       <c r="C109" t="str">
-        <f>"{'file':'"&amp;A109&amp;"','title':'"&amp;B109&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4693.m4v','title':'Video 01'},</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110" t="s">
         <v>1085</v>
       </c>
@@ -6779,11 +6954,11 @@
         <v>1097</v>
       </c>
       <c r="C110" t="str">
-        <f>"{'file':'"&amp;A110&amp;"','title':'"&amp;B110&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4695.m4v','title':'Video 02'},</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111" t="s">
         <v>1086</v>
       </c>
@@ -6791,11 +6966,11 @@
         <v>1098</v>
       </c>
       <c r="C111" t="str">
-        <f>"{'file':'"&amp;A111&amp;"','title':'"&amp;B111&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4699.m4v','title':'Video 03'},</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112" t="s">
         <v>1087</v>
       </c>
@@ -6803,11 +6978,11 @@
         <v>1099</v>
       </c>
       <c r="C112" t="str">
-        <f>"{'file':'"&amp;A112&amp;"','title':'"&amp;B112&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4701.m4v','title':'Video 04'},</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1">
       <c r="A113" t="s">
         <v>1088</v>
       </c>
@@ -6815,11 +6990,11 @@
         <v>1100</v>
       </c>
       <c r="C113" t="str">
-        <f>"{'file':'"&amp;A113&amp;"','title':'"&amp;B113&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4818.m4v','title':'Video 05'},</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" t="s">
         <v>1089</v>
       </c>
@@ -6827,11 +7002,11 @@
         <v>1101</v>
       </c>
       <c r="C114" t="str">
-        <f>"{'file':'"&amp;A114&amp;"','title':'"&amp;B114&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4819.m4v','title':'Video 06'},</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" hidden="1">
       <c r="A115" t="s">
         <v>1090</v>
       </c>
@@ -6839,11 +7014,11 @@
         <v>1102</v>
       </c>
       <c r="C115" t="str">
-        <f>"{'file':'"&amp;A115&amp;"','title':'"&amp;B115&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4837.m4v','title':'Video 07'},</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116" t="s">
         <v>1091</v>
       </c>
@@ -6851,11 +7026,11 @@
         <v>1103</v>
       </c>
       <c r="C116" t="str">
-        <f>"{'file':'"&amp;A116&amp;"','title':'"&amp;B116&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4838.m4v','title':'Video 08'},</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117" t="s">
         <v>1092</v>
       </c>
@@ -6863,11 +7038,11 @@
         <v>1104</v>
       </c>
       <c r="C117" t="str">
-        <f>"{'file':'"&amp;A117&amp;"','title':'"&amp;B117&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4839.m4v','title':'Video 09'},</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118" t="s">
         <v>1093</v>
       </c>
@@ -6875,11 +7050,11 @@
         <v>1105</v>
       </c>
       <c r="C118" t="str">
-        <f>"{'file':'"&amp;A118&amp;"','title':'"&amp;B118&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4841.m4v','title':'Video 10'},</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" t="s">
         <v>1094</v>
       </c>
@@ -6887,11 +7062,11 @@
         <v>1106</v>
       </c>
       <c r="C119" t="str">
-        <f>"{'file':'"&amp;A119&amp;"','title':'"&amp;B119&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'IMG_4843.m4v','title':'Video 11'},</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120" t="s">
         <v>1095</v>
       </c>
@@ -6899,11 +7074,11 @@
         <v>1107</v>
       </c>
       <c r="C120" t="str">
-        <f>"{'file':'"&amp;A120&amp;"','title':'"&amp;B120&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'NGNQ0173.m4v','title':'Video 12'},</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121" t="s">
         <v>1050</v>
       </c>
@@ -6911,11 +7086,11 @@
         <v>1066</v>
       </c>
       <c r="C121" t="str">
-        <f>"{'file':'"&amp;A121&amp;"','title':'"&amp;B121&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'08 When Its Dark.mp3','title':'When Its Dark'},</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" t="s">
         <v>1022</v>
       </c>
@@ -6923,11 +7098,11 @@
         <v>1009</v>
       </c>
       <c r="C122" t="str">
-        <f>"{'file':'"&amp;A122&amp;"','title':'"&amp;B122&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'gamemedia/yoda.png','title':'Yoda'},</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" t="s">
         <v>1021</v>
       </c>
@@ -6935,11 +7110,11 @@
         <v>1008</v>
       </c>
       <c r="C123" t="str">
-        <f>"{'file':'"&amp;A123&amp;"','title':'"&amp;B123&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'gamemedia/thechosenone.png','title':'You were the chosen one!'},</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" t="s">
         <v>439</v>
       </c>
@@ -6947,11 +7122,11 @@
         <v>1108</v>
       </c>
       <c r="C124" t="str">
-        <f>"{'file':'"&amp;A124&amp;"','title':'"&amp;B124&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'marginal/jim-marginal-overthelight-march2015.mp4','title':'./marginal/jim-marginal-overthelight-march2015.mp4'},</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" t="s">
         <v>425</v>
       </c>
@@ -6959,11 +7134,11 @@
         <v>1109</v>
       </c>
       <c r="C125" t="str">
-        <f>"{'file':'"&amp;A125&amp;"','title':'"&amp;B125&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'wxpfl/IMG_0098.mp4','title':'./wxpfl/IMG_0098.mp4'},</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126" t="s">
         <v>426</v>
       </c>
@@ -6971,11 +7146,11 @@
         <v>1110</v>
       </c>
       <c r="C126" t="str">
-        <f>"{'file':'"&amp;A126&amp;"','title':'"&amp;B126&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'wxpfl/IMG_0101.mp4','title':'./wxpfl/IMG_0101.mp4'},</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127" t="s">
         <v>427</v>
       </c>
@@ -6983,11 +7158,11 @@
         <v>1111</v>
       </c>
       <c r="C127" t="str">
-        <f>"{'file':'"&amp;A127&amp;"','title':'"&amp;B127&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'wxpfl/IMG_0103.mp4','title':'./wxpfl/IMG_0103.mp4'},</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128" t="s">
         <v>428</v>
       </c>
@@ -6995,11 +7170,11 @@
         <v>1112</v>
       </c>
       <c r="C128" t="str">
-        <f>"{'file':'"&amp;A128&amp;"','title':'"&amp;B128&amp;"'},"</f>
+        <f t="shared" si="1"/>
         <v>{'file':'wxpfl/IMG_0106.mp4','title':'./wxpfl/IMG_0106.mp4'},</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" hidden="1">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -7007,11 +7182,11 @@
         <v>1113</v>
       </c>
       <c r="C129" t="str">
-        <f>"{'file':'"&amp;A129&amp;"','title':'"&amp;B129&amp;"'},"</f>
+        <f t="shared" ref="C129:C192" si="2">"{'file':'"&amp;A129&amp;"','title':'"&amp;B129&amp;"'},"</f>
         <v>{'file':'wxpfl/IMG_0109.mp4','title':'./wxpfl/IMG_0109.mp4'},</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" hidden="1">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -7019,11 +7194,11 @@
         <v>1114</v>
       </c>
       <c r="C130" t="str">
-        <f>"{'file':'"&amp;A130&amp;"','title':'"&amp;B130&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'wxpfl/IMG_0113.mp4','title':'./wxpfl/IMG_0113.mp4'},</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" hidden="1">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -7031,11 +7206,11 @@
         <v>1115</v>
       </c>
       <c r="C131" t="str">
-        <f>"{'file':'"&amp;A131&amp;"','title':'"&amp;B131&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'wxpfl/IMG_0116.mp4','title':'./wxpfl/IMG_0116.mp4'},</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" hidden="1">
       <c r="A132" t="s">
         <v>432</v>
       </c>
@@ -7043,11 +7218,11 @@
         <v>1116</v>
       </c>
       <c r="C132" t="str">
-        <f>"{'file':'"&amp;A132&amp;"','title':'"&amp;B132&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'wxpfl/IMG_0117.mp4','title':'./wxpfl/IMG_0117.mp4'},</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" hidden="1">
       <c r="A133" t="s">
         <v>433</v>
       </c>
@@ -7055,11 +7230,11 @@
         <v>1117</v>
       </c>
       <c r="C133" t="str">
-        <f>"{'file':'"&amp;A133&amp;"','title':'"&amp;B133&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'wxpfl/IMG_0119.mp4','title':'./wxpfl/IMG_0119.mp4'},</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" hidden="1">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -7067,11 +7242,11 @@
         <v>1118</v>
       </c>
       <c r="C134" t="str">
-        <f>"{'file':'"&amp;A134&amp;"','title':'"&amp;B134&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'wxpfl/IMG_0120.mp4','title':'./wxpfl/IMG_0120.mp4'},</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" hidden="1">
       <c r="A135" t="s">
         <v>435</v>
       </c>
@@ -7079,11 +7254,11 @@
         <v>1119</v>
       </c>
       <c r="C135" t="str">
-        <f>"{'file':'"&amp;A135&amp;"','title':'"&amp;B135&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'wxpfl/IMG_0127.mp4','title':'./wxpfl/IMG_0127.mp4'},</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" hidden="1">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -7091,11 +7266,11 @@
         <v>1120</v>
       </c>
       <c r="C136" t="str">
-        <f>"{'file':'"&amp;A136&amp;"','title':'"&amp;B136&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'wxpfl/wxpfl-greenwood-201411.mp4','title':'./wxpfl/wxpfl-greenwood-201411.mp4'},</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" hidden="1">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -7103,11 +7278,11 @@
         <v>1121</v>
       </c>
       <c r="C137" t="str">
-        <f>"{'file':'"&amp;A137&amp;"','title':'"&amp;B137&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'kaylacheering/kayla_cheerleading_20150215.mp4','title':'./kaylacheering/kayla_cheerleading_20150215.mp4'},</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" hidden="1">
       <c r="A138" t="s">
         <v>438</v>
       </c>
@@ -7115,11 +7290,11 @@
         <v>1122</v>
       </c>
       <c r="C138" t="str">
-        <f>"{'file':'"&amp;A138&amp;"','title':'"&amp;B138&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'kaylacheering/kayla_cheerleading_20150215b.mp4','title':'./kaylacheering/kayla_cheerleading_20150215b.mp4'},</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" hidden="1">
       <c r="A139" t="s">
         <v>1240</v>
       </c>
@@ -7127,11 +7302,11 @@
         <v>1123</v>
       </c>
       <c r="C139" t="str">
-        <f>"{'file':'"&amp;A139&amp;"','title':'"&amp;B139&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4285.mp4','title':'./houston2015/IMG_4285.mp4'},</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" hidden="1">
       <c r="A140" t="s">
         <v>1241</v>
       </c>
@@ -7139,11 +7314,11 @@
         <v>1124</v>
       </c>
       <c r="C140" t="str">
-        <f>"{'file':'"&amp;A140&amp;"','title':'"&amp;B140&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4348.mp4','title':'./houston2015/IMG_4348.mp4'},</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" hidden="1">
       <c r="A141" t="s">
         <v>1242</v>
       </c>
@@ -7151,11 +7326,11 @@
         <v>1125</v>
       </c>
       <c r="C141" t="str">
-        <f>"{'file':'"&amp;A141&amp;"','title':'"&amp;B141&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4090.mp4','title':'./houston2015/IMG_4090.mp4'},</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" hidden="1">
       <c r="A142" t="s">
         <v>1243</v>
       </c>
@@ -7163,11 +7338,11 @@
         <v>1126</v>
       </c>
       <c r="C142" t="str">
-        <f>"{'file':'"&amp;A142&amp;"','title':'"&amp;B142&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4091.mp4','title':'./houston2015/IMG_4091.mp4'},</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" hidden="1">
       <c r="A143" t="s">
         <v>1244</v>
       </c>
@@ -7175,11 +7350,11 @@
         <v>1127</v>
       </c>
       <c r="C143" t="str">
-        <f>"{'file':'"&amp;A143&amp;"','title':'"&amp;B143&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4092.mp4','title':'./houston2015/IMG_4092.mp4'},</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" hidden="1">
       <c r="A144" t="s">
         <v>1245</v>
       </c>
@@ -7187,11 +7362,11 @@
         <v>1128</v>
       </c>
       <c r="C144" t="str">
-        <f>"{'file':'"&amp;A144&amp;"','title':'"&amp;B144&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4111.mp4','title':'./houston2015/IMG_4111.mp4'},</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" hidden="1">
       <c r="A145" t="s">
         <v>1246</v>
       </c>
@@ -7199,11 +7374,11 @@
         <v>1129</v>
       </c>
       <c r="C145" t="str">
-        <f>"{'file':'"&amp;A145&amp;"','title':'"&amp;B145&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4125.mp4','title':'./houston2015/IMG_4125.mp4'},</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" hidden="1">
       <c r="A146" t="s">
         <v>1247</v>
       </c>
@@ -7211,11 +7386,11 @@
         <v>1130</v>
       </c>
       <c r="C146" t="str">
-        <f>"{'file':'"&amp;A146&amp;"','title':'"&amp;B146&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4126.mp4','title':'./houston2015/IMG_4126.mp4'},</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" hidden="1">
       <c r="A147" t="s">
         <v>1248</v>
       </c>
@@ -7223,11 +7398,11 @@
         <v>1131</v>
       </c>
       <c r="C147" t="str">
-        <f>"{'file':'"&amp;A147&amp;"','title':'"&amp;B147&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4127.mp4','title':'./houston2015/IMG_4127.mp4'},</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" hidden="1">
       <c r="A148" t="s">
         <v>1249</v>
       </c>
@@ -7235,11 +7410,11 @@
         <v>1132</v>
       </c>
       <c r="C148" t="str">
-        <f>"{'file':'"&amp;A148&amp;"','title':'"&amp;B148&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4258.mp4','title':'./houston2015/IMG_4258.mp4'},</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" hidden="1">
       <c r="A149" t="s">
         <v>1250</v>
       </c>
@@ -7247,11 +7422,11 @@
         <v>1133</v>
       </c>
       <c r="C149" t="str">
-        <f>"{'file':'"&amp;A149&amp;"','title':'"&amp;B149&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4260.mp4','title':'./houston2015/IMG_4260.mp4'},</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" hidden="1">
       <c r="A150" t="s">
         <v>1251</v>
       </c>
@@ -7259,11 +7434,11 @@
         <v>1134</v>
       </c>
       <c r="C150" t="str">
-        <f>"{'file':'"&amp;A150&amp;"','title':'"&amp;B150&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'houston2015/IMG_4345.mp4','title':'./houston2015/IMG_4345.mp4'},</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" hidden="1">
       <c r="A151" t="s">
         <v>1252</v>
       </c>
@@ -7271,11 +7446,11 @@
         <v>1135</v>
       </c>
       <c r="C151" t="str">
-        <f>"{'file':'"&amp;A151&amp;"','title':'"&amp;B151&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skycriesmary/IMG_4516.mp4','title':'./skycriesmary/IMG_4516.mp4'},</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" hidden="1">
       <c r="A152" t="s">
         <v>1253</v>
       </c>
@@ -7283,11 +7458,11 @@
         <v>1136</v>
       </c>
       <c r="C152" t="str">
-        <f>"{'file':'"&amp;A152&amp;"','title':'"&amp;B152&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skycriesmary/IMG_4519.mp4','title':'./skycriesmary/IMG_4519.mp4'},</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" hidden="1">
       <c r="A153" t="s">
         <v>1254</v>
       </c>
@@ -7295,11 +7470,11 @@
         <v>1137</v>
       </c>
       <c r="C153" t="str">
-        <f>"{'file':'"&amp;A153&amp;"','title':'"&amp;B153&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'movieclips/airplanejivetalkers.mp4','title':'./movieclips/airplanejivetalkers.mp4'},</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" hidden="1">
       <c r="A154" t="s">
         <v>1255</v>
       </c>
@@ -7307,11 +7482,11 @@
         <v>1138</v>
       </c>
       <c r="C154" t="str">
-        <f>"{'file':'"&amp;A154&amp;"','title':'"&amp;B154&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'movieclips/airplanejivetalkersfoodsickwithjunecleaver.mp4','title':'./movieclips/airplanejivetalkersfoodsickwithjunecleaver.mp4'},</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" hidden="1">
       <c r="A155" t="s">
         <v>1256</v>
       </c>
@@ -7319,11 +7494,11 @@
         <v>1139</v>
       </c>
       <c r="C155" t="str">
-        <f>"{'file':'"&amp;A155&amp;"','title':'"&amp;B155&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'movieclips/airplanejivetalkersorderfood.mp4','title':'./movieclips/airplanejivetalkersorderfood.mp4'},</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" hidden="1">
       <c r="A156" t="s">
         <v>1257</v>
       </c>
@@ -7331,11 +7506,11 @@
         <v>1140</v>
       </c>
       <c r="C156" t="str">
-        <f>"{'file':'"&amp;A156&amp;"','title':'"&amp;B156&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skate/yakima201508.mp4','title':'./skate/yakima201508.mp4'},</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" hidden="1">
       <c r="A157" t="s">
         <v>1258</v>
       </c>
@@ -7343,11 +7518,11 @@
         <v>1141</v>
       </c>
       <c r="C157" t="str">
-        <f>"{'file':'"&amp;A157&amp;"','title':'"&amp;B157&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skate/roxhillollierockline201508.mp4','title':'./skate/roxhillollierockline201508.mp4'},</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" hidden="1">
       <c r="A158" t="s">
         <v>1259</v>
       </c>
@@ -7355,11 +7530,11 @@
         <v>1142</v>
       </c>
       <c r="C158" t="str">
-        <f>"{'file':'"&amp;A158&amp;"','title':'"&amp;B158&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skate/roxhillbacksideolliesmallbankstepup201500807.mp4','title':'./skate/roxhillbacksideolliesmallbankstepup201500807.mp4'},</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" hidden="1">
       <c r="A159" t="s">
         <v>1260</v>
       </c>
@@ -7367,11 +7542,11 @@
         <v>1143</v>
       </c>
       <c r="C159" t="str">
-        <f>"{'file':'"&amp;A159&amp;"','title':'"&amp;B159&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skate/roxhillbacksideollieline201508.mp4','title':'./skate/roxhillbacksideollieline201508.mp4'},</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" hidden="1">
       <c r="A160" t="s">
         <v>1261</v>
       </c>
@@ -7379,11 +7554,11 @@
         <v>1144</v>
       </c>
       <c r="C160" t="str">
-        <f>"{'file':'"&amp;A160&amp;"','title':'"&amp;B160&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skate/jimroxhill5.mp4','title':'./skate/jimroxhill5.mp4'},</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" hidden="1">
       <c r="A161" t="s">
         <v>1262</v>
       </c>
@@ -7391,11 +7566,11 @@
         <v>1145</v>
       </c>
       <c r="C161" t="str">
-        <f>"{'file':'"&amp;A161&amp;"','title':'"&amp;B161&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skate/jimroxhill4.mp4','title':'./skate/jimroxhill4.mp4'},</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" hidden="1">
       <c r="A162" t="s">
         <v>1263</v>
       </c>
@@ -7403,11 +7578,11 @@
         <v>1146</v>
       </c>
       <c r="C162" t="str">
-        <f>"{'file':'"&amp;A162&amp;"','title':'"&amp;B162&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skate/jimroxhill3.mp4','title':'./skate/jimroxhill3.mp4'},</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" hidden="1">
       <c r="A163" t="s">
         <v>1264</v>
       </c>
@@ -7415,11 +7590,11 @@
         <v>1147</v>
       </c>
       <c r="C163" t="str">
-        <f>"{'file':'"&amp;A163&amp;"','title':'"&amp;B163&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skate/jimroxhill2.mp4','title':'./skate/jimroxhill2.mp4'},</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" hidden="1">
       <c r="A164" t="s">
         <v>1265</v>
       </c>
@@ -7427,11 +7602,11 @@
         <v>1148</v>
       </c>
       <c r="C164" t="str">
-        <f>"{'file':'"&amp;A164&amp;"','title':'"&amp;B164&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skate/jimroxhill.mp4','title':'./skate/jimroxhill.mp4'},</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" hidden="1">
       <c r="A165" t="s">
         <v>1266</v>
       </c>
@@ -7439,11 +7614,11 @@
         <v>1149</v>
       </c>
       <c r="C165" t="str">
-        <f>"{'file':'"&amp;A165&amp;"','title':'"&amp;B165&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'skate/fortboise201508.mp4','title':'./skate/fortboise201508.mp4'},</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" hidden="1">
       <c r="A166" t="s">
         <v>1267</v>
       </c>
@@ -7451,11 +7626,11 @@
         <v>1150</v>
       </c>
       <c r="C166" t="str">
-        <f>"{'file':'"&amp;A166&amp;"','title':'"&amp;B166&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'ats/IMG_0361.m4v','title':'./ats/IMG_0361.m4v'},</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" hidden="1">
       <c r="A167" t="s">
         <v>1268</v>
       </c>
@@ -7463,11 +7638,11 @@
         <v>1151</v>
       </c>
       <c r="C167" t="str">
-        <f>"{'file':'"&amp;A167&amp;"','title':'"&amp;B167&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'ats/IMG_0365.m4v','title':'./ats/IMG_0365.m4v'},</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" hidden="1">
       <c r="A168" t="s">
         <v>1269</v>
       </c>
@@ -7475,11 +7650,11 @@
         <v>1152</v>
       </c>
       <c r="C168" t="str">
-        <f>"{'file':'"&amp;A168&amp;"','title':'"&amp;B168&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'bigbusiness/big-business-veraproject20140611-1.m4v','title':'./bigbusiness/big-business-veraproject20140611-1.m4v'},</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" hidden="1">
       <c r="A169" t="s">
         <v>1270</v>
       </c>
@@ -7487,11 +7662,11 @@
         <v>1153</v>
       </c>
       <c r="C169" t="str">
-        <f>"{'file':'"&amp;A169&amp;"','title':'"&amp;B169&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'bigbusiness/big-business-veraproject20140611-2.m4v','title':'./bigbusiness/big-business-veraproject20140611-2.m4v'},</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" hidden="1">
       <c r="A170" t="s">
         <v>1271</v>
       </c>
@@ -7499,11 +7674,11 @@
         <v>1154</v>
       </c>
       <c r="C170" t="str">
-        <f>"{'file':'"&amp;A170&amp;"','title':'"&amp;B170&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'bigbusiness/big-business-veraproject20140611-3.m4v','title':'./bigbusiness/big-business-veraproject20140611-3.m4v'},</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" hidden="1">
       <c r="A171" t="s">
         <v>1272</v>
       </c>
@@ -7511,11 +7686,11 @@
         <v>1155</v>
       </c>
       <c r="C171" t="str">
-        <f>"{'file':'"&amp;A171&amp;"','title':'"&amp;B171&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'bigbusiness/big-business-veraproject20140611-4.m4v','title':'./bigbusiness/big-business-veraproject20140611-4.m4v'},</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" hidden="1">
       <c r="A172" t="s">
         <v>1273</v>
       </c>
@@ -7523,11 +7698,11 @@
         <v>1156</v>
       </c>
       <c r="C172" t="str">
-        <f>"{'file':'"&amp;A172&amp;"','title':'"&amp;B172&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'bigbusiness/big-business-veraproject20140611-5.m4v','title':'./bigbusiness/big-business-veraproject20140611-5.m4v'},</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" hidden="1">
       <c r="A173" t="s">
         <v>1274</v>
       </c>
@@ -7535,11 +7710,11 @@
         <v>1157</v>
       </c>
       <c r="C173" t="str">
-        <f>"{'file':'"&amp;A173&amp;"','title':'"&amp;B173&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'bigbusiness/big-business-veraproject20140611-6.m4v','title':'./bigbusiness/big-business-veraproject20140611-6.m4v'},</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" hidden="1">
       <c r="A174" t="s">
         <v>1275</v>
       </c>
@@ -7547,11 +7722,11 @@
         <v>1158</v>
       </c>
       <c r="C174" t="str">
-        <f>"{'file':'"&amp;A174&amp;"','title':'"&amp;B174&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'bigbusiness/big-business-veraproject20140611-7.m4v','title':'./bigbusiness/big-business-veraproject20140611-7.m4v'},</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" hidden="1">
       <c r="A175" t="s">
         <v>1276</v>
       </c>
@@ -7559,11 +7734,11 @@
         <v>1159</v>
       </c>
       <c r="C175" t="str">
-        <f>"{'file':'"&amp;A175&amp;"','title':'"&amp;B175&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0485.m4v','title':'./cincodemargo/IMG_0485.m4v'},</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" hidden="1">
       <c r="A176" t="s">
         <v>1277</v>
       </c>
@@ -7571,11 +7746,11 @@
         <v>1160</v>
       </c>
       <c r="C176" t="str">
-        <f>"{'file':'"&amp;A176&amp;"','title':'"&amp;B176&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/ZOOM0009.m4v','title':'./cincodemargo/ZOOM0009.m4v'},</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" hidden="1">
       <c r="A177" t="s">
         <v>1278</v>
       </c>
@@ -7583,11 +7758,11 @@
         <v>1161</v>
       </c>
       <c r="C177" t="str">
-        <f>"{'file':'"&amp;A177&amp;"','title':'"&amp;B177&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0486.m4v','title':'./cincodemargo/IMG_0486.m4v'},</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" hidden="1">
       <c r="A178" t="s">
         <v>1279</v>
       </c>
@@ -7595,11 +7770,11 @@
         <v>1162</v>
       </c>
       <c r="C178" t="str">
-        <f>"{'file':'"&amp;A178&amp;"','title':'"&amp;B178&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0487.m4v','title':'./cincodemargo/IMG_0487.m4v'},</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" hidden="1">
       <c r="A179" t="s">
         <v>1280</v>
       </c>
@@ -7607,11 +7782,11 @@
         <v>1163</v>
       </c>
       <c r="C179" t="str">
-        <f>"{'file':'"&amp;A179&amp;"','title':'"&amp;B179&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0488.m4v','title':'./cincodemargo/IMG_0488.m4v'},</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" hidden="1">
       <c r="A180" t="s">
         <v>1281</v>
       </c>
@@ -7619,11 +7794,11 @@
         <v>1164</v>
       </c>
       <c r="C180" t="str">
-        <f>"{'file':'"&amp;A180&amp;"','title':'"&amp;B180&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0493.m4v','title':'./cincodemargo/IMG_0493.m4v'},</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" hidden="1">
       <c r="A181" t="s">
         <v>1282</v>
       </c>
@@ -7631,11 +7806,11 @@
         <v>1165</v>
       </c>
       <c r="C181" t="str">
-        <f>"{'file':'"&amp;A181&amp;"','title':'"&amp;B181&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0499.m4v','title':'./cincodemargo/IMG_0499.m4v'},</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" hidden="1">
       <c r="A182" t="s">
         <v>1283</v>
       </c>
@@ -7643,11 +7818,11 @@
         <v>1166</v>
       </c>
       <c r="C182" t="str">
-        <f>"{'file':'"&amp;A182&amp;"','title':'"&amp;B182&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0500.m4v','title':'./cincodemargo/IMG_0500.m4v'},</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" hidden="1">
       <c r="A183" t="s">
         <v>1284</v>
       </c>
@@ -7655,11 +7830,11 @@
         <v>1167</v>
       </c>
       <c r="C183" t="str">
-        <f>"{'file':'"&amp;A183&amp;"','title':'"&amp;B183&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0505.m4v','title':'./cincodemargo/IMG_0505.m4v'},</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" hidden="1">
       <c r="A184" t="s">
         <v>1285</v>
       </c>
@@ -7667,11 +7842,11 @@
         <v>1168</v>
       </c>
       <c r="C184" t="str">
-        <f>"{'file':'"&amp;A184&amp;"','title':'"&amp;B184&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0507.m4v','title':'./cincodemargo/IMG_0507.m4v'},</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" hidden="1">
       <c r="A185" t="s">
         <v>1286</v>
       </c>
@@ -7679,11 +7854,11 @@
         <v>1169</v>
       </c>
       <c r="C185" t="str">
-        <f>"{'file':'"&amp;A185&amp;"','title':'"&amp;B185&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0513.m4v','title':'./cincodemargo/IMG_0513.m4v'},</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" hidden="1">
       <c r="A186" t="s">
         <v>1287</v>
       </c>
@@ -7691,11 +7866,11 @@
         <v>1170</v>
       </c>
       <c r="C186" t="str">
-        <f>"{'file':'"&amp;A186&amp;"','title':'"&amp;B186&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0514.m4v','title':'./cincodemargo/IMG_0514.m4v'},</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" hidden="1">
       <c r="A187" t="s">
         <v>1288</v>
       </c>
@@ -7703,11 +7878,11 @@
         <v>1171</v>
       </c>
       <c r="C187" t="str">
-        <f>"{'file':'"&amp;A187&amp;"','title':'"&amp;B187&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0516.m4v','title':'./cincodemargo/IMG_0516.m4v'},</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" hidden="1">
       <c r="A188" t="s">
         <v>1289</v>
       </c>
@@ -7715,11 +7890,11 @@
         <v>1172</v>
       </c>
       <c r="C188" t="str">
-        <f>"{'file':'"&amp;A188&amp;"','title':'"&amp;B188&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0531.m4v','title':'./cincodemargo/IMG_0531.m4v'},</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" hidden="1">
       <c r="A189" t="s">
         <v>1290</v>
       </c>
@@ -7727,11 +7902,11 @@
         <v>1173</v>
       </c>
       <c r="C189" t="str">
-        <f>"{'file':'"&amp;A189&amp;"','title':'"&amp;B189&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0535.m4v','title':'./cincodemargo/IMG_0535.m4v'},</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" hidden="1">
       <c r="A190" t="s">
         <v>1291</v>
       </c>
@@ -7739,11 +7914,11 @@
         <v>1174</v>
       </c>
       <c r="C190" t="str">
-        <f>"{'file':'"&amp;A190&amp;"','title':'"&amp;B190&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0549.m4v','title':'./cincodemargo/IMG_0549.m4v'},</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" hidden="1">
       <c r="A191" t="s">
         <v>1292</v>
       </c>
@@ -7751,11 +7926,11 @@
         <v>1175</v>
       </c>
       <c r="C191" t="str">
-        <f>"{'file':'"&amp;A191&amp;"','title':'"&amp;B191&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0559.m4v','title':'./cincodemargo/IMG_0559.m4v'},</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" hidden="1">
       <c r="A192" t="s">
         <v>1293</v>
       </c>
@@ -7763,11 +7938,11 @@
         <v>1176</v>
       </c>
       <c r="C192" t="str">
-        <f>"{'file':'"&amp;A192&amp;"','title':'"&amp;B192&amp;"'},"</f>
+        <f t="shared" si="2"/>
         <v>{'file':'cincodemargo/IMG_0562.m4v','title':'./cincodemargo/IMG_0562.m4v'},</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" hidden="1">
       <c r="A193" t="s">
         <v>1294</v>
       </c>
@@ -7775,11 +7950,11 @@
         <v>1177</v>
       </c>
       <c r="C193" t="str">
-        <f>"{'file':'"&amp;A193&amp;"','title':'"&amp;B193&amp;"'},"</f>
+        <f t="shared" ref="C193:C256" si="3">"{'file':'"&amp;A193&amp;"','title':'"&amp;B193&amp;"'},"</f>
         <v>{'file':'cincodemargo/IMG_0566.m4v','title':'./cincodemargo/IMG_0566.m4v'},</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" hidden="1">
       <c r="A194" t="s">
         <v>1295</v>
       </c>
@@ -7787,11 +7962,11 @@
         <v>1178</v>
       </c>
       <c r="C194" t="str">
-        <f>"{'file':'"&amp;A194&amp;"','title':'"&amp;B194&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cincodemargo/IMG_0567.m4v','title':'./cincodemargo/IMG_0567.m4v'},</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" hidden="1">
       <c r="A195" t="s">
         <v>1296</v>
       </c>
@@ -7799,11 +7974,11 @@
         <v>1179</v>
       </c>
       <c r="C195" t="str">
-        <f>"{'file':'"&amp;A195&amp;"','title':'"&amp;B195&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cincodemargo/IMG_0568.m4v','title':'./cincodemargo/IMG_0568.m4v'},</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" hidden="1">
       <c r="A196" t="s">
         <v>1297</v>
       </c>
@@ -7811,11 +7986,11 @@
         <v>1180</v>
       </c>
       <c r="C196" t="str">
-        <f>"{'file':'"&amp;A196&amp;"','title':'"&amp;B196&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cincodemargo/IMG_0570.m4v','title':'./cincodemargo/IMG_0570.m4v'},</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" hidden="1">
       <c r="A197" t="s">
         <v>1298</v>
       </c>
@@ -7823,11 +7998,11 @@
         <v>1181</v>
       </c>
       <c r="C197" t="str">
-        <f>"{'file':'"&amp;A197&amp;"','title':'"&amp;B197&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cracksabbath/ZOOM0001.m4v','title':'./cracksabbath/ZOOM0001.m4v'},</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" hidden="1">
       <c r="A198" t="s">
         <v>1299</v>
       </c>
@@ -7835,11 +8010,11 @@
         <v>1182</v>
       </c>
       <c r="C198" t="str">
-        <f>"{'file':'"&amp;A198&amp;"','title':'"&amp;B198&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cracksabbath/ZOOM0002.m4v','title':'./cracksabbath/ZOOM0002.m4v'},</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" hidden="1">
       <c r="A199" t="s">
         <v>1300</v>
       </c>
@@ -7847,11 +8022,11 @@
         <v>1183</v>
       </c>
       <c r="C199" t="str">
-        <f>"{'file':'"&amp;A199&amp;"','title':'"&amp;B199&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cracksabbath/ZOOM0003.m4v','title':'./cracksabbath/ZOOM0003.m4v'},</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" hidden="1">
       <c r="A200" t="s">
         <v>1301</v>
       </c>
@@ -7859,11 +8034,11 @@
         <v>1184</v>
       </c>
       <c r="C200" t="str">
-        <f>"{'file':'"&amp;A200&amp;"','title':'"&amp;B200&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cracksabbath/ZOOM0004.m4v','title':'./cracksabbath/ZOOM0004.m4v'},</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" hidden="1">
       <c r="A201" t="s">
         <v>1302</v>
       </c>
@@ -7871,11 +8046,11 @@
         <v>1185</v>
       </c>
       <c r="C201" t="str">
-        <f>"{'file':'"&amp;A201&amp;"','title':'"&amp;B201&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cracksabbath/ZOOM0005.m4v','title':'./cracksabbath/ZOOM0005.m4v'},</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" hidden="1">
       <c r="A202" t="s">
         <v>1303</v>
       </c>
@@ -7883,11 +8058,11 @@
         <v>1186</v>
       </c>
       <c r="C202" t="str">
-        <f>"{'file':'"&amp;A202&amp;"','title':'"&amp;B202&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cracksabbath/ZOOM0006.m4v','title':'./cracksabbath/ZOOM0006.m4v'},</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" hidden="1">
       <c r="A203" t="s">
         <v>1304</v>
       </c>
@@ -7895,11 +8070,11 @@
         <v>1187</v>
       </c>
       <c r="C203" t="str">
-        <f>"{'file':'"&amp;A203&amp;"','title':'"&amp;B203&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cracksabbath/ZOOM0007.m4v','title':'./cracksabbath/ZOOM0007.m4v'},</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" hidden="1">
       <c r="A204" t="s">
         <v>1305</v>
       </c>
@@ -7907,11 +8082,11 @@
         <v>1188</v>
       </c>
       <c r="C204" t="str">
-        <f>"{'file':'"&amp;A204&amp;"','title':'"&amp;B204&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cracksabbath/ZOOM0008.m4v','title':'./cracksabbath/ZOOM0008.m4v'},</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" hidden="1">
       <c r="A205" t="s">
         <v>1306</v>
       </c>
@@ -7919,11 +8094,11 @@
         <v>1189</v>
       </c>
       <c r="C205" t="str">
-        <f>"{'file':'"&amp;A205&amp;"','title':'"&amp;B205&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cracksabbath/ZOOM0009.m4v','title':'./cracksabbath/ZOOM0009.m4v'},</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" hidden="1">
       <c r="A206" t="s">
         <v>1307</v>
       </c>
@@ -7931,11 +8106,11 @@
         <v>1190</v>
       </c>
       <c r="C206" t="str">
-        <f>"{'file':'"&amp;A206&amp;"','title':'"&amp;B206&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'cracksabbath/ZOOM0010.m4v','title':'./cracksabbath/ZOOM0010.m4v'},</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" hidden="1">
       <c r="A207" t="s">
         <v>1308</v>
       </c>
@@ -7943,11 +8118,11 @@
         <v>1191</v>
       </c>
       <c r="C207" t="str">
-        <f>"{'file':'"&amp;A207&amp;"','title':'"&amp;B207&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'greenlake/IMG_0624.m4v','title':'./greenlake/IMG_0624.m4v'},</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" hidden="1">
       <c r="A208" t="s">
         <v>1309</v>
       </c>
@@ -7955,11 +8130,11 @@
         <v>1192</v>
       </c>
       <c r="C208" t="str">
-        <f>"{'file':'"&amp;A208&amp;"','title':'"&amp;B208&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'jefferson/IMG_0824.m4v','title':'./jefferson/IMG_0824.m4v'},</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" hidden="1">
       <c r="A209" t="s">
         <v>1310</v>
       </c>
@@ -7967,11 +8142,11 @@
         <v>1193</v>
       </c>
       <c r="C209" t="str">
-        <f>"{'file':'"&amp;A209&amp;"','title':'"&amp;B209&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'jefferson/IMG_0825.m4v','title':'./jefferson/IMG_0825.m4v'},</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" hidden="1">
       <c r="A210" t="s">
         <v>1311</v>
       </c>
@@ -7979,11 +8154,11 @@
         <v>1194</v>
       </c>
       <c r="C210" t="str">
-        <f>"{'file':'"&amp;A210&amp;"','title':'"&amp;B210&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0038.m4v','title':'./lastgasp/ZOOM0038.m4v'},</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" hidden="1">
       <c r="A211" t="s">
         <v>1312</v>
       </c>
@@ -7991,11 +8166,11 @@
         <v>1195</v>
       </c>
       <c r="C211" t="str">
-        <f>"{'file':'"&amp;A211&amp;"','title':'"&amp;B211&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0039.m4v','title':'./lastgasp/ZOOM0039.m4v'},</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" hidden="1">
       <c r="A212" t="s">
         <v>1313</v>
       </c>
@@ -8003,11 +8178,11 @@
         <v>1196</v>
       </c>
       <c r="C212" t="str">
-        <f>"{'file':'"&amp;A212&amp;"','title':'"&amp;B212&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0040.m4v','title':'./lastgasp/ZOOM0040.m4v'},</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" hidden="1">
       <c r="A213" t="s">
         <v>1314</v>
       </c>
@@ -8015,11 +8190,11 @@
         <v>1197</v>
       </c>
       <c r="C213" t="str">
-        <f>"{'file':'"&amp;A213&amp;"','title':'"&amp;B213&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0041.m4v','title':'./lastgasp/ZOOM0041.m4v'},</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" hidden="1">
       <c r="A214" t="s">
         <v>1315</v>
       </c>
@@ -8027,11 +8202,11 @@
         <v>1198</v>
       </c>
       <c r="C214" t="str">
-        <f>"{'file':'"&amp;A214&amp;"','title':'"&amp;B214&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0042.m4v','title':'./lastgasp/ZOOM0042.m4v'},</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" hidden="1">
       <c r="A215" t="s">
         <v>1316</v>
       </c>
@@ -8039,11 +8214,11 @@
         <v>1199</v>
       </c>
       <c r="C215" t="str">
-        <f>"{'file':'"&amp;A215&amp;"','title':'"&amp;B215&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0043.m4v','title':'./lastgasp/ZOOM0043.m4v'},</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" hidden="1">
       <c r="A216" t="s">
         <v>1317</v>
       </c>
@@ -8051,11 +8226,11 @@
         <v>1200</v>
       </c>
       <c r="C216" t="str">
-        <f>"{'file':'"&amp;A216&amp;"','title':'"&amp;B216&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0044.m4v','title':'./lastgasp/ZOOM0044.m4v'},</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" hidden="1">
       <c r="A217" t="s">
         <v>1318</v>
       </c>
@@ -8063,11 +8238,11 @@
         <v>1201</v>
       </c>
       <c r="C217" t="str">
-        <f>"{'file':'"&amp;A217&amp;"','title':'"&amp;B217&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0045.m4v','title':'./lastgasp/ZOOM0045.m4v'},</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" hidden="1">
       <c r="A218" t="s">
         <v>1319</v>
       </c>
@@ -8075,11 +8250,11 @@
         <v>1202</v>
       </c>
       <c r="C218" t="str">
-        <f>"{'file':'"&amp;A218&amp;"','title':'"&amp;B218&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0046.m4v','title':'./lastgasp/ZOOM0046.m4v'},</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" hidden="1">
       <c r="A219" t="s">
         <v>1320</v>
       </c>
@@ -8087,11 +8262,11 @@
         <v>1203</v>
       </c>
       <c r="C219" t="str">
-        <f>"{'file':'"&amp;A219&amp;"','title':'"&amp;B219&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0047.m4v','title':'./lastgasp/ZOOM0047.m4v'},</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" hidden="1">
       <c r="A220" t="s">
         <v>1321</v>
       </c>
@@ -8099,11 +8274,11 @@
         <v>1204</v>
       </c>
       <c r="C220" t="str">
-        <f>"{'file':'"&amp;A220&amp;"','title':'"&amp;B220&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0048.m4v','title':'./lastgasp/ZOOM0048.m4v'},</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" hidden="1">
       <c r="A221" t="s">
         <v>1322</v>
       </c>
@@ -8111,11 +8286,11 @@
         <v>1205</v>
       </c>
       <c r="C221" t="str">
-        <f>"{'file':'"&amp;A221&amp;"','title':'"&amp;B221&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0049.m4v','title':'./lastgasp/ZOOM0049.m4v'},</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" hidden="1">
       <c r="A222" t="s">
         <v>1323</v>
       </c>
@@ -8123,11 +8298,11 @@
         <v>1206</v>
       </c>
       <c r="C222" t="str">
-        <f>"{'file':'"&amp;A222&amp;"','title':'"&amp;B222&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0050.m4v','title':'./lastgasp/ZOOM0050.m4v'},</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" hidden="1">
       <c r="A223" t="s">
         <v>1324</v>
       </c>
@@ -8135,11 +8310,11 @@
         <v>1207</v>
       </c>
       <c r="C223" t="str">
-        <f>"{'file':'"&amp;A223&amp;"','title':'"&amp;B223&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'lastgasp/ZOOM0051.m4v','title':'./lastgasp/ZOOM0051.m4v'},</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" hidden="1">
       <c r="A224" t="s">
         <v>1325</v>
       </c>
@@ -8147,11 +8322,11 @@
         <v>1208</v>
       </c>
       <c r="C224" t="str">
-        <f>"{'file':'"&amp;A224&amp;"','title':'"&amp;B224&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'marginal/IMG_0054rotated.m4v','title':'./marginal/IMG_0054rotated.m4v'},</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" hidden="1">
       <c r="A225" t="s">
         <v>1326</v>
       </c>
@@ -8159,11 +8334,11 @@
         <v>1209</v>
       </c>
       <c r="C225" t="str">
-        <f>"{'file':'"&amp;A225&amp;"','title':'"&amp;B225&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'marginal/IMG_0055.m4v','title':'./marginal/IMG_0055.m4v'},</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" hidden="1">
       <c r="A226" t="s">
         <v>1327</v>
       </c>
@@ -8171,11 +8346,11 @@
         <v>1210</v>
       </c>
       <c r="C226" t="str">
-        <f>"{'file':'"&amp;A226&amp;"','title':'"&amp;B226&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'marginal/IMG_0056.m4v','title':'./marginal/IMG_0056.m4v'},</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" hidden="1">
       <c r="A227" t="s">
         <v>1328</v>
       </c>
@@ -8183,11 +8358,11 @@
         <v>1211</v>
       </c>
       <c r="C227" t="str">
-        <f>"{'file':'"&amp;A227&amp;"','title':'"&amp;B227&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'marginal/IMG_0059.m4v','title':'./marginal/IMG_0059.m4v'},</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" hidden="1">
       <c r="A228" t="s">
         <v>1329</v>
       </c>
@@ -8195,11 +8370,11 @@
         <v>1212</v>
       </c>
       <c r="C228" t="str">
-        <f>"{'file':'"&amp;A228&amp;"','title':'"&amp;B228&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'marginal/IMG_0069rotated.m4v','title':'./marginal/IMG_0069rotated.m4v'},</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" hidden="1">
       <c r="A229" t="s">
         <v>1330</v>
       </c>
@@ -8207,11 +8382,11 @@
         <v>1213</v>
       </c>
       <c r="C229" t="str">
-        <f>"{'file':'"&amp;A229&amp;"','title':'"&amp;B229&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0372.m4v','title':'./pride/IMG_0372.m4v'},</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" hidden="1">
       <c r="A230" t="s">
         <v>1331</v>
       </c>
@@ -8219,11 +8394,11 @@
         <v>1214</v>
       </c>
       <c r="C230" t="str">
-        <f>"{'file':'"&amp;A230&amp;"','title':'"&amp;B230&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0385.m4v','title':'./pride/IMG_0385.m4v'},</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" hidden="1">
       <c r="A231" t="s">
         <v>1332</v>
       </c>
@@ -8231,11 +8406,11 @@
         <v>1215</v>
       </c>
       <c r="C231" t="str">
-        <f>"{'file':'"&amp;A231&amp;"','title':'"&amp;B231&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0387.m4v','title':'./pride/IMG_0387.m4v'},</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" hidden="1">
       <c r="A232" t="s">
         <v>1333</v>
       </c>
@@ -8243,11 +8418,11 @@
         <v>1216</v>
       </c>
       <c r="C232" t="str">
-        <f>"{'file':'"&amp;A232&amp;"','title':'"&amp;B232&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0389.m4v','title':'./pride/IMG_0389.m4v'},</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" hidden="1">
       <c r="A233" t="s">
         <v>1334</v>
       </c>
@@ -8255,11 +8430,11 @@
         <v>1217</v>
       </c>
       <c r="C233" t="str">
-        <f>"{'file':'"&amp;A233&amp;"','title':'"&amp;B233&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0392.m4v','title':'./pride/IMG_0392.m4v'},</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" hidden="1">
       <c r="A234" t="s">
         <v>1335</v>
       </c>
@@ -8267,11 +8442,11 @@
         <v>1218</v>
       </c>
       <c r="C234" t="str">
-        <f>"{'file':'"&amp;A234&amp;"','title':'"&amp;B234&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0409.m4v','title':'./pride/IMG_0409.m4v'},</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" hidden="1">
       <c r="A235" t="s">
         <v>1336</v>
       </c>
@@ -8279,11 +8454,11 @@
         <v>1219</v>
       </c>
       <c r="C235" t="str">
-        <f>"{'file':'"&amp;A235&amp;"','title':'"&amp;B235&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0458.m4v','title':'./pride/IMG_0458.m4v'},</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" hidden="1">
       <c r="A236" t="s">
         <v>1337</v>
       </c>
@@ -8291,11 +8466,11 @@
         <v>1220</v>
       </c>
       <c r="C236" t="str">
-        <f>"{'file':'"&amp;A236&amp;"','title':'"&amp;B236&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0488.m4v','title':'./pride/IMG_0488.m4v'},</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" hidden="1">
       <c r="A237" t="s">
         <v>1338</v>
       </c>
@@ -8303,11 +8478,11 @@
         <v>1221</v>
       </c>
       <c r="C237" t="str">
-        <f>"{'file':'"&amp;A237&amp;"','title':'"&amp;B237&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0581.m4v','title':'./pride/IMG_0581.m4v'},</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" hidden="1">
       <c r="A238" t="s">
         <v>1339</v>
       </c>
@@ -8315,11 +8490,11 @@
         <v>1222</v>
       </c>
       <c r="C238" t="str">
-        <f>"{'file':'"&amp;A238&amp;"','title':'"&amp;B238&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0592.m4v','title':'./pride/IMG_0592.m4v'},</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" hidden="1">
       <c r="A239" t="s">
         <v>1340</v>
       </c>
@@ -8327,11 +8502,11 @@
         <v>1223</v>
       </c>
       <c r="C239" t="str">
-        <f>"{'file':'"&amp;A239&amp;"','title':'"&amp;B239&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0624.m4v','title':'./pride/IMG_0624.m4v'},</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" hidden="1">
       <c r="A240" t="s">
         <v>1341</v>
       </c>
@@ -8339,11 +8514,11 @@
         <v>1224</v>
       </c>
       <c r="C240" t="str">
-        <f>"{'file':'"&amp;A240&amp;"','title':'"&amp;B240&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0645.m4v','title':'./pride/IMG_0645.m4v'},</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" hidden="1">
       <c r="A241" t="s">
         <v>1342</v>
       </c>
@@ -8351,11 +8526,11 @@
         <v>1225</v>
       </c>
       <c r="C241" t="str">
-        <f>"{'file':'"&amp;A241&amp;"','title':'"&amp;B241&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0657.m4v','title':'./pride/IMG_0657.m4v'},</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" hidden="1">
       <c r="A242" t="s">
         <v>1343</v>
       </c>
@@ -8363,11 +8538,11 @@
         <v>1226</v>
       </c>
       <c r="C242" t="str">
-        <f>"{'file':'"&amp;A242&amp;"','title':'"&amp;B242&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'pride/IMG_0676.m4v','title':'./pride/IMG_0676.m4v'},</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" hidden="1">
       <c r="A243" t="s">
         <v>1344</v>
       </c>
@@ -8375,11 +8550,11 @@
         <v>1227</v>
       </c>
       <c r="C243" t="str">
-        <f>"{'file':'"&amp;A243&amp;"','title':'"&amp;B243&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'kaylacheering/kayla_cheerleading_20150215b.m4v','title':'./kaylacheering/kayla_cheerleading_20150215b.m4v'},</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" hidden="1">
       <c r="A244" t="s">
         <v>1345</v>
       </c>
@@ -8387,11 +8562,11 @@
         <v>1228</v>
       </c>
       <c r="C244" t="str">
-        <f>"{'file':'"&amp;A244&amp;"','title':'"&amp;B244&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4693.m4v','title':'./skate/IMG_4693.m4v'},</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" hidden="1">
       <c r="A245" t="s">
         <v>1346</v>
       </c>
@@ -8399,11 +8574,11 @@
         <v>1229</v>
       </c>
       <c r="C245" t="str">
-        <f>"{'file':'"&amp;A245&amp;"','title':'"&amp;B245&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4695.m4v','title':'./skate/IMG_4695.m4v'},</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" hidden="1">
       <c r="A246" t="s">
         <v>1347</v>
       </c>
@@ -8411,11 +8586,11 @@
         <v>1230</v>
       </c>
       <c r="C246" t="str">
-        <f>"{'file':'"&amp;A246&amp;"','title':'"&amp;B246&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4699.m4v','title':'./skate/IMG_4699.m4v'},</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" hidden="1">
       <c r="A247" t="s">
         <v>1348</v>
       </c>
@@ -8423,11 +8598,11 @@
         <v>1231</v>
       </c>
       <c r="C247" t="str">
-        <f>"{'file':'"&amp;A247&amp;"','title':'"&amp;B247&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4701.m4v','title':'./skate/IMG_4701.m4v'},</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" hidden="1">
       <c r="A248" t="s">
         <v>1349</v>
       </c>
@@ -8435,11 +8610,11 @@
         <v>1232</v>
       </c>
       <c r="C248" t="str">
-        <f>"{'file':'"&amp;A248&amp;"','title':'"&amp;B248&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4818.m4v','title':'./skate/IMG_4818.m4v'},</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" hidden="1">
       <c r="A249" t="s">
         <v>1350</v>
       </c>
@@ -8447,11 +8622,11 @@
         <v>1233</v>
       </c>
       <c r="C249" t="str">
-        <f>"{'file':'"&amp;A249&amp;"','title':'"&amp;B249&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4819.m4v','title':'./skate/IMG_4819.m4v'},</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" hidden="1">
       <c r="A250" t="s">
         <v>1351</v>
       </c>
@@ -8459,11 +8634,11 @@
         <v>1234</v>
       </c>
       <c r="C250" t="str">
-        <f>"{'file':'"&amp;A250&amp;"','title':'"&amp;B250&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4837.m4v','title':'./skate/IMG_4837.m4v'},</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" hidden="1">
       <c r="A251" t="s">
         <v>1352</v>
       </c>
@@ -8471,11 +8646,11 @@
         <v>1235</v>
       </c>
       <c r="C251" t="str">
-        <f>"{'file':'"&amp;A251&amp;"','title':'"&amp;B251&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4838.m4v','title':'./skate/IMG_4838.m4v'},</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" hidden="1">
       <c r="A252" t="s">
         <v>1353</v>
       </c>
@@ -8483,11 +8658,11 @@
         <v>1236</v>
       </c>
       <c r="C252" t="str">
-        <f>"{'file':'"&amp;A252&amp;"','title':'"&amp;B252&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4839.m4v','title':'./skate/IMG_4839.m4v'},</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" hidden="1">
       <c r="A253" t="s">
         <v>1354</v>
       </c>
@@ -8495,11 +8670,11 @@
         <v>1237</v>
       </c>
       <c r="C253" t="str">
-        <f>"{'file':'"&amp;A253&amp;"','title':'"&amp;B253&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4841.m4v','title':'./skate/IMG_4841.m4v'},</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="16" thickBot="1">
+    <row r="254" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A254" t="s">
         <v>1355</v>
       </c>
@@ -8507,11 +8682,11 @@
         <v>1238</v>
       </c>
       <c r="C254" t="str">
-        <f>"{'file':'"&amp;A254&amp;"','title':'"&amp;B254&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/IMG_4843.m4v','title':'./skate/IMG_4843.m4v'},</v>
       </c>
     </row>
-    <row r="255" spans="1:3" s="7" customFormat="1" ht="16" thickBot="1">
+    <row r="255" spans="1:3" s="7" customFormat="1" ht="16" hidden="1" thickBot="1">
       <c r="A255" s="6" t="s">
         <v>1356</v>
       </c>
@@ -8519,11 +8694,11 @@
         <v>1239</v>
       </c>
       <c r="C255" s="7" t="str">
-        <f>"{'file':'"&amp;A255&amp;"','title':'"&amp;B255&amp;"'},"</f>
+        <f t="shared" si="3"/>
         <v>{'file':'skate/NGNQ0173.m4v','title':'./skate/NGNQ0173.m4v'},</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="16" thickBot="1">
+    <row r="256" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A256" t="s">
         <v>317</v>
       </c>
@@ -8531,11 +8706,11 @@
         <v>317</v>
       </c>
       <c r="C256" s="7" t="str">
-        <f t="shared" ref="C256:C319" si="0">"{'file':'"&amp;A256&amp;"','title':'"&amp;B256&amp;"'},"</f>
+        <f t="shared" ref="C256:C319" si="4">"{'file':'"&amp;A256&amp;"','title':'"&amp;B256&amp;"'},"</f>
         <v>{'file':'01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3','title':'01goingagainstyourmind-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="16" thickBot="1">
+    <row r="257" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A257" t="s">
         <v>1357</v>
       </c>
@@ -8543,11 +8718,11 @@
         <v>1357</v>
       </c>
       <c r="C257" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'01 Going Against Your Mind-BuiltToSpill-LiveatNeumos20131227.mp3','title':'01 Going Against Your Mind-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="16" thickBot="1">
+    <row r="258" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A258" t="s">
         <v>1358</v>
       </c>
@@ -8555,11 +8730,11 @@
         <v>1358</v>
       </c>
       <c r="C258" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'01 Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3','title':'01 Hazy2013-02-03-15-02-09-0679196-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="16" thickBot="1">
+    <row r="259" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A259" t="s">
         <v>1359</v>
       </c>
@@ -8567,11 +8742,11 @@
         <v>1359</v>
       </c>
       <c r="C259" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'01 marklanegan-showbox-20140703-01.mp3','title':'01 marklanegan-showbox-20140703-01.mp3'},</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="16" thickBot="1">
+    <row r="260" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A260" t="s">
         <v>856</v>
       </c>
@@ -8579,11 +8754,11 @@
         <v>856</v>
       </c>
       <c r="C260" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'01roxhillsessions20151101.mp3','title':'01roxhillsessions20151101.mp3'},</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="16" thickBot="1">
+    <row r="261" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A261" t="s">
         <v>844</v>
       </c>
@@ -8591,11 +8766,11 @@
         <v>844</v>
       </c>
       <c r="C261" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'01roxhillsessionssquidwerdthisword20151014.mp3','title':'01roxhillsessionssquidwerdthisword20151014.mp3'},</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="16" thickBot="1">
+    <row r="262" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A262" t="s">
         <v>318</v>
       </c>
@@ -8603,11 +8778,11 @@
         <v>318</v>
       </c>
       <c r="C262" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'02inthemorning-BuiltToSpill-Freemont-20140620.mp3','title':'02inthemorning-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="16" thickBot="1">
+    <row r="263" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A263" t="s">
         <v>1360</v>
       </c>
@@ -8615,11 +8790,11 @@
         <v>1360</v>
       </c>
       <c r="C263" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'02 In The Morning-BuiltToSpill-LiveatNeumos20131227.mp3','title':'02 In The Morning-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="16" thickBot="1">
+    <row r="264" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A264" t="s">
         <v>1361</v>
       </c>
@@ -8627,11 +8802,11 @@
         <v>1361</v>
       </c>
       <c r="C264" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'02 marklanegan-showbox-20140703-02.mp3','title':'02 marklanegan-showbox-20140703-02.mp3'},</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="16" thickBot="1">
+    <row r="265" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A265" t="s">
         <v>1362</v>
       </c>
@@ -8639,11 +8814,11 @@
         <v>1362</v>
       </c>
       <c r="C265" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'02roxhillsessions20151101.mp3','title':'02roxhillsessions20151101.mp3'},</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="16" thickBot="1">
+    <row r="266" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A266" t="s">
         <v>845</v>
       </c>
@@ -8651,11 +8826,11 @@
         <v>845</v>
       </c>
       <c r="C266" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'02roxhillsessionsgotwithit20151014.mp3','title':'02roxhillsessionsgotwithit20151014.mp3'},</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="16" thickBot="1">
+    <row r="267" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A267" t="s">
         <v>1363</v>
       </c>
@@ -8663,11 +8838,11 @@
         <v>1363</v>
       </c>
       <c r="C267" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'02 The Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3','title':'02 The Source2013-02-03-15-02-10-4095712-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="16" thickBot="1">
+    <row r="268" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A268" t="s">
         <v>1364</v>
       </c>
@@ -8675,11 +8850,11 @@
         <v>1364</v>
       </c>
       <c r="C268" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'03 Center of the Universe-BuiltToSpill-LiveatNeumos20131227.mp3','title':'03 Center of the Universe-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="16" thickBot="1">
+    <row r="269" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A269" t="s">
         <v>1365</v>
       </c>
@@ -8687,11 +8862,11 @@
         <v>1365</v>
       </c>
       <c r="C269" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'03 marklanegan-showbox-20140703-03.mp3','title':'03 marklanegan-showbox-20140703-03.mp3'},</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="16" thickBot="1">
+    <row r="270" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A270" t="s">
         <v>1366</v>
       </c>
@@ -8699,11 +8874,11 @@
         <v>1366</v>
       </c>
       <c r="C270" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'03 Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3','title':'03 Reasons2013-02-03-15-02-11-6108174-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="16" thickBot="1">
+    <row r="271" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A271" t="s">
         <v>1367</v>
       </c>
@@ -8711,11 +8886,11 @@
         <v>1367</v>
       </c>
       <c r="C271" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'03roxhillsessions20151101.mp3','title':'03roxhillsessions20151101.mp3'},</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="16" thickBot="1">
+    <row r="272" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A272" t="s">
         <v>846</v>
       </c>
@@ -8723,11 +8898,11 @@
         <v>846</v>
       </c>
       <c r="C272" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'03roxhillsessionssnookiewantincookie20151014.mp3','title':'03roxhillsessionssnookiewantincookie20151014.mp3'},</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="16" thickBot="1">
+    <row r="273" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A273" t="s">
         <v>319</v>
       </c>
@@ -8735,11 +8910,11 @@
         <v>319</v>
       </c>
       <c r="C273" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'03theplan-BuiltToSpill-Freemont-20140620.mp3','title':'03theplan-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="16" thickBot="1">
+    <row r="274" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A274" t="s">
         <v>1368</v>
       </c>
@@ -8747,11 +8922,11 @@
         <v>1368</v>
       </c>
       <c r="C274" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'04 marklanegan-showbox-20140703-04.mp3','title':'04 marklanegan-showbox-20140703-04.mp3'},</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="16" thickBot="1">
+    <row r="275" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A275" t="s">
         <v>847</v>
       </c>
@@ -8759,11 +8934,11 @@
         <v>847</v>
       </c>
       <c r="C275" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'04roxhillsessionseatthecheeriosbitch20151014.mp3','title':'04roxhillsessionseatthecheeriosbitch20151014.mp3'},</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="16" thickBot="1">
+    <row r="276" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A276" t="s">
         <v>320</v>
       </c>
@@ -8771,11 +8946,11 @@
         <v>320</v>
       </c>
       <c r="C276" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'04strange-BuiltToSpill-Freemont-20140620.mp3','title':'04strange-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="16" thickBot="1">
+    <row r="277" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A277" t="s">
         <v>1369</v>
       </c>
@@ -8783,11 +8958,11 @@
         <v>1369</v>
       </c>
       <c r="C277" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'04 The Plan-BuiltToSpill-LiveatNeumos20131227.mp3','title':'04 The Plan-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="16" thickBot="1">
+    <row r="278" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A278" t="s">
         <v>1370</v>
       </c>
@@ -8795,11 +8970,11 @@
         <v>1370</v>
       </c>
       <c r="C278" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'05 marklanegan-showbox-20140703-05.mp3','title':'05 marklanegan-showbox-20140703-05.mp3'},</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="16" thickBot="1">
+    <row r="279" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A279" t="s">
         <v>1371</v>
       </c>
@@ -8807,11 +8982,11 @@
         <v>1371</v>
       </c>
       <c r="C279" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'05 Planting Seeds-BuiltToSpill-LiveatNeumos20131227.mp3','title':'05 Planting Seeds-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="16" thickBot="1">
+    <row r="280" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A280" t="s">
         <v>848</v>
       </c>
@@ -8819,11 +8994,11 @@
         <v>848</v>
       </c>
       <c r="C280" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'05roxhillsessionsdickinhernose20151014.mp3','title':'05roxhillsessionsdickinhernose20151014.mp3'},</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="16" thickBot="1">
+    <row r="281" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A281" t="s">
         <v>1372</v>
       </c>
@@ -8831,11 +9006,11 @@
         <v>1372</v>
       </c>
       <c r="C281" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'05 Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3','title':'05 Stab2013-02-03-15-02-13-9977092-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="16" thickBot="1">
+    <row r="282" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A282" t="s">
         <v>321</v>
       </c>
@@ -8843,11 +9018,11 @@
         <v>321</v>
       </c>
       <c r="C282" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'05untrustable-BuiltToSpill-Freemont-20140620.mp3','title':'05untrustable-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="16" thickBot="1">
+    <row r="283" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A283" t="s">
         <v>322</v>
       </c>
@@ -8855,11 +9030,11 @@
         <v>322</v>
       </c>
       <c r="C283" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'06else-BuiltToSpill-Freemont-20140620.mp3','title':'06else-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="16" thickBot="1">
+    <row r="284" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A284" t="s">
         <v>1373</v>
       </c>
@@ -8867,11 +9042,11 @@
         <v>1373</v>
       </c>
       <c r="C284" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'06 Kicked It In the Sun-BuiltToSpill-LiveatNeumos20131227.mp3','title':'06 Kicked It In the Sun-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="16" thickBot="1">
+    <row r="285" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A285" t="s">
         <v>1374</v>
       </c>
@@ -8879,11 +9054,11 @@
         <v>1374</v>
       </c>
       <c r="C285" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'06 marklanegan-showbox-20140703-06.mp3','title':'06 marklanegan-showbox-20140703-06.mp3'},</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="16" thickBot="1">
+    <row r="286" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A286" t="s">
         <v>849</v>
       </c>
@@ -8891,11 +9066,11 @@
         <v>849</v>
       </c>
       <c r="C286" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'06roxhillsessionseventhoughshegotnobush20151014.mp3','title':'06roxhillsessionseventhoughshegotnobush20151014.mp3'},</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="16" thickBot="1">
+    <row r="287" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A287" t="s">
         <v>1375</v>
       </c>
@@ -8903,11 +9078,11 @@
         <v>1375</v>
       </c>
       <c r="C287" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'06 Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3','title':'06 Strange2013-02-03-15-02-15-2301566-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="16" thickBot="1">
+    <row r="288" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A288" t="s">
         <v>1376</v>
       </c>
@@ -8915,11 +9090,11 @@
         <v>1376</v>
       </c>
       <c r="C288" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'07 Get a Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3','title':'07 Get a Life2013-02-03-15-02-15-5421686-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="16" thickBot="1">
+    <row r="289" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A289" t="s">
         <v>1377</v>
       </c>
@@ -8927,11 +9102,11 @@
         <v>1377</v>
       </c>
       <c r="C289" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'07 Get a Life-BuiltToSpill-LiveatNeumos20131227.mp3','title':'07 Get a Life-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="16" thickBot="1">
+    <row r="290" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A290" t="s">
         <v>1378</v>
       </c>
@@ -8939,11 +9114,11 @@
         <v>1378</v>
       </c>
       <c r="C290" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'07 marklanegan-showbox-20140703-07.mp3','title':'07 marklanegan-showbox-20140703-07.mp3'},</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="16" thickBot="1">
+    <row r="291" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A291" t="s">
         <v>323</v>
       </c>
@@ -8951,11 +9126,11 @@
         <v>323</v>
       </c>
       <c r="C291" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'07messwithtime-BuiltToSpill-Freemont-20140620.mp3','title':'07messwithtime-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="16" thickBot="1">
+    <row r="292" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A292" t="s">
         <v>324</v>
       </c>
@@ -8963,11 +9138,11 @@
         <v>324</v>
       </c>
       <c r="C292" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3','title':'08iwouldhurtafly-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="16" thickBot="1">
+    <row r="293" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A293" t="s">
         <v>1379</v>
       </c>
@@ -8975,11 +9150,11 @@
         <v>1379</v>
       </c>
       <c r="C293" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'08 Made Up Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3','title':'08 Made Up Dreams2013-02-03-15-02-16-8214178-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="16" thickBot="1">
+    <row r="294" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A294" t="s">
         <v>1380</v>
       </c>
@@ -8987,11 +9162,11 @@
         <v>1380</v>
       </c>
       <c r="C294" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'08 marklanegan-showbox-20140703-08.mp3','title':'08 marklanegan-showbox-20140703-08.mp3'},</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="16" thickBot="1">
+    <row r="295" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A295" t="s">
         <v>1381</v>
       </c>
@@ -8999,11 +9174,11 @@
         <v>1381</v>
       </c>
       <c r="C295" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'08 Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3','title':'08 Sidewalk-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="16" thickBot="1">
+    <row r="296" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A296" t="s">
         <v>1420</v>
       </c>
@@ -9011,11 +9186,11 @@
         <v>1420</v>
       </c>
       <c r="C296" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'09 Dont Fear the Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3','title':'09 Dont Fear the Reaper2013-02-03-15-17-23-8247012-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="16" thickBot="1">
+    <row r="297" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A297" t="s">
         <v>325</v>
       </c>
@@ -9023,11 +9198,11 @@
         <v>325</v>
       </c>
       <c r="C297" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'09getalife-BuiltToSpill-Freemont-20140620.mp3','title':'09getalife-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="16" thickBot="1">
+    <row r="298" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A298" t="s">
         <v>1382</v>
       </c>
@@ -9035,11 +9210,11 @@
         <v>1382</v>
       </c>
       <c r="C298" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'09 Here - Pavement-BuiltToSpill-LiveatNeumos20131227.mp3','title':'09 Here - Pavement-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="16" thickBot="1">
+    <row r="299" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A299" t="s">
         <v>1383</v>
       </c>
@@ -9047,11 +9222,11 @@
         <v>1383</v>
       </c>
       <c r="C299" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'09 marklanegan-showbox-20140703-09.mp3','title':'09 marklanegan-showbox-20140703-09.mp3'},</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="16" thickBot="1">
+    <row r="300" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A300" t="s">
         <v>1421</v>
       </c>
@@ -9059,11 +9234,11 @@
         <v>1421</v>
       </c>
       <c r="C300" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'10 Goin Against Your Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3','title':'10 Goin Against Your Mind2013-02-03-15-17-25-1663528-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="16" thickBot="1">
+    <row r="301" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A301" t="s">
         <v>326</v>
       </c>
@@ -9071,11 +9246,11 @@
         <v>326</v>
       </c>
       <c r="C301" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'10joyride-BuiltToSpill-Freemont-20140620.mp3','title':'10joyride-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="16" thickBot="1">
+    <row r="302" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A302" t="s">
         <v>1384</v>
       </c>
@@ -9083,11 +9258,11 @@
         <v>1384</v>
       </c>
       <c r="C302" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'10 marklanegan-showbox-20140703-10.mp3','title':'10 marklanegan-showbox-20140703-10.mp3'},</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="16" thickBot="1">
+    <row r="303" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A303" t="s">
         <v>1385</v>
       </c>
@@ -9095,11 +9270,11 @@
         <v>1385</v>
       </c>
       <c r="C303" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'10 You were right-BuiltToSpill-LiveatNeumos20131227.mp3','title':'10 You were right-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="16" thickBot="1">
+    <row r="304" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A304" t="s">
         <v>1386</v>
       </c>
@@ -9107,11 +9282,11 @@
         <v>1386</v>
       </c>
       <c r="C304" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'11 Conventional Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3','title':'11 Conventional Wisdom-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="16" thickBot="1">
+    <row r="305" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A305" t="s">
         <v>1422</v>
       </c>
@@ -9119,11 +9294,11 @@
         <v>1422</v>
       </c>
       <c r="C305" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'11 Kicked It In The Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3','title':'11 Kicked It In The Sun2013-02-03-15-17-25-9151816-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="16" thickBot="1">
+    <row r="306" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A306" t="s">
         <v>1387</v>
       </c>
@@ -9131,11 +9306,11 @@
         <v>1387</v>
       </c>
       <c r="C306" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'11 marklanegan-showbox-20140703-11.mp3','title':'11 marklanegan-showbox-20140703-11.mp3'},</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="16" thickBot="1">
+    <row r="307" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A307" t="s">
         <v>327</v>
       </c>
@@ -9143,11 +9318,11 @@
         <v>327</v>
       </c>
       <c r="C307" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'11stab-BuiltToSpill-Freemont-20140620.mp3','title':'11stab-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="16" thickBot="1">
+    <row r="308" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A308" t="s">
         <v>328</v>
       </c>
@@ -9155,11 +9330,11 @@
         <v>328</v>
       </c>
       <c r="C308" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'12carrythezero-BuiltToSpill-Freemont-20140620.mp3','title':'12carrythezero-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="16" thickBot="1">
+    <row r="309" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A309" t="s">
         <v>1423</v>
       </c>
@@ -9167,11 +9342,11 @@
         <v>1423</v>
       </c>
       <c r="C309" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'12 Center Of The Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3','title':'12 Center Of The Universe2013-02-03-15-17-27-2100314-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="16" thickBot="1">
+    <row r="310" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A310" t="s">
         <v>1388</v>
       </c>
@@ -9179,11 +9354,11 @@
         <v>1388</v>
       </c>
       <c r="C310" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'12 Heart - Doug Martsch-BuiltToSpill-LiveatNeumos20131227.mp3','title':'12 Heart - Doug Martsch-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="16" thickBot="1">
+    <row r="311" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A311" t="s">
         <v>1389</v>
       </c>
@@ -9191,11 +9366,11 @@
         <v>1389</v>
       </c>
       <c r="C311" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'12 marklanegan-showbox-20140703-12.mp3','title':'12 marklanegan-showbox-20140703-12.mp3'},</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="16" thickBot="1">
+    <row r="312" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A312" t="s">
         <v>1390</v>
       </c>
@@ -9203,11 +9378,11 @@
         <v>1390</v>
       </c>
       <c r="C312" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'13 Carry the Zero-BuiltToSpill-LiveatNeumos20131227.mp3','title':'13 Carry the Zero-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="16" thickBot="1">
+    <row r="313" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A313" t="s">
         <v>1391</v>
       </c>
@@ -9215,11 +9390,11 @@
         <v>1391</v>
       </c>
       <c r="C313" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'13 Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3','title':'13 Heart2013-02-03-15-17-27-3192356-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="16" thickBot="1">
+    <row r="314" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A314" t="s">
         <v>1392</v>
       </c>
@@ -9227,11 +9402,11 @@
         <v>1392</v>
       </c>
       <c r="C314" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'13 marklanegan-showbox-20140703-13.mp3','title':'13 marklanegan-showbox-20140703-13.mp3'},</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="16" thickBot="1">
+    <row r="315" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A315" t="s">
         <v>329</v>
       </c>
@@ -9239,11 +9414,11 @@
         <v>329</v>
       </c>
       <c r="C315" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'13youwereright-BuiltToSpill-Freemont-20140620.mp3','title':'13youwereright-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="16" thickBot="1">
+    <row r="316" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A316" t="s">
         <v>330</v>
       </c>
@@ -9251,11 +9426,11 @@
         <v>330</v>
       </c>
       <c r="C316" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'14bigdipper-BuiltToSpill-Freemont-20140620.mp3','title':'14bigdipper-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="16" thickBot="1">
+    <row r="317" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A317" t="s">
         <v>1393</v>
       </c>
@@ -9263,11 +9438,11 @@
         <v>1393</v>
       </c>
       <c r="C317" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'14 Instrumental - dont know-BuiltToSpill-LiveatNeumos20131227.mp3','title':'14 Instrumental - dont know-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="16" thickBot="1">
+    <row r="318" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A318" t="s">
         <v>1394</v>
       </c>
@@ -9275,11 +9450,11 @@
         <v>1394</v>
       </c>
       <c r="C318" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'14 marklanegan-showbox-20140703-14.mp3','title':'14 marklanegan-showbox-20140703-14.mp3'},</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="16" thickBot="1">
+    <row r="319" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A319" t="s">
         <v>1395</v>
       </c>
@@ -9287,11 +9462,11 @@
         <v>1395</v>
       </c>
       <c r="C319" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>{'file':'14 Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3','title':'14 Pat2013-02-03-15-17-28-4736800-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="16" thickBot="1">
+    <row r="320" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A320" t="s">
         <v>331</v>
       </c>
@@ -9299,11 +9474,11 @@
         <v>331</v>
       </c>
       <c r="C320" s="7" t="str">
-        <f t="shared" ref="C320:C383" si="1">"{'file':'"&amp;A320&amp;"','title':'"&amp;B320&amp;"'},"</f>
+        <f t="shared" ref="C320:C383" si="5">"{'file':'"&amp;A320&amp;"','title':'"&amp;B320&amp;"'},"</f>
         <v>{'file':'15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3','title':'15dontfearthereaper-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="16" thickBot="1">
+    <row r="321" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A321" t="s">
         <v>1424</v>
       </c>
@@ -9311,11 +9486,11 @@
         <v>1424</v>
       </c>
       <c r="C321" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'15 How Soon Is Now - Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3','title':'15 How Soon Is Now - Unknown2013-02-03-15-17-29-5657220-BuiltToSpill-Bellingham-20130202.mp3'},</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="16" thickBot="1">
+    <row r="322" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A322" t="s">
         <v>1396</v>
       </c>
@@ -9323,11 +9498,11 @@
         <v>1396</v>
       </c>
       <c r="C322" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'15 I would hurt a fly-BuiltToSpill-LiveatNeumos20131227.mp3','title':'15 I would hurt a fly-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="16" thickBot="1">
+    <row r="323" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A323" t="s">
         <v>1397</v>
       </c>
@@ -9335,11 +9510,11 @@
         <v>1397</v>
       </c>
       <c r="C323" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'15 marklanegan-showbox-20140703-15.mp3','title':'15 marklanegan-showbox-20140703-15.mp3'},</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="16" thickBot="1">
+    <row r="324" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A324" t="s">
         <v>1398</v>
       </c>
@@ -9347,11 +9522,11 @@
         <v>1398</v>
       </c>
       <c r="C324" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'16 Age of Consent - New Order-BuiltToSpill-LiveatNeumos20131227.mp3','title':'16 Age of Consent - New Order-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="16" thickBot="1">
+    <row r="325" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A325" t="s">
         <v>332</v>
       </c>
@@ -9359,11 +9534,11 @@
         <v>332</v>
       </c>
       <c r="C325" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3','title':'16conventionalwisdom-BuiltToSpill-Freemont-20140620.mp3'},</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="16" thickBot="1">
+    <row r="326" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A326" t="s">
         <v>1399</v>
       </c>
@@ -9371,11 +9546,11 @@
         <v>1399</v>
       </c>
       <c r="C326" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'16 marklanegan-showbox-20140703-16.mp3','title':'16 marklanegan-showbox-20140703-16.mp3'},</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="16" thickBot="1">
+    <row r="327" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A327" t="s">
         <v>1400</v>
       </c>
@@ -9383,11 +9558,11 @@
         <v>1400</v>
       </c>
       <c r="C327" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'17 How Soon is Now - The Smiths-BuiltToSpill-LiveatNeumos20131227.mp3','title':'17 How Soon is Now - The Smiths-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="16" thickBot="1">
+    <row r="328" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A328" t="s">
         <v>1401</v>
       </c>
@@ -9395,11 +9570,11 @@
         <v>1401</v>
       </c>
       <c r="C328" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'17 marklanegan-showbox-20140703-17.mp3','title':'17 marklanegan-showbox-20140703-17.mp3'},</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="16" thickBot="1">
+    <row r="329" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A329" t="s">
         <v>1402</v>
       </c>
@@ -9407,11 +9582,11 @@
         <v>1402</v>
       </c>
       <c r="C329" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'18 Car-BuiltToSpill-LiveatNeumos20131227.mp3','title':'18 Car-BuiltToSpill-LiveatNeumos20131227.mp3'},</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="16" thickBot="1">
+    <row r="330" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A330" t="s">
         <v>1403</v>
       </c>
@@ -9419,11 +9594,11 @@
         <v>1403</v>
       </c>
       <c r="C330" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'18 marklanegan-showbox-20140703-18.mp3','title':'18 marklanegan-showbox-20140703-18.mp3'},</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="16" thickBot="1">
+    <row r="331" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A331" t="s">
         <v>1404</v>
       </c>
@@ -9431,11 +9606,11 @@
         <v>1404</v>
       </c>
       <c r="C331" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'19 marklanegan-showbox-20140703-19.mp3','title':'19 marklanegan-showbox-20140703-19.mp3'},</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="16" thickBot="1">
+    <row r="332" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A332" t="s">
         <v>1024</v>
       </c>
@@ -9443,11 +9618,11 @@
         <v>1024</v>
       </c>
       <c r="C332" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'Bats Do It.mp3','title':'Bats Do It.mp3'},</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="16" thickBot="1">
+    <row r="333" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -9455,11 +9630,11 @@
         <v>333</v>
       </c>
       <c r="C333" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'bts-center-BuiltToSpill-Geogetown-20130713.mp3','title':'bts-center-BuiltToSpill-Geogetown-20130713.mp3'},</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="16" thickBot="1">
+    <row r="334" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -9467,11 +9642,11 @@
         <v>334</v>
       </c>
       <c r="C334" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'bts-fly-BuiltToSpill-Geogetown-20130713.mp3','title':'bts-fly-BuiltToSpill-Geogetown-20130713.mp3'},</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="16" thickBot="1">
+    <row r="335" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -9479,11 +9654,11 @@
         <v>335</v>
       </c>
       <c r="C335" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3','title':'bts-goingagainst-BuiltToSpill-Geogetown-20130713.mp3'},</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="16" thickBot="1">
+    <row r="336" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -9491,11 +9666,11 @@
         <v>336</v>
       </c>
       <c r="C336" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3','title':'bts-inthemorning-BuiltToSpill-Geogetown-20130713.mp3'},</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="16" thickBot="1">
+    <row r="337" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -9503,11 +9678,11 @@
         <v>337</v>
       </c>
       <c r="C337" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3','title':'bts-madeupdreams-BuiltToSpill-Geogetown-20130713.mp3'},</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="16" thickBot="1">
+    <row r="338" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -9515,11 +9690,11 @@
         <v>338</v>
       </c>
       <c r="C338" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3','title':'bts-sidewalk-BuiltToSpill-Geogetown-20130713.mp3'},</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="16" thickBot="1">
+    <row r="339" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -9527,11 +9702,11 @@
         <v>339</v>
       </c>
       <c r="C339" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3','title':'bts-soundcheck-BuiltToSpill-Geogetown-20130713.mp3'},</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="16" thickBot="1">
+    <row r="340" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -9539,11 +9714,11 @@
         <v>340</v>
       </c>
       <c r="C340" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'bts-theplan-BuiltToSpill-Geogetown-20130713.mp3','title':'bts-theplan-BuiltToSpill-Geogetown-20130713.mp3'},</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="16" thickBot="1">
+    <row r="341" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -9551,11 +9726,11 @@
         <v>341</v>
       </c>
       <c r="C341" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'bts-untitled-BuiltToSpill-Geogetown-20130713.mp3','title':'bts-untitled-BuiltToSpill-Geogetown-20130713.mp3'},</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="16" thickBot="1">
+    <row r="342" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -9563,11 +9738,11 @@
         <v>342</v>
       </c>
       <c r="C342" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3','title':'bts-youwereright-BuiltToSpill-Geogetown-20130713.mp3'},</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="16" thickBot="1">
+    <row r="343" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A343" t="s">
         <v>1025</v>
       </c>
@@ -9575,11 +9750,11 @@
         <v>1025</v>
       </c>
       <c r="C343" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'Cannabalistic Attack.mp3','title':'Cannabalistic Attack.mp3'},</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="16" thickBot="1">
+    <row r="344" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A344" t="s">
         <v>220</v>
       </c>
@@ -9587,11 +9762,11 @@
         <v>220</v>
       </c>
       <c r="C344" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-01.mp3','title':'cracksabbath20140509-01.mp3'},</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="16" thickBot="1">
+    <row r="345" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A345" t="s">
         <v>221</v>
       </c>
@@ -9599,11 +9774,11 @@
         <v>221</v>
       </c>
       <c r="C345" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-02.mp3','title':'cracksabbath20140509-02.mp3'},</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="16" thickBot="1">
+    <row r="346" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A346" t="s">
         <v>222</v>
       </c>
@@ -9611,11 +9786,11 @@
         <v>222</v>
       </c>
       <c r="C346" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-03.mp3','title':'cracksabbath20140509-03.mp3'},</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="16" thickBot="1">
+    <row r="347" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A347" t="s">
         <v>223</v>
       </c>
@@ -9623,11 +9798,11 @@
         <v>223</v>
       </c>
       <c r="C347" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-04.mp3','title':'cracksabbath20140509-04.mp3'},</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="16" thickBot="1">
+    <row r="348" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A348" t="s">
         <v>224</v>
       </c>
@@ -9635,11 +9810,11 @@
         <v>224</v>
       </c>
       <c r="C348" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-05.mp3','title':'cracksabbath20140509-05.mp3'},</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="16" thickBot="1">
+    <row r="349" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A349" t="s">
         <v>225</v>
       </c>
@@ -9647,11 +9822,11 @@
         <v>225</v>
       </c>
       <c r="C349" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-06.mp3','title':'cracksabbath20140509-06.mp3'},</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="16" thickBot="1">
+    <row r="350" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A350" t="s">
         <v>226</v>
       </c>
@@ -9659,11 +9834,11 @@
         <v>226</v>
       </c>
       <c r="C350" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-07.mp3','title':'cracksabbath20140509-07.mp3'},</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="16" thickBot="1">
+    <row r="351" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A351" t="s">
         <v>227</v>
       </c>
@@ -9671,11 +9846,11 @@
         <v>227</v>
       </c>
       <c r="C351" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-08.mp3','title':'cracksabbath20140509-08.mp3'},</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="16" thickBot="1">
+    <row r="352" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A352" t="s">
         <v>228</v>
       </c>
@@ -9683,11 +9858,11 @@
         <v>228</v>
       </c>
       <c r="C352" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-09.mp3','title':'cracksabbath20140509-09.mp3'},</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="16" thickBot="1">
+    <row r="353" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A353" t="s">
         <v>229</v>
       </c>
@@ -9695,11 +9870,11 @@
         <v>229</v>
       </c>
       <c r="C353" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-10.mp3','title':'cracksabbath20140509-10.mp3'},</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="16" thickBot="1">
+    <row r="354" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A354" t="s">
         <v>230</v>
       </c>
@@ -9707,11 +9882,11 @@
         <v>230</v>
       </c>
       <c r="C354" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-11.mp3','title':'cracksabbath20140509-11.mp3'},</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="16" thickBot="1">
+    <row r="355" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A355" t="s">
         <v>231</v>
       </c>
@@ -9719,11 +9894,11 @@
         <v>231</v>
       </c>
       <c r="C355" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-12.mp3','title':'cracksabbath20140509-12.mp3'},</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="16" thickBot="1">
+    <row r="356" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A356" t="s">
         <v>232</v>
       </c>
@@ -9731,11 +9906,11 @@
         <v>232</v>
       </c>
       <c r="C356" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-13.mp3','title':'cracksabbath20140509-13.mp3'},</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="16" thickBot="1">
+    <row r="357" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A357" t="s">
         <v>233</v>
       </c>
@@ -9743,11 +9918,11 @@
         <v>233</v>
       </c>
       <c r="C357" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-14.mp3','title':'cracksabbath20140509-14.mp3'},</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="16" thickBot="1">
+    <row r="358" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A358" t="s">
         <v>234</v>
       </c>
@@ -9755,11 +9930,11 @@
         <v>234</v>
       </c>
       <c r="C358" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-15.mp3','title':'cracksabbath20140509-15.mp3'},</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="16" thickBot="1">
+    <row r="359" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A359" t="s">
         <v>235</v>
       </c>
@@ -9767,11 +9942,11 @@
         <v>235</v>
       </c>
       <c r="C359" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-16.mp3','title':'cracksabbath20140509-16.mp3'},</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="16" thickBot="1">
+    <row r="360" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A360" t="s">
         <v>236</v>
       </c>
@@ -9779,11 +9954,11 @@
         <v>236</v>
       </c>
       <c r="C360" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-17.mp3','title':'cracksabbath20140509-17.mp3'},</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="16" thickBot="1">
+    <row r="361" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A361" t="s">
         <v>237</v>
       </c>
@@ -9791,11 +9966,11 @@
         <v>237</v>
       </c>
       <c r="C361" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-18.mp3','title':'cracksabbath20140509-18.mp3'},</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="16" thickBot="1">
+    <row r="362" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A362" t="s">
         <v>238</v>
       </c>
@@ -9803,11 +9978,11 @@
         <v>238</v>
       </c>
       <c r="C362" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-19.mp3','title':'cracksabbath20140509-19.mp3'},</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="16" thickBot="1">
+    <row r="363" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A363" t="s">
         <v>239</v>
       </c>
@@ -9815,11 +9990,11 @@
         <v>239</v>
       </c>
       <c r="C363" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-20.mp3','title':'cracksabbath20140509-20.mp3'},</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="16" thickBot="1">
+    <row r="364" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A364" t="s">
         <v>240</v>
       </c>
@@ -9827,11 +10002,11 @@
         <v>240</v>
       </c>
       <c r="C364" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-21.mp3','title':'cracksabbath20140509-21.mp3'},</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="16" thickBot="1">
+    <row r="365" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A365" t="s">
         <v>241</v>
       </c>
@@ -9839,11 +10014,11 @@
         <v>241</v>
       </c>
       <c r="C365" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-22.mp3','title':'cracksabbath20140509-22.mp3'},</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="16" thickBot="1">
+    <row r="366" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A366" t="s">
         <v>242</v>
       </c>
@@ -9851,11 +10026,11 @@
         <v>242</v>
       </c>
       <c r="C366" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-23.mp3','title':'cracksabbath20140509-23.mp3'},</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="16" thickBot="1">
+    <row r="367" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A367" t="s">
         <v>243</v>
       </c>
@@ -9863,11 +10038,11 @@
         <v>243</v>
       </c>
       <c r="C367" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-24.mp3','title':'cracksabbath20140509-24.mp3'},</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="16" thickBot="1">
+    <row r="368" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A368" t="s">
         <v>244</v>
       </c>
@@ -9875,11 +10050,11 @@
         <v>244</v>
       </c>
       <c r="C368" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'cracksabbath20140509-25.mp3','title':'cracksabbath20140509-25.mp3'},</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="16" thickBot="1">
+    <row r="369" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A369" t="s">
         <v>1405</v>
       </c>
@@ -9887,11 +10062,11 @@
         <v>1405</v>
       </c>
       <c r="C369" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'Delirious.mp3','title':'Delirious.mp3'},</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="16" thickBot="1">
+    <row r="370" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A370" t="s">
         <v>1027</v>
       </c>
@@ -9899,11 +10074,11 @@
         <v>1027</v>
       </c>
       <c r="C370" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'God Knowledge.mp3','title':'God Knowledge.mp3'},</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="16" thickBot="1">
+    <row r="371" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A371" t="s">
         <v>1028</v>
       </c>
@@ -9911,11 +10086,11 @@
         <v>1028</v>
       </c>
       <c r="C371" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'Hella Buckarooni.mp3','title':'Hella Buckarooni.mp3'},</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="16" thickBot="1">
+    <row r="372" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A372" t="s">
         <v>1029</v>
       </c>
@@ -9923,11 +10098,11 @@
         <v>1029</v>
       </c>
       <c r="C372" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'Hop Off This Beat.mp3','title':'Hop Off This Beat.mp3'},</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="16" thickBot="1">
+    <row r="373" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A373" t="s">
         <v>1030</v>
       </c>
@@ -9935,11 +10110,11 @@
         <v>1030</v>
       </c>
       <c r="C373" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'Just Beau By Himself.mp3','title':'Just Beau By Himself.mp3'},</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="16" thickBot="1">
+    <row r="374" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A374" t="s">
         <v>94</v>
       </c>
@@ -9947,11 +10122,11 @@
         <v>94</v>
       </c>
       <c r="C374" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'skerik10-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik10-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="16" thickBot="1">
+    <row r="375" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A375" t="s">
         <v>95</v>
       </c>
@@ -9959,11 +10134,11 @@
         <v>95</v>
       </c>
       <c r="C375" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'skerik11-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik11-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="16" thickBot="1">
+    <row r="376" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A376" t="s">
         <v>96</v>
       </c>
@@ -9971,11 +10146,11 @@
         <v>96</v>
       </c>
       <c r="C376" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'skerik12-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik12-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="16" thickBot="1">
+    <row r="377" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A377" t="s">
         <v>97</v>
       </c>
@@ -9983,11 +10158,11 @@
         <v>97</v>
       </c>
       <c r="C377" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'skerik13-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik13-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="16" thickBot="1">
+    <row r="378" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A378" t="s">
         <v>98</v>
       </c>
@@ -9995,11 +10170,11 @@
         <v>98</v>
       </c>
       <c r="C378" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'skerik14-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik14-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="16" thickBot="1">
+    <row r="379" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A379" t="s">
         <v>99</v>
       </c>
@@ -10007,11 +10182,11 @@
         <v>99</v>
       </c>
       <c r="C379" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'skerik15-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik15-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="16" thickBot="1">
+    <row r="380" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A380" t="s">
         <v>100</v>
       </c>
@@ -10019,11 +10194,11 @@
         <v>100</v>
       </c>
       <c r="C380" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'skerik1-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik1-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="16" thickBot="1">
+    <row r="381" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A381" t="s">
         <v>101</v>
       </c>
@@ -10031,11 +10206,11 @@
         <v>101</v>
       </c>
       <c r="C381" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'skerik2-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik2-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="16" thickBot="1">
+    <row r="382" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A382" t="s">
         <v>102</v>
       </c>
@@ -10043,11 +10218,11 @@
         <v>102</v>
       </c>
       <c r="C382" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'skerik3-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik3-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="16" thickBot="1">
+    <row r="383" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A383" t="s">
         <v>103</v>
       </c>
@@ -10055,11 +10230,11 @@
         <v>103</v>
       </c>
       <c r="C383" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>{'file':'skerik4-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik4-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="16" thickBot="1">
+    <row r="384" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A384" t="s">
         <v>104</v>
       </c>
@@ -10067,11 +10242,11 @@
         <v>104</v>
       </c>
       <c r="C384" s="7" t="str">
-        <f t="shared" ref="C384:C447" si="2">"{'file':'"&amp;A384&amp;"','title':'"&amp;B384&amp;"'},"</f>
+        <f t="shared" ref="C384:C447" si="6">"{'file':'"&amp;A384&amp;"','title':'"&amp;B384&amp;"'},"</f>
         <v>{'file':'skerik5-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik5-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="16" thickBot="1">
+    <row r="385" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A385" t="s">
         <v>105</v>
       </c>
@@ -10079,11 +10254,11 @@
         <v>105</v>
       </c>
       <c r="C385" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'skerik6-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik6-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="16" thickBot="1">
+    <row r="386" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A386" t="s">
         <v>106</v>
       </c>
@@ -10091,11 +10266,11 @@
         <v>106</v>
       </c>
       <c r="C386" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'skerik7-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik7-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="16" thickBot="1">
+    <row r="387" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A387" t="s">
         <v>107</v>
       </c>
@@ -10103,11 +10278,11 @@
         <v>107</v>
       </c>
       <c r="C387" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'skerik8-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik8-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="16" thickBot="1">
+    <row r="388" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A388" t="s">
         <v>108</v>
       </c>
@@ -10115,11 +10290,11 @@
         <v>108</v>
       </c>
       <c r="C388" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'skerik9-SkerikTrio-OwlnThistle-20130206.mp3','title':'skerik9-SkerikTrio-OwlnThistle-20130206.mp3'},</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="16" thickBot="1">
+    <row r="389" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A389" t="s">
         <v>343</v>
       </c>
@@ -10127,11 +10302,11 @@
         <v>343</v>
       </c>
       <c r="C389" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_10-zeke-elcorazon-2013.mp3','title':'Vinyl_10-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="16" thickBot="1">
+    <row r="390" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A390" t="s">
         <v>344</v>
       </c>
@@ -10139,11 +10314,11 @@
         <v>344</v>
       </c>
       <c r="C390" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_11-zeke-elcorazon-2013.mp3','title':'Vinyl_11-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="16" thickBot="1">
+    <row r="391" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A391" t="s">
         <v>345</v>
       </c>
@@ -10151,11 +10326,11 @@
         <v>345</v>
       </c>
       <c r="C391" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_12-zeke-elcorazon-2013.mp3','title':'Vinyl_12-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="16" thickBot="1">
+    <row r="392" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A392" t="s">
         <v>346</v>
       </c>
@@ -10163,11 +10338,11 @@
         <v>346</v>
       </c>
       <c r="C392" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_13-zeke-elcorazon-2013.mp3','title':'Vinyl_13-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="16" thickBot="1">
+    <row r="393" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A393" t="s">
         <v>347</v>
       </c>
@@ -10175,11 +10350,11 @@
         <v>347</v>
       </c>
       <c r="C393" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_14-zeke-elcorazon-2013.mp3','title':'Vinyl_14-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="16" thickBot="1">
+    <row r="394" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A394" t="s">
         <v>348</v>
       </c>
@@ -10187,11 +10362,11 @@
         <v>348</v>
       </c>
       <c r="C394" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_15-zeke-elcorazon-2013.mp3','title':'Vinyl_15-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="16" thickBot="1">
+    <row r="395" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A395" t="s">
         <v>349</v>
       </c>
@@ -10199,11 +10374,11 @@
         <v>349</v>
       </c>
       <c r="C395" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_16-zeke-elcorazon-2013.mp3','title':'Vinyl_16-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="16" thickBot="1">
+    <row r="396" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A396" t="s">
         <v>350</v>
       </c>
@@ -10211,11 +10386,11 @@
         <v>350</v>
       </c>
       <c r="C396" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_17-zeke-elcorazon-2013.mp3','title':'Vinyl_17-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="16" thickBot="1">
+    <row r="397" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A397" t="s">
         <v>351</v>
       </c>
@@ -10223,11 +10398,11 @@
         <v>351</v>
       </c>
       <c r="C397" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_18-zeke-elcorazon-2013.mp3','title':'Vinyl_18-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="16" thickBot="1">
+    <row r="398" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A398" t="s">
         <v>352</v>
       </c>
@@ -10235,11 +10410,11 @@
         <v>352</v>
       </c>
       <c r="C398" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_19-zeke-elcorazon-2013.mp3','title':'Vinyl_19-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="16" thickBot="1">
+    <row r="399" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A399" t="s">
         <v>353</v>
       </c>
@@ -10247,11 +10422,11 @@
         <v>353</v>
       </c>
       <c r="C399" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_1-zeke-elcorazon-2013.mp3','title':'Vinyl_1-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="16" thickBot="1">
+    <row r="400" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A400" t="s">
         <v>354</v>
       </c>
@@ -10259,11 +10434,11 @@
         <v>354</v>
       </c>
       <c r="C400" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_2-zeke-elcorazon-2013.mp3','title':'Vinyl_2-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="16" thickBot="1">
+    <row r="401" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A401" t="s">
         <v>355</v>
       </c>
@@ -10271,11 +10446,11 @@
         <v>355</v>
       </c>
       <c r="C401" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_3-zeke-elcorazon-2013.mp3','title':'Vinyl_3-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="16" thickBot="1">
+    <row r="402" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A402" t="s">
         <v>356</v>
       </c>
@@ -10283,11 +10458,11 @@
         <v>356</v>
       </c>
       <c r="C402" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_4-zeke-elcorazon-2013.mp3','title':'Vinyl_4-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="16" thickBot="1">
+    <row r="403" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A403" t="s">
         <v>357</v>
       </c>
@@ -10295,11 +10470,11 @@
         <v>357</v>
       </c>
       <c r="C403" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_5-zeke-elcorazon-2013.mp3','title':'Vinyl_5-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="16" thickBot="1">
+    <row r="404" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A404" t="s">
         <v>358</v>
       </c>
@@ -10307,11 +10482,11 @@
         <v>358</v>
       </c>
       <c r="C404" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_6-zeke-elcorazon-2013.mp3','title':'Vinyl_6-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="16" thickBot="1">
+    <row r="405" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A405" t="s">
         <v>359</v>
       </c>
@@ -10319,11 +10494,11 @@
         <v>359</v>
       </c>
       <c r="C405" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_7-zeke-elcorazon-2013.mp3','title':'Vinyl_7-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="16" thickBot="1">
+    <row r="406" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A406" t="s">
         <v>360</v>
       </c>
@@ -10331,11 +10506,11 @@
         <v>360</v>
       </c>
       <c r="C406" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_8-zeke-elcorazon-2013.mp3','title':'Vinyl_8-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="16" thickBot="1">
+    <row r="407" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A407" t="s">
         <v>361</v>
       </c>
@@ -10343,11 +10518,11 @@
         <v>361</v>
       </c>
       <c r="C407" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl_9-zeke-elcorazon-2013.mp3','title':'Vinyl_9-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="16" thickBot="1">
+    <row r="408" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A408" t="s">
         <v>362</v>
       </c>
@@ -10355,11 +10530,11 @@
         <v>362</v>
       </c>
       <c r="C408" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'Vinyl-zeke-elcorazon-2013.mp3','title':'Vinyl-zeke-elcorazon-2013.mp3'},</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="16" thickBot="1">
+    <row r="409" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A409" t="s">
         <v>363</v>
       </c>
@@ -10367,11 +10542,11 @@
         <v>363</v>
       </c>
       <c r="C409" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0001bigbusinessportlandwonderballroom20150907.mp3','title':'ZOOM0001bigbusinessportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="16" thickBot="1">
+    <row r="410" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A410" t="s">
         <v>293</v>
       </c>
@@ -10379,11 +10554,11 @@
         <v>293</v>
       </c>
       <c r="C410" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0001-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0001-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="16" thickBot="1">
+    <row r="411" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A411" t="s">
         <v>245</v>
       </c>
@@ -10391,11 +10566,11 @@
         <v>245</v>
       </c>
       <c r="C411" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0001-cracksabbath-themix-20130920.mp3','title':'ZOOM0001-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="16" thickBot="1">
+    <row r="412" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A412" t="s">
         <v>199</v>
       </c>
@@ -10403,11 +10578,11 @@
         <v>199</v>
       </c>
       <c r="C412" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0001-melvins-showboxmarket-20141018.mp3','title':'ZOOM0001-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="16" thickBot="1">
+    <row r="413" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A413" t="s">
         <v>0</v>
       </c>
@@ -10415,11 +10590,11 @@
         <v>0</v>
       </c>
       <c r="C413" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0001roxhillsessions20150827.mp3','title':'ZOOM0001roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="16" thickBot="1">
+    <row r="414" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A414" t="s">
         <v>1406</v>
       </c>
@@ -10427,11 +10602,11 @@
         <v>1406</v>
       </c>
       <c r="C414" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0001roxhillsessions20150930.mp3','title':'ZOOM0001roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="16" thickBot="1">
+    <row r="415" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A415" t="s">
         <v>77</v>
       </c>
@@ -10439,11 +10614,11 @@
         <v>77</v>
       </c>
       <c r="C415" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0001-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0001-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="16" thickBot="1">
+    <row r="416" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A416" t="s">
         <v>1407</v>
       </c>
@@ -10451,11 +10626,11 @@
         <v>1407</v>
       </c>
       <c r="C416" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0001-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0001-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="16" thickBot="1">
+    <row r="417" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A417" t="s">
         <v>109</v>
       </c>
@@ -10463,11 +10638,11 @@
         <v>109</v>
       </c>
       <c r="C417" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0001-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0001-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="16" thickBot="1">
+    <row r="418" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A418" t="s">
         <v>364</v>
       </c>
@@ -10475,11 +10650,11 @@
         <v>364</v>
       </c>
       <c r="C418" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0001-zeke-highline-20140822.mp3','title':'ZOOM0001-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="16" thickBot="1">
+    <row r="419" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A419" t="s">
         <v>365</v>
       </c>
@@ -10487,11 +10662,11 @@
         <v>365</v>
       </c>
       <c r="C419" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002bigbusinessportlandwonderballroom20150907.mp3','title':'ZOOM0002bigbusinessportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="16" thickBot="1">
+    <row r="420" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A420" t="s">
         <v>246</v>
       </c>
@@ -10499,11 +10674,11 @@
         <v>246</v>
       </c>
       <c r="C420" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0002-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="16" thickBot="1">
+    <row r="421" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A421" t="s">
         <v>294</v>
       </c>
@@ -10511,11 +10686,11 @@
         <v>294</v>
       </c>
       <c r="C421" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0002-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="16" thickBot="1">
+    <row r="422" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A422" t="s">
         <v>214</v>
       </c>
@@ -10523,11 +10698,11 @@
         <v>214</v>
       </c>
       <c r="C422" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002-cracksabbath-themix-20130920.mp3','title':'ZOOM0002-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="16" thickBot="1">
+    <row r="423" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A423" t="s">
         <v>203</v>
       </c>
@@ -10535,11 +10710,11 @@
         <v>203</v>
       </c>
       <c r="C423" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002-melvins-showboxmarket-20141018.mp3','title':'ZOOM0002-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="16" thickBot="1">
+    <row r="424" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A424" t="s">
         <v>8</v>
       </c>
@@ -10547,11 +10722,11 @@
         <v>8</v>
       </c>
       <c r="C424" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002roxhillsessions20150827.mp3','title':'ZOOM0002roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="16" thickBot="1">
+    <row r="425" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A425" t="s">
         <v>1408</v>
       </c>
@@ -10559,11 +10734,11 @@
         <v>1408</v>
       </c>
       <c r="C425" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002roxhillsessions20150930.mp3','title':'ZOOM0002roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="16" thickBot="1">
+    <row r="426" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A426" t="s">
         <v>78</v>
       </c>
@@ -10571,11 +10746,11 @@
         <v>78</v>
       </c>
       <c r="C426" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0002-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="16" thickBot="1">
+    <row r="427" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A427" t="s">
         <v>1409</v>
       </c>
@@ -10583,11 +10758,11 @@
         <v>1409</v>
       </c>
       <c r="C427" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0002-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="16" thickBot="1">
+    <row r="428" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A428" t="s">
         <v>110</v>
       </c>
@@ -10595,11 +10770,11 @@
         <v>110</v>
       </c>
       <c r="C428" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0002-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="16" thickBot="1">
+    <row r="429" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A429" t="s">
         <v>366</v>
       </c>
@@ -10607,11 +10782,11 @@
         <v>366</v>
       </c>
       <c r="C429" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0002-zeke-highline-20140822.mp3','title':'ZOOM0002-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="16" thickBot="1">
+    <row r="430" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A430" t="s">
         <v>367</v>
       </c>
@@ -10619,11 +10794,11 @@
         <v>367</v>
       </c>
       <c r="C430" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003bigbusinessportlandwonderballroom20150907.mp3','title':'ZOOM0003bigbusinessportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="16" thickBot="1">
+    <row r="431" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A431" t="s">
         <v>247</v>
       </c>
@@ -10631,11 +10806,11 @@
         <v>247</v>
       </c>
       <c r="C431" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0003-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="16" thickBot="1">
+    <row r="432" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A432" t="s">
         <v>295</v>
       </c>
@@ -10643,11 +10818,11 @@
         <v>295</v>
       </c>
       <c r="C432" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0003-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="16" thickBot="1">
+    <row r="433" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A433" t="s">
         <v>215</v>
       </c>
@@ -10655,11 +10830,11 @@
         <v>215</v>
       </c>
       <c r="C433" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003-cracksabbath-themix-20130920.mp3','title':'ZOOM0003-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="16" thickBot="1">
+    <row r="434" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A434" t="s">
         <v>207</v>
       </c>
@@ -10667,11 +10842,11 @@
         <v>207</v>
       </c>
       <c r="C434" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003-melvins-showboxmarket-20141018.mp3','title':'ZOOM0003-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="16" thickBot="1">
+    <row r="435" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A435" t="s">
         <v>16</v>
       </c>
@@ -10679,11 +10854,11 @@
         <v>16</v>
       </c>
       <c r="C435" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003roxhillsessions20150827.mp3','title':'ZOOM0003roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="16" thickBot="1">
+    <row r="436" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A436" t="s">
         <v>1410</v>
       </c>
@@ -10691,11 +10866,11 @@
         <v>1410</v>
       </c>
       <c r="C436" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003roxhillsessions20150930.mp3','title':'ZOOM0003roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="16" thickBot="1">
+    <row r="437" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A437" t="s">
         <v>79</v>
       </c>
@@ -10703,11 +10878,11 @@
         <v>79</v>
       </c>
       <c r="C437" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0003-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="16" thickBot="1">
+    <row r="438" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A438" t="s">
         <v>1411</v>
       </c>
@@ -10715,11 +10890,11 @@
         <v>1411</v>
       </c>
       <c r="C438" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0003-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="16" thickBot="1">
+    <row r="439" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A439" t="s">
         <v>111</v>
       </c>
@@ -10727,11 +10902,11 @@
         <v>111</v>
       </c>
       <c r="C439" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0003-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="16" thickBot="1">
+    <row r="440" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A440" t="s">
         <v>368</v>
       </c>
@@ -10739,11 +10914,11 @@
         <v>368</v>
       </c>
       <c r="C440" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0003-zeke-highline-20140822.mp3','title':'ZOOM0003-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="16" thickBot="1">
+    <row r="441" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A441" t="s">
         <v>369</v>
       </c>
@@ -10751,11 +10926,11 @@
         <v>369</v>
       </c>
       <c r="C441" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0004bigbusinessportlandwonderballroom20150907.mp3','title':'ZOOM0004bigbusinessportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="16" thickBot="1">
+    <row r="442" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A442" t="s">
         <v>248</v>
       </c>
@@ -10763,11 +10938,11 @@
         <v>248</v>
       </c>
       <c r="C442" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0004-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0004-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="16" thickBot="1">
+    <row r="443" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A443" t="s">
         <v>296</v>
       </c>
@@ -10775,11 +10950,11 @@
         <v>296</v>
       </c>
       <c r="C443" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0004-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0004-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="16" thickBot="1">
+    <row r="444" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A444" t="s">
         <v>216</v>
       </c>
@@ -10787,11 +10962,11 @@
         <v>216</v>
       </c>
       <c r="C444" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0004-cracksabbath-themix-20130920.mp3','title':'ZOOM0004-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="16" thickBot="1">
+    <row r="445" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A445" t="s">
         <v>210</v>
       </c>
@@ -10799,11 +10974,11 @@
         <v>210</v>
       </c>
       <c r="C445" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0004-melvins-showboxmarket-20141018.mp3','title':'ZOOM0004-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="16" thickBot="1">
+    <row r="446" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A446" t="s">
         <v>23</v>
       </c>
@@ -10811,11 +10986,11 @@
         <v>23</v>
       </c>
       <c r="C446" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0004roxhillsessions20150827.mp3','title':'ZOOM0004roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="16" thickBot="1">
+    <row r="447" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A447" t="s">
         <v>1418</v>
       </c>
@@ -10823,11 +10998,11 @@
         <v>1418</v>
       </c>
       <c r="C447" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>{'file':'ZOOM0004roxhillsessions20150930.mp3','title':'ZOOM0004roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="16" thickBot="1">
+    <row r="448" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A448" t="s">
         <v>80</v>
       </c>
@@ -10835,11 +11010,11 @@
         <v>80</v>
       </c>
       <c r="C448" s="7" t="str">
-        <f t="shared" ref="C448:C511" si="3">"{'file':'"&amp;A448&amp;"','title':'"&amp;B448&amp;"'},"</f>
+        <f t="shared" ref="C448:C511" si="7">"{'file':'"&amp;A448&amp;"','title':'"&amp;B448&amp;"'},"</f>
         <v>{'file':'ZOOM0004-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0004-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="16" thickBot="1">
+    <row r="449" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A449" t="s">
         <v>1419</v>
       </c>
@@ -10847,11 +11022,11 @@
         <v>1419</v>
       </c>
       <c r="C449" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0004-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0004-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="16" thickBot="1">
+    <row r="450" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A450" t="s">
         <v>112</v>
       </c>
@@ -10859,11 +11034,11 @@
         <v>112</v>
       </c>
       <c r="C450" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0004-sufferingfuckheads-coppergate-20130212.mp3','title':'ZOOM0004-sufferingfuckheads-coppergate-20130212.mp3'},</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="16" thickBot="1">
+    <row r="451" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A451" t="s">
         <v>113</v>
       </c>
@@ -10871,11 +11046,11 @@
         <v>113</v>
       </c>
       <c r="C451" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0004-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0004-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="16" thickBot="1">
+    <row r="452" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A452" t="s">
         <v>370</v>
       </c>
@@ -10883,11 +11058,11 @@
         <v>370</v>
       </c>
       <c r="C452" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0004-zeke-highline-20140822.mp3','title':'ZOOM0004-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="16" thickBot="1">
+    <row r="453" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A453" t="s">
         <v>371</v>
       </c>
@@ -10895,11 +11070,11 @@
         <v>371</v>
       </c>
       <c r="C453" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005bigbusinessportlandwonderballroom20150907.mp3','title':'ZOOM0005bigbusinessportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="16" thickBot="1">
+    <row r="454" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A454" t="s">
         <v>249</v>
       </c>
@@ -10907,11 +11082,11 @@
         <v>249</v>
       </c>
       <c r="C454" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0005-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="16" thickBot="1">
+    <row r="455" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A455" t="s">
         <v>297</v>
       </c>
@@ -10919,11 +11094,11 @@
         <v>297</v>
       </c>
       <c r="C455" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0005-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="16" thickBot="1">
+    <row r="456" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A456" t="s">
         <v>217</v>
       </c>
@@ -10931,11 +11106,11 @@
         <v>217</v>
       </c>
       <c r="C456" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005-cracksabbath-themix-20130920.mp3','title':'ZOOM0005-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="16" thickBot="1">
+    <row r="457" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A457" t="s">
         <v>200</v>
       </c>
@@ -10943,11 +11118,11 @@
         <v>200</v>
       </c>
       <c r="C457" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005-melvins-showboxmarket-20141018.mp3','title':'ZOOM0005-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="16" thickBot="1">
+    <row r="458" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10955,11 +11130,11 @@
         <v>30</v>
       </c>
       <c r="C458" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005roxhillsessions20150827.mp3','title':'ZOOM0005roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="16" thickBot="1">
+    <row r="459" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A459" t="s">
         <v>1425</v>
       </c>
@@ -10967,11 +11142,11 @@
         <v>1425</v>
       </c>
       <c r="C459" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005roxhillsessions20150930.mp3','title':'ZOOM0005roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="16" thickBot="1">
+    <row r="460" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A460" t="s">
         <v>81</v>
       </c>
@@ -10979,11 +11154,11 @@
         <v>81</v>
       </c>
       <c r="C460" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0005-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="16" thickBot="1">
+    <row r="461" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A461" t="s">
         <v>1426</v>
       </c>
@@ -10991,11 +11166,11 @@
         <v>1426</v>
       </c>
       <c r="C461" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0005-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="16" thickBot="1">
+    <row r="462" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A462" t="s">
         <v>114</v>
       </c>
@@ -11003,11 +11178,11 @@
         <v>114</v>
       </c>
       <c r="C462" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005-sufferingfuckheads-coppergate-20130205.mp3','title':'ZOOM0005-sufferingfuckheads-coppergate-20130205.mp3'},</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="16" thickBot="1">
+    <row r="463" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A463" t="s">
         <v>115</v>
       </c>
@@ -11015,11 +11190,11 @@
         <v>115</v>
       </c>
       <c r="C463" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005-sufferingfuckheads-coppergate-20130212.mp3','title':'ZOOM0005-sufferingfuckheads-coppergate-20130212.mp3'},</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="16" thickBot="1">
+    <row r="464" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A464" t="s">
         <v>116</v>
       </c>
@@ -11027,11 +11202,11 @@
         <v>116</v>
       </c>
       <c r="C464" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0005-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="16" thickBot="1">
+    <row r="465" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A465" t="s">
         <v>372</v>
       </c>
@@ -11039,11 +11214,11 @@
         <v>372</v>
       </c>
       <c r="C465" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0005-zeke-highline-20140822.mp3','title':'ZOOM0005-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="16" thickBot="1">
+    <row r="466" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A466" t="s">
         <v>250</v>
       </c>
@@ -11051,11 +11226,11 @@
         <v>250</v>
       </c>
       <c r="C466" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0006-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0006-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="16" thickBot="1">
+    <row r="467" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A467" t="s">
         <v>194</v>
       </c>
@@ -11063,11 +11238,11 @@
         <v>194</v>
       </c>
       <c r="C467" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0006melvinsportlandwonderballroom20150907.mp3','title':'ZOOM0006melvinsportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="16" thickBot="1">
+    <row r="468" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A468" t="s">
         <v>204</v>
       </c>
@@ -11075,11 +11250,11 @@
         <v>204</v>
       </c>
       <c r="C468" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0006-melvins-showboxmarket-20141018.mp3','title':'ZOOM0006-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="16" thickBot="1">
+    <row r="469" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A469" t="s">
         <v>1</v>
       </c>
@@ -11087,11 +11262,11 @@
         <v>1</v>
       </c>
       <c r="C469" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0006roxhillsessions20150827.mp3','title':'ZOOM0006roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="16" thickBot="1">
+    <row r="470" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A470" t="s">
         <v>1427</v>
       </c>
@@ -11099,11 +11274,11 @@
         <v>1427</v>
       </c>
       <c r="C470" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0006roxhillsessions20150930.mp3','title':'ZOOM0006roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="16" thickBot="1">
+    <row r="471" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A471" t="s">
         <v>82</v>
       </c>
@@ -11111,11 +11286,11 @@
         <v>82</v>
       </c>
       <c r="C471" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0006-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0006-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="16" thickBot="1">
+    <row r="472" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A472" t="s">
         <v>1428</v>
       </c>
@@ -11123,11 +11298,11 @@
         <v>1428</v>
       </c>
       <c r="C472" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0006-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0006-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="16" thickBot="1">
+    <row r="473" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A473" t="s">
         <v>117</v>
       </c>
@@ -11135,11 +11310,11 @@
         <v>117</v>
       </c>
       <c r="C473" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0006-sufferingfuckheads-coppergate-20130212.mp3','title':'ZOOM0006-sufferingfuckheads-coppergate-20130212.mp3'},</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="16" thickBot="1">
+    <row r="474" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A474" t="s">
         <v>118</v>
       </c>
@@ -11147,11 +11322,11 @@
         <v>118</v>
       </c>
       <c r="C474" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0006-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0006-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="16" thickBot="1">
+    <row r="475" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A475" t="s">
         <v>373</v>
       </c>
@@ -11159,11 +11334,11 @@
         <v>373</v>
       </c>
       <c r="C475" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0006-zeke-highline-20140822.mp3','title':'ZOOM0006-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="16" thickBot="1">
+    <row r="476" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A476" t="s">
         <v>251</v>
       </c>
@@ -11171,11 +11346,11 @@
         <v>251</v>
       </c>
       <c r="C476" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0007-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0007-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="16" thickBot="1">
+    <row r="477" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A477" t="s">
         <v>218</v>
       </c>
@@ -11183,11 +11358,11 @@
         <v>218</v>
       </c>
       <c r="C477" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0007-cracksabbath-themix-20130920.mp3','title':'ZOOM0007-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="16" thickBot="1">
+    <row r="478" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A478" t="s">
         <v>196</v>
       </c>
@@ -11195,11 +11370,11 @@
         <v>196</v>
       </c>
       <c r="C478" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0007melvinsportlandwonderballroom20150907.mp3','title':'ZOOM0007melvinsportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="16" thickBot="1">
+    <row r="479" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A479" t="s">
         <v>208</v>
       </c>
@@ -11207,11 +11382,11 @@
         <v>208</v>
       </c>
       <c r="C479" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0007-melvins-showboxmarket-20141018.mp3','title':'ZOOM0007-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="16" thickBot="1">
+    <row r="480" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A480" t="s">
         <v>9</v>
       </c>
@@ -11219,11 +11394,11 @@
         <v>9</v>
       </c>
       <c r="C480" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0007roxhillsessions20150827.mp3','title':'ZOOM0007roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="16" thickBot="1">
+    <row r="481" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A481" t="s">
         <v>1429</v>
       </c>
@@ -11231,11 +11406,11 @@
         <v>1429</v>
       </c>
       <c r="C481" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0007roxhillsessions20150930.mp3','title':'ZOOM0007roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="16" thickBot="1">
+    <row r="482" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A482" t="s">
         <v>83</v>
       </c>
@@ -11243,11 +11418,11 @@
         <v>83</v>
       </c>
       <c r="C482" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0007-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0007-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="16" thickBot="1">
+    <row r="483" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A483" t="s">
         <v>1430</v>
       </c>
@@ -11255,11 +11430,11 @@
         <v>1430</v>
       </c>
       <c r="C483" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0007-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0007-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="16" thickBot="1">
+    <row r="484" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A484" t="s">
         <v>119</v>
       </c>
@@ -11267,11 +11442,11 @@
         <v>119</v>
       </c>
       <c r="C484" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0007-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0007-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="16" thickBot="1">
+    <row r="485" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A485" t="s">
         <v>374</v>
       </c>
@@ -11279,11 +11454,11 @@
         <v>374</v>
       </c>
       <c r="C485" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0007-zeke-highline-20140822.mp3','title':'ZOOM0007-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="16" thickBot="1">
+    <row r="486" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A486" t="s">
         <v>252</v>
       </c>
@@ -11291,11 +11466,11 @@
         <v>252</v>
       </c>
       <c r="C486" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0008-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="16" thickBot="1">
+    <row r="487" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A487" t="s">
         <v>298</v>
       </c>
@@ -11303,11 +11478,11 @@
         <v>298</v>
       </c>
       <c r="C487" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0008-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="16" thickBot="1">
+    <row r="488" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A488" t="s">
         <v>219</v>
       </c>
@@ -11315,11 +11490,11 @@
         <v>219</v>
       </c>
       <c r="C488" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008-cracksabbath-themix-20130920.mp3','title':'ZOOM0008-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="16" thickBot="1">
+    <row r="489" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A489" t="s">
         <v>189</v>
       </c>
@@ -11327,11 +11502,11 @@
         <v>189</v>
       </c>
       <c r="C489" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008melvinsportlandwonderballroom20150907.mp3','title':'ZOOM0008melvinsportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="16" thickBot="1">
+    <row r="490" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A490" t="s">
         <v>211</v>
       </c>
@@ -11339,11 +11514,11 @@
         <v>211</v>
       </c>
       <c r="C490" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008-melvins-showboxmarket-20141018.mp3','title':'ZOOM0008-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="16" thickBot="1">
+    <row r="491" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A491" t="s">
         <v>17</v>
       </c>
@@ -11351,11 +11526,11 @@
         <v>17</v>
       </c>
       <c r="C491" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008roxhillsessions20150827.mp3','title':'ZOOM0008roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="16" thickBot="1">
+    <row r="492" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A492" t="s">
         <v>1431</v>
       </c>
@@ -11363,11 +11538,11 @@
         <v>1431</v>
       </c>
       <c r="C492" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008roxhillsessions20150930.mp3','title':'ZOOM0008roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="16" thickBot="1">
+    <row r="493" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A493" t="s">
         <v>84</v>
       </c>
@@ -11375,11 +11550,11 @@
         <v>84</v>
       </c>
       <c r="C493" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0008-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="16" thickBot="1">
+    <row r="494" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A494" t="s">
         <v>1432</v>
       </c>
@@ -11387,11 +11562,11 @@
         <v>1432</v>
       </c>
       <c r="C494" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0008-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="16" thickBot="1">
+    <row r="495" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A495" t="s">
         <v>120</v>
       </c>
@@ -11399,11 +11574,11 @@
         <v>120</v>
       </c>
       <c r="C495" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008-sufferingfuckheads-coppergate-20130205.mp3','title':'ZOOM0008-sufferingfuckheads-coppergate-20130205.mp3'},</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="16" thickBot="1">
+    <row r="496" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A496" t="s">
         <v>121</v>
       </c>
@@ -11411,11 +11586,11 @@
         <v>121</v>
       </c>
       <c r="C496" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0008-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="16" thickBot="1">
+    <row r="497" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A497" t="s">
         <v>122</v>
       </c>
@@ -11423,11 +11598,11 @@
         <v>122</v>
       </c>
       <c r="C497" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008-sufferingfuckheads-coppergate-20130604.mp3','title':'ZOOM0008-sufferingfuckheads-coppergate-20130604.mp3'},</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="16" thickBot="1">
+    <row r="498" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A498" t="s">
         <v>375</v>
       </c>
@@ -11435,11 +11610,11 @@
         <v>375</v>
       </c>
       <c r="C498" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0008-zeke-highline-20140822.mp3','title':'ZOOM0008-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="16" thickBot="1">
+    <row r="499" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A499" t="s">
         <v>253</v>
       </c>
@@ -11447,11 +11622,11 @@
         <v>253</v>
       </c>
       <c r="C499" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0009-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="16" thickBot="1">
+    <row r="500" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A500" t="s">
         <v>299</v>
       </c>
@@ -11459,11 +11634,11 @@
         <v>299</v>
       </c>
       <c r="C500" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0009-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="16" thickBot="1">
+    <row r="501" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A501" t="s">
         <v>254</v>
       </c>
@@ -11471,11 +11646,11 @@
         <v>254</v>
       </c>
       <c r="C501" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009-cracksabbath-themix-20130920.mp3','title':'ZOOM0009-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="16" thickBot="1">
+    <row r="502" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A502" t="s">
         <v>190</v>
       </c>
@@ -11483,11 +11658,11 @@
         <v>190</v>
       </c>
       <c r="C502" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009melvinsportlandwonderballroom20150907.mp3','title':'ZOOM0009melvinsportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="16" thickBot="1">
+    <row r="503" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A503" t="s">
         <v>201</v>
       </c>
@@ -11495,11 +11670,11 @@
         <v>201</v>
       </c>
       <c r="C503" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009-melvins-showboxmarket-20141018.mp3','title':'ZOOM0009-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="16" thickBot="1">
+    <row r="504" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A504" t="s">
         <v>24</v>
       </c>
@@ -11507,11 +11682,11 @@
         <v>24</v>
       </c>
       <c r="C504" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009roxhillsessions20150827.mp3','title':'ZOOM0009roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="16" thickBot="1">
+    <row r="505" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A505" t="s">
         <v>1433</v>
       </c>
@@ -11519,11 +11694,11 @@
         <v>1433</v>
       </c>
       <c r="C505" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009roxhillsessions20150930.mp3','title':'ZOOM0009roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="16" thickBot="1">
+    <row r="506" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A506" t="s">
         <v>85</v>
       </c>
@@ -11531,11 +11706,11 @@
         <v>85</v>
       </c>
       <c r="C506" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0009-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="16" thickBot="1">
+    <row r="507" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A507" t="s">
         <v>1434</v>
       </c>
@@ -11543,11 +11718,11 @@
         <v>1434</v>
       </c>
       <c r="C507" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0009-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="16" thickBot="1">
+    <row r="508" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -11555,11 +11730,11 @@
         <v>123</v>
       </c>
       <c r="C508" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0009-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="16" thickBot="1">
+    <row r="509" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A509" t="s">
         <v>124</v>
       </c>
@@ -11567,11 +11742,11 @@
         <v>124</v>
       </c>
       <c r="C509" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009-sufferingfuckheads-coppergate-20130604.mp3','title':'ZOOM0009-sufferingfuckheads-coppergate-20130604.mp3'},</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="16" thickBot="1">
+    <row r="510" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A510" t="s">
         <v>376</v>
       </c>
@@ -11579,11 +11754,11 @@
         <v>376</v>
       </c>
       <c r="C510" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0009-zeke-highline-20140822.mp3','title':'ZOOM0009-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="16" thickBot="1">
+    <row r="511" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A511" t="s">
         <v>255</v>
       </c>
@@ -11591,11 +11766,11 @@
         <v>255</v>
       </c>
       <c r="C511" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>{'file':'ZOOM0010-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0010-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="16" thickBot="1">
+    <row r="512" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A512" t="s">
         <v>300</v>
       </c>
@@ -11603,11 +11778,11 @@
         <v>300</v>
       </c>
       <c r="C512" s="7" t="str">
-        <f t="shared" ref="C512:C575" si="4">"{'file':'"&amp;A512&amp;"','title':'"&amp;B512&amp;"'},"</f>
+        <f t="shared" ref="C512:C575" si="8">"{'file':'"&amp;A512&amp;"','title':'"&amp;B512&amp;"'},"</f>
         <v>{'file':'ZOOM0010-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0010-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="16" thickBot="1">
+    <row r="513" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A513" t="s">
         <v>256</v>
       </c>
@@ -11615,11 +11790,11 @@
         <v>256</v>
       </c>
       <c r="C513" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0010-cracksabbath-themix-20130920.mp3','title':'ZOOM0010-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="16" thickBot="1">
+    <row r="514" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A514" t="s">
         <v>191</v>
       </c>
@@ -11627,11 +11802,11 @@
         <v>191</v>
       </c>
       <c r="C514" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0010melvinsportlandwonderballroom20150907.mp3','title':'ZOOM0010melvinsportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="16" thickBot="1">
+    <row r="515" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A515" t="s">
         <v>205</v>
       </c>
@@ -11639,11 +11814,11 @@
         <v>205</v>
       </c>
       <c r="C515" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0010-melvins-showboxmarket-20141018.mp3','title':'ZOOM0010-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="16" thickBot="1">
+    <row r="516" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A516" t="s">
         <v>31</v>
       </c>
@@ -11651,11 +11826,11 @@
         <v>31</v>
       </c>
       <c r="C516" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0010roxhillsessions20150827.mp3','title':'ZOOM0010roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="16" thickBot="1">
+    <row r="517" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A517" t="s">
         <v>1435</v>
       </c>
@@ -11663,11 +11838,11 @@
         <v>1435</v>
       </c>
       <c r="C517" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0010roxhillsessions20150930.mp3','title':'ZOOM0010roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="16" thickBot="1">
+    <row r="518" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A518" t="s">
         <v>86</v>
       </c>
@@ -11675,11 +11850,11 @@
         <v>86</v>
       </c>
       <c r="C518" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0010-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0010-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="16" thickBot="1">
+    <row r="519" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A519" t="s">
         <v>125</v>
       </c>
@@ -11687,11 +11862,11 @@
         <v>125</v>
       </c>
       <c r="C519" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0010-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0010-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="16" thickBot="1">
+    <row r="520" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A520" t="s">
         <v>126</v>
       </c>
@@ -11699,11 +11874,11 @@
         <v>126</v>
       </c>
       <c r="C520" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0010-sufferingfuckheads-coppergate-20130604.mp3','title':'ZOOM0010-sufferingfuckheads-coppergate-20130604.mp3'},</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="16" thickBot="1">
+    <row r="521" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A521" t="s">
         <v>377</v>
       </c>
@@ -11711,11 +11886,11 @@
         <v>377</v>
       </c>
       <c r="C521" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0010-zeke-highline-20140822.mp3','title':'ZOOM0010-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="16" thickBot="1">
+    <row r="522" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A522" t="s">
         <v>257</v>
       </c>
@@ -11723,11 +11898,11 @@
         <v>257</v>
       </c>
       <c r="C522" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0011-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="16" thickBot="1">
+    <row r="523" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A523" t="s">
         <v>301</v>
       </c>
@@ -11735,11 +11910,11 @@
         <v>301</v>
       </c>
       <c r="C523" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0011-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="16" thickBot="1">
+    <row r="524" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A524" t="s">
         <v>258</v>
       </c>
@@ -11747,11 +11922,11 @@
         <v>258</v>
       </c>
       <c r="C524" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011-cracksabbath-themix-20130920.mp3','title':'ZOOM0011-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="16" thickBot="1">
+    <row r="525" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A525" t="s">
         <v>192</v>
       </c>
@@ -11759,11 +11934,11 @@
         <v>192</v>
       </c>
       <c r="C525" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011melvinsportlandwonderballroom20150907.mp3','title':'ZOOM0011melvinsportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="16" thickBot="1">
+    <row r="526" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A526" t="s">
         <v>209</v>
       </c>
@@ -11771,11 +11946,11 @@
         <v>209</v>
       </c>
       <c r="C526" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011-melvins-showboxmarket-20141018.mp3','title':'ZOOM0011-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="16" thickBot="1">
+    <row r="527" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A527" t="s">
         <v>2</v>
       </c>
@@ -11783,11 +11958,11 @@
         <v>2</v>
       </c>
       <c r="C527" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011roxhillsessions20150827.mp3','title':'ZOOM0011roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="16" thickBot="1">
+    <row r="528" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A528" t="s">
         <v>1436</v>
       </c>
@@ -11795,11 +11970,11 @@
         <v>1436</v>
       </c>
       <c r="C528" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011roxhillsessions20150930.mp3','title':'ZOOM0011roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="16" thickBot="1">
+    <row r="529" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A529" t="s">
         <v>87</v>
       </c>
@@ -11807,11 +11982,11 @@
         <v>87</v>
       </c>
       <c r="C529" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0011-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="16" thickBot="1">
+    <row r="530" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A530" t="s">
         <v>127</v>
       </c>
@@ -11819,11 +11994,11 @@
         <v>127</v>
       </c>
       <c r="C530" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011-sufferingfuckheads-coppergate-20130205.mp3','title':'ZOOM0011-sufferingfuckheads-coppergate-20130205.mp3'},</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="16" thickBot="1">
+    <row r="531" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A531" t="s">
         <v>128</v>
       </c>
@@ -11831,11 +12006,11 @@
         <v>128</v>
       </c>
       <c r="C531" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0011-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="16" thickBot="1">
+    <row r="532" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A532" t="s">
         <v>129</v>
       </c>
@@ -11843,11 +12018,11 @@
         <v>129</v>
       </c>
       <c r="C532" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011-sufferingfuckheads-coppergate-20130604.mp3','title':'ZOOM0011-sufferingfuckheads-coppergate-20130604.mp3'},</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="16" thickBot="1">
+    <row r="533" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A533" t="s">
         <v>378</v>
       </c>
@@ -11855,11 +12030,11 @@
         <v>378</v>
       </c>
       <c r="C533" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0011-zeke-highline-20140822.mp3','title':'ZOOM0011-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="16" thickBot="1">
+    <row r="534" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A534" t="s">
         <v>259</v>
       </c>
@@ -11867,11 +12042,11 @@
         <v>259</v>
       </c>
       <c r="C534" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0012-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="16" thickBot="1">
+    <row r="535" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A535" t="s">
         <v>302</v>
       </c>
@@ -11879,11 +12054,11 @@
         <v>302</v>
       </c>
       <c r="C535" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0012-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="16" thickBot="1">
+    <row r="536" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A536" t="s">
         <v>260</v>
       </c>
@@ -11891,11 +12066,11 @@
         <v>260</v>
       </c>
       <c r="C536" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012-cracksabbath-themix-20130920.mp3','title':'ZOOM0012-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="16" thickBot="1">
+    <row r="537" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A537" t="s">
         <v>193</v>
       </c>
@@ -11903,11 +12078,11 @@
         <v>193</v>
       </c>
       <c r="C537" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012melvinsportlandwonderballroom20150907.mp3','title':'ZOOM0012melvinsportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="16" thickBot="1">
+    <row r="538" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A538" t="s">
         <v>212</v>
       </c>
@@ -11915,11 +12090,11 @@
         <v>212</v>
       </c>
       <c r="C538" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012-melvins-showboxmarket-20141018.mp3','title':'ZOOM0012-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="16" thickBot="1">
+    <row r="539" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A539" t="s">
         <v>10</v>
       </c>
@@ -11927,11 +12102,11 @@
         <v>10</v>
       </c>
       <c r="C539" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012roxhillsessions20150827.mp3','title':'ZOOM0012roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="16" thickBot="1">
+    <row r="540" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A540" t="s">
         <v>1437</v>
       </c>
@@ -11939,11 +12114,11 @@
         <v>1437</v>
       </c>
       <c r="C540" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012roxhillsessions20150930.mp3','title':'ZOOM0012roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="16" thickBot="1">
+    <row r="541" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A541" t="s">
         <v>88</v>
       </c>
@@ -11951,11 +12126,11 @@
         <v>88</v>
       </c>
       <c r="C541" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0012-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="16" thickBot="1">
+    <row r="542" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A542" t="s">
         <v>1438</v>
       </c>
@@ -11963,11 +12138,11 @@
         <v>1438</v>
       </c>
       <c r="C542" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0012-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="16" thickBot="1">
+    <row r="543" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A543" t="s">
         <v>130</v>
       </c>
@@ -11975,11 +12150,11 @@
         <v>130</v>
       </c>
       <c r="C543" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012-sufferingfuckheads-coppergate-20130212.mp3','title':'ZOOM0012-sufferingfuckheads-coppergate-20130212.mp3'},</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="16" thickBot="1">
+    <row r="544" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A544" t="s">
         <v>131</v>
       </c>
@@ -11987,11 +12162,11 @@
         <v>131</v>
       </c>
       <c r="C544" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0012-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="16" thickBot="1">
+    <row r="545" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A545" t="s">
         <v>132</v>
       </c>
@@ -11999,11 +12174,11 @@
         <v>132</v>
       </c>
       <c r="C545" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012-sufferingfuckheads-coppergate-20130604.mp3','title':'ZOOM0012-sufferingfuckheads-coppergate-20130604.mp3'},</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="16" thickBot="1">
+    <row r="546" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A546" t="s">
         <v>379</v>
       </c>
@@ -12011,11 +12186,11 @@
         <v>379</v>
       </c>
       <c r="C546" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0012-zeke-highline-20140822.mp3','title':'ZOOM0012-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="16" thickBot="1">
+    <row r="547" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A547" t="s">
         <v>261</v>
       </c>
@@ -12023,11 +12198,11 @@
         <v>261</v>
       </c>
       <c r="C547" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0013-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="16" thickBot="1">
+    <row r="548" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A548" t="s">
         <v>303</v>
       </c>
@@ -12035,11 +12210,11 @@
         <v>303</v>
       </c>
       <c r="C548" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0013-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="16" thickBot="1">
+    <row r="549" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A549" t="s">
         <v>262</v>
       </c>
@@ -12047,11 +12222,11 @@
         <v>262</v>
       </c>
       <c r="C549" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013-cracksabbath-themix-20130920.mp3','title':'ZOOM0013-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="16" thickBot="1">
+    <row r="550" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A550" t="s">
         <v>195</v>
       </c>
@@ -12059,11 +12234,11 @@
         <v>195</v>
       </c>
       <c r="C550" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013melvinsportlandwonderballroom20150907.mp3','title':'ZOOM0013melvinsportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="16" thickBot="1">
+    <row r="551" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A551" t="s">
         <v>202</v>
       </c>
@@ -12071,11 +12246,11 @@
         <v>202</v>
       </c>
       <c r="C551" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013-melvins-showboxmarket-20141018.mp3','title':'ZOOM0013-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="16" thickBot="1">
+    <row r="552" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A552" t="s">
         <v>18</v>
       </c>
@@ -12083,11 +12258,11 @@
         <v>18</v>
       </c>
       <c r="C552" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013roxhillsessions20150827.mp3','title':'ZOOM0013roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="16" thickBot="1">
+    <row r="553" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A553" t="s">
         <v>1439</v>
       </c>
@@ -12095,11 +12270,11 @@
         <v>1439</v>
       </c>
       <c r="C553" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013roxhillsessions20150930.mp3','title':'ZOOM0013roxhillsessions20150930.mp3'},</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="16" thickBot="1">
+    <row r="554" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A554" t="s">
         <v>89</v>
       </c>
@@ -12107,11 +12282,11 @@
         <v>89</v>
       </c>
       <c r="C554" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0013-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="16" thickBot="1">
+    <row r="555" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A555" t="s">
         <v>133</v>
       </c>
@@ -12119,11 +12294,11 @@
         <v>133</v>
       </c>
       <c r="C555" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013-sufferingfuckheads-coppergate-20130205.mp3','title':'ZOOM0013-sufferingfuckheads-coppergate-20130205.mp3'},</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="16" thickBot="1">
+    <row r="556" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A556" t="s">
         <v>134</v>
       </c>
@@ -12131,11 +12306,11 @@
         <v>134</v>
       </c>
       <c r="C556" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013-sufferingfuckheads-coppergate-20130326.mp3','title':'ZOOM0013-sufferingfuckheads-coppergate-20130326.mp3'},</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="16" thickBot="1">
+    <row r="557" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A557" t="s">
         <v>135</v>
       </c>
@@ -12143,11 +12318,11 @@
         <v>135</v>
       </c>
       <c r="C557" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013-sufferingfuckheads-coppergate-20130604.mp3','title':'ZOOM0013-sufferingfuckheads-coppergate-20130604.mp3'},</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="16" thickBot="1">
+    <row r="558" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A558" t="s">
         <v>380</v>
       </c>
@@ -12155,11 +12330,11 @@
         <v>380</v>
       </c>
       <c r="C558" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0013-zeke-highline-20140822.mp3','title':'ZOOM0013-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="16" thickBot="1">
+    <row r="559" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A559" t="s">
         <v>263</v>
       </c>
@@ -12167,11 +12342,11 @@
         <v>263</v>
       </c>
       <c r="C559" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0014-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="16" thickBot="1">
+    <row r="560" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A560" t="s">
         <v>304</v>
       </c>
@@ -12179,11 +12354,11 @@
         <v>304</v>
       </c>
       <c r="C560" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014-CrackSabbath-RoyalRoom-20130622.mp3','title':'ZOOM0014-CrackSabbath-RoyalRoom-20130622.mp3'},</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="16" thickBot="1">
+    <row r="561" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A561" t="s">
         <v>264</v>
       </c>
@@ -12191,11 +12366,11 @@
         <v>264</v>
       </c>
       <c r="C561" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014-cracksabbath-themix-20130920.mp3','title':'ZOOM0014-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="16" thickBot="1">
+    <row r="562" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A562" t="s">
         <v>197</v>
       </c>
@@ -12203,11 +12378,11 @@
         <v>197</v>
       </c>
       <c r="C562" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014melvinsportlandwonderballroom20150907.mp3','title':'ZOOM0014melvinsportlandwonderballroom20150907.mp3'},</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="16" thickBot="1">
+    <row r="563" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A563" t="s">
         <v>206</v>
       </c>
@@ -12215,11 +12390,11 @@
         <v>206</v>
       </c>
       <c r="C563" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014-melvins-showboxmarket-20141018.mp3','title':'ZOOM0014-melvins-showboxmarket-20141018.mp3'},</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="16" thickBot="1">
+    <row r="564" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A564" t="s">
         <v>25</v>
       </c>
@@ -12227,11 +12402,11 @@
         <v>25</v>
       </c>
       <c r="C564" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014roxhillsessions20150827.mp3','title':'ZOOM0014roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="16" thickBot="1">
+    <row r="565" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A565" t="s">
         <v>90</v>
       </c>
@@ -12239,11 +12414,11 @@
         <v>90</v>
       </c>
       <c r="C565" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0014-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="16" thickBot="1">
+    <row r="566" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A566" t="s">
         <v>1440</v>
       </c>
@@ -12251,11 +12426,11 @@
         <v>1440</v>
       </c>
       <c r="C566" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0014-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="16" thickBot="1">
+    <row r="567" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A567" t="s">
         <v>136</v>
       </c>
@@ -12263,11 +12438,11 @@
         <v>136</v>
       </c>
       <c r="C567" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014-sufferingfuckheads-coppergate-20130212.mp3','title':'ZOOM0014-sufferingfuckheads-coppergate-20130212.mp3'},</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="16" thickBot="1">
+    <row r="568" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A568" t="s">
         <v>137</v>
       </c>
@@ -12275,11 +12450,11 @@
         <v>137</v>
       </c>
       <c r="C568" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014-sufferingfuckheads-coppergate-20130423.mp3','title':'ZOOM0014-sufferingfuckheads-coppergate-20130423.mp3'},</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="16" thickBot="1">
+    <row r="569" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A569" t="s">
         <v>138</v>
       </c>
@@ -12287,11 +12462,11 @@
         <v>138</v>
       </c>
       <c r="C569" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014-sufferingfuckheads-coppergate-20130604.mp3','title':'ZOOM0014-sufferingfuckheads-coppergate-20130604.mp3'},</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="16" thickBot="1">
+    <row r="570" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A570" t="s">
         <v>381</v>
       </c>
@@ -12299,11 +12474,11 @@
         <v>381</v>
       </c>
       <c r="C570" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0014-zeke-highline-20140822.mp3','title':'ZOOM0014-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="16" thickBot="1">
+    <row r="571" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A571" t="s">
         <v>265</v>
       </c>
@@ -12311,11 +12486,11 @@
         <v>265</v>
       </c>
       <c r="C571" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0015-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0015-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="16" thickBot="1">
+    <row r="572" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A572" t="s">
         <v>266</v>
       </c>
@@ -12323,11 +12498,11 @@
         <v>266</v>
       </c>
       <c r="C572" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0015-cracksabbath-themix-20130920.mp3','title':'ZOOM0015-cracksabbath-themix-20130920.mp3'},</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="16" thickBot="1">
+    <row r="573" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A573" t="s">
         <v>32</v>
       </c>
@@ -12335,11 +12510,11 @@
         <v>32</v>
       </c>
       <c r="C573" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0015roxhillsessions20150827.mp3','title':'ZOOM0015roxhillsessions20150827.mp3'},</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="16" thickBot="1">
+    <row r="574" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A574" t="s">
         <v>91</v>
       </c>
@@ -12347,11 +12522,11 @@
         <v>91</v>
       </c>
       <c r="C574" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0015-SkerikTrio-OwlnThistle-20130213.mp3','title':'ZOOM0015-SkerikTrio-OwlnThistle-20130213.mp3'},</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="16" thickBot="1">
+    <row r="575" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A575" t="s">
         <v>1441</v>
       </c>
@@ -12359,11 +12534,11 @@
         <v>1441</v>
       </c>
       <c r="C575" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>{'file':'ZOOM0015-SkerikTrio-OwlnThistle-20130227.mp3','title':'ZOOM0015-SkerikTrio-OwlnThistle-20130227.mp3'},</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="16" thickBot="1">
+    <row r="576" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A576" t="s">
         <v>139</v>
       </c>
@@ -12371,11 +12546,11 @@
         <v>139</v>
       </c>
       <c r="C576" s="7" t="str">
-        <f t="shared" ref="C576:C639" si="5">"{'file':'"&amp;A576&amp;"','title':'"&amp;B576&amp;"'},"</f>
+        <f t="shared" ref="C576:C639" si="9">"{'file':'"&amp;A576&amp;"','title':'"&amp;B576&amp;"'},"</f>
         <v>{'file':'ZOOM0015-sufferingfuckheads-coppergate-20130205.mp3','title':'ZOOM0015-sufferingfuckheads-coppergate-20130205.mp3'},</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="16" thickBot="1">
+    <row r="577" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A577" t="s">
         <v>140</v>
       </c>
@@ -12383,11 +12558,11 @@
         <v>140</v>
       </c>
       <c r="C577" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>{'file':'ZOOM0015-sufferingfuckheads-coppergate-20130212.mp3','title':'ZOOM0015-sufferingfuckheads-coppergate-20130212.mp3'},</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="16" thickBot="1">
+    <row r="578" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A578" t="s">
         <v>141</v>
       </c>
@@ -12395,11 +12570,11 @@
         <v>141</v>
       </c>
       <c r="C578" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>{'file':'ZOOM0015-sufferingfuckheads-coppergate-20130604.mp3','title':'ZOOM0015-sufferingfuckheads-coppergate-20130604.mp3'},</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="16" thickBot="1">
+    <row r="579" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A579" t="s">
         <v>382</v>
       </c>
@@ -12407,11 +12582,11 @@
         <v>382</v>
       </c>
       <c r="C579" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>{'file':'ZOOM0015-zeke-highline-20140822.mp3','title':'ZOOM0015-zeke-highline-20140822.mp3'},</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="16" thickBot="1">
+    <row r="580" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A580" t="s">
         <v>267</v>
       </c>
@@ -12419,11 +12594,11 @@
         <v>267</v>
       </c>
       <c r="C580" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>{'file':'ZOOM0016-cracksabbath-owlandthistle-20140917.mp3','title':'ZOOM0016-cracksabbath-owlandthistle-20140917.mp3'},</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="16" thickBot="1">
+    <row r="581" spans="1:3" ht="16" hidden="1" thickBot="1">
       <c r="A581" t="s">
         <v>268</v>
       </c>
@@ -12431,11 +12606,11 @@
         <v>268</v>
       </c>